--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="40">
   <si>
     <t>当日_已申请</t>
   </si>
@@ -37,6 +37,15 @@
     <t>累计_已领取</t>
   </si>
   <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
     <t>日环比</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
     <t>累计_分社</t>
   </si>
   <si>
-    <t>2020-03-19T00:00:00</t>
-  </si>
-  <si>
     <t>总部</t>
   </si>
   <si>
@@ -128,9 +134,6 @@
   </si>
   <si>
     <t>2020-03-20T12:00:12</t>
-  </si>
-  <si>
-    <t>2020-03-19</t>
   </si>
   <si>
     <t>2020-03-20 14:00:00</t>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,17 +521,17 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>964</v>
+        <v>7024</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>1159</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>761</v>
       </c>
       <c r="E2">
         <v>11324</v>
@@ -542,24 +545,70 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
+        <v>3199</v>
+      </c>
+      <c r="C3">
+        <v>196</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>11324</v>
+      </c>
+      <c r="F3">
+        <v>2789</v>
+      </c>
+      <c r="G3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>964</v>
+      </c>
+      <c r="C4">
+        <v>178</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>11324</v>
+      </c>
+      <c r="F4">
+        <v>2789</v>
+      </c>
+      <c r="G4">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>-0.6986558299468584</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>-0.09183673469387756</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>-0.1463414634146341</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -570,69 +619,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2627</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>750</v>
+      </c>
+      <c r="E2">
+        <v>27861</v>
+      </c>
+      <c r="F2">
+        <v>17780</v>
+      </c>
+      <c r="G2">
+        <v>9896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3">
+        <v>7025</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2273</v>
+      </c>
+      <c r="E3">
+        <v>27861</v>
+      </c>
+      <c r="F3">
+        <v>17780</v>
+      </c>
+      <c r="G3">
+        <v>9896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>14589</v>
+      </c>
+      <c r="C4">
+        <v>10145</v>
+      </c>
+      <c r="D4">
+        <v>4416</v>
+      </c>
+      <c r="E4">
+        <v>27861</v>
+      </c>
+      <c r="F4">
+        <v>17780</v>
+      </c>
+      <c r="G4">
+        <v>9896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>14589</v>
-      </c>
-      <c r="B2">
-        <v>10145</v>
-      </c>
-      <c r="C2">
-        <v>4416</v>
-      </c>
-      <c r="D2">
-        <v>27861</v>
-      </c>
-      <c r="E2">
-        <v>17780</v>
-      </c>
-      <c r="F2">
-        <v>9896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="B5">
         <v>1.076725978647687</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
         <v>0.9428068631764188</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -643,636 +744,585 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>189</v>
+      </c>
+      <c r="D2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>1262</v>
+      </c>
+      <c r="I2">
+        <v>249</v>
+      </c>
+      <c r="J2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>147</v>
+      </c>
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>1883</v>
+      </c>
+      <c r="I3">
+        <v>263</v>
+      </c>
+      <c r="J3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>112</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>1268</v>
+      </c>
+      <c r="I4">
+        <v>428</v>
+      </c>
+      <c r="J4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>966</v>
+      </c>
+      <c r="I5">
+        <v>461</v>
+      </c>
+      <c r="J5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>603</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>189</v>
-      </c>
-      <c r="E2">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>1262</v>
-      </c>
-      <c r="J2">
-        <v>249</v>
-      </c>
-      <c r="K2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>147</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>1883</v>
-      </c>
-      <c r="J3">
-        <v>263</v>
-      </c>
-      <c r="K3">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>112</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>1268</v>
-      </c>
-      <c r="J4">
-        <v>428</v>
-      </c>
-      <c r="K4">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5">
-        <v>966</v>
-      </c>
-      <c r="J5">
-        <v>461</v>
-      </c>
-      <c r="K5">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>57</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>603</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>1100</v>
+      </c>
+      <c r="I7">
+        <v>147</v>
+      </c>
+      <c r="J7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>511</v>
+      </c>
+      <c r="I8">
+        <v>102</v>
+      </c>
+      <c r="J8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>509</v>
+      </c>
+      <c r="I9">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>413</v>
+      </c>
+      <c r="I10">
+        <v>93</v>
+      </c>
+      <c r="J10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>326</v>
+      </c>
+      <c r="I11">
+        <v>71</v>
+      </c>
+      <c r="J11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>425</v>
+      </c>
+      <c r="I12">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>405</v>
+      </c>
+      <c r="I13">
+        <v>126</v>
+      </c>
+      <c r="J13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>286</v>
+      </c>
+      <c r="I14">
+        <v>168</v>
+      </c>
+      <c r="J14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>395</v>
+      </c>
+      <c r="I15">
+        <v>199</v>
+      </c>
+      <c r="J15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>54</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>339</v>
+      </c>
+      <c r="I16">
+        <v>145</v>
+      </c>
+      <c r="J16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>1100</v>
-      </c>
-      <c r="J7">
-        <v>147</v>
-      </c>
-      <c r="K7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>511</v>
-      </c>
-      <c r="J8">
-        <v>102</v>
-      </c>
-      <c r="K8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9">
-        <v>509</v>
-      </c>
-      <c r="J9">
-        <v>29</v>
-      </c>
-      <c r="K9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>38</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10">
-        <v>413</v>
-      </c>
-      <c r="J10">
-        <v>93</v>
-      </c>
-      <c r="K10">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>326</v>
-      </c>
-      <c r="J11">
-        <v>71</v>
-      </c>
-      <c r="K11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>33</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12">
-        <v>425</v>
-      </c>
-      <c r="J12">
-        <v>68</v>
-      </c>
-      <c r="K12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13">
-        <v>405</v>
-      </c>
-      <c r="J13">
-        <v>126</v>
-      </c>
-      <c r="K13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14">
-        <v>286</v>
-      </c>
-      <c r="J14">
-        <v>168</v>
-      </c>
-      <c r="K14">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15">
-        <v>395</v>
-      </c>
-      <c r="J15">
-        <v>199</v>
-      </c>
-      <c r="K15">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16">
-        <v>339</v>
-      </c>
-      <c r="J16">
-        <v>145</v>
-      </c>
-      <c r="K16">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="H17" t="s">
-        <v>34</v>
+      <c r="H17">
+        <v>281</v>
       </c>
       <c r="I17">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="J17">
-        <v>85</v>
-      </c>
-      <c r="K17">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
       </c>
       <c r="D18">
         <v>19</v>
       </c>
       <c r="E18">
-        <v>19</v>
-      </c>
-      <c r="F18">
         <v>3</v>
       </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="H18">
+        <v>352</v>
       </c>
       <c r="I18">
-        <v>352</v>
+        <v>154</v>
       </c>
       <c r="J18">
-        <v>154</v>
-      </c>
-      <c r="K18">
         <v>99</v>
       </c>
     </row>
@@ -1291,39 +1341,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>9357</v>
@@ -1335,7 +1385,7 @@
         <v>2656</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>14621</v>
@@ -1349,10 +1399,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>991</v>
@@ -1364,7 +1414,7 @@
         <v>367</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>3546</v>
@@ -1378,10 +1428,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>851</v>
@@ -1393,7 +1443,7 @@
         <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>1641</v>
@@ -1407,10 +1457,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>767</v>
@@ -1422,7 +1472,7 @@
         <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>989</v>
@@ -1436,10 +1486,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>714</v>
@@ -1451,7 +1501,7 @@
         <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>2164</v>
@@ -1465,10 +1515,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>486</v>
@@ -1480,7 +1530,7 @@
         <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>720</v>
@@ -1494,10 +1544,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>282</v>
@@ -1509,7 +1559,7 @@
         <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>752</v>
@@ -1523,10 +1573,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>206</v>
@@ -1538,7 +1588,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>701</v>
@@ -1552,10 +1602,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>185</v>
@@ -1567,7 +1617,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>590</v>
@@ -1581,10 +1631,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>157</v>
@@ -1596,7 +1646,7 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>416</v>
@@ -1610,10 +1660,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>144</v>
@@ -1625,7 +1675,7 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>267</v>
@@ -1639,10 +1689,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>126</v>
@@ -1654,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>489</v>
@@ -1668,10 +1718,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>121</v>
@@ -1683,7 +1733,7 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>349</v>
@@ -1697,10 +1747,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>119</v>
@@ -1712,7 +1762,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>228</v>
@@ -1726,10 +1776,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
       </c>
       <c r="C16">
         <v>35</v>
@@ -1741,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>236</v>
@@ -1755,10 +1805,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>23</v>
@@ -1770,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>90</v>
@@ -1784,10 +1834,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1799,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>1</v>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
   <si>
     <t>当日_已申请</t>
   </si>
@@ -28,6 +28,12 @@
     <t>当日_已领取</t>
   </si>
   <si>
+    <t>当日_生成海报转化率</t>
+  </si>
+  <si>
+    <t>当日_领取转化率</t>
+  </si>
+  <si>
     <t>累计_已申请</t>
   </si>
   <si>
@@ -37,13 +43,19 @@
     <t>累计_已领取</t>
   </si>
   <si>
-    <t>2020-03-17</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2020-03-19</t>
+    <t>累计_生成海报转化率</t>
+  </si>
+  <si>
+    <t>累计_领取转化率</t>
+  </si>
+  <si>
+    <t>03-17</t>
+  </si>
+  <si>
+    <t>03-18</t>
+  </si>
+  <si>
+    <t>03-19</t>
   </si>
   <si>
     <t>日环比</t>
@@ -58,6 +70,12 @@
     <t>当日_领取看课人数</t>
   </si>
   <si>
+    <t>当日_新注册占比</t>
+  </si>
+  <si>
+    <t>当日_上课转化率</t>
+  </si>
+  <si>
     <t>累计_成功领取人数</t>
   </si>
   <si>
@@ -67,6 +85,12 @@
     <t>累计_领取看课人数</t>
   </si>
   <si>
+    <t>累计_新注册占比</t>
+  </si>
+  <si>
+    <t>累计_上课转化率</t>
+  </si>
+  <si>
     <t>inf</t>
   </si>
   <si>
@@ -133,10 +157,10 @@
     <t>青岛</t>
   </si>
   <si>
-    <t>2020-03-20T12:00:12</t>
-  </si>
-  <si>
-    <t>2020-03-20 14:00:00</t>
+    <t>2020-03-20T17:28:00</t>
+  </si>
+  <si>
+    <t>2020-03-20 17:00:00</t>
   </si>
 </sst>
 </file>
@@ -494,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,10 +543,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>7024</v>
@@ -534,18 +570,30 @@
         <v>761</v>
       </c>
       <c r="E2">
-        <v>11324</v>
+        <v>0.165</v>
       </c>
       <c r="F2">
-        <v>2789</v>
+        <v>0.6566</v>
       </c>
       <c r="G2">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>11430</v>
+      </c>
+      <c r="H2">
+        <v>3193</v>
+      </c>
+      <c r="I2">
+        <v>2307</v>
+      </c>
+      <c r="J2">
+        <v>0.2794</v>
+      </c>
+      <c r="K2">
+        <v>0.7225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3199</v>
@@ -557,18 +605,30 @@
         <v>123</v>
       </c>
       <c r="E3">
-        <v>11324</v>
+        <v>0.0613</v>
       </c>
       <c r="F3">
-        <v>2789</v>
+        <v>0.6276</v>
       </c>
       <c r="G3">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11430</v>
+      </c>
+      <c r="H3">
+        <v>3193</v>
+      </c>
+      <c r="I3">
+        <v>2307</v>
+      </c>
+      <c r="J3">
+        <v>0.2794</v>
+      </c>
+      <c r="K3">
+        <v>0.7225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>964</v>
@@ -580,18 +640,30 @@
         <v>105</v>
       </c>
       <c r="E4">
-        <v>11324</v>
+        <v>0.1846</v>
       </c>
       <c r="F4">
-        <v>2789</v>
+        <v>0.5899</v>
       </c>
       <c r="G4">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>11430</v>
+      </c>
+      <c r="H4">
+        <v>3193</v>
+      </c>
+      <c r="I4">
+        <v>2307</v>
+      </c>
+      <c r="J4">
+        <v>0.2794</v>
+      </c>
+      <c r="K4">
+        <v>0.7225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>-0.6986558299468584</v>
@@ -603,12 +675,24 @@
         <v>-0.1463414634146341</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.01141924959217</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0.06007010834926715</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
@@ -619,35 +703,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>2627</v>
@@ -659,18 +755,30 @@
         <v>750</v>
       </c>
       <c r="E2">
-        <v>27861</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>17780</v>
+        <v>0.2855</v>
       </c>
       <c r="G2">
-        <v>9896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>29308</v>
+      </c>
+      <c r="H2">
+        <v>18823</v>
+      </c>
+      <c r="I2">
+        <v>10496</v>
+      </c>
+      <c r="J2">
+        <v>0.6422</v>
+      </c>
+      <c r="K2">
+        <v>0.3581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>7025</v>
@@ -682,18 +790,30 @@
         <v>2273</v>
       </c>
       <c r="E3">
-        <v>27861</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17780</v>
+        <v>0.3236</v>
       </c>
       <c r="G3">
-        <v>9896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>29308</v>
+      </c>
+      <c r="H3">
+        <v>18823</v>
+      </c>
+      <c r="I3">
+        <v>10496</v>
+      </c>
+      <c r="J3">
+        <v>0.6422</v>
+      </c>
+      <c r="K3">
+        <v>0.3581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>14589</v>
@@ -705,35 +825,59 @@
         <v>4416</v>
       </c>
       <c r="E4">
-        <v>27861</v>
+        <v>0.6954</v>
       </c>
       <c r="F4">
-        <v>17780</v>
+        <v>0.3027</v>
       </c>
       <c r="G4">
-        <v>9896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>29308</v>
+      </c>
+      <c r="H4">
+        <v>18823</v>
+      </c>
+      <c r="I4">
+        <v>10496</v>
+      </c>
+      <c r="J4">
+        <v>0.6422</v>
+      </c>
+      <c r="K4">
+        <v>0.3581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1.076725978647687</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0.9428068631764188</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0.06458590852904812</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
@@ -744,18 +888,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -767,27 +911,39 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>189</v>
@@ -798,28 +954,40 @@
       <c r="E2">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>1262</v>
-      </c>
-      <c r="I2">
-        <v>249</v>
+      <c r="F2">
+        <v>0.1958</v>
+      </c>
+      <c r="G2">
+        <v>0.6216</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
       <c r="J2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1236</v>
+      </c>
+      <c r="K2">
+        <v>320</v>
+      </c>
+      <c r="L2">
+        <v>238</v>
+      </c>
+      <c r="M2">
+        <v>0.2589</v>
+      </c>
+      <c r="N2">
+        <v>0.7438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>147</v>
@@ -830,28 +998,40 @@
       <c r="E3">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>1883</v>
-      </c>
-      <c r="I3">
-        <v>263</v>
+      <c r="F3">
+        <v>0.09520000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.8571</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1917</v>
+      </c>
+      <c r="K3">
+        <v>287</v>
+      </c>
+      <c r="L3">
+        <v>218</v>
+      </c>
+      <c r="M3">
+        <v>0.1497</v>
+      </c>
+      <c r="N3">
+        <v>0.7596000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>112</v>
@@ -862,28 +1042,40 @@
       <c r="E4">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>1268</v>
-      </c>
-      <c r="I4">
-        <v>428</v>
+      <c r="F4">
+        <v>0.1875</v>
+      </c>
+      <c r="G4">
+        <v>0.5238</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
       </c>
       <c r="J4">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>1290</v>
+      </c>
+      <c r="K4">
+        <v>462</v>
+      </c>
+      <c r="L4">
+        <v>242</v>
+      </c>
+      <c r="M4">
+        <v>0.3581</v>
+      </c>
+      <c r="N4">
+        <v>0.5238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>65</v>
@@ -894,28 +1086,40 @@
       <c r="E5">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>966</v>
-      </c>
-      <c r="I5">
-        <v>461</v>
+      <c r="F5">
+        <v>0.2308</v>
+      </c>
+      <c r="G5">
+        <v>0.8667</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
       <c r="J5">
+        <v>980</v>
+      </c>
+      <c r="K5">
+        <v>476</v>
+      </c>
+      <c r="L5">
         <v>412</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5">
+        <v>0.4857</v>
+      </c>
+      <c r="N5">
+        <v>0.8655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>57</v>
@@ -926,28 +1130,37 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>603</v>
-      </c>
-      <c r="I6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>609</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6">
+        <v>0.0016</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>54</v>
@@ -958,28 +1171,40 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <v>1100</v>
-      </c>
-      <c r="I7">
-        <v>147</v>
+      <c r="F7">
+        <v>0.1111</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
       </c>
       <c r="J7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>1098</v>
+      </c>
+      <c r="K7">
+        <v>158</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7">
+        <v>0.1439</v>
+      </c>
+      <c r="N7">
+        <v>0.6266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>48</v>
@@ -990,28 +1215,40 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8">
-        <v>511</v>
-      </c>
-      <c r="I8">
-        <v>102</v>
+      <c r="F8">
+        <v>0.2083</v>
+      </c>
+      <c r="G8">
+        <v>0.6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>522</v>
+      </c>
+      <c r="K8">
+        <v>130</v>
+      </c>
+      <c r="L8">
+        <v>107</v>
+      </c>
+      <c r="M8">
+        <v>0.249</v>
+      </c>
+      <c r="N8">
+        <v>0.8231000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>39</v>
@@ -1022,28 +1259,37 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9">
-        <v>509</v>
-      </c>
-      <c r="I9">
-        <v>29</v>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
       </c>
       <c r="J9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>516</v>
+      </c>
+      <c r="K9">
+        <v>36</v>
+      </c>
+      <c r="L9">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>0.0698</v>
+      </c>
+      <c r="N9">
+        <v>0.7222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>38</v>
@@ -1054,28 +1300,40 @@
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>0.2632</v>
+      </c>
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>418</v>
+      </c>
+      <c r="K10">
+        <v>110</v>
+      </c>
+      <c r="L10">
+        <v>83</v>
+      </c>
+      <c r="M10">
+        <v>0.2632</v>
+      </c>
+      <c r="N10">
+        <v>0.7544999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10">
-        <v>413</v>
-      </c>
-      <c r="I10">
-        <v>93</v>
-      </c>
-      <c r="J10">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
       </c>
       <c r="C11">
         <v>35</v>
@@ -1086,28 +1344,40 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>0.1429</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11">
+      <c r="J11">
         <v>326</v>
       </c>
-      <c r="I11">
-        <v>71</v>
-      </c>
-      <c r="J11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>104</v>
+      </c>
+      <c r="L11">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>0.319</v>
+      </c>
+      <c r="N11">
+        <v>0.7692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>33</v>
@@ -1118,28 +1388,40 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12">
-        <v>425</v>
-      </c>
-      <c r="I12">
-        <v>68</v>
+      <c r="F12">
+        <v>0.0303</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
       </c>
       <c r="J12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>441</v>
+      </c>
+      <c r="K12">
+        <v>76</v>
+      </c>
+      <c r="L12">
+        <v>58</v>
+      </c>
+      <c r="M12">
+        <v>0.1723</v>
+      </c>
+      <c r="N12">
+        <v>0.7632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -1150,28 +1432,40 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13">
-        <v>405</v>
-      </c>
-      <c r="I13">
-        <v>126</v>
+      <c r="F13">
+        <v>0.0333</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
       </c>
       <c r="J13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>408</v>
+      </c>
+      <c r="K13">
+        <v>174</v>
+      </c>
+      <c r="L13">
+        <v>137</v>
+      </c>
+      <c r="M13">
+        <v>0.4265</v>
+      </c>
+      <c r="N13">
+        <v>0.7874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -1182,28 +1476,40 @@
       <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14">
-        <v>286</v>
-      </c>
-      <c r="I14">
-        <v>168</v>
+      <c r="F14">
+        <v>0.6667</v>
+      </c>
+      <c r="G14">
+        <v>0.55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
       </c>
       <c r="J14">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>291</v>
+      </c>
+      <c r="K14">
+        <v>205</v>
+      </c>
+      <c r="L14">
+        <v>117</v>
+      </c>
+      <c r="M14">
+        <v>0.7045</v>
+      </c>
+      <c r="N14">
+        <v>0.5707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>26</v>
@@ -1214,28 +1520,40 @@
       <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15">
-        <v>395</v>
-      </c>
-      <c r="I15">
-        <v>199</v>
+      <c r="F15">
+        <v>0.3462</v>
+      </c>
+      <c r="G15">
+        <v>0.6667</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
       </c>
       <c r="J15">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>394</v>
+      </c>
+      <c r="K15">
+        <v>207</v>
+      </c>
+      <c r="L15">
+        <v>164</v>
+      </c>
+      <c r="M15">
+        <v>0.5254</v>
+      </c>
+      <c r="N15">
+        <v>0.7923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>22</v>
@@ -1246,28 +1564,40 @@
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16">
-        <v>339</v>
-      </c>
-      <c r="I16">
-        <v>145</v>
+      <c r="F16">
+        <v>0.2727</v>
+      </c>
+      <c r="G16">
+        <v>0.8333</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
       </c>
       <c r="J16">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>342</v>
+      </c>
+      <c r="K16">
+        <v>193</v>
+      </c>
+      <c r="L16">
+        <v>133</v>
+      </c>
+      <c r="M16">
+        <v>0.5643</v>
+      </c>
+      <c r="N16">
+        <v>0.6891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1278,28 +1608,40 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17">
-        <v>281</v>
-      </c>
-      <c r="I17">
-        <v>85</v>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
       </c>
       <c r="J17">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>289</v>
+      </c>
+      <c r="K17">
+        <v>96</v>
+      </c>
+      <c r="L17">
+        <v>83</v>
+      </c>
+      <c r="M17">
+        <v>0.3322</v>
+      </c>
+      <c r="N17">
+        <v>0.8646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>19</v>
@@ -1310,20 +1652,32 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18">
-        <v>352</v>
-      </c>
-      <c r="I18">
-        <v>154</v>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1579</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
       </c>
       <c r="J18">
-        <v>99</v>
+        <v>353</v>
+      </c>
+      <c r="K18">
+        <v>158</v>
+      </c>
+      <c r="L18">
+        <v>109</v>
+      </c>
+      <c r="M18">
+        <v>0.4476</v>
+      </c>
+      <c r="N18">
+        <v>0.6899</v>
       </c>
     </row>
   </sheetData>
@@ -1333,47 +1687,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>9357</v>
@@ -1384,25 +1750,37 @@
       <c r="E2">
         <v>2656</v>
       </c>
-      <c r="F2" t="s">
-        <v>39</v>
+      <c r="F2">
+        <v>0.7443</v>
       </c>
       <c r="G2">
-        <v>14621</v>
-      </c>
-      <c r="H2">
-        <v>10023</v>
+        <v>0.2839</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
       </c>
       <c r="I2">
-        <v>4834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>15068</v>
+      </c>
+      <c r="J2">
+        <v>10375</v>
+      </c>
+      <c r="K2">
+        <v>5007</v>
+      </c>
+      <c r="L2">
+        <v>0.6885</v>
+      </c>
+      <c r="M2">
+        <v>0.3323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>991</v>
@@ -1413,25 +1791,37 @@
       <c r="E3">
         <v>367</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
+      <c r="F3">
+        <v>0.5762</v>
       </c>
       <c r="G3">
-        <v>3546</v>
-      </c>
-      <c r="H3">
-        <v>2018</v>
+        <v>0.3703</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>3786</v>
+      </c>
+      <c r="J3">
+        <v>2210</v>
+      </c>
+      <c r="K3">
+        <v>1621</v>
+      </c>
+      <c r="L3">
+        <v>0.5837</v>
+      </c>
+      <c r="M3">
+        <v>0.4282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>851</v>
@@ -1442,25 +1832,37 @@
       <c r="E4">
         <v>298</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
+      <c r="F4">
+        <v>0.5711000000000001</v>
       </c>
       <c r="G4">
-        <v>1641</v>
-      </c>
-      <c r="H4">
-        <v>945</v>
+        <v>0.3502</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
       </c>
       <c r="I4">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1773</v>
+      </c>
+      <c r="J4">
+        <v>1029</v>
+      </c>
+      <c r="K4">
+        <v>663</v>
+      </c>
+      <c r="L4">
+        <v>0.5804</v>
+      </c>
+      <c r="M4">
+        <v>0.3739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>767</v>
@@ -1471,25 +1873,37 @@
       <c r="E5">
         <v>186</v>
       </c>
-      <c r="F5" t="s">
-        <v>39</v>
+      <c r="F5">
+        <v>0.6336000000000001</v>
       </c>
       <c r="G5">
-        <v>989</v>
-      </c>
-      <c r="H5">
-        <v>584</v>
+        <v>0.2425</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1042</v>
+      </c>
+      <c r="J5">
+        <v>618</v>
+      </c>
+      <c r="K5">
+        <v>317</v>
+      </c>
+      <c r="L5">
+        <v>0.5931</v>
+      </c>
+      <c r="M5">
+        <v>0.3042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>714</v>
@@ -1500,25 +1914,37 @@
       <c r="E6">
         <v>206</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
+      <c r="F6">
+        <v>0.7157</v>
       </c>
       <c r="G6">
-        <v>2164</v>
-      </c>
-      <c r="H6">
-        <v>1408</v>
+        <v>0.2885</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
       </c>
       <c r="I6">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>2269</v>
+      </c>
+      <c r="J6">
+        <v>1489</v>
+      </c>
+      <c r="K6">
+        <v>670</v>
+      </c>
+      <c r="L6">
+        <v>0.6562</v>
+      </c>
+      <c r="M6">
+        <v>0.2953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>486</v>
@@ -1529,25 +1955,37 @@
       <c r="E7">
         <v>204</v>
       </c>
-      <c r="F7" t="s">
-        <v>39</v>
+      <c r="F7">
+        <v>0.644</v>
       </c>
       <c r="G7">
-        <v>720</v>
-      </c>
-      <c r="H7">
-        <v>455</v>
+        <v>0.4198</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
       </c>
       <c r="I7">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>780</v>
+      </c>
+      <c r="J7">
+        <v>493</v>
+      </c>
+      <c r="K7">
+        <v>395</v>
+      </c>
+      <c r="L7">
+        <v>0.6321</v>
+      </c>
+      <c r="M7">
+        <v>0.5064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>282</v>
@@ -1558,25 +1996,37 @@
       <c r="E8">
         <v>98</v>
       </c>
-      <c r="F8" t="s">
-        <v>39</v>
+      <c r="F8">
+        <v>0.6418</v>
       </c>
       <c r="G8">
-        <v>752</v>
-      </c>
-      <c r="H8">
-        <v>487</v>
+        <v>0.3475</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
       </c>
       <c r="I8">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>852</v>
+      </c>
+      <c r="J8">
+        <v>564</v>
+      </c>
+      <c r="K8">
+        <v>309</v>
+      </c>
+      <c r="L8">
+        <v>0.662</v>
+      </c>
+      <c r="M8">
+        <v>0.3627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>206</v>
@@ -1587,25 +2037,37 @@
       <c r="E9">
         <v>89</v>
       </c>
-      <c r="F9" t="s">
-        <v>39</v>
+      <c r="F9">
+        <v>0.6893</v>
       </c>
       <c r="G9">
-        <v>701</v>
-      </c>
-      <c r="H9">
-        <v>472</v>
+        <v>0.432</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
       </c>
       <c r="I9">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>747</v>
+      </c>
+      <c r="J9">
+        <v>508</v>
+      </c>
+      <c r="K9">
+        <v>303</v>
+      </c>
+      <c r="L9">
+        <v>0.6801</v>
+      </c>
+      <c r="M9">
+        <v>0.4056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>185</v>
@@ -1616,25 +2078,37 @@
       <c r="E10">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>0.5405</v>
+      </c>
+      <c r="G10">
+        <v>0.2811</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>635</v>
+      </c>
+      <c r="J10">
+        <v>373</v>
+      </c>
+      <c r="K10">
+        <v>222</v>
+      </c>
+      <c r="L10">
+        <v>0.5874</v>
+      </c>
+      <c r="M10">
+        <v>0.3496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
-      </c>
-      <c r="G10">
-        <v>590</v>
-      </c>
-      <c r="H10">
-        <v>340</v>
-      </c>
-      <c r="I10">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
       </c>
       <c r="C11">
         <v>157</v>
@@ -1645,25 +2119,37 @@
       <c r="E11">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
+      <c r="F11">
+        <v>0.5159</v>
       </c>
       <c r="G11">
-        <v>416</v>
-      </c>
-      <c r="H11">
-        <v>194</v>
+        <v>0.3121</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>435</v>
+      </c>
+      <c r="J11">
+        <v>198</v>
+      </c>
+      <c r="K11">
+        <v>175</v>
+      </c>
+      <c r="L11">
+        <v>0.4552</v>
+      </c>
+      <c r="M11">
+        <v>0.4023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>144</v>
@@ -1674,25 +2160,37 @@
       <c r="E12">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
-        <v>39</v>
+      <c r="F12">
+        <v>0.6042</v>
       </c>
       <c r="G12">
-        <v>267</v>
-      </c>
-      <c r="H12">
-        <v>161</v>
+        <v>0.3403</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
       </c>
       <c r="I12">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>352</v>
+      </c>
+      <c r="J12">
+        <v>213</v>
+      </c>
+      <c r="K12">
+        <v>121</v>
+      </c>
+      <c r="L12">
+        <v>0.6051</v>
+      </c>
+      <c r="M12">
+        <v>0.3438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>126</v>
@@ -1703,25 +2201,37 @@
       <c r="E13">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
-        <v>39</v>
+      <c r="F13">
+        <v>0.5476</v>
       </c>
       <c r="G13">
-        <v>489</v>
-      </c>
-      <c r="H13">
-        <v>228</v>
+        <v>0.2619</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
       </c>
       <c r="I13">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>528</v>
+      </c>
+      <c r="J13">
+        <v>256</v>
+      </c>
+      <c r="K13">
+        <v>208</v>
+      </c>
+      <c r="L13">
+        <v>0.4848</v>
+      </c>
+      <c r="M13">
+        <v>0.3939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>121</v>
@@ -1732,25 +2242,37 @@
       <c r="E14">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
+      <c r="F14">
+        <v>0.4298</v>
       </c>
       <c r="G14">
-        <v>349</v>
-      </c>
-      <c r="H14">
-        <v>182</v>
+        <v>0.405</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
       </c>
       <c r="I14">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>373</v>
+      </c>
+      <c r="J14">
+        <v>192</v>
+      </c>
+      <c r="K14">
+        <v>164</v>
+      </c>
+      <c r="L14">
+        <v>0.5147</v>
+      </c>
+      <c r="M14">
+        <v>0.4397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>119</v>
@@ -1761,25 +2283,37 @@
       <c r="E15">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
-        <v>39</v>
+      <c r="F15">
+        <v>0.605</v>
       </c>
       <c r="G15">
-        <v>228</v>
-      </c>
-      <c r="H15">
-        <v>107</v>
+        <v>0.3697</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
       </c>
       <c r="I15">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>261</v>
+      </c>
+      <c r="J15">
+        <v>121</v>
+      </c>
+      <c r="K15">
+        <v>111</v>
+      </c>
+      <c r="L15">
+        <v>0.4636</v>
+      </c>
+      <c r="M15">
+        <v>0.4253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>35</v>
@@ -1790,25 +2324,37 @@
       <c r="E16">
         <v>10</v>
       </c>
-      <c r="F16" t="s">
-        <v>39</v>
+      <c r="F16">
+        <v>0.4571</v>
       </c>
       <c r="G16">
-        <v>236</v>
-      </c>
-      <c r="H16">
-        <v>109</v>
+        <v>0.2857</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
       </c>
       <c r="I16">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J16">
+        <v>114</v>
+      </c>
+      <c r="K16">
+        <v>117</v>
+      </c>
+      <c r="L16">
+        <v>0.4597</v>
+      </c>
+      <c r="M16">
+        <v>0.4718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>23</v>
@@ -1819,25 +2365,37 @@
       <c r="E17">
         <v>11</v>
       </c>
-      <c r="F17" t="s">
-        <v>39</v>
+      <c r="F17">
+        <v>0.3043</v>
       </c>
       <c r="G17">
-        <v>90</v>
-      </c>
-      <c r="H17">
-        <v>41</v>
+        <v>0.4783</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
       </c>
       <c r="I17">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J17">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>51</v>
+      </c>
+      <c r="L17">
+        <v>0.4583</v>
+      </c>
+      <c r="M17">
+        <v>0.5313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1848,16 +2406,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18">
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
     </row>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,19 +443,19 @@
         <v>0.6566</v>
       </c>
       <c r="G2" t="n">
-        <v>11653</v>
+        <v>11940</v>
       </c>
       <c r="H2" t="n">
-        <v>3470</v>
+        <v>3880</v>
       </c>
       <c r="I2" t="n">
-        <v>2511</v>
+        <v>2811</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2978</v>
+        <v>0.325</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7236</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="3">
@@ -480,19 +480,19 @@
         <v>0.6276</v>
       </c>
       <c r="G3" t="n">
-        <v>11653</v>
+        <v>11940</v>
       </c>
       <c r="H3" t="n">
-        <v>3470</v>
+        <v>3880</v>
       </c>
       <c r="I3" t="n">
-        <v>2511</v>
+        <v>2811</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978</v>
+        <v>0.325</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7236</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="4">
@@ -517,19 +517,19 @@
         <v>0.5899</v>
       </c>
       <c r="G4" t="n">
-        <v>11653</v>
+        <v>11940</v>
       </c>
       <c r="H4" t="n">
-        <v>3470</v>
+        <v>3880</v>
       </c>
       <c r="I4" t="n">
-        <v>2511</v>
+        <v>2811</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2978</v>
+        <v>0.325</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7236</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="5">
@@ -554,55 +554,92 @@
         <v>0.6625</v>
       </c>
       <c r="G5" t="n">
-        <v>11653</v>
+        <v>11940</v>
       </c>
       <c r="H5" t="n">
-        <v>3470</v>
+        <v>3880</v>
       </c>
       <c r="I5" t="n">
-        <v>2511</v>
+        <v>2811</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2978</v>
+        <v>0.325</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7236</v>
+        <v>0.7245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>03-21</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>291</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1271</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11940</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3880</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2811</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.553941908713693</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.550561797752809</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.4952380952380953</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.007583965330444271</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1230717070689947</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="B7" t="n">
+        <v>-0.3232558139534883</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.5375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.6792452830188679</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3166666666666667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.3064150943396226</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -617,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,19 +736,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>32815</v>
+        <v>35938</v>
       </c>
       <c r="H2" t="n">
-        <v>21226</v>
+        <v>23510</v>
       </c>
       <c r="I2" t="n">
-        <v>12334</v>
+        <v>14565</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6468</v>
+        <v>0.6542</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3759</v>
+        <v>0.4053</v>
       </c>
     </row>
     <row r="3">
@@ -736,19 +773,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>32815</v>
+        <v>35938</v>
       </c>
       <c r="H3" t="n">
-        <v>21226</v>
+        <v>23510</v>
       </c>
       <c r="I3" t="n">
-        <v>12334</v>
+        <v>14565</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6468</v>
+        <v>0.6542</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3759</v>
+        <v>0.4053</v>
       </c>
     </row>
     <row r="4">
@@ -773,19 +810,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>32815</v>
+        <v>35938</v>
       </c>
       <c r="H4" t="n">
-        <v>21226</v>
+        <v>23510</v>
       </c>
       <c r="I4" t="n">
-        <v>12334</v>
+        <v>14565</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6468</v>
+        <v>0.6542</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3759</v>
+        <v>0.4053</v>
       </c>
     </row>
     <row r="5">
@@ -810,55 +847,92 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>32815</v>
+        <v>35938</v>
       </c>
       <c r="H5" t="n">
-        <v>21226</v>
+        <v>23510</v>
       </c>
       <c r="I5" t="n">
-        <v>12334</v>
+        <v>14565</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6468</v>
+        <v>0.6542</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3759</v>
+        <v>0.4053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>03-21</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3351</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2449</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1258</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7308</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3754</v>
+      </c>
+      <c r="G6" t="n">
+        <v>35938</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23510</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14565</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6542</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4053</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.4340256357529645</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.435485460818137</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.3894927536231884</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.002588438308887006</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.07862570201519652</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="B7" t="n">
+        <v>-0.5941625287634734</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.5723764623712241</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.5333827893175074</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0536332179930796</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.149770290964778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,215 +1030,213 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1181</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1303</v>
+        <v>2067</v>
       </c>
       <c r="K2" t="n">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="L2" t="n">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2525</v>
+        <v>0.1466</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7447</v>
+        <v>0.7591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1579</v>
+        <v>0.0556</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7778</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1940</v>
+        <v>934</v>
       </c>
       <c r="K3" t="n">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="L3" t="n">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1515</v>
+        <v>0.3844</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7517</v>
+        <v>0.7521</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>0.3793</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.1818</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1301</v>
+        <v>1198</v>
       </c>
       <c r="K4" t="n">
-        <v>527</v>
+        <v>233</v>
       </c>
       <c r="L4" t="n">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4051</v>
+        <v>0.1945</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5407999999999999</v>
+        <v>0.6395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.1852</v>
+        <v>0.32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>441</v>
+        <v>1352</v>
       </c>
       <c r="K5" t="n">
-        <v>116</v>
+        <v>661</v>
       </c>
       <c r="L5" t="n">
-        <v>89</v>
+        <v>355</v>
       </c>
       <c r="M5" t="n">
-        <v>0.263</v>
+        <v>0.4889</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7672</v>
+        <v>0.5371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1173,23 +1245,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2174</v>
+        <v>0.0476</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1198,25 +1270,25 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="K6" t="n">
-        <v>518</v>
+        <v>653</v>
       </c>
       <c r="L6" t="n">
-        <v>435</v>
+        <v>532</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.6334</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8398</v>
+        <v>0.8147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1225,23 +1297,23 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0556</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1250,77 +1322,77 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L7" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0.775</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2727</v>
+        <v>0.1875</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>528</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="L8" t="n">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>0.25</v>
+        <v>0.3491</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8636</v>
+        <v>0.8559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1329,23 +1401,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1354,25 +1424,25 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K9" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L9" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5552</v>
+        <v>0.5376</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7092000000000001</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1381,7 +1451,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1395,7 +1465,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1404,7 +1474,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1422,168 +1492,164 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.2727</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.6667</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1110</v>
+        <v>454</v>
       </c>
       <c r="K11" t="n">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="L11" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1991</v>
+        <v>0.4141</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.7979000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="K12" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="L12" t="n">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4157</v>
+        <v>0.1747</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8043</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2143</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.6667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>295</v>
+        <v>453</v>
       </c>
       <c r="K13" t="n">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="L13" t="n">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3424</v>
+        <v>0.4724</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8317</v>
+        <v>0.8037</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1593,246 +1659,242 @@
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0.4</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="K14" t="n">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="L14" t="n">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1779</v>
+        <v>0.4919</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7722</v>
+        <v>0.6978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>401</v>
+        <v>472</v>
       </c>
       <c r="K15" t="n">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="L15" t="n">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5212</v>
+        <v>0.2564</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7943</v>
+        <v>0.7851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.6667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>358</v>
+        <v>553</v>
       </c>
       <c r="K16" t="n">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="L16" t="n">
         <v>122</v>
       </c>
       <c r="M16" t="n">
-        <v>0.486</v>
+        <v>0.2586</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7010999999999999</v>
+        <v>0.8531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1429</v>
+        <v>0.4</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="K17" t="n">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="L17" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7449</v>
+        <v>0.4527</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5936</v>
+        <v>0.8038999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-21T08:07:49</t>
+          <t>2020-03-22T08:03:06</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="K18" t="n">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="L18" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4282</v>
+        <v>0.6705</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8011</v>
+        <v>0.6207</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1986,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1933,45 +1995,45 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2395</v>
+        <v>741</v>
       </c>
       <c r="D2" t="n">
-        <v>1900</v>
+        <v>555</v>
       </c>
       <c r="E2" t="n">
-        <v>700</v>
+        <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7933</v>
+        <v>0.749</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2923</v>
+        <v>0.3725</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15842</v>
+        <v>16489</v>
       </c>
       <c r="J2" t="n">
-        <v>11004</v>
+        <v>11485</v>
       </c>
       <c r="K2" t="n">
-        <v>5460</v>
+        <v>6117</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6946</v>
+        <v>0.6965</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3447</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1980,656 +2042,656 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1287</v>
+        <v>725</v>
       </c>
       <c r="D3" t="n">
-        <v>965</v>
+        <v>633</v>
       </c>
       <c r="E3" t="n">
-        <v>556</v>
+        <v>304</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7498</v>
+        <v>0.8731</v>
       </c>
       <c r="G3" t="n">
-        <v>0.432</v>
+        <v>0.4193</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4589</v>
+        <v>5287</v>
       </c>
       <c r="J3" t="n">
-        <v>2854</v>
+        <v>3468</v>
       </c>
       <c r="K3" t="n">
-        <v>2047</v>
+        <v>2489</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6219</v>
+        <v>0.6559</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4461</v>
+        <v>0.4708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>924</v>
+        <v>613</v>
       </c>
       <c r="D4" t="n">
-        <v>637</v>
+        <v>383</v>
       </c>
       <c r="E4" t="n">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6894</v>
+        <v>0.6248</v>
       </c>
       <c r="G4" t="n">
-        <v>0.289</v>
+        <v>0.3083</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2575</v>
+        <v>2623</v>
       </c>
       <c r="J4" t="n">
-        <v>1684</v>
+        <v>1561</v>
       </c>
       <c r="K4" t="n">
-        <v>832</v>
+        <v>1074</v>
       </c>
       <c r="L4" t="n">
-        <v>0.654</v>
+        <v>0.5951</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3231</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>690</v>
+        <v>253</v>
       </c>
       <c r="D5" t="n">
-        <v>430</v>
+        <v>213</v>
       </c>
       <c r="E5" t="n">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6232</v>
+        <v>0.8419</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3043</v>
+        <v>0.2292</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2022</v>
+        <v>1357</v>
       </c>
       <c r="J5" t="n">
-        <v>1180</v>
+        <v>970</v>
       </c>
       <c r="K5" t="n">
-        <v>798</v>
+        <v>502</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5836</v>
+        <v>0.7148</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3947</v>
+        <v>0.3699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>523</v>
+        <v>191</v>
       </c>
       <c r="D6" t="n">
-        <v>407</v>
+        <v>126</v>
       </c>
       <c r="E6" t="n">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7782</v>
+        <v>0.6597</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2524</v>
+        <v>0.3037</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1098</v>
+        <v>2756</v>
       </c>
       <c r="J6" t="n">
-        <v>753</v>
+        <v>1803</v>
       </c>
       <c r="K6" t="n">
-        <v>386</v>
+        <v>975</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6858</v>
+        <v>0.6542</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3515</v>
+        <v>0.3538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>408</v>
+        <v>126</v>
       </c>
       <c r="D7" t="n">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5098</v>
+        <v>0.754</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3088</v>
+        <v>0.6111</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1197</v>
+        <v>964</v>
       </c>
       <c r="J7" t="n">
-        <v>701</v>
+        <v>653</v>
       </c>
       <c r="K7" t="n">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5856</v>
+        <v>0.6774</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3442</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="D8" t="n">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7048</v>
+        <v>0.6937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.241</v>
+        <v>0.3243</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>812</v>
+        <v>600</v>
       </c>
       <c r="J8" t="n">
-        <v>483</v>
+        <v>346</v>
       </c>
       <c r="K8" t="n">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5948</v>
+        <v>0.5767</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3485</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5303</v>
+        <v>0.65</v>
       </c>
       <c r="G9" t="n">
-        <v>0.303</v>
+        <v>0.39</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>492</v>
+        <v>744</v>
       </c>
       <c r="J9" t="n">
-        <v>272</v>
+        <v>366</v>
       </c>
       <c r="K9" t="n">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5528</v>
+        <v>0.4919</v>
       </c>
       <c r="M9" t="n">
-        <v>0.374</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6007</v>
+        <v>0.62</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3251</v>
+        <v>0.37</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>845</v>
+        <v>874</v>
       </c>
       <c r="J10" t="n">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="K10" t="n">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6651</v>
+        <v>0.5938</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4189</v>
+        <v>0.3924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7111</v>
+        <v>0.5122</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5481</v>
+        <v>0.3659</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>897</v>
+        <v>258</v>
       </c>
       <c r="J11" t="n">
-        <v>579</v>
+        <v>108</v>
       </c>
       <c r="K11" t="n">
-        <v>483</v>
+        <v>131</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6455</v>
+        <v>0.4186</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5385</v>
+        <v>0.5078</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="D12" t="n">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4664</v>
+        <v>0.6914</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2925</v>
+        <v>0.6049</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>651</v>
+        <v>990</v>
       </c>
       <c r="J12" t="n">
-        <v>308</v>
+        <v>639</v>
       </c>
       <c r="K12" t="n">
-        <v>262</v>
+        <v>582</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4731</v>
+        <v>0.6455</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4025</v>
+        <v>0.5879</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="D13" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6228</v>
+        <v>0.5493</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3533</v>
+        <v>0.3662</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>415</v>
+        <v>1269</v>
       </c>
       <c r="J13" t="n">
-        <v>210</v>
+        <v>736</v>
       </c>
       <c r="K13" t="n">
-        <v>192</v>
+        <v>478</v>
       </c>
       <c r="L13" t="n">
-        <v>0.506</v>
+        <v>0.58</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4627</v>
+        <v>0.3767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4019</v>
+        <v>0.8222</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3458</v>
+        <v>0.7778</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>316</v>
+        <v>595</v>
       </c>
       <c r="J14" t="n">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="K14" t="n">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4399</v>
+        <v>0.521</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4684</v>
+        <v>0.4773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6598000000000001</v>
+        <v>0.6098</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4021</v>
+        <v>0.3415</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>547</v>
+        <v>453</v>
       </c>
       <c r="J15" t="n">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="K15" t="n">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4973</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.426</v>
+        <v>0.4901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3158</v>
+        <v>0.6111</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3474</v>
+        <v>0.3611</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="J16" t="n">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3842</v>
+        <v>0.4585</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4802</v>
+        <v>0.4785</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2638,45 +2700,45 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4839</v>
+        <v>0.5429</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3226</v>
+        <v>0.4857</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="J17" t="n">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K17" t="n">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4708</v>
+        <v>0.4774</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4599</v>
+        <v>0.4935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-20</t>
+          <t>03-21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2697,7 +2759,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-21 08:00:00</t>
+          <t>2020-03-22 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="n">

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="51">
   <si>
     <t>当日_已申请</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>2020-03-23T16:54:00</t>
+  </si>
+  <si>
+    <t>2020-03-23 16:00:00</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,19 +848,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="H2">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="I2">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="J2">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="K2">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -880,19 +883,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="H3">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="I3">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="J3">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="K3">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -915,19 +918,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="H4">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="I4">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="J4">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="K4">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -950,19 +953,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="H5">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="I5">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="J5">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="K5">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -985,53 +988,88 @@
         <v>0.3754</v>
       </c>
       <c r="G6">
-        <v>35938</v>
+        <v>40840</v>
       </c>
       <c r="H6">
-        <v>23510</v>
+        <v>26882</v>
       </c>
       <c r="I6">
-        <v>14565</v>
+        <v>17476</v>
       </c>
       <c r="J6">
-        <v>0.6542</v>
+        <v>0.6582</v>
       </c>
       <c r="K6">
-        <v>0.4053</v>
+        <v>0.4279</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1646</v>
+      </c>
+      <c r="C7">
+        <v>1078</v>
+      </c>
+      <c r="D7">
+        <v>738</v>
+      </c>
+      <c r="E7">
+        <v>0.6549</v>
+      </c>
+      <c r="F7">
+        <v>0.4484</v>
+      </c>
+      <c r="G7">
+        <v>40840</v>
+      </c>
+      <c r="H7">
+        <v>26882</v>
+      </c>
+      <c r="I7">
+        <v>17476</v>
+      </c>
+      <c r="J7">
+        <v>0.6582</v>
+      </c>
+      <c r="K7">
+        <v>0.4279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>-0.5941625287634734</v>
-      </c>
-      <c r="C7">
-        <v>-0.5723764623712241</v>
-      </c>
-      <c r="D7">
-        <v>-0.5333827893175074</v>
-      </c>
-      <c r="E7">
-        <v>0.0536332179930796</v>
-      </c>
-      <c r="F7">
-        <v>0.149770290964778</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="B8">
+        <v>-0.5088033422858849</v>
+      </c>
+      <c r="C8">
+        <v>-0.5598203348305431</v>
+      </c>
+      <c r="D8">
+        <v>-0.4133545310015898</v>
+      </c>
+      <c r="E8">
+        <v>-0.1038587848932676</v>
+      </c>
+      <c r="F8">
+        <v>0.1944592434736281</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -1796,7 +1834,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1843,6 +1881,697 @@
         <v>26</v>
       </c>
     </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>488</v>
+      </c>
+      <c r="D2">
+        <v>384</v>
+      </c>
+      <c r="E2">
+        <v>177</v>
+      </c>
+      <c r="F2">
+        <v>0.7869</v>
+      </c>
+      <c r="G2">
+        <v>0.3627</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>17946</v>
+      </c>
+      <c r="J2">
+        <v>12590</v>
+      </c>
+      <c r="K2">
+        <v>6878</v>
+      </c>
+      <c r="L2">
+        <v>0.7015</v>
+      </c>
+      <c r="M2">
+        <v>0.3833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>226</v>
+      </c>
+      <c r="D3">
+        <v>143</v>
+      </c>
+      <c r="E3">
+        <v>107</v>
+      </c>
+      <c r="F3">
+        <v>0.6327</v>
+      </c>
+      <c r="G3">
+        <v>0.4735</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>3680</v>
+      </c>
+      <c r="J3">
+        <v>2290</v>
+      </c>
+      <c r="K3">
+        <v>1814</v>
+      </c>
+      <c r="L3">
+        <v>0.6223</v>
+      </c>
+      <c r="M3">
+        <v>0.4929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>165</v>
+      </c>
+      <c r="D4">
+        <v>118</v>
+      </c>
+      <c r="E4">
+        <v>94</v>
+      </c>
+      <c r="F4">
+        <v>0.7151999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.5697</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>5839</v>
+      </c>
+      <c r="J4">
+        <v>3915</v>
+      </c>
+      <c r="K4">
+        <v>2885</v>
+      </c>
+      <c r="L4">
+        <v>0.6705</v>
+      </c>
+      <c r="M4">
+        <v>0.4941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>0.5833</v>
+      </c>
+      <c r="G5">
+        <v>0.3485</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>542</v>
+      </c>
+      <c r="J5">
+        <v>278</v>
+      </c>
+      <c r="K5">
+        <v>245</v>
+      </c>
+      <c r="L5">
+        <v>0.5129</v>
+      </c>
+      <c r="M5">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>118</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0.7627</v>
+      </c>
+      <c r="G6">
+        <v>0.8475</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>1138</v>
+      </c>
+      <c r="J6">
+        <v>784</v>
+      </c>
+      <c r="K6">
+        <v>628</v>
+      </c>
+      <c r="L6">
+        <v>0.6889</v>
+      </c>
+      <c r="M6">
+        <v>0.5518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.3704</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>3294</v>
+      </c>
+      <c r="J7">
+        <v>2131</v>
+      </c>
+      <c r="K7">
+        <v>1181</v>
+      </c>
+      <c r="L7">
+        <v>0.6469</v>
+      </c>
+      <c r="M7">
+        <v>0.3585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>0.5588</v>
+      </c>
+      <c r="G8">
+        <v>0.3137</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>1515</v>
+      </c>
+      <c r="J8">
+        <v>1054</v>
+      </c>
+      <c r="K8">
+        <v>612</v>
+      </c>
+      <c r="L8">
+        <v>0.6957</v>
+      </c>
+      <c r="M8">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>0.2361</v>
+      </c>
+      <c r="G9">
+        <v>0.4167</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>975</v>
+      </c>
+      <c r="J9">
+        <v>551</v>
+      </c>
+      <c r="K9">
+        <v>419</v>
+      </c>
+      <c r="L9">
+        <v>0.5651</v>
+      </c>
+      <c r="M9">
+        <v>0.4297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>0.4118</v>
+      </c>
+      <c r="G10">
+        <v>0.4412</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>1534</v>
+      </c>
+      <c r="J10">
+        <v>884</v>
+      </c>
+      <c r="K10">
+        <v>572</v>
+      </c>
+      <c r="L10">
+        <v>0.5763</v>
+      </c>
+      <c r="M10">
+        <v>0.3729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>0.8235</v>
+      </c>
+      <c r="G11">
+        <v>0.6765</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>695</v>
+      </c>
+      <c r="J11">
+        <v>370</v>
+      </c>
+      <c r="K11">
+        <v>342</v>
+      </c>
+      <c r="L11">
+        <v>0.5324</v>
+      </c>
+      <c r="M11">
+        <v>0.4921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0.5758</v>
+      </c>
+      <c r="G12">
+        <v>0.3939</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>651</v>
+      </c>
+      <c r="J12">
+        <v>370</v>
+      </c>
+      <c r="K12">
+        <v>276</v>
+      </c>
+      <c r="L12">
+        <v>0.5684</v>
+      </c>
+      <c r="M12">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.3571</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>788</v>
+      </c>
+      <c r="J13">
+        <v>387</v>
+      </c>
+      <c r="K13">
+        <v>364</v>
+      </c>
+      <c r="L13">
+        <v>0.4911</v>
+      </c>
+      <c r="M13">
+        <v>0.4619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <v>0.32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>353</v>
+      </c>
+      <c r="J14">
+        <v>173</v>
+      </c>
+      <c r="K14">
+        <v>180</v>
+      </c>
+      <c r="L14">
+        <v>0.4901</v>
+      </c>
+      <c r="M14">
+        <v>0.5099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0.7727000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.6364</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>1062</v>
+      </c>
+      <c r="J15">
+        <v>689</v>
+      </c>
+      <c r="K15">
+        <v>652</v>
+      </c>
+      <c r="L15">
+        <v>0.6488</v>
+      </c>
+      <c r="M15">
+        <v>0.6139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.6923</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>277</v>
+      </c>
+      <c r="J16">
+        <v>122</v>
+      </c>
+      <c r="K16">
+        <v>150</v>
+      </c>
+      <c r="L16">
+        <v>0.4404</v>
+      </c>
+      <c r="M16">
+        <v>0.5415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>0.4167</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>496</v>
+      </c>
+      <c r="J17">
+        <v>262</v>
+      </c>
+      <c r="K17">
+        <v>253</v>
+      </c>
+      <c r="L17">
+        <v>0.5282</v>
+      </c>
+      <c r="M17">
+        <v>0.5101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H2" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I2" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H3" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I3" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H4" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I4" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H5" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I5" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H6" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I6" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H7" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I7" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H8" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I8" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H9" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I9" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="10">
@@ -727,55 +727,129 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>13016</v>
+        <v>13264</v>
       </c>
       <c r="H10" t="n">
-        <v>9314</v>
+        <v>9998</v>
       </c>
       <c r="I10" t="n">
-        <v>3892</v>
+        <v>4230</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7156</v>
+        <v>0.7538</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4179</v>
+        <v>0.4231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>03-26</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>105</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13264</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9998</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4230</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4231</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>03-27</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>154</v>
+      </c>
+      <c r="C12" t="n">
+        <v>89</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5779</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4494</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13264</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9998</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4230</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7538</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4231</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.3746478873239437</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.8076131687242799</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3462346234623462</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="B13" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.966666666666667</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.022751137556878</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1012</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,7 +864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,19 +946,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H2" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I2" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="3">
@@ -909,19 +983,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H3" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I3" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="4">
@@ -946,19 +1020,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H4" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I4" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="5">
@@ -983,19 +1057,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H5" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I5" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="6">
@@ -1020,19 +1094,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H6" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I6" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1131,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H7" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I7" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="8">
@@ -1094,19 +1168,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H8" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I8" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="9">
@@ -1131,19 +1205,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H9" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I9" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="10">
@@ -1168,55 +1242,129 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>51947</v>
+        <v>57090</v>
       </c>
       <c r="H10" t="n">
-        <v>34658</v>
+        <v>38373</v>
       </c>
       <c r="I10" t="n">
-        <v>24236</v>
+        <v>27198</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6672</v>
+        <v>0.6721</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4666</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>03-26</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2862</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2054</v>
+      </c>
+      <c r="D11" t="n">
+        <v>972</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7177</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3396</v>
+      </c>
+      <c r="G11" t="n">
+        <v>57090</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38373</v>
+      </c>
+      <c r="I11" t="n">
+        <v>27198</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6721</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4764</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>03-27</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2317</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1687</v>
+      </c>
+      <c r="D12" t="n">
+        <v>698</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7281</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3013</v>
+      </c>
+      <c r="G12" t="n">
+        <v>57090</v>
+      </c>
+      <c r="H12" t="n">
+        <v>38373</v>
+      </c>
+      <c r="I12" t="n">
+        <v>27198</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.6721</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.2322647362978283</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.1952410006101281</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.4253393665158371</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.04823008849557515</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.2515860861955808</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="B13" t="n">
+        <v>-0.1904262753319357</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.1786757546251217</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.2818930041152263</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01449073429009331</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1127797408716137</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1314,7 +1462,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1323,23 +1471,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2055</v>
+        <v>0.3684</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5333</v>
+        <v>0.6429</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1348,25 +1496,25 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1081</v>
+        <v>953</v>
       </c>
       <c r="K2" t="n">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="L2" t="n">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6189</v>
+        <v>0.745</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5321</v>
+        <v>0.5451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1375,23 +1523,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.375</v>
+        <v>0.3462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.25</v>
+        <v>0.5556</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1400,749 +1548,753 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2237</v>
+        <v>2325</v>
       </c>
       <c r="K3" t="n">
-        <v>1628</v>
+        <v>1951</v>
       </c>
       <c r="L3" t="n">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7278</v>
+        <v>0.8391</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1738</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>0.9167</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2727</v>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1128</v>
+        <v>383</v>
       </c>
       <c r="K4" t="n">
-        <v>753</v>
+        <v>239</v>
       </c>
       <c r="L4" t="n">
-        <v>622</v>
+        <v>177</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6676</v>
+        <v>0.624</v>
       </c>
       <c r="N4" t="n">
-        <v>0.826</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6429</v>
+        <v>0.5833</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5556</v>
+        <v>0.4286</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>627</v>
+        <v>1178</v>
       </c>
       <c r="K5" t="n">
-        <v>312</v>
+        <v>768</v>
       </c>
       <c r="L5" t="n">
-        <v>245</v>
+        <v>655</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4976</v>
+        <v>0.652</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7853</v>
+        <v>0.8529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4444</v>
+        <v>0.4545</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>368</v>
+        <v>1490</v>
       </c>
       <c r="K6" t="n">
-        <v>221</v>
+        <v>1441</v>
       </c>
       <c r="L6" t="n">
-        <v>166</v>
+        <v>516</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6005</v>
+        <v>0.9671</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7511</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2222</v>
+        <v>0.7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.5714</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>399</v>
+        <v>1315</v>
       </c>
       <c r="K7" t="n">
-        <v>320</v>
+        <v>1259</v>
       </c>
       <c r="L7" t="n">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="M7" t="n">
-        <v>0.802</v>
+        <v>0.9574</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6688</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7778</v>
+        <v>0.5714</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2857</v>
+        <v>0.25</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1436</v>
+        <v>648</v>
       </c>
       <c r="K8" t="n">
-        <v>1433</v>
+        <v>440</v>
       </c>
       <c r="L8" t="n">
-        <v>490</v>
+        <v>53</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9979</v>
+        <v>0.679</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3419</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5556</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>0.4286</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>519</v>
+        <v>637</v>
       </c>
       <c r="K9" t="n">
-        <v>175</v>
+        <v>478</v>
       </c>
       <c r="L9" t="n">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3372</v>
+        <v>0.7504</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7314000000000001</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8889</v>
+        <v>0.7143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1265</v>
+        <v>501</v>
       </c>
       <c r="K10" t="n">
-        <v>1248</v>
+        <v>486</v>
       </c>
       <c r="L10" t="n">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9866</v>
+        <v>0.9701</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2059</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6667</v>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>699</v>
+        <v>355</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0029</v>
+        <v>0.6958</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1667</v>
+        <v>0.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="K12" t="n">
-        <v>240</v>
+        <v>329</v>
       </c>
       <c r="L12" t="n">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6877</v>
+        <v>0.8084</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4875</v>
+        <v>0.6717</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1667</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>489</v>
+        <v>362</v>
       </c>
       <c r="K13" t="n">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="L13" t="n">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5194</v>
+        <v>0.9171</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7835</v>
+        <v>0.6566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.5</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>637</v>
+        <v>513</v>
       </c>
       <c r="K14" t="n">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="L14" t="n">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6656</v>
+        <v>0.9396</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1085</v>
+        <v>0.4046</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K15" t="n">
-        <v>477</v>
+        <v>261</v>
       </c>
       <c r="L15" t="n">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9755</v>
+        <v>0.5294</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3878</v>
+        <v>0.7816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>383</v>
+        <v>705</v>
       </c>
       <c r="K16" t="n">
-        <v>358</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9347</v>
+        <v>0.0071</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6397</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="K17" t="n">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="L17" t="n">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9155</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6462</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2151,62 +2303,60 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2020-03-28T08:00:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
         <v>3</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-03-26T08:00:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>14</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
       <c r="M18" t="n">
-        <v>0.1429</v>
+        <v>0.1875</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2219,112 +2369,116 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>492</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9411</v>
+        <v>0.3571</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2916</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1667</v>
+        <v>0.3376</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0.7268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -2346,12 +2500,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2361,53 +2515,53 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2727</v>
+        <v>0.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2415,40 +2569,38 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1111</v>
+        <v>0.25</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2469,7 +2621,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-26T08:00:00</t>
+          <t>2020-03-28T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2478,7 +2630,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -2487,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2587,7 +2739,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2596,23 +2748,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>857</v>
+        <v>493</v>
       </c>
       <c r="D2" t="n">
-        <v>714</v>
+        <v>309</v>
       </c>
       <c r="E2" t="n">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8331</v>
+        <v>0.6268</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3081</v>
+        <v>0.2901</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2621,597 +2773,597 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>7391</v>
+        <v>8698</v>
       </c>
       <c r="K2" t="n">
-        <v>5145</v>
+        <v>6076</v>
       </c>
       <c r="L2" t="n">
-        <v>3749</v>
+        <v>4359</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6961000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5072</v>
+        <v>0.5011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>702</v>
+        <v>475</v>
       </c>
       <c r="D3" t="n">
-        <v>551</v>
+        <v>411</v>
       </c>
       <c r="E3" t="n">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7849</v>
+        <v>0.8653</v>
       </c>
       <c r="G3" t="n">
-        <v>0.302</v>
+        <v>0.2884</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20138</v>
+        <v>6497</v>
       </c>
       <c r="K3" t="n">
-        <v>14261</v>
+        <v>4403</v>
       </c>
       <c r="L3" t="n">
-        <v>8169</v>
+        <v>3933</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7082000000000001</v>
+        <v>0.6777</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4057</v>
+        <v>0.6054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="D4" t="n">
-        <v>224</v>
+        <v>373</v>
       </c>
       <c r="E4" t="n">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5385</v>
+        <v>0.7936</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3486</v>
+        <v>0.2596</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4332</v>
+        <v>21092</v>
       </c>
       <c r="K4" t="n">
-        <v>2667</v>
+        <v>15024</v>
       </c>
       <c r="L4" t="n">
-        <v>1776</v>
+        <v>8869</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6157</v>
+        <v>0.7123</v>
       </c>
       <c r="N4" t="n">
-        <v>0.41</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>346</v>
+        <v>153</v>
       </c>
       <c r="D5" t="n">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="E5" t="n">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6618000000000001</v>
+        <v>0.6078</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4249</v>
+        <v>0.366</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>5854</v>
+        <v>4800</v>
       </c>
       <c r="K5" t="n">
-        <v>3894</v>
+        <v>2949</v>
       </c>
       <c r="L5" t="n">
-        <v>3619</v>
+        <v>2087</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6652</v>
+        <v>0.6143999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6182</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="D6" t="n">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6148</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3216</v>
+        <v>0.2222</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2247</v>
+        <v>2624</v>
       </c>
       <c r="K6" t="n">
-        <v>1526</v>
+        <v>1645</v>
       </c>
       <c r="L6" t="n">
-        <v>971</v>
+        <v>1061</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6791</v>
+        <v>0.6269</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4321</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>253</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8063</v>
+        <v>0.8529</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3202</v>
+        <v>0.3627</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1276</v>
+        <v>1607</v>
       </c>
       <c r="K7" t="n">
-        <v>796</v>
+        <v>1100</v>
       </c>
       <c r="L7" t="n">
-        <v>600</v>
+        <v>994</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6238</v>
+        <v>0.6845</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4702</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>0.608</v>
+        <v>0.8375</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3239</v>
+        <v>0.3375</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2358</v>
+        <v>485</v>
       </c>
       <c r="K8" t="n">
-        <v>1492</v>
+        <v>263</v>
       </c>
       <c r="L8" t="n">
-        <v>929</v>
+        <v>266</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6327</v>
+        <v>0.5423</v>
       </c>
       <c r="N8" t="n">
-        <v>0.394</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6667</v>
+        <v>0.6892</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3818</v>
+        <v>0.3243</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1120</v>
+        <v>2456</v>
       </c>
       <c r="K9" t="n">
-        <v>588</v>
+        <v>1672</v>
       </c>
       <c r="L9" t="n">
-        <v>527</v>
+        <v>1106</v>
       </c>
       <c r="M9" t="n">
-        <v>0.525</v>
+        <v>0.6808</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4705</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5776</v>
+        <v>0.4462</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3966</v>
+        <v>0.2154</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>852</v>
+        <v>1335</v>
       </c>
       <c r="K10" t="n">
-        <v>444</v>
+        <v>704</v>
       </c>
       <c r="L10" t="n">
-        <v>456</v>
+        <v>621</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5211</v>
+        <v>0.5273</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5352</v>
+        <v>0.4652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6372</v>
+        <v>0.6556999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4779</v>
+        <v>0.2295</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1380</v>
+        <v>1273</v>
       </c>
       <c r="K11" t="n">
-        <v>910</v>
+        <v>740</v>
       </c>
       <c r="L11" t="n">
-        <v>866</v>
+        <v>582</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6594</v>
+        <v>0.5813</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6274999999999999</v>
+        <v>0.4572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7333</v>
+        <v>0.7193000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4133</v>
+        <v>0.2982</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>854</v>
+        <v>1417</v>
       </c>
       <c r="K12" t="n">
-        <v>493</v>
+        <v>908</v>
       </c>
       <c r="L12" t="n">
-        <v>373</v>
+        <v>699</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5773</v>
+        <v>0.6408</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4368</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6232</v>
+        <v>0.7805</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4058</v>
+        <v>0.4878</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1159</v>
+        <v>994</v>
       </c>
       <c r="K13" t="n">
-        <v>665</v>
+        <v>562</v>
       </c>
       <c r="L13" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5738</v>
+        <v>0.5654</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4599</v>
+        <v>0.5412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3220,23 +3372,23 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6047</v>
+        <v>0.6216</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3721</v>
+        <v>0.5676</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3245,338 +3397,342 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1308</v>
+        <v>1460</v>
       </c>
       <c r="K14" t="n">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="L14" t="n">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6873</v>
+        <v>0.6795</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.5829</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6857</v>
+        <v>0.6571</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>0.3714</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>806</v>
+        <v>493</v>
       </c>
       <c r="K15" t="n">
-        <v>443</v>
+        <v>267</v>
       </c>
       <c r="L15" t="n">
-        <v>434</v>
+        <v>281</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5496</v>
+        <v>0.5416</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5385</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6061</v>
+        <v>0.5172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3333</v>
+        <v>0.4828</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>423</v>
+        <v>923</v>
       </c>
       <c r="K16" t="n">
-        <v>219</v>
+        <v>538</v>
       </c>
       <c r="L16" t="n">
-        <v>239</v>
+        <v>425</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5177</v>
+        <v>0.5829</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.4605</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6</v>
+        <v>0.6667</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4667</v>
+        <v>0.5833</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>375</v>
+        <v>841</v>
       </c>
       <c r="K17" t="n">
-        <v>172</v>
+        <v>469</v>
       </c>
       <c r="L17" t="n">
-        <v>209</v>
+        <v>476</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4587</v>
+        <v>0.5577</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5573</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7955</v>
+        <v>0.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4318</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5</v>
+        <v>0.3478</v>
       </c>
       <c r="N19" t="n">
-        <v>0.75</v>
+        <v>0.6957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3592,39 +3748,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3640,12 +3796,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -3663,12 +3819,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3684,39 +3840,35 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.2222</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.7778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-25</t>
+          <t>03-27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3732,25 +3884,29 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-26 08:00:00</t>
+          <t>2020-03-28 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7955</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4773</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H2" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I2" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H3" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I3" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H4" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I4" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H5" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I5" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H6" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I6" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H7" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I7" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H8" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I8" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H9" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I9" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H10" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I10" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H11" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I11" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="12">
@@ -801,55 +801,92 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>13264</v>
+        <v>13316</v>
       </c>
       <c r="H12" t="n">
-        <v>9998</v>
+        <v>10405</v>
       </c>
       <c r="I12" t="n">
-        <v>4230</v>
+        <v>4322</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7538</v>
+        <v>0.7814</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4231</v>
+        <v>0.4154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>03-28</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13316</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10405</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4322</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7814</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.966666666666667</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.022751137556878</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.1012</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="B14" t="n">
+        <v>-0.6623376623376623</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.7078651685393258</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.775</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.1347984080290707</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.2296395193591456</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -864,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,19 +983,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H2" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I2" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="3">
@@ -983,19 +1020,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H3" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I3" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="4">
@@ -1020,19 +1057,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H4" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I4" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="5">
@@ -1057,19 +1094,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H5" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I5" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="6">
@@ -1094,19 +1131,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H6" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I6" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="7">
@@ -1131,19 +1168,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H7" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I7" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="8">
@@ -1168,19 +1205,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H8" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I8" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="9">
@@ -1205,19 +1242,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H9" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I9" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1279,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H10" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I10" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="11">
@@ -1279,19 +1316,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H11" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I11" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="12">
@@ -1316,55 +1353,92 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>57090</v>
+        <v>58129</v>
       </c>
       <c r="H12" t="n">
-        <v>38373</v>
+        <v>39103</v>
       </c>
       <c r="I12" t="n">
-        <v>27198</v>
+        <v>28316</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6721</v>
+        <v>0.6727</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4764</v>
+        <v>0.4871</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>03-28</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1058</v>
+      </c>
+      <c r="C13" t="n">
+        <v>750</v>
+      </c>
+      <c r="D13" t="n">
+        <v>434</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7089</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="G13" t="n">
+        <v>58129</v>
+      </c>
+      <c r="H13" t="n">
+        <v>39103</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28316</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6727</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4871</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>-0.1904262753319357</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.1786757546251217</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.2818930041152263</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.01449073429009331</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.1127797408716137</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="B14" t="n">
+        <v>-0.543375053949072</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.5554238292827505</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.3782234957020058</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.02637000412031314</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3614337869233322</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1462,7 +1536,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1471,23 +1545,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3684</v>
+        <v>0.2609</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6429</v>
+        <v>0.3333</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1496,25 +1570,25 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="K2" t="n">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L2" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M2" t="n">
-        <v>0.745</v>
+        <v>0.7367</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5451</v>
+        <v>0.5466</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1523,23 +1597,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3462</v>
+        <v>0.6667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5556</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1548,505 +1622,503 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2325</v>
+        <v>2330</v>
       </c>
       <c r="K3" t="n">
-        <v>1951</v>
+        <v>2254</v>
       </c>
       <c r="L3" t="n">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8391</v>
+        <v>0.9674</v>
       </c>
       <c r="N3" t="n">
-        <v>0.162</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9167</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2727</v>
+        <v>0.6667</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>383</v>
+        <v>1184</v>
       </c>
       <c r="K4" t="n">
-        <v>239</v>
+        <v>781</v>
       </c>
       <c r="L4" t="n">
-        <v>177</v>
+        <v>672</v>
       </c>
       <c r="M4" t="n">
-        <v>0.624</v>
+        <v>0.6596</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7406</v>
+        <v>0.8604000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5833</v>
+        <v>0.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4286</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1178</v>
+        <v>1495</v>
       </c>
       <c r="K5" t="n">
-        <v>768</v>
+        <v>1448</v>
       </c>
       <c r="L5" t="n">
-        <v>655</v>
+        <v>525</v>
       </c>
       <c r="M5" t="n">
-        <v>0.652</v>
+        <v>0.9686</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8529</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1490</v>
+        <v>385</v>
       </c>
       <c r="K6" t="n">
-        <v>1441</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>516</v>
+        <v>180</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9671</v>
+        <v>0.6286</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3581</v>
+        <v>0.7438</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5714</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1315</v>
+        <v>651</v>
       </c>
       <c r="K7" t="n">
-        <v>1259</v>
+        <v>443</v>
       </c>
       <c r="L7" t="n">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9574</v>
+        <v>0.6805</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2391</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.5714</v>
-      </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>648</v>
+        <v>1317</v>
       </c>
       <c r="K8" t="n">
-        <v>440</v>
+        <v>1262</v>
       </c>
       <c r="L8" t="n">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="M8" t="n">
-        <v>0.679</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1205</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>637</v>
+        <v>357</v>
       </c>
       <c r="K9" t="n">
-        <v>478</v>
+        <v>248</v>
       </c>
       <c r="L9" t="n">
-        <v>341</v>
+        <v>125</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7504</v>
+        <v>0.6947</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7134</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7143</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>501</v>
+        <v>707</v>
       </c>
       <c r="K10" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9701</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2901</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>355</v>
+        <v>637</v>
       </c>
       <c r="K11" t="n">
-        <v>247</v>
+        <v>503</v>
       </c>
       <c r="L11" t="n">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6958</v>
+        <v>0.7896</v>
       </c>
       <c r="N11" t="n">
-        <v>0.498</v>
+        <v>0.6938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>407</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>329</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8084</v>
+        <v>0.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6717</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -2055,255 +2127,239 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>362</v>
+        <v>514</v>
       </c>
       <c r="K13" t="n">
-        <v>332</v>
+        <v>508</v>
       </c>
       <c r="L13" t="n">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9171</v>
+        <v>0.9883</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6566</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2020-03-29T07:00:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>13</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-03-28T08:00:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>513</v>
-      </c>
-      <c r="K14" t="n">
-        <v>482</v>
-      </c>
-      <c r="L14" t="n">
-        <v>195</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9396</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.4046</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>493</v>
+        <v>387</v>
       </c>
       <c r="K15" t="n">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="L15" t="n">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5294</v>
+        <v>0.9560999999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7816</v>
+        <v>0.6324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>705</v>
+        <v>363</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>333</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0071</v>
+        <v>0.9174</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6</v>
+        <v>0.6577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>387</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
-        <v>370</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9560999999999999</v>
+        <v>0.1875</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6324</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2311,253 +2367,235 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>541</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3571</v>
+        <v>0.3438</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="K20" t="n">
-        <v>183</v>
+        <v>494</v>
       </c>
       <c r="L20" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3376</v>
+        <v>0.986</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7268</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2308</v>
+        <v>0.2</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>493</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2</v>
+        <v>0.5294</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.7854</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2573,39 +2611,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2621,28 +2659,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-28T08:00:00</t>
+          <t>2020-03-29T07:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>407</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2</v>
+        <v>0.8084</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.6748</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2777,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2748,23 +2786,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="D2" t="n">
-        <v>309</v>
+        <v>179</v>
       </c>
       <c r="E2" t="n">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6268</v>
+        <v>0.7276</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2901</v>
+        <v>0.4268</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2773,77 +2811,77 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>8698</v>
+        <v>8936</v>
       </c>
       <c r="K2" t="n">
-        <v>6076</v>
+        <v>6251</v>
       </c>
       <c r="L2" t="n">
-        <v>4359</v>
+        <v>4581</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6986</v>
+        <v>0.6995</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5011</v>
+        <v>0.5125999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>475</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="E3" t="n">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8653</v>
+        <v>0.5926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2884</v>
+        <v>0.3565</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>6497</v>
+        <v>5023</v>
       </c>
       <c r="K3" t="n">
-        <v>4403</v>
+        <v>3078</v>
       </c>
       <c r="L3" t="n">
-        <v>3933</v>
+        <v>2234</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6777</v>
+        <v>0.6128</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6054</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2852,23 +2890,23 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>470</v>
+        <v>203</v>
       </c>
       <c r="D4" t="n">
-        <v>373</v>
+        <v>181</v>
       </c>
       <c r="E4" t="n">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7936</v>
+        <v>0.8915999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2596</v>
+        <v>0.468</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2877,77 +2915,77 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>21092</v>
+        <v>21291</v>
       </c>
       <c r="K4" t="n">
-        <v>15024</v>
+        <v>15199</v>
       </c>
       <c r="L4" t="n">
-        <v>8869</v>
+        <v>9138</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7123</v>
+        <v>0.7139</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4205</v>
+        <v>0.4292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6078</v>
+        <v>0.6889</v>
       </c>
       <c r="G5" t="n">
-        <v>0.366</v>
+        <v>0.4222</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4800</v>
+        <v>6582</v>
       </c>
       <c r="K5" t="n">
-        <v>2949</v>
+        <v>4461</v>
       </c>
       <c r="L5" t="n">
-        <v>2087</v>
+        <v>4045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6143999999999999</v>
+        <v>0.6778</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4348</v>
+        <v>0.6146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2956,23 +2994,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2222</v>
+        <v>0.4706</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2981,661 +3019,661 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2624</v>
+        <v>2672</v>
       </c>
       <c r="K6" t="n">
-        <v>1645</v>
+        <v>1671</v>
       </c>
       <c r="L6" t="n">
-        <v>1061</v>
+        <v>1117</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6269</v>
+        <v>0.6254</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4043</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8529</v>
+        <v>0.6042</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3627</v>
+        <v>0.2292</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1607</v>
+        <v>2503</v>
       </c>
       <c r="K7" t="n">
-        <v>1100</v>
+        <v>1701</v>
       </c>
       <c r="L7" t="n">
-        <v>994</v>
+        <v>1148</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6845</v>
+        <v>0.6796</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6185</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8375</v>
+        <v>0.7174</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3375</v>
+        <v>0.4348</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>485</v>
+        <v>1506</v>
       </c>
       <c r="K8" t="n">
-        <v>263</v>
+        <v>1026</v>
       </c>
       <c r="L8" t="n">
-        <v>266</v>
+        <v>906</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5423</v>
+        <v>0.6813</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5485</v>
+        <v>0.6016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6892</v>
+        <v>0.5227000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3243</v>
+        <v>0.2273</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2456</v>
+        <v>1375</v>
       </c>
       <c r="K9" t="n">
-        <v>1672</v>
+        <v>725</v>
       </c>
       <c r="L9" t="n">
-        <v>1106</v>
+        <v>661</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6808</v>
+        <v>0.5273</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4503</v>
+        <v>0.4807</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4462</v>
+        <v>0.8333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2154</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1335</v>
+        <v>1629</v>
       </c>
       <c r="K10" t="n">
-        <v>704</v>
+        <v>1119</v>
       </c>
       <c r="L10" t="n">
-        <v>621</v>
+        <v>1021</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5273</v>
+        <v>0.6869</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4652</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6556999999999999</v>
+        <v>0.913</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2295</v>
+        <v>0.8260999999999999</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1273</v>
+        <v>508</v>
       </c>
       <c r="K11" t="n">
-        <v>740</v>
+        <v>283</v>
       </c>
       <c r="L11" t="n">
-        <v>582</v>
+        <v>316</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5813</v>
+        <v>0.5571</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4572</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7193000000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2982</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1417</v>
+        <v>1010</v>
       </c>
       <c r="K12" t="n">
-        <v>908</v>
+        <v>571</v>
       </c>
       <c r="L12" t="n">
-        <v>699</v>
+        <v>554</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6408</v>
+        <v>0.5653</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4933</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7805</v>
+        <v>0.7333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4878</v>
+        <v>0.3333</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>994</v>
+        <v>1432</v>
       </c>
       <c r="K13" t="n">
-        <v>562</v>
+        <v>919</v>
       </c>
       <c r="L13" t="n">
-        <v>538</v>
+        <v>719</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5654</v>
+        <v>0.6418</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5412</v>
+        <v>0.5021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6216</v>
+        <v>0.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5676</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1460</v>
+        <v>1281</v>
       </c>
       <c r="K14" t="n">
-        <v>992</v>
+        <v>743</v>
       </c>
       <c r="L14" t="n">
-        <v>851</v>
+        <v>598</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6795</v>
+        <v>0.58</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5829</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6571</v>
+        <v>0.7778</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3714</v>
+        <v>0.1111</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>493</v>
+        <v>932</v>
       </c>
       <c r="K15" t="n">
-        <v>267</v>
+        <v>545</v>
       </c>
       <c r="L15" t="n">
-        <v>281</v>
+        <v>444</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5416</v>
+        <v>0.5848</v>
       </c>
       <c r="N15" t="n">
-        <v>0.57</v>
+        <v>0.4764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5172</v>
+        <v>0.4286</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4828</v>
+        <v>0.7143</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>923</v>
+        <v>501</v>
       </c>
       <c r="K16" t="n">
-        <v>538</v>
+        <v>271</v>
       </c>
       <c r="L16" t="n">
-        <v>425</v>
+        <v>294</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5829</v>
+        <v>0.5409</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4605</v>
+        <v>0.5868</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2020-03-29 07:00:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>8</v>
       </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-03-28 08:00:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>西安</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>841</v>
-      </c>
       <c r="K17" t="n">
-        <v>469</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5577</v>
+        <v>0.625</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.6</v>
-      </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>845</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>471</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>484</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5</v>
+        <v>0.5574</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3333</v>
+        <v>0.5728</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -3644,95 +3682,91 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3478</v>
+        <v>0.7143</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6957</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6667</v>
+        <v>0.3478</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8333</v>
+        <v>0.7826</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3748,39 +3782,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5</v>
+        <v>0.7955</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5</v>
+        <v>0.4773</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3796,35 +3830,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3840,12 +3878,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -3863,12 +3901,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-27</t>
+          <t>03-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3884,29 +3922,25 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-28 08:00:00</t>
+          <t>2020-03-29 07:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>21</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.7955</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.4773</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H2" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I2" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H3" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I3" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H4" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I4" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H5" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I5" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H6" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I6" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H7" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I7" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H8" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I8" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H9" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I9" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H10" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I10" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H11" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I11" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H12" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I12" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="13">
@@ -838,55 +838,129 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>13316</v>
+        <v>13499</v>
       </c>
       <c r="H13" t="n">
-        <v>10405</v>
+        <v>10690</v>
       </c>
       <c r="I13" t="n">
-        <v>4322</v>
+        <v>4521</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7814</v>
+        <v>0.7919</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4154</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>03-29</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>101</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51</v>
+      </c>
+      <c r="D14" t="n">
+        <v>28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13499</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10690</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4521</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7919</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4229</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>03-30</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79</v>
+      </c>
+      <c r="C15" t="n">
+        <v>48</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6076</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5417</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13499</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10690</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4521</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7919</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4229</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-0.6623376623376623</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.7078651685393258</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.775</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.1347984080290707</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.2296395193591456</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="B16" t="n">
+        <v>-0.2178217821782178</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.05882352941176471</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.07142857142857142</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2031683168316832</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.01329690346083804</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,19 +1057,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H2" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I2" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="3">
@@ -1020,19 +1094,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H3" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I3" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="4">
@@ -1057,19 +1131,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H4" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I4" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="5">
@@ -1094,19 +1168,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H5" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I5" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="6">
@@ -1131,19 +1205,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H6" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I6" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="7">
@@ -1168,19 +1242,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H7" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I7" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="8">
@@ -1205,19 +1279,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H8" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I8" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="9">
@@ -1242,19 +1316,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H9" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I9" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="10">
@@ -1279,19 +1353,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H10" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I10" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="11">
@@ -1316,19 +1390,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H11" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I11" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="12">
@@ -1353,19 +1427,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H12" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I12" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="13">
@@ -1390,55 +1464,129 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>58129</v>
+        <v>60783</v>
       </c>
       <c r="H13" t="n">
-        <v>39103</v>
+        <v>40870</v>
       </c>
       <c r="I13" t="n">
-        <v>28316</v>
+        <v>30344</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6727</v>
+        <v>0.6724</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4871</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>03-29</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>923</v>
+      </c>
+      <c r="C14" t="n">
+        <v>546</v>
+      </c>
+      <c r="D14" t="n">
+        <v>414</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5915</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4485</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60783</v>
+      </c>
+      <c r="H14" t="n">
+        <v>40870</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30344</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6724</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4992</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>03-30</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1705</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>597</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7044</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3501</v>
+      </c>
+      <c r="G15" t="n">
+        <v>60783</v>
+      </c>
+      <c r="H15" t="n">
+        <v>40870</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30344</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6724</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4992</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-0.543375053949072</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.5554238292827505</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.3782234957020058</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.02637000412031314</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3614337869233322</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="B16" t="n">
+        <v>0.847237269772481</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.1996336996337</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4420289855072464</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1908706677937447</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.2193979933110368</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1536,473 +1684,475 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2609</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>976</v>
+        <v>2363</v>
       </c>
       <c r="K2" t="n">
-        <v>719</v>
+        <v>2294</v>
       </c>
       <c r="L2" t="n">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7367</v>
+        <v>0.9708</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5466</v>
+        <v>0.1539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6667</v>
+        <v>0.1875</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2330</v>
+        <v>997</v>
       </c>
       <c r="K3" t="n">
-        <v>2254</v>
+        <v>732</v>
       </c>
       <c r="L3" t="n">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9674</v>
+        <v>0.7342</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1486</v>
+        <v>0.5478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0.6667</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1184</v>
+        <v>1332</v>
       </c>
       <c r="K4" t="n">
-        <v>781</v>
+        <v>1294</v>
       </c>
       <c r="L4" t="n">
-        <v>672</v>
+        <v>333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6596</v>
+        <v>0.9715</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8604000000000001</v>
+        <v>0.2573</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1495</v>
+        <v>1199</v>
       </c>
       <c r="K5" t="n">
-        <v>1448</v>
+        <v>810</v>
       </c>
       <c r="L5" t="n">
-        <v>525</v>
+        <v>695</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9686</v>
+        <v>0.6756</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3626</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>385</v>
+        <v>1514</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>1463</v>
       </c>
       <c r="L6" t="n">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6286</v>
+        <v>0.9663</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7438</v>
+        <v>0.3732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>651</v>
+        <v>509</v>
       </c>
       <c r="K7" t="n">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="L7" t="n">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6805</v>
+        <v>0.9862</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1242</v>
+        <v>0.2908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1317</v>
+        <v>394</v>
       </c>
       <c r="K8" t="n">
-        <v>1262</v>
+        <v>374</v>
       </c>
       <c r="L8" t="n">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9582000000000001</v>
+        <v>0.9492</v>
       </c>
       <c r="N8" t="n">
-        <v>0.248</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>357</v>
+        <v>717</v>
       </c>
       <c r="K9" t="n">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6947</v>
+        <v>0.0195</v>
       </c>
       <c r="N9" t="n">
-        <v>0.504</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>707</v>
+        <v>362</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.6906</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2011,23 +2161,23 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2036,34 +2186,34 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="K11" t="n">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="L11" t="n">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7896</v>
+        <v>0.8536</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6938</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2072,41 +2222,41 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>543</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4</v>
+        <v>0.3462</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8333</v>
+        <v>0.7447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2115,10 +2265,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -2127,11 +2277,11 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2140,34 +2290,34 @@
         </is>
       </c>
       <c r="J13" t="n">
+        <v>522</v>
+      </c>
+      <c r="K13" t="n">
         <v>514</v>
       </c>
-      <c r="K13" t="n">
-        <v>508</v>
-      </c>
       <c r="L13" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9883</v>
+        <v>0.9847</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3996</v>
+        <v>0.4047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2175,287 +2325,309 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2308</v>
+        <v>0.2</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="K15" t="n">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="L15" t="n">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9560999999999999</v>
+        <v>0.8127</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6324</v>
+        <v>0.6737</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="K16" t="n">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="L16" t="n">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9174</v>
+        <v>0.6787</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6577</v>
+        <v>0.7197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
         <v>3</v>
       </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
       <c r="M17" t="n">
-        <v>0.1875</v>
+        <v>0.2857</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="M18" t="n">
-        <v>0.25</v>
+        <v>0.9176</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0.6677</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>541</v>
+        <v>19</v>
       </c>
       <c r="K19" t="n">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3438</v>
+        <v>0.5263</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7258</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2463,43 +2635,45 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>501</v>
+        <v>12</v>
       </c>
       <c r="K20" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.986</v>
+        <v>0.1667</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2515,39 +2689,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J21" t="n">
+        <v>18</v>
+      </c>
+      <c r="K21" t="n">
         <v>10</v>
       </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2</v>
+        <v>0.5556</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2563,39 +2737,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>493</v>
+        <v>657</v>
       </c>
       <c r="K22" t="n">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="L22" t="n">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5294</v>
+        <v>0.7245</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7854</v>
+        <v>0.1239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2611,39 +2785,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2</v>
+        <v>0.2857</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2659,28 +2833,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-29T07:00:00</t>
+          <t>2020-03-31T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>407</v>
+        <v>497</v>
       </c>
       <c r="K24" t="n">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="L24" t="n">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8084</v>
+        <v>0.5372</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6748</v>
+        <v>0.7978</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2951,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2786,23 +2960,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>246</v>
+        <v>419</v>
       </c>
       <c r="D2" t="n">
-        <v>179</v>
+        <v>324</v>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7276</v>
+        <v>0.7733</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4268</v>
+        <v>0.3771</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2811,129 +2985,129 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>8936</v>
+        <v>9528</v>
       </c>
       <c r="K2" t="n">
-        <v>6251</v>
+        <v>6675</v>
       </c>
       <c r="L2" t="n">
-        <v>4581</v>
+        <v>4972</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6995</v>
+        <v>0.7006</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5125999999999999</v>
+        <v>0.5218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="D3" t="n">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5926</v>
+        <v>0.6746</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3565</v>
+        <v>0.4024</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5023</v>
+        <v>21859</v>
       </c>
       <c r="K3" t="n">
-        <v>3078</v>
+        <v>15554</v>
       </c>
       <c r="L3" t="n">
-        <v>2234</v>
+        <v>9651</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6128</v>
+        <v>0.7116</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4448</v>
+        <v>0.4415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D4" t="n">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="E4" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8915999999999999</v>
+        <v>0.6822</v>
       </c>
       <c r="G4" t="n">
-        <v>0.468</v>
+        <v>0.3364</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>21291</v>
+        <v>5353</v>
       </c>
       <c r="K4" t="n">
-        <v>15199</v>
+        <v>3294</v>
       </c>
       <c r="L4" t="n">
-        <v>9138</v>
+        <v>2455</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7139</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4292</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2942,23 +3116,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6889</v>
+        <v>0.7638</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4222</v>
+        <v>0.3367</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2967,25 +3141,25 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>6582</v>
+        <v>6919</v>
       </c>
       <c r="K5" t="n">
-        <v>4461</v>
+        <v>4708</v>
       </c>
       <c r="L5" t="n">
-        <v>4045</v>
+        <v>4302</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6778</v>
+        <v>0.6804</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6146</v>
+        <v>0.6218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2994,23 +3168,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.6821</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4706</v>
+        <v>0.1965</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3019,25 +3193,25 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2672</v>
+        <v>2874</v>
       </c>
       <c r="K6" t="n">
-        <v>1671</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
-        <v>1117</v>
+        <v>1231</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6254</v>
+        <v>0.6263</v>
       </c>
       <c r="N6" t="n">
-        <v>0.418</v>
+        <v>0.4283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3046,23 +3220,23 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6042</v>
+        <v>0.7368</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2292</v>
+        <v>0.3289</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3071,337 +3245,337 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2503</v>
+        <v>2653</v>
       </c>
       <c r="K7" t="n">
-        <v>1701</v>
+        <v>1808</v>
       </c>
       <c r="L7" t="n">
-        <v>1148</v>
+        <v>1242</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6796</v>
+        <v>0.6815</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4586</v>
+        <v>0.4681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
         <v>46</v>
       </c>
-      <c r="D8" t="n">
-        <v>33</v>
-      </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7174</v>
+        <v>0.7302</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4348</v>
+        <v>0.4286</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1506</v>
+        <v>571</v>
       </c>
       <c r="K8" t="n">
-        <v>1026</v>
+        <v>322</v>
       </c>
       <c r="L8" t="n">
-        <v>906</v>
+        <v>351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6813</v>
+        <v>0.5639</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6016</v>
+        <v>0.6147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5227000000000001</v>
+        <v>0.6863</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2273</v>
+        <v>0.3137</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1375</v>
+        <v>1693</v>
       </c>
       <c r="K9" t="n">
-        <v>725</v>
+        <v>1164</v>
       </c>
       <c r="L9" t="n">
-        <v>661</v>
+        <v>1066</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5273</v>
+        <v>0.6875</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4807</v>
+        <v>0.6297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8333</v>
+        <v>0.6047</v>
       </c>
       <c r="G10" t="n">
-        <v>0.375</v>
+        <v>0.2326</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1629</v>
+        <v>984</v>
       </c>
       <c r="K10" t="n">
-        <v>1119</v>
+        <v>574</v>
       </c>
       <c r="L10" t="n">
-        <v>1021</v>
+        <v>476</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6869</v>
+        <v>0.5833</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6268</v>
+        <v>0.4837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>0.913</v>
+        <v>0.6129</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8260999999999999</v>
+        <v>0.4839</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>508</v>
+        <v>1558</v>
       </c>
       <c r="K11" t="n">
-        <v>283</v>
+        <v>1058</v>
       </c>
       <c r="L11" t="n">
-        <v>316</v>
+        <v>967</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5571</v>
+        <v>0.6791</v>
       </c>
       <c r="N11" t="n">
-        <v>0.622</v>
+        <v>0.6207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5625</v>
+        <v>0.8636</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.1818</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1010</v>
+        <v>1464</v>
       </c>
       <c r="K12" t="n">
-        <v>571</v>
+        <v>943</v>
       </c>
       <c r="L12" t="n">
-        <v>554</v>
+        <v>747</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5653</v>
+        <v>0.6441</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5485</v>
+        <v>0.5102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7333</v>
+        <v>0.4545</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3333</v>
+        <v>0.2727</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1432</v>
+        <v>1445</v>
       </c>
       <c r="K13" t="n">
-        <v>919</v>
+        <v>770</v>
       </c>
       <c r="L13" t="n">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6418</v>
+        <v>0.5329</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5021</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3410,23 +3584,23 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4</v>
+        <v>0.619</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.5238</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3435,338 +3609,342 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1281</v>
+        <v>1312</v>
       </c>
       <c r="K14" t="n">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="L14" t="n">
-        <v>598</v>
+        <v>644</v>
       </c>
       <c r="M14" t="n">
-        <v>0.58</v>
+        <v>0.5785</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4668</v>
+        <v>0.4909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7778</v>
+        <v>0.3333</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1111</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>932</v>
+        <v>14</v>
       </c>
       <c r="K15" t="n">
-        <v>545</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>444</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5848</v>
+        <v>0.3571</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4764</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4286</v>
+        <v>0.3636</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7143</v>
+        <v>0.4545</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>501</v>
+        <v>1049</v>
       </c>
       <c r="K16" t="n">
-        <v>271</v>
+        <v>590</v>
       </c>
       <c r="L16" t="n">
-        <v>294</v>
+        <v>591</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5409</v>
+        <v>0.5624</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5868</v>
+        <v>0.5634</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>532</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="M17" t="n">
-        <v>0.625</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="N17" t="n">
-        <v>0.25</v>
+        <v>0.6504</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>845</v>
+        <v>13</v>
       </c>
       <c r="K18" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5574</v>
+        <v>0.4615</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5728</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>861</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>508</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7143</v>
+        <v>0.5528</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8571</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3478</v>
+        <v>0.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7826</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3782,39 +3960,35 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>21</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.7955</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.4773</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3830,39 +4004,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="M22" t="n">
+        <v>0.7955</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3878,35 +4052,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3478</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7826</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-28</t>
+          <t>03-30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3922,12 +4100,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-29 07:00:00</t>
+          <t>2020-03-31 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J24" t="n">

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H2" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I2" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H3" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I3" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H4" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I4" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H5" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I5" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H6" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I6" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H7" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I7" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H8" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I8" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H9" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I9" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H10" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I10" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H11" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I11" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H12" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I12" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H13" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I13" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H14" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I14" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="15">
@@ -912,55 +912,92 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>13499</v>
+        <v>13601</v>
       </c>
       <c r="H15" t="n">
-        <v>10690</v>
+        <v>10897</v>
       </c>
       <c r="I15" t="n">
-        <v>4521</v>
+        <v>4690</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7919</v>
+        <v>0.8012</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4229</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>03-31</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>104</v>
+      </c>
+      <c r="C16" t="n">
+        <v>55</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5288</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6364</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13601</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10897</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4690</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8012</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4304</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-0.2178217821782178</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.05882352941176471</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.07142857142857142</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.2031683168316832</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.01329690346083804</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="B17" t="n">
+        <v>0.3164556962025317</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.129690585911784</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1748200110762415</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -975,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,19 +1094,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H2" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I2" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="3">
@@ -1094,19 +1131,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H3" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I3" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="4">
@@ -1131,19 +1168,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H4" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I4" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="5">
@@ -1168,19 +1205,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H5" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I5" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="6">
@@ -1205,19 +1242,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H6" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I6" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="7">
@@ -1242,19 +1279,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H7" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I7" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="8">
@@ -1279,19 +1316,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H8" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I8" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="9">
@@ -1316,19 +1353,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H9" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I9" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="10">
@@ -1353,19 +1390,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H10" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I10" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="11">
@@ -1390,19 +1427,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H11" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I11" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="12">
@@ -1427,19 +1464,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H12" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I12" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="13">
@@ -1464,19 +1501,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H13" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I13" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="14">
@@ -1501,19 +1538,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H14" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I14" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="15">
@@ -1538,55 +1575,92 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>60783</v>
+        <v>62423</v>
       </c>
       <c r="H15" t="n">
-        <v>40870</v>
+        <v>42009</v>
       </c>
       <c r="I15" t="n">
-        <v>30344</v>
+        <v>31411</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6724</v>
+        <v>0.673</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4992</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>03-31</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1153</v>
+      </c>
+      <c r="D16" t="n">
+        <v>581</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6917</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3485</v>
+      </c>
+      <c r="G16" t="n">
+        <v>62423</v>
+      </c>
+      <c r="H16" t="n">
+        <v>42009</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31411</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5032</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.847237269772481</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.1996336996337</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4420289855072464</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1908706677937447</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.2193979933110368</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="B17" t="n">
+        <v>-0.02228739002932551</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.03996669442131557</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.02680067001675042</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.01802952867688819</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.004570122822050974</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1684,532 +1758,532 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.25</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2363</v>
+        <v>1018</v>
       </c>
       <c r="K2" t="n">
-        <v>2294</v>
+        <v>737</v>
       </c>
       <c r="L2" t="n">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9708</v>
+        <v>0.724</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1539</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1875</v>
+        <v>0.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.5714</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>997</v>
+        <v>1221</v>
       </c>
       <c r="K3" t="n">
-        <v>732</v>
+        <v>824</v>
       </c>
       <c r="L3" t="n">
-        <v>401</v>
+        <v>708</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7342</v>
+        <v>0.6749000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5478</v>
+        <v>0.8592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.2143</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6667</v>
+        <v>0.3333</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1332</v>
+        <v>2376</v>
       </c>
       <c r="K4" t="n">
-        <v>1294</v>
+        <v>2353</v>
       </c>
       <c r="L4" t="n">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9715</v>
+        <v>0.9903</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2573</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6667</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1199</v>
+        <v>1521</v>
       </c>
       <c r="K5" t="n">
-        <v>810</v>
+        <v>1467</v>
       </c>
       <c r="L5" t="n">
-        <v>695</v>
+        <v>553</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6756</v>
+        <v>0.9645</v>
       </c>
       <c r="N5" t="n">
-        <v>0.858</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.8333</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1514</v>
+        <v>648</v>
       </c>
       <c r="K6" t="n">
-        <v>1463</v>
+        <v>647</v>
       </c>
       <c r="L6" t="n">
-        <v>546</v>
+        <v>473</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9663</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3732</v>
+        <v>0.7311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
       <c r="F7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.6667</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>509</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>502</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9862</v>
+        <v>0.6087</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2908</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.75</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>394</v>
+        <v>1336</v>
       </c>
       <c r="K8" t="n">
-        <v>374</v>
+        <v>1296</v>
       </c>
       <c r="L8" t="n">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9492</v>
+        <v>0.9701</v>
       </c>
       <c r="N8" t="n">
-        <v>0.639</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>717</v>
+        <v>525</v>
       </c>
       <c r="K9" t="n">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0195</v>
+        <v>0.9829</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>362</v>
+        <v>512</v>
       </c>
       <c r="K10" t="n">
-        <v>250</v>
+        <v>505</v>
       </c>
       <c r="L10" t="n">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6906</v>
+        <v>0.9863</v>
       </c>
       <c r="N10" t="n">
-        <v>0.512</v>
+        <v>0.2931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.3333</v>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>642</v>
+        <v>392</v>
       </c>
       <c r="K11" t="n">
-        <v>548</v>
+        <v>266</v>
       </c>
       <c r="L11" t="n">
-        <v>394</v>
+        <v>195</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8536</v>
+        <v>0.6786</v>
       </c>
       <c r="N11" t="n">
-        <v>0.719</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2229,39 +2303,39 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>543</v>
+        <v>659</v>
       </c>
       <c r="K12" t="n">
-        <v>188</v>
+        <v>477</v>
       </c>
       <c r="L12" t="n">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3462</v>
+        <v>0.7238</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7447</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2271,151 +2345,153 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>522</v>
+        <v>21</v>
       </c>
       <c r="K13" t="n">
-        <v>514</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9847</v>
+        <v>0.5714</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4047</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2</v>
+        <v>0.9495</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="K15" t="n">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="L15" t="n">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8127</v>
+        <v>0.6904</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6737</v>
+        <v>0.5159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2435,91 +2511,89 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>389</v>
+        <v>719</v>
       </c>
       <c r="K16" t="n">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="L16" t="n">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6787</v>
+        <v>0.0223</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7197</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>224</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2857</v>
+        <v>0.9151</v>
       </c>
       <c r="N17" t="n">
-        <v>0.75</v>
+        <v>0.6707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2539,39 +2613,39 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>364</v>
+        <v>497</v>
       </c>
       <c r="K18" t="n">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="L18" t="n">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9176</v>
+        <v>0.5392</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6677</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2591,137 +2665,143 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>19</v>
+        <v>544</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5263</v>
+        <v>0.3474</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8</v>
+        <v>0.7566000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1667</v>
+        <v>0.2727</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>412</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5556</v>
+        <v>0.8131</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7</v>
+        <v>0.6746</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2737,39 +2817,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>657</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7245</v>
+        <v>0.2857</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1239</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2785,12 +2865,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -2812,12 +2892,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2833,28 +2913,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-31T08:00:00</t>
+          <t>2020-04-01T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>497</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5372</v>
+        <v>0.1667</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7978</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +3031,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2960,23 +3040,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>419</v>
+        <v>629</v>
       </c>
       <c r="D2" t="n">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="E2" t="n">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7733</v>
+        <v>0.6614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3771</v>
+        <v>0.3418</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2985,129 +3065,129 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>9528</v>
+        <v>10147</v>
       </c>
       <c r="K2" t="n">
-        <v>6675</v>
+        <v>7084</v>
       </c>
       <c r="L2" t="n">
-        <v>4972</v>
+        <v>5280</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7006</v>
+        <v>0.6981000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5218</v>
+        <v>0.5204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="D3" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E3" t="n">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6746</v>
+        <v>0.7309</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4024</v>
+        <v>0.3588</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>21859</v>
+        <v>5655</v>
       </c>
       <c r="K3" t="n">
-        <v>15554</v>
+        <v>3516</v>
       </c>
       <c r="L3" t="n">
-        <v>9651</v>
+        <v>2620</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7116</v>
+        <v>0.6218</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4415</v>
+        <v>0.4633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="D4" t="n">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6822</v>
+        <v>0.7929</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3364</v>
+        <v>0.3179</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5353</v>
+        <v>22136</v>
       </c>
       <c r="K4" t="n">
-        <v>3294</v>
+        <v>15775</v>
       </c>
       <c r="L4" t="n">
-        <v>2455</v>
+        <v>9865</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.7126</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4586</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3116,23 +3196,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D5" t="n">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7638</v>
+        <v>0.7417</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3367</v>
+        <v>0.3642</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3141,441 +3221,441 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>6919</v>
+        <v>7062</v>
       </c>
       <c r="K5" t="n">
-        <v>4708</v>
+        <v>4814</v>
       </c>
       <c r="L5" t="n">
-        <v>4302</v>
+        <v>4403</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6804</v>
+        <v>0.6817</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6218</v>
+        <v>0.6235000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6821</v>
+        <v>0.7432</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1965</v>
+        <v>0.2973</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2874</v>
+        <v>2727</v>
       </c>
       <c r="K6" t="n">
-        <v>1800</v>
+        <v>1863</v>
       </c>
       <c r="L6" t="n">
-        <v>1231</v>
+        <v>1292</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6263</v>
+        <v>0.6832</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4283</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7368</v>
+        <v>0.4328</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3289</v>
+        <v>0.3582</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2653</v>
+        <v>2941</v>
       </c>
       <c r="K7" t="n">
-        <v>1808</v>
+        <v>1830</v>
       </c>
       <c r="L7" t="n">
-        <v>1242</v>
+        <v>1281</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6815</v>
+        <v>0.6222</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4681</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7302</v>
+        <v>0.5581</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4286</v>
+        <v>0.3023</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>571</v>
+        <v>1600</v>
       </c>
       <c r="K8" t="n">
-        <v>322</v>
+        <v>1082</v>
       </c>
       <c r="L8" t="n">
-        <v>351</v>
+        <v>994</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5639</v>
+        <v>0.6763</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6147</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6863</v>
+        <v>0.6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3137</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1693</v>
+        <v>878</v>
       </c>
       <c r="K9" t="n">
-        <v>1164</v>
+        <v>488</v>
       </c>
       <c r="L9" t="n">
-        <v>1066</v>
+        <v>527</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6875</v>
+        <v>0.5558</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6297</v>
+        <v>0.6002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6047</v>
+        <v>0.65</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2326</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>984</v>
+        <v>1484</v>
       </c>
       <c r="K10" t="n">
-        <v>574</v>
+        <v>956</v>
       </c>
       <c r="L10" t="n">
-        <v>476</v>
+        <v>766</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5833</v>
+        <v>0.6442</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4837</v>
+        <v>0.5162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6129</v>
+        <v>0.7692</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4839</v>
+        <v>0.4615</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1558</v>
+        <v>583</v>
       </c>
       <c r="K11" t="n">
-        <v>1058</v>
+        <v>331</v>
       </c>
       <c r="L11" t="n">
-        <v>967</v>
+        <v>360</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6791</v>
+        <v>0.5678</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6207</v>
+        <v>0.6175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8636</v>
+        <v>0.8333</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1818</v>
+        <v>0.4167</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="K12" t="n">
-        <v>943</v>
+        <v>779</v>
       </c>
       <c r="L12" t="n">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6441</v>
+        <v>0.5343</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5102</v>
+        <v>0.5089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4545</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2727</v>
+        <v>0.3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1445</v>
+        <v>542</v>
       </c>
       <c r="K13" t="n">
-        <v>770</v>
+        <v>304</v>
       </c>
       <c r="L13" t="n">
-        <v>724</v>
+        <v>360</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5329</v>
+        <v>0.5609</v>
       </c>
       <c r="N13" t="n">
-        <v>0.501</v>
+        <v>0.6642</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3584,23 +3664,23 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0.619</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5238</v>
+        <v>0.3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3609,77 +3689,77 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="K14" t="n">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L14" t="n">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4909</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3333</v>
+        <v>0.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>1703</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>1171</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>1088</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3571</v>
+        <v>0.6876</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5714</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3688,23 +3768,23 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
       <c r="F16" t="n">
-        <v>0.3636</v>
+        <v>0.3333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4545</v>
+        <v>0.4444</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3713,181 +3793,181 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="K16" t="n">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L16" t="n">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5624</v>
+        <v>0.5611</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5634</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>532</v>
+        <v>992</v>
       </c>
       <c r="K17" t="n">
-        <v>299</v>
+        <v>578</v>
       </c>
       <c r="L17" t="n">
-        <v>346</v>
+        <v>489</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5827</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6504</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4615</v>
+        <v>0.4211</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3846</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2020-04-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-03-31 08:00:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>西安</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>861</v>
-      </c>
-      <c r="K19" t="n">
-        <v>476</v>
-      </c>
       <c r="L19" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5528</v>
+        <v>0.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3896,23 +3976,23 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3921,30 +4001,30 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M20" t="n">
         <v>0.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3960,30 +4040,34 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3846</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4004,7 +4088,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4031,7 +4115,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4052,7 +4136,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4079,7 +4163,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-30</t>
+          <t>03-31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4100,7 +4184,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-03-31 08:00:00</t>
+          <t>2020-04-01 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H2" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I2" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H3" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I3" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H4" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I4" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H5" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I5" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H6" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I6" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H7" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I7" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H8" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I8" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H9" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I9" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H10" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I10" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H11" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I11" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H12" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I12" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H13" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I13" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H14" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I14" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H15" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I15" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="16">
@@ -949,55 +949,92 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>13601</v>
+        <v>13679</v>
       </c>
       <c r="H16" t="n">
-        <v>10897</v>
+        <v>10937</v>
       </c>
       <c r="I16" t="n">
-        <v>4690</v>
+        <v>4725</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8012</v>
+        <v>0.7995</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4304</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>04-01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5667</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13679</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10937</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4725</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7995</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.3164556962025317</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.129690585911784</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1748200110762415</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="B18" t="n">
+        <v>-0.2788461538461539</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.4545454545454545</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.5142857142857142</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.24357034795764</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1095223130106851</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1012,7 +1049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,19 +1131,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H2" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I2" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J2" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="3">
@@ -1131,19 +1168,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H3" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I3" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J3" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="4">
@@ -1168,19 +1205,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H4" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I4" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J4" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="5">
@@ -1205,19 +1242,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H5" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I5" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J5" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="6">
@@ -1242,19 +1279,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H6" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I6" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J6" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="7">
@@ -1279,19 +1316,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H7" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I7" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J7" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="8">
@@ -1316,19 +1353,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H8" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I8" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J8" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="9">
@@ -1353,19 +1390,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H9" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I9" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J9" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="10">
@@ -1390,19 +1427,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H10" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I10" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J10" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="11">
@@ -1427,19 +1464,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H11" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I11" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J11" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="12">
@@ -1464,19 +1501,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H12" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I12" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J12" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="13">
@@ -1501,19 +1538,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H13" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I13" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J13" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="14">
@@ -1538,19 +1575,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H14" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I14" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J14" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="15">
@@ -1575,19 +1612,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H15" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I15" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J15" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="16">
@@ -1612,55 +1649,92 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>62423</v>
+        <v>65358</v>
       </c>
       <c r="H16" t="n">
-        <v>42009</v>
+        <v>44413</v>
       </c>
       <c r="I16" t="n">
-        <v>31411</v>
+        <v>32675</v>
       </c>
       <c r="J16" t="n">
-        <v>0.673</v>
+        <v>0.6795</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5032</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
+          <t>04-01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2801</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2284</v>
+      </c>
+      <c r="D17" t="n">
+        <v>813</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8154</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2903</v>
+      </c>
+      <c r="G17" t="n">
+        <v>65358</v>
+      </c>
+      <c r="H17" t="n">
+        <v>44413</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32675</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6795</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-0.02228739002932551</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.03996669442131557</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.02680067001675042</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.01802952867688819</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.004570122822050974</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="B18" t="n">
+        <v>0.6802639472105579</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9809193408499567</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3993115318416523</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1788347549515686</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1670014347202295</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1758,7 +1832,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1767,23 +1841,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1792,398 +1866,398 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="K2" t="n">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L2" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M2" t="n">
-        <v>0.724</v>
+        <v>0.7102000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5495</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5714</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1221</v>
+        <v>2388</v>
       </c>
       <c r="K3" t="n">
-        <v>824</v>
+        <v>2361</v>
       </c>
       <c r="L3" t="n">
-        <v>708</v>
+        <v>370</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6749000000000001</v>
+        <v>0.9887</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8592</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2143</v>
+        <v>0.375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3333</v>
+        <v>0.6667</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2376</v>
+        <v>1227</v>
       </c>
       <c r="K4" t="n">
-        <v>2353</v>
+        <v>827</v>
       </c>
       <c r="L4" t="n">
-        <v>364</v>
+        <v>712</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9903</v>
+        <v>0.674</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1547</v>
+        <v>0.8609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1521</v>
+        <v>532</v>
       </c>
       <c r="K5" t="n">
-        <v>1467</v>
+        <v>522</v>
       </c>
       <c r="L5" t="n">
-        <v>553</v>
+        <v>216</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9645</v>
+        <v>0.9812</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.4138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8333</v>
+        <v>0.4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="K6" t="n">
-        <v>647</v>
+        <v>480</v>
       </c>
       <c r="L6" t="n">
-        <v>473</v>
+        <v>62</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.7229</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7311</v>
+        <v>0.1292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>1341</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>1297</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>361</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6087</v>
+        <v>0.9671999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7143</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1336</v>
+        <v>1525</v>
       </c>
       <c r="K8" t="n">
-        <v>1296</v>
+        <v>1470</v>
       </c>
       <c r="L8" t="n">
-        <v>360</v>
+        <v>557</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9701</v>
+        <v>0.9639</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2778</v>
+        <v>0.3789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6667</v>
+        <v>0.75</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>525</v>
+        <v>652</v>
       </c>
       <c r="K9" t="n">
-        <v>516</v>
+        <v>650</v>
       </c>
       <c r="L9" t="n">
-        <v>212</v>
+        <v>476</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9829</v>
+        <v>0.9969</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4109</v>
+        <v>0.7323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -2192,209 +2266,205 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0.5</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>512</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>505</v>
+        <v>16</v>
       </c>
       <c r="L10" t="n">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9863</v>
+        <v>0.64</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2931</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>392</v>
+        <v>722</v>
       </c>
       <c r="K11" t="n">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="L11" t="n">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6786</v>
+        <v>0.0263</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7331</v>
+        <v>0.4211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>659</v>
+        <v>397</v>
       </c>
       <c r="K12" t="n">
-        <v>477</v>
+        <v>376</v>
       </c>
       <c r="L12" t="n">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7238</v>
+        <v>0.9471000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1279</v>
+        <v>0.6383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>365</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5714</v>
+        <v>0.6904</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8333</v>
+        <v>0.5198</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2407,98 +2477,96 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>396</v>
+        <v>545</v>
       </c>
       <c r="K14" t="n">
-        <v>376</v>
+        <v>190</v>
       </c>
       <c r="L14" t="n">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9495</v>
+        <v>0.3486</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6383</v>
+        <v>0.7579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>365</v>
+        <v>513</v>
       </c>
       <c r="K15" t="n">
-        <v>252</v>
+        <v>506</v>
       </c>
       <c r="L15" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6904</v>
+        <v>0.9864000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5159</v>
+        <v>0.2964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -2511,39 +2579,39 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>719</v>
+        <v>498</v>
       </c>
       <c r="K16" t="n">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0223</v>
+        <v>0.5402</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4375</v>
+        <v>0.7955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2561,242 +2629,228 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="K17" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L17" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9151</v>
+        <v>0.8136</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6707</v>
+        <v>0.6815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>497</v>
+        <v>393</v>
       </c>
       <c r="K18" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L18" t="n">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5392</v>
+        <v>0.6768</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7985</v>
+        <v>0.7331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>544</v>
+        <v>365</v>
       </c>
       <c r="K19" t="n">
-        <v>189</v>
+        <v>335</v>
       </c>
       <c r="L19" t="n">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3474</v>
+        <v>0.9177999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7566000000000001</v>
+        <v>0.6716</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
       <c r="M20" t="n">
-        <v>0.2727</v>
+        <v>0.2857</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>412</v>
+        <v>21</v>
       </c>
       <c r="K21" t="n">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8131</v>
+        <v>0.5714</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6746</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2817,7 +2871,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2844,12 +2898,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2865,39 +2919,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2857</v>
+        <v>0.1667</v>
       </c>
       <c r="N23" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2913,28 +2967,28 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-01T08:00:00</t>
+          <t>2020-04-02T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1667</v>
+        <v>0.2727</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3085,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3040,23 +3094,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>629</v>
+        <v>1703</v>
       </c>
       <c r="D2" t="n">
-        <v>416</v>
+        <v>1472</v>
       </c>
       <c r="E2" t="n">
-        <v>215</v>
+        <v>508</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6614</v>
+        <v>0.8643999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3418</v>
+        <v>0.2983</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3065,129 +3119,129 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>10147</v>
+        <v>11992</v>
       </c>
       <c r="K2" t="n">
-        <v>7084</v>
+        <v>8680</v>
       </c>
       <c r="L2" t="n">
-        <v>5280</v>
+        <v>5926</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6981000000000001</v>
+        <v>0.7238</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5204</v>
+        <v>0.4942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="D3" t="n">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7309</v>
+        <v>0.7855</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3588</v>
+        <v>0.3507</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5655</v>
+        <v>22477</v>
       </c>
       <c r="K3" t="n">
-        <v>3516</v>
+        <v>16043</v>
       </c>
       <c r="L3" t="n">
-        <v>2620</v>
+        <v>10100</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6218</v>
+        <v>0.7138</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4633</v>
+        <v>0.4493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="D4" t="n">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="E4" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7929</v>
+        <v>0.7167</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3179</v>
+        <v>0.1458</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>22136</v>
+        <v>1696</v>
       </c>
       <c r="K4" t="n">
-        <v>15775</v>
+        <v>951</v>
       </c>
       <c r="L4" t="n">
-        <v>9865</v>
+        <v>788</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7126</v>
+        <v>0.5607</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4457</v>
+        <v>0.4646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3196,23 +3250,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D5" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7417</v>
+        <v>0.7972</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3642</v>
+        <v>0.2797</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3221,597 +3275,597 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>7062</v>
+        <v>7203</v>
       </c>
       <c r="K5" t="n">
-        <v>4814</v>
+        <v>4926</v>
       </c>
       <c r="L5" t="n">
-        <v>4403</v>
+        <v>4480</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6817</v>
+        <v>0.6839</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7432</v>
+        <v>0.6701</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2973</v>
+        <v>0.268</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2727</v>
+        <v>681</v>
       </c>
       <c r="K6" t="n">
-        <v>1863</v>
+        <v>397</v>
       </c>
       <c r="L6" t="n">
-        <v>1292</v>
+        <v>397</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6832</v>
+        <v>0.583</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4738</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4328</v>
+        <v>0.7241</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3582</v>
+        <v>0.2989</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2941</v>
+        <v>5741</v>
       </c>
       <c r="K7" t="n">
-        <v>1830</v>
+        <v>3577</v>
       </c>
       <c r="L7" t="n">
-        <v>1281</v>
+        <v>2691</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6222</v>
+        <v>0.6231</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4356</v>
+        <v>0.4687</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5581</v>
+        <v>0.7778</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3023</v>
+        <v>0.2667</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1600</v>
+        <v>2774</v>
       </c>
       <c r="K8" t="n">
-        <v>1082</v>
+        <v>1900</v>
       </c>
       <c r="L8" t="n">
-        <v>994</v>
+        <v>1322</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6763</v>
+        <v>0.6849</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6213</v>
+        <v>0.4766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6</v>
+        <v>0.4615</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>0.1538</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>878</v>
+        <v>1624</v>
       </c>
       <c r="K9" t="n">
-        <v>488</v>
+        <v>1092</v>
       </c>
       <c r="L9" t="n">
-        <v>527</v>
+        <v>1009</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5558</v>
+        <v>0.6724</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6002</v>
+        <v>0.6213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1484</v>
+        <v>1723</v>
       </c>
       <c r="K10" t="n">
-        <v>956</v>
+        <v>1186</v>
       </c>
       <c r="L10" t="n">
-        <v>766</v>
+        <v>1104</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6442</v>
+        <v>0.6883</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5162</v>
+        <v>0.6407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7692</v>
+        <v>0.7368</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4615</v>
+        <v>0.2632</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>583</v>
+        <v>2959</v>
       </c>
       <c r="K11" t="n">
-        <v>331</v>
+        <v>1844</v>
       </c>
       <c r="L11" t="n">
-        <v>360</v>
+        <v>1298</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5678</v>
+        <v>0.6232</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6175</v>
+        <v>0.4387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8333</v>
+        <v>0.8235</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4167</v>
+        <v>0.1765</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1458</v>
+        <v>36</v>
       </c>
       <c r="K12" t="n">
-        <v>779</v>
+        <v>22</v>
       </c>
       <c r="L12" t="n">
-        <v>742</v>
+        <v>16</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5343</v>
+        <v>0.6111</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5089</v>
+        <v>0.4444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.6471</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>0.1765</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>542</v>
+        <v>1338</v>
       </c>
       <c r="K13" t="n">
-        <v>304</v>
+        <v>775</v>
       </c>
       <c r="L13" t="n">
-        <v>360</v>
+        <v>677</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5609</v>
+        <v>0.5792</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6642</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.5385</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1322</v>
+        <v>892</v>
       </c>
       <c r="K14" t="n">
-        <v>764</v>
+        <v>496</v>
       </c>
       <c r="L14" t="n">
-        <v>664</v>
+        <v>542</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5779</v>
+        <v>0.5561</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5023</v>
+        <v>0.6076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7</v>
+        <v>0.5455</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>0.2727</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1703</v>
+        <v>553</v>
       </c>
       <c r="K15" t="n">
-        <v>1171</v>
+        <v>310</v>
       </c>
       <c r="L15" t="n">
-        <v>1088</v>
+        <v>373</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6876</v>
+        <v>0.5606</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6389</v>
+        <v>0.6745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3333</v>
+        <v>0.7778</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4444</v>
+        <v>0.5556</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1055</v>
+        <v>1493</v>
       </c>
       <c r="K16" t="n">
-        <v>592</v>
+        <v>963</v>
       </c>
       <c r="L16" t="n">
-        <v>601</v>
+        <v>780</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5611</v>
+        <v>0.645</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5697</v>
+        <v>0.5224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3820,23 +3874,23 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3845,86 +3899,86 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="K17" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L17" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M17" t="n">
         <v>0.5827</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4929</v>
+        <v>0.4935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>19</v>
+        <v>1058</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>594</v>
       </c>
       <c r="L18" t="n">
-        <v>11</v>
+        <v>607</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4211</v>
+        <v>0.5614</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5789</v>
+        <v>0.5737</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -3933,98 +3987,94 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>0.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2020-04-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>44</v>
+      </c>
+      <c r="K20" t="n">
+        <v>35</v>
+      </c>
+      <c r="L20" t="n">
+        <v>22</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7955</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-04-01 08:00:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>合肥</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>12</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.9167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4040,39 +4090,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4615</v>
+        <v>0.3478</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3846</v>
+        <v>0.8696</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4088,39 +4138,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7955</v>
+        <v>0.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4136,34 +4186,34 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3478</v>
+        <v>0.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-31</t>
+          <t>04-01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4184,7 +4234,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-01 08:00:00</t>
+          <t>2020-04-02 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H2" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I2" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H3" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I3" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H4" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I4" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H5" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I5" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H6" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I6" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H7" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I7" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H8" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I8" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H9" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I9" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H10" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I10" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H11" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I11" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H12" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I12" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H13" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I13" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H14" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I14" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H15" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I15" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H16" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I16" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="17">
@@ -986,55 +986,92 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>13679</v>
+        <v>13782</v>
       </c>
       <c r="H17" t="n">
-        <v>10937</v>
+        <v>11010</v>
       </c>
       <c r="I17" t="n">
-        <v>4725</v>
+        <v>4770</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7995</v>
+        <v>0.7989000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.432</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>39</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13782</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11010</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4770</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7989000000000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>-0.2788461538461539</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.4545454545454545</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.5142857142857142</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.24357034795764</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.1095223130106851</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="B19" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.4705882352941176</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.5927298394212105</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1049,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,19 +1168,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H2" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I2" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="3">
@@ -1168,19 +1205,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H3" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I3" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="4">
@@ -1205,19 +1242,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H4" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I4" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="5">
@@ -1242,19 +1279,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H5" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I5" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="6">
@@ -1279,19 +1316,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H6" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I6" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="7">
@@ -1316,19 +1353,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H7" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I7" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="8">
@@ -1353,19 +1390,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H8" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I8" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="9">
@@ -1390,19 +1427,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H9" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I9" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="10">
@@ -1427,19 +1464,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H10" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I10" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="11">
@@ -1464,19 +1501,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H11" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I11" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="12">
@@ -1501,19 +1538,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H12" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I12" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="13">
@@ -1538,19 +1575,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H13" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I13" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="14">
@@ -1575,19 +1612,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H14" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I14" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1649,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H15" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I15" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="16">
@@ -1649,19 +1686,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H16" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I16" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="17">
@@ -1686,55 +1723,92 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>65358</v>
+        <v>67287</v>
       </c>
       <c r="H17" t="n">
-        <v>44413</v>
+        <v>46032</v>
       </c>
       <c r="I17" t="n">
-        <v>32675</v>
+        <v>33808</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6795</v>
+        <v>0.6841</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4999</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1696</v>
+      </c>
+      <c r="D18" t="n">
+        <v>742</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8429</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="G18" t="n">
+        <v>67287</v>
+      </c>
+      <c r="H18" t="n">
+        <v>46032</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33808</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.6841</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5024</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.6802639472105579</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9809193408499567</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.3993115318416523</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1788347549515686</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.1670014347202295</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="B19" t="n">
+        <v>-0.2816851124598358</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2574430823117338</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.08733087330873308</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0337257787588913</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2704099207716156</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1749,7 +1823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,7 +1906,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1841,23 +1915,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1866,342 +1938,340 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="K2" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L2" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7102000000000001</v>
+        <v>0.718</v>
       </c>
       <c r="N2" t="n">
-        <v>0.55</v>
+        <v>0.5547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4</v>
+        <v>0.6923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2388</v>
+        <v>1242</v>
       </c>
       <c r="K3" t="n">
-        <v>2361</v>
+        <v>838</v>
       </c>
       <c r="L3" t="n">
-        <v>370</v>
+        <v>717</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9887</v>
+        <v>0.6747</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1567</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6667</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1227</v>
+        <v>541</v>
       </c>
       <c r="K4" t="n">
-        <v>827</v>
+        <v>527</v>
       </c>
       <c r="L4" t="n">
-        <v>712</v>
+        <v>218</v>
       </c>
       <c r="M4" t="n">
-        <v>0.674</v>
+        <v>0.9741</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8609</v>
+        <v>0.4137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-04-02T08:00:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>532</v>
-      </c>
-      <c r="K5" t="n">
-        <v>522</v>
-      </c>
       <c r="L5" t="n">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9812</v>
+        <v>0.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4138</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>0.3333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>664</v>
+        <v>2392</v>
       </c>
       <c r="K6" t="n">
-        <v>480</v>
+        <v>2377</v>
       </c>
       <c r="L6" t="n">
-        <v>62</v>
+        <v>383</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7229</v>
+        <v>0.9937</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1292</v>
+        <v>0.1611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1341</v>
+        <v>518</v>
       </c>
       <c r="K7" t="n">
-        <v>1297</v>
+        <v>509</v>
       </c>
       <c r="L7" t="n">
-        <v>361</v>
+        <v>150</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.9826</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2783</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1525</v>
+        <v>1344</v>
       </c>
       <c r="K8" t="n">
-        <v>1470</v>
+        <v>1301</v>
       </c>
       <c r="L8" t="n">
-        <v>557</v>
+        <v>365</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9639</v>
+        <v>0.968</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3789</v>
+        <v>0.2806</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2211,108 +2281,108 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>652</v>
+        <v>725</v>
       </c>
       <c r="K9" t="n">
-        <v>650</v>
+        <v>21</v>
       </c>
       <c r="L9" t="n">
-        <v>476</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9969</v>
+        <v>0.029</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7323</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>656</v>
       </c>
       <c r="K10" t="n">
-        <v>16</v>
+        <v>653</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>479</v>
       </c>
       <c r="M10" t="n">
-        <v>0.64</v>
+        <v>0.9954</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6875</v>
+        <v>0.7335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -2321,249 +2391,255 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>722</v>
+        <v>368</v>
       </c>
       <c r="K11" t="n">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0263</v>
+        <v>0.9185</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4211</v>
+        <v>0.6716</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>397</v>
+        <v>27</v>
       </c>
       <c r="K12" t="n">
-        <v>376</v>
+        <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9471000000000001</v>
+        <v>0.6296</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6383</v>
+        <v>0.7647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>365</v>
+        <v>1527</v>
       </c>
       <c r="K13" t="n">
-        <v>252</v>
+        <v>1472</v>
       </c>
       <c r="L13" t="n">
-        <v>131</v>
+        <v>558</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6904</v>
+        <v>0.964</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5198</v>
+        <v>0.3791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>545</v>
+        <v>17</v>
       </c>
       <c r="K14" t="n">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3486</v>
+        <v>0.3529</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7579</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>506</v>
+        <v>270</v>
       </c>
       <c r="L15" t="n">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2964</v>
+        <v>0.7926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -2572,150 +2648,154 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>498</v>
+        <v>395</v>
       </c>
       <c r="K16" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L16" t="n">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5402</v>
+        <v>0.6835</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7955</v>
+        <v>0.7296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>413</v>
+        <v>14</v>
       </c>
       <c r="K17" t="n">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8136</v>
+        <v>0.2857</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6815</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>393</v>
+        <v>667</v>
       </c>
       <c r="K18" t="n">
-        <v>266</v>
+        <v>487</v>
       </c>
       <c r="L18" t="n">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6768</v>
+        <v>0.7301</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7331</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2723,86 +2803,90 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9177999999999999</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.6716</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>14</v>
+        <v>546</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2857</v>
+        <v>0.3498</v>
       </c>
       <c r="N20" t="n">
-        <v>0.75</v>
+        <v>0.7592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2823,7 +2907,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2850,12 +2934,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2871,39 +2955,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2857</v>
+        <v>0.6904</v>
       </c>
       <c r="N22" t="n">
-        <v>0.75</v>
+        <v>0.5198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2919,39 +3003,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>397</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>377</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1667</v>
+        <v>0.9496</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.6419</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2967,29 +3051,255 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-02T08:00:00</t>
+          <t>2020-04-03T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>佛山</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:00:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>43</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>宁波</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:00:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>宁波</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>太原</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:00:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
         <v>11</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M27" t="n">
         <v>0.2727</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N27" t="n">
         <v>0.3333</v>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:00:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>336</v>
+      </c>
+      <c r="L28" t="n">
+        <v>229</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8136</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6815</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>无锡</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-04-03T08:00:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>无锡</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3002,7 +3312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3085,59 +3395,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1703</v>
+        <v>423</v>
       </c>
       <c r="D2" t="n">
-        <v>1472</v>
+        <v>359</v>
       </c>
       <c r="E2" t="n">
-        <v>508</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8643999999999999</v>
+        <v>0.8487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2983</v>
+        <v>0.2553</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>11992</v>
+        <v>7410</v>
       </c>
       <c r="K2" t="n">
-        <v>8680</v>
+        <v>5050</v>
       </c>
       <c r="L2" t="n">
-        <v>5926</v>
+        <v>3226</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7238</v>
+        <v>0.6815</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4942</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3146,23 +3456,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="D3" t="n">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="E3" t="n">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7855</v>
+        <v>0.8662</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3507</v>
+        <v>0.404</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3171,25 +3481,25 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>22477</v>
+        <v>22872</v>
       </c>
       <c r="K3" t="n">
-        <v>16043</v>
+        <v>16386</v>
       </c>
       <c r="L3" t="n">
-        <v>10100</v>
+        <v>10357</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7138</v>
+        <v>0.7164</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4493</v>
+        <v>0.4528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3198,23 +3508,23 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>240</v>
+        <v>394</v>
       </c>
       <c r="D4" t="n">
-        <v>172</v>
+        <v>370</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7167</v>
+        <v>0.9391</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1458</v>
+        <v>0.4137</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3223,285 +3533,285 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1696</v>
+        <v>2120</v>
       </c>
       <c r="K4" t="n">
-        <v>951</v>
+        <v>1345</v>
       </c>
       <c r="L4" t="n">
-        <v>788</v>
+        <v>994</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5607</v>
+        <v>0.6344</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4646</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="D5" t="n">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7972</v>
+        <v>0.8284</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2797</v>
+        <v>0.3955</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>7203</v>
+        <v>10894</v>
       </c>
       <c r="K5" t="n">
-        <v>4926</v>
+        <v>7683</v>
       </c>
       <c r="L5" t="n">
-        <v>4480</v>
+        <v>5738</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6839</v>
+        <v>0.7053</v>
       </c>
       <c r="N5" t="n">
-        <v>0.622</v>
+        <v>0.5266999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6701</v>
+        <v>0.8119</v>
       </c>
       <c r="G6" t="n">
-        <v>0.268</v>
+        <v>0.3861</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>681</v>
+        <v>7306</v>
       </c>
       <c r="K6" t="n">
-        <v>397</v>
+        <v>5009</v>
       </c>
       <c r="L6" t="n">
-        <v>397</v>
+        <v>4545</v>
       </c>
       <c r="M6" t="n">
-        <v>0.583</v>
+        <v>0.6856</v>
       </c>
       <c r="N6" t="n">
-        <v>0.583</v>
+        <v>0.6221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7241</v>
+        <v>0.9186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2989</v>
+        <v>0.4419</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5741</v>
+        <v>2862</v>
       </c>
       <c r="K7" t="n">
-        <v>3577</v>
+        <v>1979</v>
       </c>
       <c r="L7" t="n">
-        <v>2691</v>
+        <v>1380</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6231</v>
+        <v>0.6915</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4687</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7778</v>
+        <v>0.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2667</v>
+        <v>0.3594</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2774</v>
+        <v>1405</v>
       </c>
       <c r="K8" t="n">
-        <v>1900</v>
+        <v>826</v>
       </c>
       <c r="L8" t="n">
-        <v>1322</v>
+        <v>707</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6849</v>
+        <v>0.5879</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4766</v>
+        <v>0.5032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4615</v>
+        <v>0.7413999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1538</v>
+        <v>0.2241</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1624</v>
+        <v>1057</v>
       </c>
       <c r="K9" t="n">
-        <v>1092</v>
+        <v>626</v>
       </c>
       <c r="L9" t="n">
-        <v>1009</v>
+        <v>513</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6724</v>
+        <v>0.5921999999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6213</v>
+        <v>0.4853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3510,23 +3820,23 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>0.75</v>
+        <v>0.9273</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.6182</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3535,532 +3845,536 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1723</v>
+        <v>1778</v>
       </c>
       <c r="K10" t="n">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="L10" t="n">
-        <v>1104</v>
+        <v>1151</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6883</v>
+        <v>0.6957</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6407</v>
+        <v>0.6474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7368</v>
+        <v>0.2051</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2632</v>
+        <v>0.1795</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>2959</v>
+        <v>75</v>
       </c>
       <c r="K11" t="n">
-        <v>1844</v>
+        <v>30</v>
       </c>
       <c r="L11" t="n">
-        <v>1298</v>
+        <v>28</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6232</v>
+        <v>0.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4387</v>
+        <v>0.3733</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8235</v>
+        <v>0.8421</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1765</v>
+        <v>0.3421</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>36</v>
+        <v>591</v>
       </c>
       <c r="K12" t="n">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="L12" t="n">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6111</v>
+        <v>0.5787</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4444</v>
+        <v>0.6599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6471</v>
+        <v>0.7895</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1765</v>
+        <v>0.2632</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1338</v>
+        <v>1643</v>
       </c>
       <c r="K13" t="n">
-        <v>775</v>
+        <v>1107</v>
       </c>
       <c r="L13" t="n">
-        <v>677</v>
+        <v>1022</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5792</v>
+        <v>0.6738</v>
       </c>
       <c r="N13" t="n">
-        <v>0.506</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5385</v>
+        <v>0.4667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>892</v>
+        <v>1073</v>
       </c>
       <c r="K14" t="n">
-        <v>496</v>
+        <v>601</v>
       </c>
       <c r="L14" t="n">
-        <v>542</v>
+        <v>616</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5561</v>
+        <v>0.5601</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6076</v>
+        <v>0.5741000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
         <v>6</v>
       </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
       <c r="F15" t="n">
-        <v>0.5455</v>
+        <v>0.5333</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2727</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="K15" t="n">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="L15" t="n">
-        <v>373</v>
+        <v>29</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5606</v>
+        <v>0.7167</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6745</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7778</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5556</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1493</v>
+        <v>904</v>
       </c>
       <c r="K16" t="n">
-        <v>963</v>
+        <v>503</v>
       </c>
       <c r="L16" t="n">
-        <v>780</v>
+        <v>552</v>
       </c>
       <c r="M16" t="n">
-        <v>0.645</v>
+        <v>0.5564</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5224</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6</v>
+        <v>0.9091</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.5455</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>997</v>
+        <v>1504</v>
       </c>
       <c r="K17" t="n">
-        <v>581</v>
+        <v>973</v>
       </c>
       <c r="L17" t="n">
-        <v>492</v>
+        <v>790</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5827</v>
+        <v>0.6469</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4935</v>
+        <v>0.5253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1058</v>
+        <v>2967</v>
       </c>
       <c r="K18" t="n">
-        <v>594</v>
+        <v>1851</v>
       </c>
       <c r="L18" t="n">
-        <v>607</v>
+        <v>1312</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5614</v>
+        <v>0.6239</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5737</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>684</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>399</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>404</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5</v>
+        <v>0.5833</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4286</v>
+        <v>0.5906</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7955</v>
+        <v>0.5</v>
       </c>
       <c r="N20" t="n">
         <v>0.5</v>
@@ -4069,7 +4383,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4078,19 +4392,23 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4099,30 +4417,30 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K21" t="n">
         <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8696</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4138,39 +4456,35 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4186,39 +4500,35 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>12</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-01</t>
+          <t>04-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4234,12 +4544,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-02 08:00:00</t>
+          <t>2020-04-03 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -4253,6 +4563,238 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2020-04-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2020-04-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>14</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.4286</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2020-04-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-04-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>12</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>12</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04-02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-04-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H2" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I2" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H3" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I3" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H4" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I4" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H5" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I5" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H6" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I6" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H7" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I7" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H8" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I8" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H9" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I9" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H10" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I10" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H11" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I11" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H12" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I12" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H13" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I13" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H14" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I14" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H15" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I15" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H16" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I16" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H17" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I17" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="18">
@@ -1023,55 +1023,129 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>13782</v>
+        <v>13917</v>
       </c>
       <c r="H18" t="n">
-        <v>11010</v>
+        <v>11129</v>
       </c>
       <c r="I18" t="n">
-        <v>4770</v>
+        <v>4846</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7989000000000001</v>
+        <v>0.7997</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4332</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>04-03</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>104</v>
+      </c>
+      <c r="C19" t="n">
+        <v>63</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6058</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4444</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13917</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11129</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4846</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7997</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4354</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>04-04</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5405</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13917</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11129</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4846</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7997</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4354</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.4705882352941176</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.02500000000000002</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.5927298394212105</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="B21" t="n">
+        <v>-0.6442307692307693</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.6825396825396826</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.6071428571428571</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.1077913502806207</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2376237623762377</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1086,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,19 +1242,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H2" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I2" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="3">
@@ -1205,19 +1279,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H3" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I3" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="4">
@@ -1242,19 +1316,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H4" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I4" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="5">
@@ -1279,19 +1353,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H5" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I5" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="6">
@@ -1316,19 +1390,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H6" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I6" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="7">
@@ -1353,19 +1427,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H7" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I7" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="8">
@@ -1390,19 +1464,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H8" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I8" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="9">
@@ -1427,19 +1501,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H9" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I9" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="10">
@@ -1464,19 +1538,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H10" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I10" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="11">
@@ -1501,19 +1575,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H11" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I11" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="12">
@@ -1538,19 +1612,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H12" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I12" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="13">
@@ -1575,19 +1649,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H13" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I13" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1686,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H14" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I14" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="15">
@@ -1649,19 +1723,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H15" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I15" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="16">
@@ -1686,19 +1760,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H16" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I16" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="17">
@@ -1723,19 +1797,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H17" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I17" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="18">
@@ -1760,55 +1834,129 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>67287</v>
+        <v>69077</v>
       </c>
       <c r="H18" t="n">
-        <v>46032</v>
+        <v>47460</v>
       </c>
       <c r="I18" t="n">
-        <v>33808</v>
+        <v>35306</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6841</v>
+        <v>0.6871</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5024</v>
+        <v>0.5111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>04-03</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1417</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D19" t="n">
+        <v>440</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8045</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3105</v>
+      </c>
+      <c r="G19" t="n">
+        <v>69077</v>
+      </c>
+      <c r="H19" t="n">
+        <v>47460</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35306</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.6871</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>04-04</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>423</v>
+      </c>
+      <c r="C20" t="n">
+        <v>329</v>
+      </c>
+      <c r="D20" t="n">
+        <v>194</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7778</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4586</v>
+      </c>
+      <c r="G20" t="n">
+        <v>69077</v>
+      </c>
+      <c r="H20" t="n">
+        <v>47460</v>
+      </c>
+      <c r="I20" t="n">
+        <v>35306</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6871</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5111</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-0.2816851124598358</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.2574430823117338</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.08733087330873308</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0337257787588913</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2704099207716156</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="B21" t="n">
+        <v>-0.7014820042342979</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.7114035087719298</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.5590909090909091</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.03318831572405214</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4769726247987118</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1906,7 +2054,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1915,21 +2063,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>0.1818</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1938,25 +2088,25 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1032</v>
+        <v>1043</v>
       </c>
       <c r="K2" t="n">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="L2" t="n">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M2" t="n">
-        <v>0.718</v>
+        <v>0.7248</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5547</v>
+        <v>0.5569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1965,23 +2115,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6923</v>
+        <v>0.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1990,344 +2140,344 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="K3" t="n">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="L3" t="n">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6747</v>
+        <v>0.6754</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8556</v>
+        <v>0.8536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>541</v>
+        <v>2431</v>
       </c>
       <c r="K4" t="n">
-        <v>527</v>
+        <v>2386</v>
       </c>
       <c r="L4" t="n">
-        <v>218</v>
+        <v>389</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9741</v>
+        <v>0.9815</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4137</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6667</v>
+        <v>0.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>1349</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>1312</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4</v>
+        <v>0.9726</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5</v>
+        <v>0.2858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2392</v>
+        <v>1531</v>
       </c>
       <c r="K6" t="n">
-        <v>2377</v>
+        <v>1473</v>
       </c>
       <c r="L6" t="n">
-        <v>383</v>
+        <v>559</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9937</v>
+        <v>0.9621</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1611</v>
+        <v>0.3795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>518</v>
+        <v>728</v>
       </c>
       <c r="K7" t="n">
-        <v>509</v>
+        <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9826</v>
+        <v>0.0343</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2947</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1344</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>1301</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>0.968</v>
+        <v>0.6087</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2806</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>725</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.029</v>
+        <v>0.3333</v>
       </c>
       <c r="N9" t="n">
-        <v>0.381</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -2336,53 +2486,53 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>656</v>
+        <v>33</v>
       </c>
       <c r="K10" t="n">
-        <v>653</v>
+        <v>22</v>
       </c>
       <c r="L10" t="n">
-        <v>479</v>
+        <v>16</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9954</v>
+        <v>0.6667</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7335</v>
+        <v>0.7272999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -2391,47 +2541,47 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>368</v>
+        <v>674</v>
       </c>
       <c r="K11" t="n">
-        <v>338</v>
+        <v>496</v>
       </c>
       <c r="L11" t="n">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9185</v>
+        <v>0.7359</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6716</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2440,362 +2590,348 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>27</v>
+        <v>502</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="L12" t="n">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6296</v>
+        <v>0.5417999999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7647</v>
+        <v>0.7868000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2020-04-05T08:00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>45</v>
+      </c>
+      <c r="K13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
+      <c r="L13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-04-03T08:00:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>1527</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1472</v>
-      </c>
-      <c r="L13" t="n">
-        <v>558</v>
-      </c>
       <c r="M13" t="n">
-        <v>0.964</v>
+        <v>0.0444</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>242</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3529</v>
+        <v>0.9497</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8333</v>
+        <v>0.6402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>396</v>
       </c>
       <c r="K15" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L15" t="n">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="M15" t="n">
-        <v>0.54</v>
+        <v>0.6869</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7926</v>
+        <v>0.7279</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6835</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.7296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>339</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2857</v>
+        <v>0.9187</v>
       </c>
       <c r="N17" t="n">
-        <v>0.25</v>
+        <v>0.6696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>667</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>487</v>
+        <v>23</v>
       </c>
       <c r="L18" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7301</v>
+        <v>0.7667</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1273</v>
+        <v>0.4348</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2803,38 +2939,38 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>659</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0.9939</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.7435</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2843,23 +2979,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2886,12 +3018,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2907,39 +3039,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>21</v>
+        <v>519</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>515</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5714</v>
+        <v>0.9923</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8333</v>
+        <v>0.2951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2955,39 +3087,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>365</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>252</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6904</v>
+        <v>0.7778</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5198</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3003,39 +3135,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="K23" t="n">
-        <v>377</v>
+        <v>254</v>
       </c>
       <c r="L23" t="n">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9496</v>
+        <v>0.6921</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6419</v>
+        <v>0.5276</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3051,35 +3183,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3095,37 +3231,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0.4211</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3141,35 +3279,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8241000000000001</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6871</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3185,39 +3327,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>11</v>
+        <v>542</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>528</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2727</v>
+        <v>0.9742</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3333</v>
+        <v>0.4129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3233,39 +3375,35 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>229</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8136</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.6815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3281,25 +3419,29 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-03T08:00:00</t>
+          <t>2020-04-05T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3395,215 +3537,215 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>423</v>
+        <v>134</v>
       </c>
       <c r="D2" t="n">
-        <v>359</v>
+        <v>114</v>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8487</v>
+        <v>0.8507</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2553</v>
+        <v>0.4403</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>7410</v>
+        <v>23473</v>
       </c>
       <c r="K2" t="n">
-        <v>5050</v>
+        <v>16895</v>
       </c>
       <c r="L2" t="n">
-        <v>3226</v>
+        <v>10808</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6815</v>
+        <v>0.7198</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4354</v>
+        <v>0.4604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8662</v>
+        <v>0.9398</v>
       </c>
       <c r="G3" t="n">
-        <v>0.404</v>
+        <v>0.3373</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>22872</v>
+        <v>7704</v>
       </c>
       <c r="K3" t="n">
-        <v>16386</v>
+        <v>5314</v>
       </c>
       <c r="L3" t="n">
-        <v>10357</v>
+        <v>3399</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7164</v>
+        <v>0.6898</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4528</v>
+        <v>0.4412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>394</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>370</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9391</v>
+        <v>0.7796999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4137</v>
+        <v>0.7119</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2120</v>
+        <v>11164</v>
       </c>
       <c r="K4" t="n">
-        <v>1345</v>
+        <v>7895</v>
       </c>
       <c r="L4" t="n">
-        <v>994</v>
+        <v>6034</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6344</v>
+        <v>0.7072000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4689</v>
+        <v>0.5405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8284</v>
+        <v>0.6333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3955</v>
+        <v>0.3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>10894</v>
+        <v>2204</v>
       </c>
       <c r="K5" t="n">
-        <v>7683</v>
+        <v>1406</v>
       </c>
       <c r="L5" t="n">
-        <v>5738</v>
+        <v>1107</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7053</v>
+        <v>0.6379</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5266999999999999</v>
+        <v>0.5023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3612,23 +3754,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8119</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3861</v>
+        <v>0.5769</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3637,710 +3779,710 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7306</v>
+        <v>7404</v>
       </c>
       <c r="K6" t="n">
-        <v>5009</v>
+        <v>5069</v>
       </c>
       <c r="L6" t="n">
-        <v>4545</v>
+        <v>4657</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6856</v>
+        <v>0.6846</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6221</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9186</v>
+        <v>0.625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4419</v>
+        <v>0.4375</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2862</v>
+        <v>1820</v>
       </c>
       <c r="K7" t="n">
-        <v>1979</v>
+        <v>1271</v>
       </c>
       <c r="L7" t="n">
-        <v>1380</v>
+        <v>1182</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6915</v>
+        <v>0.6984</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4822</v>
+        <v>0.6495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.75</v>
+        <v>0.6667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3594</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1405</v>
+        <v>2918</v>
       </c>
       <c r="K8" t="n">
-        <v>826</v>
+        <v>2026</v>
       </c>
       <c r="L8" t="n">
-        <v>707</v>
+        <v>1429</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5879</v>
+        <v>0.6943</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5032</v>
+        <v>0.4897</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7413999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2241</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1057</v>
+        <v>2994</v>
       </c>
       <c r="K9" t="n">
-        <v>626</v>
+        <v>1868</v>
       </c>
       <c r="L9" t="n">
-        <v>513</v>
+        <v>1343</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5921999999999999</v>
+        <v>0.6239</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4853</v>
+        <v>0.4486</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9273</v>
+        <v>0.6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6182</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1778</v>
+        <v>636</v>
       </c>
       <c r="K10" t="n">
-        <v>1237</v>
+        <v>374</v>
       </c>
       <c r="L10" t="n">
-        <v>1151</v>
+        <v>447</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6957</v>
+        <v>0.5881</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6474</v>
+        <v>0.7028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2051</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1795</v>
+        <v>0.4444</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>75</v>
+        <v>920</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>519</v>
       </c>
       <c r="L11" t="n">
-        <v>28</v>
+        <v>569</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4</v>
+        <v>0.5641</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3733</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8421</v>
+        <v>0.8333</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3421</v>
+        <v>0.6667</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>591</v>
+        <v>1428</v>
       </c>
       <c r="K12" t="n">
-        <v>342</v>
+        <v>841</v>
       </c>
       <c r="L12" t="n">
-        <v>390</v>
+        <v>728</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5787</v>
+        <v>0.5889</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6599</v>
+        <v>0.5098</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7895</v>
+        <v>0.8333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2632</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1643</v>
+        <v>704</v>
       </c>
       <c r="K13" t="n">
-        <v>1107</v>
+        <v>415</v>
       </c>
       <c r="L13" t="n">
-        <v>1022</v>
+        <v>427</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6738</v>
+        <v>0.5895</v>
       </c>
       <c r="N13" t="n">
-        <v>0.622</v>
+        <v>0.6065</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2020-04-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.4667</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-04-03 08:00:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>青岛</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>1073</v>
-      </c>
-      <c r="K14" t="n">
-        <v>601</v>
-      </c>
       <c r="L14" t="n">
-        <v>616</v>
+        <v>9</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5601</v>
+        <v>0.3889</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5741000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5333</v>
+        <v>0.6667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>1566</v>
       </c>
       <c r="K15" t="n">
-        <v>43</v>
+        <v>1025</v>
       </c>
       <c r="L15" t="n">
-        <v>29</v>
+        <v>823</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7167</v>
+        <v>0.6545</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4833</v>
+        <v>0.5255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6153999999999999</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6153999999999999</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>904</v>
+        <v>60</v>
       </c>
       <c r="K16" t="n">
-        <v>503</v>
+        <v>35</v>
       </c>
       <c r="L16" t="n">
-        <v>552</v>
+        <v>16</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5564</v>
+        <v>0.5833</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6106</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9091</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5455</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1504</v>
+        <v>86</v>
       </c>
       <c r="K17" t="n">
-        <v>973</v>
+        <v>35</v>
       </c>
       <c r="L17" t="n">
-        <v>790</v>
+        <v>36</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6469</v>
+        <v>0.407</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5253</v>
+        <v>0.4186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2967</v>
+        <v>1658</v>
       </c>
       <c r="K18" t="n">
-        <v>1851</v>
+        <v>1121</v>
       </c>
       <c r="L18" t="n">
-        <v>1312</v>
+        <v>1037</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6239</v>
+        <v>0.6761</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4422</v>
+        <v>0.6254999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>684</v>
+        <v>41</v>
       </c>
       <c r="K19" t="n">
-        <v>399</v>
+        <v>16</v>
       </c>
       <c r="L19" t="n">
-        <v>404</v>
+        <v>32</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5833</v>
+        <v>0.3902</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5906</v>
+        <v>0.7805</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -4349,142 +4491,150 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1068</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>634</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5</v>
+        <v>0.5936</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5</v>
+        <v>0.4916</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>25</v>
+        <v>1077</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>603</v>
       </c>
       <c r="L21" t="n">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="M21" t="n">
-        <v>0.32</v>
+        <v>0.5599</v>
       </c>
       <c r="N21" t="n">
-        <v>0.84</v>
+        <v>0.5803</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4500,35 +4650,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4544,30 +4698,34 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4588,7 +4746,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4611,12 +4769,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4632,39 +4790,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M26" t="n">
+        <v>0.7167</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.4286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4680,35 +4838,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4724,39 +4886,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-02</t>
+          <t>04-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4772,29 +4934,25 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-03 08:00:00</t>
+          <t>2020-04-05 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H2" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I2" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H3" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I3" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H4" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I4" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H5" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I5" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H6" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I6" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H7" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I7" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H8" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I8" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H9" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I9" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H10" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I10" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H11" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I11" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H12" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I12" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H13" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I13" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H14" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I14" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H15" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I15" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H16" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I16" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H17" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I17" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H18" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I18" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H19" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I19" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H20" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I20" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H21" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I21" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="22">
@@ -1171,55 +1171,92 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14008</v>
+        <v>14093</v>
       </c>
       <c r="H22" t="n">
-        <v>11181</v>
+        <v>11433</v>
       </c>
       <c r="I22" t="n">
-        <v>4877</v>
+        <v>4928</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7982</v>
+        <v>0.8113</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4362</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>04-07</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>87</v>
+      </c>
+      <c r="C23" t="n">
+        <v>49</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5632</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3265</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14093</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11433</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4928</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8113</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>-0.02083333333333333</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1031105990783409</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.4402777777777777</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="B24" t="n">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.01966927763272407</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.3702989392478302</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1234,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,19 +1353,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H2" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I2" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -1353,19 +1390,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H3" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I3" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -1390,19 +1427,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H4" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I4" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -1427,19 +1464,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H5" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I5" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -1464,19 +1501,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H6" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I6" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -1501,19 +1538,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H7" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I7" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
@@ -1538,19 +1575,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H8" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I8" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
@@ -1575,19 +1612,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H9" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I9" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="10">
@@ -1612,19 +1649,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H10" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I10" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11">
@@ -1649,19 +1686,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H11" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I11" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
@@ -1686,19 +1723,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H12" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I12" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="13">
@@ -1723,19 +1760,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H13" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I13" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="14">
@@ -1760,19 +1797,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H14" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I14" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="15">
@@ -1797,19 +1834,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H15" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I15" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="16">
@@ -1834,19 +1871,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H16" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I16" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="17">
@@ -1871,19 +1908,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H17" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I17" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="18">
@@ -1908,19 +1945,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H18" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I18" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="19">
@@ -1945,19 +1982,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H19" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I19" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="20">
@@ -1982,19 +2019,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H20" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I20" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="21">
@@ -2019,19 +2056,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H21" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I21" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="22">
@@ -2056,55 +2093,92 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>69729</v>
+        <v>70709</v>
       </c>
       <c r="H22" t="n">
-        <v>47939</v>
+        <v>48682</v>
       </c>
       <c r="I22" t="n">
-        <v>36092</v>
+        <v>36772</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6875</v>
+        <v>0.6885</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5175999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>04-07</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>992</v>
+      </c>
+      <c r="C23" t="n">
+        <v>757</v>
+      </c>
+      <c r="D23" t="n">
+        <v>395</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7631</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3982</v>
+      </c>
+      <c r="G23" t="n">
+        <v>70709</v>
+      </c>
+      <c r="H23" t="n">
+        <v>48682</v>
+      </c>
+      <c r="I23" t="n">
+        <v>36772</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6885</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4162436548223351</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.1301369863013699</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.04491255961844202</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.2377547372184483</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="B24" t="n">
+        <v>1.563307493540052</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.71326164874552</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.393939393939394</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.05853793868775144</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.06613508442776736</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2119,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2202,7 +2276,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2211,21 +2285,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>0.5833</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.07140000000000001</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2234,401 +2310,401 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1063</v>
+        <v>1032</v>
       </c>
       <c r="K2" t="n">
-        <v>756</v>
+        <v>926</v>
       </c>
       <c r="L2" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7112000000000001</v>
+        <v>0.8973</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5582</v>
+        <v>0.4525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5714</v>
+        <v>0.3846</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>736</v>
+        <v>2463</v>
       </c>
       <c r="K3" t="n">
-        <v>30</v>
+        <v>2395</v>
       </c>
       <c r="L3" t="n">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0408</v>
+        <v>0.9724</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4667</v>
+        <v>0.1645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8333</v>
+        <v>0.5714</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1539</v>
+        <v>1362</v>
       </c>
       <c r="K4" t="n">
-        <v>1479</v>
+        <v>1320</v>
       </c>
       <c r="L4" t="n">
-        <v>563</v>
+        <v>377</v>
       </c>
       <c r="M4" t="n">
-        <v>0.961</v>
+        <v>0.9692</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3807</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
+        <v>0.3333</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>26</v>
+        <v>1271</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>854</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>727</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3846</v>
+        <v>0.8512999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1259</v>
+        <v>1545</v>
       </c>
       <c r="K6" t="n">
-        <v>851</v>
+        <v>1481</v>
       </c>
       <c r="L6" t="n">
-        <v>725</v>
+        <v>568</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6758999999999999</v>
+        <v>0.9586</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8519</v>
+        <v>0.3835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>676</v>
+        <v>378</v>
       </c>
       <c r="K7" t="n">
-        <v>498</v>
+        <v>261</v>
       </c>
       <c r="L7" t="n">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7367</v>
+        <v>0.6905</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1325</v>
+        <v>0.5286999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K8" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6857</v>
+        <v>0.0833</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>739</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5</v>
+        <v>0.0568</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5</v>
+        <v>0.5238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -2637,99 +2713,99 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2438</v>
+        <v>546</v>
       </c>
       <c r="K10" t="n">
-        <v>2390</v>
+        <v>536</v>
       </c>
       <c r="L10" t="n">
-        <v>391</v>
+        <v>223</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9802999999999999</v>
+        <v>0.9817</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1636</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1354</v>
+        <v>13</v>
       </c>
       <c r="K11" t="n">
-        <v>1314</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>376</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9705</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2861</v>
+        <v>0.4615</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2738,41 +2814,41 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>663</v>
+        <v>349</v>
       </c>
       <c r="K12" t="n">
-        <v>657</v>
+        <v>345</v>
       </c>
       <c r="L12" t="n">
-        <v>488</v>
+        <v>89</v>
       </c>
       <c r="M12" t="n">
-        <v>0.991</v>
+        <v>0.9885</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7428</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2781,21 +2857,23 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2804,134 +2882,134 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>10</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5833</v>
+        <v>0.5769</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7143</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="K14" t="n">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="L14" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8245</v>
+        <v>0.9478</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6404</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>32</v>
+        <v>506</v>
       </c>
       <c r="K15" t="n">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7813</v>
+        <v>0.5435</v>
       </c>
       <c r="N15" t="n">
-        <v>0.48</v>
+        <v>0.7782</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2951,191 +3029,197 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="K16" t="n">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L16" t="n">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6935</v>
+        <v>0.7168</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5233</v>
+        <v>0.7133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>549</v>
+        <v>413</v>
       </c>
       <c r="K17" t="n">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="L17" t="n">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3534</v>
+        <v>0.891</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7577</v>
+        <v>0.6793</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>369</v>
+        <v>679</v>
       </c>
       <c r="K18" t="n">
-        <v>339</v>
+        <v>499</v>
       </c>
       <c r="L18" t="n">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9187</v>
+        <v>0.7349</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6726</v>
+        <v>0.1343</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>542</v>
+        <v>33</v>
       </c>
       <c r="K19" t="n">
-        <v>528</v>
+        <v>26</v>
       </c>
       <c r="L19" t="n">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9742</v>
+        <v>0.7879</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4129</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3143,38 +3227,40 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3333</v>
+        <v>0.8238</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8333</v>
+        <v>0.6908</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3183,7 +3269,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3191,11 +3277,13 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3204,7 +3292,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -3213,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3333</v>
+        <v>0.3125</v>
       </c>
       <c r="N21" t="n">
         <v>0.4</v>
@@ -3222,16 +3310,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -3239,43 +3327,45 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>520</v>
+        <v>178</v>
       </c>
       <c r="K22" t="n">
-        <v>516</v>
+        <v>172</v>
       </c>
       <c r="L22" t="n">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9923</v>
+        <v>0.9663</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2946</v>
+        <v>0.3721</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3291,39 +3381,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8</v>
+        <v>0.5769</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3339,39 +3429,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5437</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3387,39 +3477,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3435,25 +3525,25 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0444</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -3462,12 +3552,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3483,39 +3573,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>243</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>0.95</v>
+        <v>0.625</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6395</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3531,39 +3621,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="K28" t="n">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="L28" t="n">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6877</v>
+        <v>0.352</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7289</v>
+        <v>0.7538</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3579,28 +3669,76 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-07T08:00:00</t>
+          <t>2020-04-08T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04-07</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020-04-08T08:00:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>663</v>
+      </c>
+      <c r="K30" t="n">
+        <v>658</v>
+      </c>
+      <c r="L30" t="n">
+        <v>490</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.9925</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7447</v>
       </c>
     </row>
   </sheetData>
@@ -3697,215 +3835,215 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="D2" t="n">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="E2" t="n">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7143</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4339</v>
+        <v>0.4512</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>23754</v>
+        <v>11554</v>
       </c>
       <c r="K2" t="n">
-        <v>17106</v>
+        <v>8206</v>
       </c>
       <c r="L2" t="n">
-        <v>11093</v>
+        <v>6369</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7201</v>
+        <v>0.7102000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.467</v>
+        <v>0.5512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.7593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2909</v>
+        <v>0.3519</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>7811</v>
+        <v>23905</v>
       </c>
       <c r="K3" t="n">
-        <v>5403</v>
+        <v>17222</v>
       </c>
       <c r="L3" t="n">
-        <v>3494</v>
+        <v>11217</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6917</v>
+        <v>0.7204</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4473</v>
+        <v>0.4692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7778</v>
+        <v>0.6486</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8056</v>
+        <v>0.4685</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>11225</v>
+        <v>1778</v>
       </c>
       <c r="K4" t="n">
-        <v>7938</v>
+        <v>1198</v>
       </c>
       <c r="L4" t="n">
-        <v>6166</v>
+        <v>1115</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7072000000000001</v>
+        <v>0.6738</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5493</v>
+        <v>0.6271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6333</v>
+        <v>0.7604</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1333</v>
+        <v>0.3854</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2243</v>
+        <v>7902</v>
       </c>
       <c r="K5" t="n">
-        <v>1432</v>
+        <v>5468</v>
       </c>
       <c r="L5" t="n">
-        <v>1151</v>
+        <v>3568</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6384</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5132</v>
+        <v>0.4515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3914,23 +4052,23 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5185</v>
+        <v>0.8472</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3704</v>
+        <v>0.2778</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3939,758 +4077,758 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7467</v>
+        <v>7541</v>
       </c>
       <c r="K6" t="n">
-        <v>5106</v>
+        <v>5168</v>
       </c>
       <c r="L6" t="n">
-        <v>4739</v>
+        <v>4777</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6838</v>
+        <v>0.6853</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6347</v>
+        <v>0.6335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.7407</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4286</v>
+        <v>0.3704</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2930</v>
+        <v>1984</v>
       </c>
       <c r="K7" t="n">
-        <v>2037</v>
+        <v>1364</v>
       </c>
       <c r="L7" t="n">
-        <v>1452</v>
+        <v>1268</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6952</v>
+        <v>0.6875</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4956</v>
+        <v>0.6391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.7667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.2333</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>66</v>
+        <v>1600</v>
       </c>
       <c r="K8" t="n">
-        <v>41</v>
+        <v>1052</v>
       </c>
       <c r="L8" t="n">
-        <v>19</v>
+        <v>843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6212</v>
+        <v>0.6575</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2879</v>
+        <v>0.5269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1664</v>
+        <v>2955</v>
       </c>
       <c r="K9" t="n">
-        <v>1125</v>
+        <v>2056</v>
       </c>
       <c r="L9" t="n">
-        <v>1049</v>
+        <v>1472</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6761</v>
+        <v>0.6958</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6304</v>
+        <v>0.4981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.8696</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.2609</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1832</v>
+        <v>2266</v>
       </c>
       <c r="K10" t="n">
-        <v>1280</v>
+        <v>1452</v>
       </c>
       <c r="L10" t="n">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6987</v>
+        <v>0.6408</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6539</v>
+        <v>0.5216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
         <v>4</v>
       </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="G11" t="n">
         <v>0.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>642</v>
+        <v>37</v>
       </c>
       <c r="K11" t="n">
-        <v>379</v>
+        <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5903</v>
+        <v>0.4324</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7103</v>
+        <v>0.5405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.2222</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6667</v>
+        <v>0.4444</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>1079</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>636</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>541</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7143</v>
+        <v>0.5894</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8571</v>
+        <v>0.5014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6667</v>
+        <v>0.625</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1571</v>
+        <v>716</v>
       </c>
       <c r="K13" t="n">
-        <v>1030</v>
+        <v>422</v>
       </c>
       <c r="L13" t="n">
-        <v>832</v>
+        <v>439</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6556</v>
+        <v>0.5894</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5296</v>
+        <v>0.6131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.7143</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3333</v>
+        <v>0.5714</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>3004</v>
+        <v>649</v>
       </c>
       <c r="K14" t="n">
-        <v>1873</v>
+        <v>384</v>
       </c>
       <c r="L14" t="n">
-        <v>1363</v>
+        <v>463</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6235000000000001</v>
+        <v>0.5917</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4537</v>
+        <v>0.7134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3333</v>
+        <v>0.6667</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3333</v>
+        <v>0.8333</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1436</v>
+        <v>931</v>
       </c>
       <c r="K15" t="n">
-        <v>844</v>
+        <v>528</v>
       </c>
       <c r="L15" t="n">
-        <v>739</v>
+        <v>591</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5877</v>
+        <v>0.5671</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5145999999999999</v>
+        <v>0.6348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>925</v>
+        <v>3011</v>
       </c>
       <c r="K16" t="n">
-        <v>524</v>
+        <v>1877</v>
       </c>
       <c r="L16" t="n">
-        <v>582</v>
+        <v>1380</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5665</v>
+        <v>0.6234</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6292</v>
+        <v>0.4583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>22</v>
+        <v>1084</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>607</v>
       </c>
       <c r="L17" t="n">
-        <v>13</v>
+        <v>632</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5909</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>709</v>
+        <v>1441</v>
       </c>
       <c r="K18" t="n">
-        <v>418</v>
+        <v>848</v>
       </c>
       <c r="L18" t="n">
-        <v>432</v>
+        <v>746</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5896</v>
+        <v>0.5885</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6093</v>
+        <v>0.5177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1071</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>635</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>531</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5929</v>
+        <v>0.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4958</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="K20" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L20" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3636</v>
+        <v>0.6324</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7955</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4700,49 +4838,49 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.3778</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.7778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4752,53 +4890,53 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0.5385</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4806,47 +4944,43 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3977</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4862,34 +4996,34 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>4</v>
       </c>
-      <c r="L24" t="n">
-        <v>2</v>
-      </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4910,7 +5044,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4937,12 +5071,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4958,39 +5092,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1079</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>604</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>628</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5598</v>
+        <v>0.7143</v>
       </c>
       <c r="N26" t="n">
-        <v>0.582</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -5006,39 +5140,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="L27" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5</v>
+        <v>0.7167</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0.5167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5054,39 +5188,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7167</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-06</t>
+          <t>04-07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5102,28 +5236,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-07 08:00:00</t>
+          <t>2020-04-08 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H2" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I2" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K2" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H3" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I3" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K3" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H4" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I4" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K4" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H5" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I5" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K5" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H6" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I6" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H7" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I7" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K7" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H8" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I8" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K8" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H9" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I9" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H10" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I10" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K10" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H11" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I11" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K11" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H12" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I12" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K12" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H13" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I13" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K13" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H14" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I14" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K14" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H15" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I15" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K15" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H16" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I16" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K16" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H17" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I17" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K17" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H18" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I18" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K18" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H19" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I19" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K19" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H20" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I20" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K20" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H21" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I21" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K21" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="22">
@@ -1171,19 +1171,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H22" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I22" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K22" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="23">
@@ -1208,55 +1208,92 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14093</v>
+        <v>14146</v>
       </c>
       <c r="H23" t="n">
-        <v>11433</v>
+        <v>11558</v>
       </c>
       <c r="I23" t="n">
-        <v>4928</v>
+        <v>4990</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8113</v>
+        <v>0.8171</v>
       </c>
       <c r="K23" t="n">
-        <v>0.431</v>
+        <v>0.4317</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>04-08</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>52</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5577</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5862000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>14146</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11558</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4990</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8171</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4317</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.851063829787234</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.01966927763272407</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.3702989392478302</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="B25" t="n">
+        <v>-0.4022988505747127</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.4081632653061225</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.009765625000000106</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7954058192955591</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1271,7 +1308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1353,19 +1390,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H2" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I2" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K2" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="3">
@@ -1390,19 +1427,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H3" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I3" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K3" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="4">
@@ -1427,19 +1464,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H4" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I4" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K4" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="5">
@@ -1464,19 +1501,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H5" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I5" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K5" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="6">
@@ -1501,19 +1538,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H6" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I6" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K6" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="7">
@@ -1538,19 +1575,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H7" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I7" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K7" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="8">
@@ -1575,19 +1612,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H8" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I8" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K8" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1649,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H9" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I9" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K9" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="10">
@@ -1649,19 +1686,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H10" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I10" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K10" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="11">
@@ -1686,19 +1723,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H11" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I11" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K11" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="12">
@@ -1723,19 +1760,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H12" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I12" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K12" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="13">
@@ -1760,19 +1797,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H13" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I13" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K13" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="14">
@@ -1797,19 +1834,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H14" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I14" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K14" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="15">
@@ -1834,19 +1871,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H15" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I15" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K15" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="16">
@@ -1871,19 +1908,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H16" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I16" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K16" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="17">
@@ -1908,19 +1945,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H17" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I17" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K17" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="18">
@@ -1945,19 +1982,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H18" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I18" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K18" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="19">
@@ -1982,19 +2019,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H19" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I19" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K19" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="20">
@@ -2019,19 +2056,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H20" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I20" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K20" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="21">
@@ -2056,19 +2093,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H21" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I21" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K21" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="22">
@@ -2093,19 +2130,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H22" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I22" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K22" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="23">
@@ -2130,55 +2167,92 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>70709</v>
+        <v>71829</v>
       </c>
       <c r="H23" t="n">
-        <v>48682</v>
+        <v>49442</v>
       </c>
       <c r="I23" t="n">
-        <v>36772</v>
+        <v>37460</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6885</v>
+        <v>0.6883</v>
       </c>
       <c r="K23" t="n">
-        <v>0.52</v>
+        <v>0.5215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>04-08</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1108</v>
+      </c>
+      <c r="C24" t="n">
+        <v>752</v>
+      </c>
+      <c r="D24" t="n">
+        <v>371</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6787</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3348</v>
+      </c>
+      <c r="G24" t="n">
+        <v>71829</v>
+      </c>
+      <c r="H24" t="n">
+        <v>49442</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37460</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.6883</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>1.563307493540052</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.71326164874552</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.393939393939394</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.05853793868775144</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.06613508442776736</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="B25" t="n">
+        <v>0.1169354838709677</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.006605019815059445</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.06075949367088607</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.1106014939064343</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1592164741336012</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2276,7 +2350,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2285,23 +2359,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.07140000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2310,138 +2382,138 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="K2" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="L2" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8973</v>
+        <v>0.8898</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4525</v>
+        <v>0.4543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.3846</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.5556</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2463</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>2395</v>
+        <v>33</v>
       </c>
       <c r="L3" t="n">
-        <v>394</v>
+        <v>11</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9724</v>
+        <v>0.9429</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1645</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5714</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1362</v>
+        <v>2468</v>
       </c>
       <c r="K4" t="n">
-        <v>1320</v>
+        <v>2410</v>
       </c>
       <c r="L4" t="n">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9692</v>
+        <v>0.9765</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2856</v>
+        <v>0.1647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -2450,102 +2522,102 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1271</v>
+        <v>1549</v>
       </c>
       <c r="K5" t="n">
-        <v>854</v>
+        <v>1495</v>
       </c>
       <c r="L5" t="n">
-        <v>727</v>
+        <v>571</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.9651</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8512999999999999</v>
+        <v>0.3819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1545</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
-        <v>1481</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>568</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9586</v>
+        <v>0.2353</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3835</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -2554,102 +2626,100 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0.6667</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>378</v>
+        <v>1274</v>
       </c>
       <c r="K7" t="n">
-        <v>261</v>
+        <v>857</v>
       </c>
       <c r="L7" t="n">
-        <v>138</v>
+        <v>729</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6905</v>
+        <v>0.6727</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5286999999999999</v>
+        <v>0.8506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2020-04-09T08:00:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5172</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.6667</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-04-08T08:00:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>48</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -2658,145 +2728,143 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>739</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0568</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>546</v>
+        <v>380</v>
       </c>
       <c r="K10" t="n">
-        <v>536</v>
+        <v>262</v>
       </c>
       <c r="L10" t="n">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9817</v>
+        <v>0.6895</v>
       </c>
       <c r="N10" t="n">
-        <v>0.416</v>
+        <v>0.5305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>741</v>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.0864</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4615</v>
+        <v>0.5938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2805,23 +2873,23 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2830,34 +2898,34 @@
         </is>
       </c>
       <c r="J12" t="n">
+        <v>351</v>
+      </c>
+      <c r="K12" t="n">
         <v>349</v>
-      </c>
-      <c r="K12" t="n">
-        <v>345</v>
       </c>
       <c r="L12" t="n">
         <v>89</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9885</v>
+        <v>0.9943</v>
       </c>
       <c r="N12" t="n">
-        <v>0.258</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -2866,53 +2934,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>26</v>
+        <v>421</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5769</v>
+        <v>0.8337</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6667</v>
+        <v>0.6838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2925,34 +2993,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>402</v>
+        <v>554</v>
       </c>
       <c r="K14" t="n">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="L14" t="n">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9478</v>
+        <v>0.352</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6404</v>
+        <v>0.7538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2961,23 +3029,23 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2986,82 +3054,80 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K15" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L15" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5435</v>
+        <v>0.5464</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7782</v>
+        <v>0.7798</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>399</v>
+        <v>1363</v>
       </c>
       <c r="K16" t="n">
-        <v>286</v>
+        <v>1323</v>
       </c>
       <c r="L16" t="n">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7168</v>
+        <v>0.9707</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7133</v>
+        <v>0.2872</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3079,39 +3145,39 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="K17" t="n">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="L17" t="n">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M17" t="n">
-        <v>0.891</v>
+        <v>0.9529</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6793</v>
+        <v>0.6354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3121,105 +3187,101 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="K18" t="n">
-        <v>499</v>
+        <v>663</v>
       </c>
       <c r="L18" t="n">
-        <v>67</v>
+        <v>492</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7349</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1343</v>
+        <v>0.7421</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>33</v>
+        <v>413</v>
       </c>
       <c r="K19" t="n">
-        <v>26</v>
+        <v>370</v>
       </c>
       <c r="L19" t="n">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7879</v>
+        <v>0.8959</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5</v>
+        <v>0.6865</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3227,49 +3289,47 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>346</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8238</v>
+        <v>0.625</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6908</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3277,49 +3337,47 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
         <v>5</v>
       </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
       <c r="M21" t="n">
-        <v>0.3125</v>
+        <v>0.3333</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -3327,45 +3385,43 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9663</v>
+        <v>0.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3721</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3381,39 +3437,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5769</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3333</v>
+        <v>0.4615</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3429,39 +3485,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0.8485</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.4643</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3477,34 +3533,34 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5</v>
+        <v>0.9775</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5</v>
+        <v>0.3678</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3525,7 +3581,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3552,12 +3608,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3573,39 +3629,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>399</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M27" t="n">
-        <v>0.625</v>
+        <v>0.7343</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8</v>
+        <v>0.7133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3621,39 +3677,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>554</v>
+        <v>16</v>
       </c>
       <c r="K28" t="n">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>0.352</v>
+        <v>0.375</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7538</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3669,39 +3725,39 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>18</v>
+        <v>546</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>538</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3333</v>
+        <v>0.9853</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8333</v>
+        <v>0.4164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3717,28 +3773,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-08T08:00:00</t>
+          <t>2020-04-09T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="K30" t="n">
-        <v>658</v>
+        <v>499</v>
       </c>
       <c r="L30" t="n">
-        <v>490</v>
+        <v>67</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9925</v>
+        <v>0.7349</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7447</v>
+        <v>0.1343</v>
       </c>
     </row>
   </sheetData>
@@ -3835,948 +3891,948 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="D2" t="n">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.838</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4512</v>
+        <v>0.2824</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>11554</v>
+        <v>24120</v>
       </c>
       <c r="K2" t="n">
-        <v>8206</v>
+        <v>17403</v>
       </c>
       <c r="L2" t="n">
-        <v>6369</v>
+        <v>11348</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7102000000000001</v>
+        <v>0.7215</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5512</v>
+        <v>0.4705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>162</v>
       </c>
       <c r="D3" t="n">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7593</v>
+        <v>0.6605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3519</v>
+        <v>0.4506</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>23905</v>
+        <v>8067</v>
       </c>
       <c r="K3" t="n">
-        <v>17222</v>
+        <v>5579</v>
       </c>
       <c r="L3" t="n">
-        <v>11217</v>
+        <v>3681</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7204</v>
+        <v>0.6916</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4692</v>
+        <v>0.4563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6486</v>
+        <v>0.7721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4685</v>
+        <v>0.3897</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1778</v>
+        <v>11695</v>
       </c>
       <c r="K4" t="n">
-        <v>1198</v>
+        <v>8313</v>
       </c>
       <c r="L4" t="n">
-        <v>1115</v>
+        <v>6472</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6738</v>
+        <v>0.7108</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6271</v>
+        <v>0.5534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7604</v>
+        <v>0.7822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3854</v>
+        <v>0.2277</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>7902</v>
+        <v>1185</v>
       </c>
       <c r="K5" t="n">
-        <v>5468</v>
+        <v>686</v>
       </c>
       <c r="L5" t="n">
-        <v>3568</v>
+        <v>662</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.5789</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4515</v>
+        <v>0.5586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8472</v>
+        <v>0.4085</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2778</v>
+        <v>0.4085</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7541</v>
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>5168</v>
+        <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>4777</v>
+        <v>39</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6853</v>
+        <v>0.4103</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6335</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>61</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1803</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2020-04-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>99</v>
+      </c>
+      <c r="K7" t="n">
         <v>54</v>
       </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7407</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3704</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-04-08 08:00:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1984</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1364</v>
-      </c>
       <c r="L7" t="n">
-        <v>1268</v>
+        <v>39</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6875</v>
+        <v>0.5455</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6391</v>
+        <v>0.3939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7667</v>
+        <v>0.4667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2333</v>
+        <v>0.2667</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1600</v>
+        <v>68</v>
       </c>
       <c r="K8" t="n">
-        <v>1052</v>
+        <v>34</v>
       </c>
       <c r="L8" t="n">
-        <v>843</v>
+        <v>45</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6575</v>
+        <v>0.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5269</v>
+        <v>0.6618000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9" t="n">
         <v>19</v>
       </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
       <c r="F9" t="n">
-        <v>0.76</v>
+        <v>0.5926</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>0.3519</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2955</v>
+        <v>1830</v>
       </c>
       <c r="K9" t="n">
-        <v>2056</v>
+        <v>1230</v>
       </c>
       <c r="L9" t="n">
-        <v>1472</v>
+        <v>1143</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6958</v>
+        <v>0.6721</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4981</v>
+        <v>0.6246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8696</v>
+        <v>0.7407</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2609</v>
+        <v>0.4074</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2266</v>
+        <v>7594</v>
       </c>
       <c r="K10" t="n">
-        <v>1452</v>
+        <v>5207</v>
       </c>
       <c r="L10" t="n">
-        <v>1182</v>
+        <v>4819</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6408</v>
+        <v>0.6857</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5216</v>
+        <v>0.6346000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>0.375</v>
+        <v>0.4423</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.3654</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>37</v>
+        <v>768</v>
       </c>
       <c r="K11" t="n">
-        <v>16</v>
+        <v>445</v>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>464</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4324</v>
+        <v>0.5794</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5405</v>
+        <v>0.6042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2222</v>
+        <v>0.7419</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4444</v>
+        <v>0.4839</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1079</v>
+        <v>2986</v>
       </c>
       <c r="K12" t="n">
-        <v>636</v>
+        <v>2079</v>
       </c>
       <c r="L12" t="n">
-        <v>541</v>
+        <v>1503</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5894</v>
+        <v>0.6962</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5014</v>
+        <v>0.5033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>0.625</v>
+        <v>0.4667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.625</v>
+        <v>0.3667</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>716</v>
+        <v>2014</v>
       </c>
       <c r="K13" t="n">
-        <v>422</v>
+        <v>1378</v>
       </c>
       <c r="L13" t="n">
-        <v>439</v>
+        <v>1298</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5894</v>
+        <v>0.6842</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6131</v>
+        <v>0.6445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7143</v>
+        <v>0.7333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5714</v>
+        <v>0.3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>649</v>
+        <v>33</v>
       </c>
       <c r="K14" t="n">
-        <v>384</v>
+        <v>23</v>
       </c>
       <c r="L14" t="n">
-        <v>463</v>
+        <v>17</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5917</v>
+        <v>0.697</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7134</v>
+        <v>0.5152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8333</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>931</v>
+        <v>3031</v>
       </c>
       <c r="K15" t="n">
-        <v>528</v>
+        <v>1892</v>
       </c>
       <c r="L15" t="n">
-        <v>591</v>
+        <v>1390</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5671</v>
+        <v>0.6242</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6348</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6667</v>
+        <v>0.25</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3011</v>
+        <v>1089</v>
       </c>
       <c r="K16" t="n">
-        <v>1877</v>
+        <v>640</v>
       </c>
       <c r="L16" t="n">
-        <v>1380</v>
+        <v>544</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6234</v>
+        <v>0.5877</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4583</v>
+        <v>0.4995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6</v>
+        <v>0.5714</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.2857</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1084</v>
+        <v>1609</v>
       </c>
       <c r="K17" t="n">
-        <v>607</v>
+        <v>1056</v>
       </c>
       <c r="L17" t="n">
-        <v>632</v>
+        <v>851</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6563</v>
       </c>
       <c r="N17" t="n">
-        <v>0.583</v>
+        <v>0.5289</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1441</v>
+        <v>2270</v>
       </c>
       <c r="K18" t="n">
-        <v>848</v>
+        <v>1455</v>
       </c>
       <c r="L18" t="n">
-        <v>746</v>
+        <v>1193</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5885</v>
+        <v>0.641</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5177</v>
+        <v>0.5256</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>1445</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>849</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>751</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4</v>
+        <v>0.5875</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8</v>
+        <v>0.5197000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4796,86 +4852,86 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6324</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2941</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>45</v>
+        <v>933</v>
       </c>
       <c r="K21" t="n">
-        <v>17</v>
+        <v>528</v>
       </c>
       <c r="L21" t="n">
-        <v>35</v>
+        <v>593</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3778</v>
+        <v>0.5659</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7778</v>
+        <v>0.6356000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4900,7 +4956,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4909,16 +4965,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5385</v>
+        <v>0.5714</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -4927,12 +4983,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4948,39 +5004,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.3778</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0.7778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4996,39 +5052,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.7167</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.5167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5044,39 +5100,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5092,39 +5148,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7143</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -5140,39 +5196,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K27" t="n">
         <v>43</v>
       </c>
       <c r="L27" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7167</v>
+        <v>0.6324</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5167</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5188,34 +5244,34 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>649</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>384</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.5917</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.7211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-07</t>
+          <t>04-08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5236,7 +5292,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-08 08:00:00</t>
+          <t>2020-04-09 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H2" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I2" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H3" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I3" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H4" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I4" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H5" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I5" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H6" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I6" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H7" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I7" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H8" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I8" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H9" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I9" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H10" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I10" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H11" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I11" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H12" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I12" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H13" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I13" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H14" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I14" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H15" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I15" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H16" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I16" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H17" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I17" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H18" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I18" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H19" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I19" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H20" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I20" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H21" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I21" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="22">
@@ -1171,19 +1171,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H22" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I22" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="23">
@@ -1208,19 +1208,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H23" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I23" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="24">
@@ -1245,55 +1245,92 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>14146</v>
+        <v>14292</v>
       </c>
       <c r="H24" t="n">
-        <v>11558</v>
+        <v>11864</v>
       </c>
       <c r="I24" t="n">
-        <v>4990</v>
+        <v>5084</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8171</v>
+        <v>0.8300999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4317</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>04-09</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>147</v>
+      </c>
+      <c r="C25" t="n">
+        <v>112</v>
+      </c>
+      <c r="D25" t="n">
+        <v>37</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7619</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14292</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11864</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5084</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8300999999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4285</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>-0.4022988505747127</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.4081632653061225</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.009765625000000106</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.7954058192955591</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="B26" t="n">
+        <v>1.826923076923077</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.862068965517242</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3661466738389816</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.4363698396451723</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1308,7 +1345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,19 +1427,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H2" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I2" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1427,19 +1464,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H3" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I3" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1464,19 +1501,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H4" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I4" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1501,19 +1538,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H5" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I5" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1538,19 +1575,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H6" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I6" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1575,19 +1612,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H7" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I7" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1612,19 +1649,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H8" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I8" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1649,19 +1686,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H9" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I9" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1686,19 +1723,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H10" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I10" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1723,19 +1760,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H11" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I11" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1760,19 +1797,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H12" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I12" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1797,19 +1834,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H13" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I13" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1834,19 +1871,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H14" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I14" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1871,19 +1908,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H15" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I15" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1908,19 +1945,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H16" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I16" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1945,19 +1982,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H17" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I17" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1982,19 +2019,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H18" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I18" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2019,19 +2056,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H19" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I19" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2056,19 +2093,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H20" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I20" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -2093,19 +2130,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H21" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I21" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2130,19 +2167,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H22" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I22" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -2167,19 +2204,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H23" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I23" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -2204,55 +2241,92 @@
         <v>0.3348</v>
       </c>
       <c r="G24" t="n">
-        <v>71829</v>
+        <v>73223</v>
       </c>
       <c r="H24" t="n">
-        <v>49442</v>
+        <v>50452</v>
       </c>
       <c r="I24" t="n">
-        <v>37460</v>
+        <v>38204</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6883</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5215</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>04-09</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1403</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D25" t="n">
+        <v>442</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7177</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G25" t="n">
+        <v>73223</v>
+      </c>
+      <c r="H25" t="n">
+        <v>50452</v>
+      </c>
+      <c r="I25" t="n">
+        <v>38204</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5217000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.1169354838709677</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.006605019815059445</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.06075949367088607</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.1106014939064343</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.1592164741336012</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="B26" t="n">
+        <v>0.2662454873646209</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3390957446808511</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1913746630727763</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05746279652276416</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.05913978494623651</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2350,7 +2424,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2359,21 +2433,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>0.7627</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1556</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2382,77 +2458,77 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1044</v>
+        <v>1057</v>
       </c>
       <c r="K2" t="n">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="L2" t="n">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8898</v>
+        <v>0.8865</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4543</v>
+        <v>0.4354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9258999999999999</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2020-04-10T08:00:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>70</v>
+      </c>
+      <c r="K3" t="n">
+        <v>54</v>
+      </c>
+      <c r="L3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7714</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.5556</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-04-09T08:00:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>太原</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9429</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.3333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2461,23 +2537,23 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
       <c r="F4" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.6667</v>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2486,144 +2562,144 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2468</v>
+        <v>2496</v>
       </c>
       <c r="K4" t="n">
-        <v>2410</v>
+        <v>2428</v>
       </c>
       <c r="L4" t="n">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9765</v>
+        <v>0.9728</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1647</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1549</v>
+        <v>1290</v>
       </c>
       <c r="K5" t="n">
-        <v>1495</v>
+        <v>876</v>
       </c>
       <c r="L5" t="n">
-        <v>571</v>
+        <v>737</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9651</v>
+        <v>0.6791</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3819</v>
+        <v>0.8413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2353</v>
+        <v>0.9756</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -2633,195 +2709,199 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1274</v>
+        <v>41</v>
       </c>
       <c r="K7" t="n">
-        <v>857</v>
+        <v>41</v>
       </c>
       <c r="L7" t="n">
-        <v>729</v>
+        <v>23</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6727</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8506</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
+        <v>55</v>
+      </c>
+      <c r="L8" t="n">
         <v>15</v>
       </c>
-      <c r="L8" t="n">
-        <v>10</v>
-      </c>
       <c r="M8" t="n">
-        <v>0.5172</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6667</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>551</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>542</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.9837</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.4151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>380</v>
+        <v>1553</v>
       </c>
       <c r="K10" t="n">
-        <v>262</v>
+        <v>1508</v>
       </c>
       <c r="L10" t="n">
-        <v>139</v>
+        <v>577</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6895</v>
+        <v>0.971</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5305</v>
+        <v>0.3826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -2830,102 +2910,102 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>741</v>
+        <v>31</v>
       </c>
       <c r="K11" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0864</v>
+        <v>0.5161</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5938</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>351</v>
+        <v>1351</v>
       </c>
       <c r="K12" t="n">
-        <v>349</v>
+        <v>1311</v>
       </c>
       <c r="L12" t="n">
-        <v>89</v>
+        <v>373</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9943</v>
+        <v>0.9704</v>
       </c>
       <c r="N12" t="n">
-        <v>0.255</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -2934,200 +3014,202 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>421</v>
+        <v>748</v>
       </c>
       <c r="K13" t="n">
-        <v>351</v>
+        <v>183</v>
       </c>
       <c r="L13" t="n">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8337</v>
+        <v>0.2447</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6838</v>
+        <v>0.3443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>554</v>
+        <v>382</v>
       </c>
       <c r="K14" t="n">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="L14" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
-        <v>0.352</v>
+        <v>0.7042</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7538</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="K15" t="n">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="L15" t="n">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5464</v>
+        <v>0.3525</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7798</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1363</v>
+        <v>406</v>
       </c>
       <c r="K16" t="n">
-        <v>1323</v>
+        <v>388</v>
       </c>
       <c r="L16" t="n">
-        <v>380</v>
+        <v>248</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9707</v>
+        <v>0.9557</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2872</v>
+        <v>0.6392</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3145,39 +3227,39 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>403</v>
+        <v>17</v>
       </c>
       <c r="K17" t="n">
-        <v>384</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9529</v>
+        <v>0.4118</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6354</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3197,87 +3279,91 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>664</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>663</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9985000000000001</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="K19" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="L19" t="n">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8959</v>
+        <v>0.9943</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6865</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3293,39 +3379,39 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>422</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>353</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="M20" t="n">
-        <v>0.625</v>
+        <v>0.8365</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8</v>
+        <v>0.6884</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3341,39 +3427,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3389,39 +3475,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5</v>
+        <v>0.9775</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5</v>
+        <v>0.3678</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3437,39 +3523,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>667</v>
       </c>
       <c r="K23" t="n">
-        <v>13</v>
+        <v>666</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>493</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4615</v>
+        <v>0.7402</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3485,39 +3571,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8485</v>
+        <v>0.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4643</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3533,39 +3619,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="K25" t="n">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9775</v>
+        <v>0.3333</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3678</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3581,39 +3667,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>509</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.5481</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0.7885</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3629,39 +3715,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>399</v>
+        <v>33</v>
       </c>
       <c r="K27" t="n">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="L27" t="n">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7343</v>
+        <v>0.8788</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7133</v>
+        <v>0.5517</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3677,39 +3763,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>349</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="M28" t="n">
-        <v>0.375</v>
+        <v>0.9233</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5</v>
+        <v>0.6877</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3725,34 +3811,34 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>546</v>
+        <v>400</v>
       </c>
       <c r="K29" t="n">
-        <v>538</v>
+        <v>299</v>
       </c>
       <c r="L29" t="n">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9853</v>
+        <v>0.7475000000000001</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4164</v>
+        <v>0.7057</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3773,7 +3859,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-09T08:00:00</t>
+          <t>2020-04-10T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3782,19 +3868,19 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="K30" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L30" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7349</v>
+        <v>0.7357</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1343</v>
+        <v>0.1357</v>
       </c>
     </row>
   </sheetData>
@@ -3891,7 +3977,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3900,23 +3986,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>216</v>
+        <v>487</v>
       </c>
       <c r="D2" t="n">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E2" t="n">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="F2" t="n">
-        <v>0.838</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2824</v>
+        <v>0.2813</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3925,765 +4011,765 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>24120</v>
+        <v>24404</v>
       </c>
       <c r="K2" t="n">
-        <v>17403</v>
+        <v>17622</v>
       </c>
       <c r="L2" t="n">
-        <v>11348</v>
+        <v>11471</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7215</v>
+        <v>0.7221</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4705</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D3" t="n">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6605</v>
+        <v>0.8075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4506</v>
+        <v>0.3636</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8067</v>
+        <v>11940</v>
       </c>
       <c r="K3" t="n">
-        <v>5579</v>
+        <v>8504</v>
       </c>
       <c r="L3" t="n">
-        <v>3681</v>
+        <v>6629</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6916</v>
+        <v>0.7122000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4563</v>
+        <v>0.5552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7721</v>
+        <v>0.8258</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3897</v>
+        <v>0.5097</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>11695</v>
+        <v>8284</v>
       </c>
       <c r="K4" t="n">
-        <v>8313</v>
+        <v>5746</v>
       </c>
       <c r="L4" t="n">
-        <v>6472</v>
+        <v>3823</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7108</v>
+        <v>0.6936</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5534</v>
+        <v>0.4615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7822</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2277</v>
+        <v>0.2472</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1185</v>
+        <v>3095</v>
       </c>
       <c r="K5" t="n">
-        <v>686</v>
+        <v>2180</v>
       </c>
       <c r="L5" t="n">
-        <v>662</v>
+        <v>1547</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5789</v>
+        <v>0.7044</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5586</v>
+        <v>0.4998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4085</v>
+        <v>0.5068</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4085</v>
+        <v>0.2329</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="K6" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="L6" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4103</v>
+        <v>0.5318000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5</v>
+        <v>0.3815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>0.623</v>
+        <v>0.4107</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1803</v>
+        <v>0.2321</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>99</v>
+        <v>7649</v>
       </c>
       <c r="K7" t="n">
-        <v>54</v>
+        <v>5230</v>
       </c>
       <c r="L7" t="n">
-        <v>39</v>
+        <v>4853</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5455</v>
+        <v>0.6837</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3939</v>
+        <v>0.6345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4667</v>
+        <v>0.8679</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2667</v>
+        <v>0.2453</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>68</v>
+        <v>1173</v>
       </c>
       <c r="K8" t="n">
-        <v>34</v>
+        <v>704</v>
       </c>
       <c r="L8" t="n">
-        <v>45</v>
+        <v>573</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5</v>
+        <v>0.6002</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6618000000000001</v>
+        <v>0.4885</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5926</v>
+        <v>0.8667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3519</v>
+        <v>0.3333</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1830</v>
+        <v>1664</v>
       </c>
       <c r="K9" t="n">
-        <v>1230</v>
+        <v>1104</v>
       </c>
       <c r="L9" t="n">
-        <v>1143</v>
+        <v>878</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6721</v>
+        <v>0.6635</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6246</v>
+        <v>0.5276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7407</v>
+        <v>0.8837</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4074</v>
+        <v>0.2326</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>7594</v>
+        <v>3052</v>
       </c>
       <c r="K10" t="n">
-        <v>5207</v>
+        <v>1911</v>
       </c>
       <c r="L10" t="n">
-        <v>4819</v>
+        <v>1396</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6857</v>
+        <v>0.6261</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6346000000000001</v>
+        <v>0.4574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4423</v>
+        <v>0.5946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3654</v>
+        <v>0.4595</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>768</v>
+        <v>1976</v>
       </c>
       <c r="K11" t="n">
-        <v>445</v>
+        <v>1363</v>
       </c>
       <c r="L11" t="n">
-        <v>464</v>
+        <v>1298</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5794</v>
+        <v>0.6898</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6042</v>
+        <v>0.6569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7419</v>
+        <v>0.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4839</v>
+        <v>0.2667</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2986</v>
+        <v>1216</v>
       </c>
       <c r="K12" t="n">
-        <v>2079</v>
+        <v>707</v>
       </c>
       <c r="L12" t="n">
-        <v>1503</v>
+        <v>677</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6962</v>
+        <v>0.5814</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5033</v>
+        <v>0.5567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4667</v>
+        <v>0.5357</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3667</v>
+        <v>0.2143</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2014</v>
+        <v>962</v>
       </c>
       <c r="K13" t="n">
-        <v>1378</v>
+        <v>543</v>
       </c>
       <c r="L13" t="n">
-        <v>1298</v>
+        <v>606</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6842</v>
+        <v>0.5644</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6445</v>
+        <v>0.6299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7333</v>
+        <v>0.7895</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>0.1053</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="K14" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="L14" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M14" t="n">
-        <v>0.697</v>
+        <v>0.64</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5152</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7143</v>
+        <v>0.3684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.4211</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3031</v>
+        <v>787</v>
       </c>
       <c r="K15" t="n">
-        <v>1892</v>
+        <v>452</v>
       </c>
       <c r="L15" t="n">
-        <v>1390</v>
+        <v>479</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6242</v>
+        <v>0.5743</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4586</v>
+        <v>0.6086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
         <v>8</v>
       </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.3684</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.4211</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1089</v>
+        <v>86</v>
       </c>
       <c r="K16" t="n">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="L16" t="n">
-        <v>544</v>
+        <v>58</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5877</v>
+        <v>0.4651</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4995</v>
+        <v>0.6744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -4692,355 +4778,359 @@
         <v>0.5714</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2857</v>
+        <v>0.1429</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1609</v>
+        <v>92</v>
       </c>
       <c r="K17" t="n">
-        <v>1056</v>
+        <v>44</v>
       </c>
       <c r="L17" t="n">
-        <v>851</v>
+        <v>37</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6563</v>
+        <v>0.4783</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5289</v>
+        <v>0.4022</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
       <c r="F18" t="n">
-        <v>0.75</v>
+        <v>0.5833</v>
       </c>
       <c r="G18" t="n">
         <v>0.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2270</v>
+        <v>1841</v>
       </c>
       <c r="K18" t="n">
-        <v>1455</v>
+        <v>1236</v>
       </c>
       <c r="L18" t="n">
-        <v>1193</v>
+        <v>1154</v>
       </c>
       <c r="M18" t="n">
-        <v>0.641</v>
+        <v>0.6714</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5256</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>0.25</v>
+        <v>0.4545</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.2727</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1445</v>
+        <v>87</v>
       </c>
       <c r="K19" t="n">
-        <v>849</v>
+        <v>36</v>
       </c>
       <c r="L19" t="n">
-        <v>751</v>
+        <v>46</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5875</v>
+        <v>0.4138</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5197000000000001</v>
+        <v>0.5286999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>2278</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>1461</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1208</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.6414</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3333</v>
+        <v>0.5303</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2020-04-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>宁波</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-04-09 08:00:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>西安</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>933</v>
-      </c>
-      <c r="K21" t="n">
-        <v>528</v>
-      </c>
-      <c r="L21" t="n">
-        <v>593</v>
-      </c>
       <c r="M21" t="n">
-        <v>0.5659</v>
+        <v>0.8889</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6356000000000001</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L22" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5714</v>
+        <v>0.38</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>45</v>
+        <v>652</v>
       </c>
       <c r="K23" t="n">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="L23" t="n">
-        <v>35</v>
+        <v>472</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3778</v>
+        <v>0.592</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7778</v>
+        <v>0.7239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5048,47 +5138,51 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K24" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L24" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7167</v>
+        <v>0.6765</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5167</v>
+        <v>0.5294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5096,47 +5190,51 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.5333</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.9333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5144,91 +5242,99 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>1446</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>849</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>753</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.5871</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0.5207000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6324</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2941</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5244,39 +5350,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>649</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>384</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5917</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-08</t>
+          <t>04-09</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5292,28 +5398,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-09 08:00:00</t>
+          <t>2020-04-10 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.7167</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5</v>
+        <v>0.5167</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H2" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I2" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H3" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I3" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H4" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I4" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H5" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I5" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H6" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I6" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H7" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I7" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H8" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I8" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H9" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I9" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H10" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I10" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H11" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I11" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H12" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I12" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H13" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I13" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H14" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I14" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H15" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I15" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H16" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I16" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H17" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I17" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H18" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I18" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H19" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I19" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H20" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I20" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H21" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I21" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="22">
@@ -1171,19 +1171,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H22" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I22" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="23">
@@ -1208,19 +1208,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H23" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I23" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="24">
@@ -1245,19 +1245,19 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H24" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I24" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="25">
@@ -1282,55 +1282,92 @@
         <v>0.3304</v>
       </c>
       <c r="G25" t="n">
-        <v>14292</v>
+        <v>14437</v>
       </c>
       <c r="H25" t="n">
-        <v>11864</v>
+        <v>12025</v>
       </c>
       <c r="I25" t="n">
-        <v>5084</v>
+        <v>5165</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8300999999999999</v>
+        <v>0.8329</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4285</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>04-10</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>140</v>
+      </c>
+      <c r="C26" t="n">
+        <v>108</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7714</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2037</v>
+      </c>
+      <c r="G26" t="n">
+        <v>14437</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12025</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5165</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8329</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4295</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1.826923076923077</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.862068965517242</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.3661466738389816</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.4363698396451723</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="B27" t="n">
+        <v>-0.04761904761904762</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.03571428571428571</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.4054054054054054</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0124688279301745</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.3834745762711865</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1345,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,19 +1464,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H2" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I2" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1464,19 +1501,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H3" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I3" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1501,19 +1538,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H4" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I4" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1538,19 +1575,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H5" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I5" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1575,19 +1612,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H6" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I6" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1612,19 +1649,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H7" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I7" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1649,19 +1686,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H8" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I8" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1686,19 +1723,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H9" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I9" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1723,19 +1760,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H10" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I10" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1760,19 +1797,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H11" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I11" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1797,19 +1834,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H12" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I12" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -1834,19 +1871,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H13" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I13" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1871,19 +1908,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H14" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I14" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1908,19 +1945,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H15" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I15" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1945,19 +1982,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H16" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I16" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1982,19 +2019,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H17" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I17" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2019,19 +2056,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H18" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I18" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2056,19 +2093,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H19" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I19" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2093,19 +2130,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H20" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I20" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -2130,19 +2167,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H21" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I21" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2167,19 +2204,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H22" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I22" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -2204,19 +2241,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H23" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I23" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -2241,19 +2278,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H24" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I24" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2278,55 +2315,92 @@
         <v>0.315</v>
       </c>
       <c r="G25" t="n">
-        <v>73223</v>
+        <v>74482</v>
       </c>
       <c r="H25" t="n">
-        <v>50452</v>
+        <v>51322</v>
       </c>
       <c r="I25" t="n">
-        <v>38204</v>
+        <v>38932</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6891</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.5227000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>04-10</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1253</v>
+      </c>
+      <c r="C26" t="n">
+        <v>871</v>
+      </c>
+      <c r="D26" t="n">
+        <v>395</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6951000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3152</v>
+      </c>
+      <c r="G26" t="n">
+        <v>74482</v>
+      </c>
+      <c r="H26" t="n">
+        <v>51322</v>
+      </c>
+      <c r="I26" t="n">
+        <v>38932</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6891</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5227000000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.2662454873646209</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.3390957446808511</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1913746630727763</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.05746279652276416</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.05913978494623651</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="B27" t="n">
+        <v>-0.1069137562366358</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.1350546176762661</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.1063348416289593</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.03148948028424126</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.000634920634920565</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2424,7 +2498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2433,23 +2507,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7627</v>
+        <v>0.7558</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1556</v>
+        <v>0.1077</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2458,398 +2532,396 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1057</v>
+        <v>1143</v>
       </c>
       <c r="K2" t="n">
-        <v>937</v>
+        <v>1010</v>
       </c>
       <c r="L2" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8865</v>
+        <v>0.8836000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4354</v>
+        <v>0.4188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9258999999999999</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.4286</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
         <v>54</v>
       </c>
       <c r="L3" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7714</v>
+        <v>0.9818</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5556</v>
+        <v>0.4259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4167</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.1429</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2496</v>
+        <v>389</v>
       </c>
       <c r="K4" t="n">
-        <v>2428</v>
+        <v>276</v>
       </c>
       <c r="L4" t="n">
-        <v>408</v>
+        <v>146</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9728</v>
+        <v>0.7095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.168</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1290</v>
+        <v>514</v>
       </c>
       <c r="K5" t="n">
-        <v>876</v>
+        <v>283</v>
       </c>
       <c r="L5" t="n">
-        <v>737</v>
+        <v>222</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6791</v>
+        <v>0.5506</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8413</v>
+        <v>0.7845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>41</v>
+        <v>1558</v>
       </c>
       <c r="K6" t="n">
-        <v>40</v>
+        <v>1511</v>
       </c>
       <c r="L6" t="n">
-        <v>15</v>
+        <v>589</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9756</v>
+        <v>0.9698</v>
       </c>
       <c r="N6" t="n">
-        <v>0.375</v>
+        <v>0.3898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>41</v>
+        <v>1293</v>
       </c>
       <c r="K7" t="n">
-        <v>41</v>
+        <v>878</v>
       </c>
       <c r="L7" t="n">
-        <v>23</v>
+        <v>742</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.679</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.8451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="K8" t="n">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="L8" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.9613</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2727</v>
+        <v>0.3793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75</v>
+        <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>551</v>
+        <v>2500</v>
       </c>
       <c r="K9" t="n">
-        <v>542</v>
+        <v>2430</v>
       </c>
       <c r="L9" t="n">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9837</v>
+        <v>0.972</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4151</v>
+        <v>0.1695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -2858,258 +2930,256 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0.5</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1553</v>
+        <v>1352</v>
       </c>
       <c r="K10" t="n">
-        <v>1508</v>
+        <v>1313</v>
       </c>
       <c r="L10" t="n">
-        <v>577</v>
+        <v>373</v>
       </c>
       <c r="M10" t="n">
-        <v>0.971</v>
+        <v>0.9712</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3826</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>31</v>
+        <v>553</v>
       </c>
       <c r="K11" t="n">
-        <v>16</v>
+        <v>545</v>
       </c>
       <c r="L11" t="n">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5161</v>
+        <v>0.9855</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6875</v>
+        <v>0.4202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6667</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1351</v>
+        <v>33</v>
       </c>
       <c r="K12" t="n">
-        <v>1311</v>
+        <v>16</v>
       </c>
       <c r="L12" t="n">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9704</v>
+        <v>0.4848</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2845</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.5</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>748</v>
+        <v>43</v>
       </c>
       <c r="K13" t="n">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="L13" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2447</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3443</v>
+        <v>0.5814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="K14" t="n">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="L14" t="n">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7042</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.539</v>
+        <v>0.2606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -3118,46 +3188,46 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>556</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3525</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3177,89 +3247,91 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>406</v>
+        <v>750</v>
       </c>
       <c r="K16" t="n">
-        <v>388</v>
+        <v>215</v>
       </c>
       <c r="L16" t="n">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9557</v>
+        <v>0.2867</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6392</v>
+        <v>0.3628</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>17</v>
+        <v>424</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>354</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4118</v>
+        <v>0.8349</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4286</v>
+        <v>0.6893</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3269,49 +3341,49 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0.2679</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3331,135 +3403,143 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>352</v>
+        <v>668</v>
       </c>
       <c r="K19" t="n">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="L19" t="n">
-        <v>90</v>
+        <v>494</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9943</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2571</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>422</v>
+        <v>71</v>
       </c>
       <c r="K20" t="n">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="L20" t="n">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8365</v>
+        <v>0.8451</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6884</v>
+        <v>0.5667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.9558</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.6375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3475,39 +3555,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="K22" t="n">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="L22" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9775</v>
+        <v>0.8788</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3678</v>
+        <v>0.5517</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3523,39 +3603,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>667</v>
+        <v>18</v>
       </c>
       <c r="K23" t="n">
-        <v>666</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.3333</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7402</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3571,39 +3651,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>681</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>503</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5</v>
+        <v>0.7386</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5</v>
+        <v>0.1352</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3619,39 +3699,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>18</v>
+        <v>378</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>349</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3333</v>
+        <v>0.9233</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8333</v>
+        <v>0.6905</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3667,39 +3747,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5481</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7885</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3715,39 +3795,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>33</v>
+        <v>400</v>
       </c>
       <c r="K27" t="n">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c r="L27" t="n">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8788</v>
+        <v>0.7475000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5517</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3763,39 +3843,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9233</v>
+        <v>0.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6877</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3811,39 +3891,39 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="K29" t="n">
-        <v>299</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7475000000000001</v>
+        <v>0.4118</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7057</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3859,28 +3939,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-10T08:00:00</t>
+          <t>2020-04-11T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>681</v>
+        <v>556</v>
       </c>
       <c r="K30" t="n">
-        <v>501</v>
+        <v>196</v>
       </c>
       <c r="L30" t="n">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7357</v>
+        <v>0.3525</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1357</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -3977,7 +4057,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3986,23 +4066,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>487</v>
+        <v>283</v>
       </c>
       <c r="D2" t="n">
-        <v>337</v>
+        <v>228</v>
       </c>
       <c r="E2" t="n">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.8057</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2813</v>
+        <v>0.2898</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4011,1013 +4091,1013 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>24404</v>
+        <v>24691</v>
       </c>
       <c r="K2" t="n">
-        <v>17622</v>
+        <v>17853</v>
       </c>
       <c r="L2" t="n">
-        <v>11471</v>
+        <v>11642</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7221</v>
+        <v>0.7231</v>
       </c>
       <c r="N2" t="n">
-        <v>0.47</v>
+        <v>0.4715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D3" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8075</v>
+        <v>0.7157</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3636</v>
+        <v>0.3299</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>11940</v>
+        <v>8479</v>
       </c>
       <c r="K3" t="n">
-        <v>8504</v>
+        <v>5885</v>
       </c>
       <c r="L3" t="n">
-        <v>6629</v>
+        <v>3923</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7122000000000001</v>
+        <v>0.6941000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5552</v>
+        <v>0.4627</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D4" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E4" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8258</v>
+        <v>0.6163999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5097</v>
+        <v>0.3836</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8284</v>
+        <v>12098</v>
       </c>
       <c r="K4" t="n">
-        <v>5746</v>
+        <v>8599</v>
       </c>
       <c r="L4" t="n">
-        <v>3823</v>
+        <v>6727</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6936</v>
+        <v>0.7108</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4615</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9550999999999999</v>
+        <v>0.7395</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2472</v>
+        <v>0.395</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3095</v>
+        <v>2398</v>
       </c>
       <c r="K5" t="n">
-        <v>2180</v>
+        <v>1550</v>
       </c>
       <c r="L5" t="n">
-        <v>1547</v>
+        <v>1270</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7044</v>
+        <v>0.6464</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4998</v>
+        <v>0.5296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5068</v>
+        <v>0.3908</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2329</v>
+        <v>0.1494</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>173</v>
+        <v>875</v>
       </c>
       <c r="K6" t="n">
-        <v>92</v>
+        <v>487</v>
       </c>
       <c r="L6" t="n">
-        <v>66</v>
+        <v>526</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5318000000000001</v>
+        <v>0.5566</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3815</v>
+        <v>0.6011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4107</v>
+        <v>0.8395</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2321</v>
+        <v>0.321</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>7649</v>
+        <v>1746</v>
       </c>
       <c r="K7" t="n">
-        <v>5230</v>
+        <v>1173</v>
       </c>
       <c r="L7" t="n">
-        <v>4853</v>
+        <v>923</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6837</v>
+        <v>0.6718</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6345</v>
+        <v>0.5286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8679</v>
+        <v>0.9351</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2453</v>
+        <v>0.3506</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1173</v>
+        <v>3167</v>
       </c>
       <c r="K8" t="n">
-        <v>704</v>
+        <v>2247</v>
       </c>
       <c r="L8" t="n">
-        <v>573</v>
+        <v>1591</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6002</v>
+        <v>0.7095</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4885</v>
+        <v>0.5024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8667</v>
+        <v>0.6061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3333</v>
+        <v>0.2727</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1664</v>
+        <v>7719</v>
       </c>
       <c r="K9" t="n">
-        <v>1104</v>
+        <v>5272</v>
       </c>
       <c r="L9" t="n">
-        <v>878</v>
+        <v>4891</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6635</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5276</v>
+        <v>0.6336000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8837</v>
+        <v>0.3846</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2326</v>
+        <v>0.2564</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>3052</v>
+        <v>212</v>
       </c>
       <c r="K10" t="n">
-        <v>1911</v>
+        <v>107</v>
       </c>
       <c r="L10" t="n">
-        <v>1396</v>
+        <v>86</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6261</v>
+        <v>0.5047</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4574</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5946</v>
+        <v>0.4848</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4595</v>
+        <v>0.303</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1976</v>
+        <v>1874</v>
       </c>
       <c r="K11" t="n">
-        <v>1363</v>
+        <v>1252</v>
       </c>
       <c r="L11" t="n">
-        <v>1298</v>
+        <v>1178</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6898</v>
+        <v>0.6681</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6569</v>
+        <v>0.6286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2667</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1216</v>
+        <v>1995</v>
       </c>
       <c r="K12" t="n">
-        <v>707</v>
+        <v>1374</v>
       </c>
       <c r="L12" t="n">
-        <v>677</v>
+        <v>1314</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5814</v>
+        <v>0.6887</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5567</v>
+        <v>0.6586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5357</v>
+        <v>0.5263</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2143</v>
+        <v>0.2632</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>962</v>
+        <v>106</v>
       </c>
       <c r="K13" t="n">
-        <v>543</v>
+        <v>50</v>
       </c>
       <c r="L13" t="n">
-        <v>606</v>
+        <v>67</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5644</v>
+        <v>0.4717</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6299</v>
+        <v>0.6321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7895</v>
+        <v>0.7692</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1053</v>
+        <v>0.3846</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>125</v>
+        <v>977</v>
       </c>
       <c r="K14" t="n">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="L14" t="n">
-        <v>42</v>
+        <v>614</v>
       </c>
       <c r="M14" t="n">
-        <v>0.64</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>0.336</v>
+        <v>0.6284999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3684</v>
+        <v>0.8333</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4211</v>
+        <v>0.0833</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>787</v>
+        <v>1184</v>
       </c>
       <c r="K15" t="n">
-        <v>452</v>
+        <v>713</v>
       </c>
       <c r="L15" t="n">
-        <v>479</v>
+        <v>578</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5743</v>
+        <v>0.6022</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6086</v>
+        <v>0.4882</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3684</v>
+        <v>0.8182</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4211</v>
+        <v>0.2727</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K16" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="L16" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4651</v>
+        <v>0.6569</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6744</v>
+        <v>0.3358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5714</v>
+        <v>0.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1429</v>
+        <v>0.3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>92</v>
+        <v>3061</v>
       </c>
       <c r="K17" t="n">
-        <v>44</v>
+        <v>1917</v>
       </c>
       <c r="L17" t="n">
-        <v>37</v>
+        <v>1409</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4783</v>
+        <v>0.6263</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4022</v>
+        <v>0.4603</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5833</v>
+        <v>0.7143</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>0.2857</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1841</v>
+        <v>1224</v>
       </c>
       <c r="K18" t="n">
-        <v>1236</v>
+        <v>713</v>
       </c>
       <c r="L18" t="n">
-        <v>1154</v>
+        <v>683</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6714</v>
+        <v>0.5825</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6268</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4545</v>
+        <v>0.4286</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2727</v>
+        <v>0.1429</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K19" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L19" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4138</v>
+        <v>0.4747</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5286999999999999</v>
+        <v>0.3838</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2278</v>
+        <v>657</v>
       </c>
       <c r="K20" t="n">
-        <v>1461</v>
+        <v>389</v>
       </c>
       <c r="L20" t="n">
-        <v>1208</v>
+        <v>478</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6414</v>
+        <v>0.5921</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5303</v>
+        <v>0.7275</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>1450</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>757</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8889</v>
+        <v>0.5862000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2222</v>
+        <v>0.5221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5026,23 +5106,23 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4</v>
+        <v>0.3333</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.3333</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5051,86 +5131,82 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M22" t="n">
-        <v>0.38</v>
+        <v>0.3774</v>
       </c>
       <c r="N22" t="n">
-        <v>0.76</v>
+        <v>0.7547</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>652</v>
+        <v>60</v>
       </c>
       <c r="K23" t="n">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="L23" t="n">
-        <v>472</v>
+        <v>31</v>
       </c>
       <c r="M23" t="n">
-        <v>0.592</v>
+        <v>0.7167</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7239</v>
+        <v>0.5167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5138,51 +5214,47 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6765</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5190,51 +5262,47 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="L25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5333</v>
+        <v>0.6765</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9333</v>
+        <v>0.5294</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5242,99 +5310,91 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1446</v>
+        <v>9</v>
       </c>
       <c r="K26" t="n">
-        <v>849</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>753</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5871</v>
+        <v>0.8889</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5207000000000001</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0.4138</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3333</v>
+        <v>0.5402</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5350,39 +5410,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.5333</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0.9333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-09</t>
+          <t>04-10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5398,28 +5458,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-10 08:00:00</t>
+          <t>2020-04-11 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7167</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5167</v>
+        <v>0.4286</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,16 +441,16 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H2" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I2" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J2" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K2" t="n">
         <v>0.4304</v>
@@ -476,16 +476,16 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H3" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I3" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J3" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K3" t="n">
         <v>0.4304</v>
@@ -511,16 +511,16 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H4" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I4" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J4" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K4" t="n">
         <v>0.4304</v>
@@ -546,16 +546,16 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H5" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I5" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J5" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K5" t="n">
         <v>0.4304</v>
@@ -581,16 +581,16 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H6" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I6" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J6" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K6" t="n">
         <v>0.4304</v>
@@ -616,16 +616,16 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H7" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I7" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J7" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K7" t="n">
         <v>0.4304</v>
@@ -653,16 +653,16 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H8" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I8" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J8" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K8" t="n">
         <v>0.4304</v>
@@ -690,16 +690,16 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H9" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I9" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J9" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K9" t="n">
         <v>0.4304</v>
@@ -727,16 +727,16 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H10" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I10" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J10" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K10" t="n">
         <v>0.4304</v>
@@ -764,16 +764,16 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H11" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I11" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J11" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K11" t="n">
         <v>0.4304</v>
@@ -801,16 +801,16 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H12" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I12" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J12" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K12" t="n">
         <v>0.4304</v>
@@ -838,16 +838,16 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H13" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I13" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J13" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K13" t="n">
         <v>0.4304</v>
@@ -875,16 +875,16 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H14" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I14" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J14" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K14" t="n">
         <v>0.4304</v>
@@ -912,16 +912,16 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H15" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I15" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J15" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K15" t="n">
         <v>0.4304</v>
@@ -949,16 +949,16 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H16" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I16" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J16" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K16" t="n">
         <v>0.4304</v>
@@ -986,16 +986,16 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H17" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I17" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J17" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K17" t="n">
         <v>0.4304</v>
@@ -1023,16 +1023,16 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H18" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I18" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J18" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K18" t="n">
         <v>0.4304</v>
@@ -1060,16 +1060,16 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H19" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I19" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J19" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K19" t="n">
         <v>0.4304</v>
@@ -1097,16 +1097,16 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H20" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I20" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J20" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K20" t="n">
         <v>0.4304</v>
@@ -1134,16 +1134,16 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H21" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I21" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J21" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K21" t="n">
         <v>0.4304</v>
@@ -1171,16 +1171,16 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H22" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I22" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J22" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K22" t="n">
         <v>0.4304</v>
@@ -1208,16 +1208,16 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H23" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I23" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J23" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K23" t="n">
         <v>0.4304</v>
@@ -1245,16 +1245,16 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H24" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I24" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J24" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K24" t="n">
         <v>0.4304</v>
@@ -1282,16 +1282,16 @@
         <v>0.3304</v>
       </c>
       <c r="G25" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H25" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I25" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J25" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K25" t="n">
         <v>0.4304</v>
@@ -1319,16 +1319,16 @@
         <v>0.2037</v>
       </c>
       <c r="G26" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H26" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I26" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J26" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K26" t="n">
         <v>0.4304</v>
@@ -1356,16 +1356,16 @@
         <v>0.4091</v>
       </c>
       <c r="G27" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H27" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I27" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J27" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K27" t="n">
         <v>0.4304</v>
@@ -1393,16 +1393,16 @@
         <v>0.75</v>
       </c>
       <c r="G28" t="n">
-        <v>14493</v>
+        <v>14559</v>
       </c>
       <c r="H28" t="n">
-        <v>12072</v>
+        <v>12194</v>
       </c>
       <c r="I28" t="n">
-        <v>5196</v>
+        <v>5248</v>
       </c>
       <c r="J28" t="n">
-        <v>0.833</v>
+        <v>0.8376</v>
       </c>
       <c r="K28" t="n">
         <v>0.4304</v>
@@ -1411,37 +1411,74 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>04-13</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>39</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2821</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14559</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12194</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5248</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8376</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.4304</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-0.5909090909090909</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.4545454545454545</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.3333999999999999</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.8332925934979222</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="B30" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.02504874756262178</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.6238666666666667</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1456,7 +1493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,19 +1575,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H2" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I2" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="3">
@@ -1575,19 +1612,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H3" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I3" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="4">
@@ -1612,19 +1649,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H4" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I4" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="5">
@@ -1649,19 +1686,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H5" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I5" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="6">
@@ -1686,19 +1723,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H6" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I6" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="7">
@@ -1723,19 +1760,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H7" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I7" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="8">
@@ -1760,19 +1797,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H8" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I8" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="9">
@@ -1797,19 +1834,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H9" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I9" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="10">
@@ -1834,19 +1871,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H10" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I10" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="11">
@@ -1871,19 +1908,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H11" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I11" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="12">
@@ -1908,19 +1945,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H12" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I12" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="13">
@@ -1945,19 +1982,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H13" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I13" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="14">
@@ -1982,19 +2019,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H14" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I14" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="15">
@@ -2019,19 +2056,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H15" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I15" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="16">
@@ -2056,19 +2093,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H16" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I16" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="17">
@@ -2093,19 +2130,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H17" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I17" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="18">
@@ -2130,19 +2167,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H18" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I18" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="19">
@@ -2167,19 +2204,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H19" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I19" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="20">
@@ -2204,19 +2241,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H20" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I20" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2278,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H21" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I21" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="22">
@@ -2278,19 +2315,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H22" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I22" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2352,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H23" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I23" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="24">
@@ -2352,19 +2389,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H24" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I24" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="25">
@@ -2389,19 +2426,19 @@
         <v>0.315</v>
       </c>
       <c r="G25" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H25" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I25" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="26">
@@ -2426,19 +2463,19 @@
         <v>0.3152</v>
       </c>
       <c r="G26" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H26" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I26" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2500,19 @@
         <v>0.4078</v>
       </c>
       <c r="G27" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H27" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I27" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="28">
@@ -2500,55 +2537,92 @@
         <v>0.4828</v>
       </c>
       <c r="G28" t="n">
-        <v>75103</v>
+        <v>75985</v>
       </c>
       <c r="H28" t="n">
-        <v>51777</v>
+        <v>52461</v>
       </c>
       <c r="I28" t="n">
-        <v>39713</v>
+        <v>40267</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6894</v>
+        <v>0.6904</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5288</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>04-13</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>859</v>
+      </c>
+      <c r="C29" t="n">
+        <v>663</v>
+      </c>
+      <c r="D29" t="n">
+        <v>297</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7718</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3458</v>
+      </c>
+      <c r="G29" t="n">
+        <v>75985</v>
+      </c>
+      <c r="H29" t="n">
+        <v>52461</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40267</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6904</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5299</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>-0.3220779220779221</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.3843537414965986</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.1974522292993631</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.0918019905709795</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.1839136831780285</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="B30" t="n">
+        <v>2.291187739463601</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.662983425414365</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.357142857142857</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1129055515501082</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.2837613918806959</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2646,376 +2720,378 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.3333</v>
+        <v>0.7391</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.1765</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2506</v>
+        <v>1175</v>
       </c>
       <c r="K2" t="n">
-        <v>2431</v>
+        <v>1039</v>
       </c>
       <c r="L2" t="n">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9701</v>
+        <v>0.8843</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1699</v>
+        <v>0.4244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1560</v>
+        <v>1304</v>
       </c>
       <c r="K3" t="n">
-        <v>1513</v>
+        <v>883</v>
       </c>
       <c r="L3" t="n">
-        <v>593</v>
+        <v>744</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9699</v>
+        <v>0.6771</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3919</v>
+        <v>0.8426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1358</v>
+        <v>431</v>
       </c>
       <c r="K4" t="n">
-        <v>1317</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9698</v>
+        <v>0.8329</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2855</v>
+        <v>0.6908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1152</v>
+        <v>64</v>
       </c>
       <c r="K5" t="n">
-        <v>1021</v>
+        <v>63</v>
       </c>
       <c r="L5" t="n">
-        <v>424</v>
+        <v>29</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8863</v>
+        <v>0.9844000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4153</v>
+        <v>0.4603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="K6" t="n">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="L6" t="n">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7128</v>
+        <v>0.9972</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5288</v>
+        <v>0.2626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>19</v>
+        <v>2509</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>2467</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>414</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4737</v>
+        <v>0.9833</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4444</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>0.6667</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>753</v>
+        <v>557</v>
       </c>
       <c r="K8" t="n">
-        <v>217</v>
+        <v>548</v>
       </c>
       <c r="L8" t="n">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2882</v>
+        <v>0.9838</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3641</v>
+        <v>0.4197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -3024,46 +3100,46 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>34</v>
+        <v>1360</v>
       </c>
       <c r="K9" t="n">
-        <v>30</v>
+        <v>1318</v>
       </c>
       <c r="L9" t="n">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8824</v>
+        <v>0.9691</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6</v>
+        <v>0.2883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3073,49 +3149,49 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6667</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3133,39 +3209,39 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>182</v>
+        <v>754</v>
       </c>
       <c r="K11" t="n">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L11" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M11" t="n">
-        <v>0.956</v>
+        <v>0.3249</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3793</v>
+        <v>0.3592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3185,39 +3261,39 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="K12" t="n">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="L12" t="n">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.7488</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5909</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3227,49 +3303,49 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>515</v>
+        <v>74</v>
       </c>
       <c r="K13" t="n">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="L13" t="n">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5515</v>
+        <v>0.8514</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7852</v>
+        <v>0.6032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3279,53 +3355,53 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="K14" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L14" t="n">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.9213</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2648</v>
+        <v>0.6895</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3333,47 +3409,49 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>558</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3548</v>
+        <v>0.75</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3381,139 +3459,149 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>684</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>504</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0.7368</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8333</v>
+        <v>0.1349</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>425</v>
+        <v>558</v>
       </c>
       <c r="K17" t="n">
-        <v>355</v>
+        <v>198</v>
       </c>
       <c r="L17" t="n">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8353</v>
+        <v>0.3548</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6901</v>
+        <v>0.7524999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>59</v>
+        <v>1562</v>
       </c>
       <c r="K18" t="n">
-        <v>58</v>
+        <v>1518</v>
       </c>
       <c r="L18" t="n">
-        <v>24</v>
+        <v>598</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9831</v>
+        <v>0.9718</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4138</v>
+        <v>0.3939</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3529,34 +3617,34 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="K19" t="n">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="L19" t="n">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7481</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.71</v>
+        <v>0.5909</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3577,7 +3665,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3604,12 +3692,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3625,39 +3713,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3333</v>
+        <v>0.978</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8333</v>
+        <v>0.3708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3673,39 +3761,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>33</v>
+        <v>390</v>
       </c>
       <c r="K22" t="n">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4848</v>
+        <v>0.7128</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6875</v>
+        <v>0.5288</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3721,39 +3809,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>380</v>
+        <v>515</v>
       </c>
       <c r="K23" t="n">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="L23" t="n">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9211</v>
+        <v>0.5553</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6886</v>
+        <v>0.7867</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3769,39 +3857,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K24" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8472</v>
+        <v>0.4737</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5901999999999999</v>
+        <v>0.4444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3817,39 +3905,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5</v>
+        <v>0.4848</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3865,39 +3953,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>408</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>389</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9534</v>
+        <v>0.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3913,39 +4001,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1296</v>
+        <v>408</v>
       </c>
       <c r="K27" t="n">
-        <v>881</v>
+        <v>394</v>
       </c>
       <c r="L27" t="n">
-        <v>744</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6798</v>
+        <v>0.9657</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8445</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3961,39 +4049,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>669</v>
+        <v>34</v>
       </c>
       <c r="K28" t="n">
-        <v>667</v>
+        <v>31</v>
       </c>
       <c r="L28" t="n">
-        <v>495</v>
+        <v>18</v>
       </c>
       <c r="M28" t="n">
-        <v>0.997</v>
+        <v>0.9118000000000001</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7421</v>
+        <v>0.5806</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4009,39 +4097,39 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>554</v>
+        <v>669</v>
       </c>
       <c r="K29" t="n">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="L29" t="n">
-        <v>230</v>
+        <v>495</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9856</v>
+        <v>0.997</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4212</v>
+        <v>0.7421</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4057,28 +4145,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-13T07:00:00</t>
+          <t>2020-04-14T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>681</v>
+        <v>18</v>
       </c>
       <c r="K30" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7386</v>
+        <v>0.3333</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1352</v>
+        <v>0.8333</v>
       </c>
     </row>
   </sheetData>
@@ -4175,7 +4263,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4184,23 +4272,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7581</v>
+        <v>0.8471</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2903</v>
+        <v>0.2783</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4209,768 +4297,768 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>24830</v>
+        <v>25163</v>
       </c>
       <c r="K2" t="n">
-        <v>17958</v>
+        <v>18242</v>
       </c>
       <c r="L2" t="n">
-        <v>11820</v>
+        <v>11973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7232</v>
+        <v>0.725</v>
       </c>
       <c r="N2" t="n">
-        <v>0.476</v>
+        <v>0.4758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>0.541</v>
+        <v>0.7706</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5246</v>
+        <v>0.5138</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8595</v>
+        <v>12267</v>
       </c>
       <c r="K3" t="n">
-        <v>5960</v>
+        <v>8728</v>
       </c>
       <c r="L3" t="n">
-        <v>4057</v>
+        <v>6942</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6934</v>
+        <v>0.7115</v>
       </c>
       <c r="N3" t="n">
-        <v>0.472</v>
+        <v>0.5659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8929</v>
+        <v>0.6923</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5357</v>
+        <v>0.4286</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2490</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>1632</v>
+        <v>179</v>
       </c>
       <c r="L4" t="n">
-        <v>1368</v>
+        <v>151</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6554</v>
+        <v>0.5683</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5494</v>
+        <v>0.4794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>0.76</v>
+        <v>0.7241</v>
       </c>
       <c r="G5" t="n">
-        <v>0.72</v>
+        <v>0.4943</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12156</v>
+        <v>8683</v>
       </c>
       <c r="K5" t="n">
-        <v>8642</v>
+        <v>6024</v>
       </c>
       <c r="L5" t="n">
-        <v>6845</v>
+        <v>4138</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7109</v>
+        <v>0.6938</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5631</v>
+        <v>0.4766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8125</v>
+        <v>0.5455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3125</v>
+        <v>0.2045</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1787</v>
+        <v>3126</v>
       </c>
       <c r="K6" t="n">
-        <v>1204</v>
+        <v>1954</v>
       </c>
       <c r="L6" t="n">
-        <v>947</v>
+        <v>1456</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6738</v>
+        <v>0.6251</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5299</v>
+        <v>0.4658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5385</v>
+        <v>0.9535</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4615</v>
+        <v>0.2558</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>7764</v>
+        <v>2533</v>
       </c>
       <c r="K7" t="n">
-        <v>5306</v>
+        <v>1673</v>
       </c>
       <c r="L7" t="n">
-        <v>4946</v>
+        <v>1398</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6834</v>
+        <v>0.6605</v>
       </c>
       <c r="N7" t="n">
-        <v>0.637</v>
+        <v>0.5518999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8333</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.75</v>
+        <v>0.2368</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1894</v>
+        <v>7806</v>
       </c>
       <c r="K8" t="n">
-        <v>1267</v>
+        <v>5327</v>
       </c>
       <c r="L8" t="n">
-        <v>1210</v>
+        <v>4970</v>
       </c>
       <c r="M8" t="n">
-        <v>0.669</v>
+        <v>0.6824</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6389</v>
+        <v>0.6367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4444</v>
+        <v>0.9667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5556</v>
+        <v>0.2667</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3078</v>
+        <v>1817</v>
       </c>
       <c r="K9" t="n">
-        <v>1929</v>
+        <v>1233</v>
       </c>
       <c r="L9" t="n">
-        <v>1430</v>
+        <v>966</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6267</v>
+        <v>0.6786</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4646</v>
+        <v>0.5316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3333</v>
+        <v>0.875</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.2083</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2009</v>
+        <v>134</v>
       </c>
       <c r="K10" t="n">
-        <v>1378</v>
+        <v>75</v>
       </c>
       <c r="L10" t="n">
-        <v>1332</v>
+        <v>75</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6859</v>
+        <v>0.5597</v>
       </c>
       <c r="N10" t="n">
-        <v>0.663</v>
+        <v>0.5597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
       <c r="F11" t="n">
-        <v>0.8333</v>
+        <v>0.5556</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.2778</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3187</v>
+        <v>2028</v>
       </c>
       <c r="K11" t="n">
-        <v>2266</v>
+        <v>1389</v>
       </c>
       <c r="L11" t="n">
-        <v>1619</v>
+        <v>1342</v>
       </c>
       <c r="M11" t="n">
-        <v>0.711</v>
+        <v>0.6849</v>
       </c>
       <c r="N11" t="n">
-        <v>0.508</v>
+        <v>0.6617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6667</v>
+        <v>0.8889</v>
       </c>
       <c r="G12" t="n">
         <v>0.6667</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>880</v>
+        <v>3198</v>
       </c>
       <c r="K12" t="n">
-        <v>489</v>
+        <v>2276</v>
       </c>
       <c r="L12" t="n">
-        <v>534</v>
+        <v>1634</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5557</v>
+        <v>0.7117</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6068</v>
+        <v>0.5109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6667</v>
+        <v>0.2222</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>220</v>
+        <v>987</v>
       </c>
       <c r="K13" t="n">
-        <v>112</v>
+        <v>557</v>
       </c>
       <c r="L13" t="n">
-        <v>98</v>
+        <v>625</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5091</v>
+        <v>0.5643</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4455</v>
+        <v>0.6332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
       <c r="F14" t="n">
-        <v>0.3333</v>
+        <v>0.6667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>665</v>
+        <v>1457</v>
       </c>
       <c r="K14" t="n">
-        <v>393</v>
+        <v>855</v>
       </c>
       <c r="L14" t="n">
-        <v>488</v>
+        <v>767</v>
       </c>
       <c r="M14" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7338</v>
+        <v>0.5264</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6667</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>669</v>
       </c>
       <c r="K15" t="n">
-        <v>23</v>
+        <v>397</v>
       </c>
       <c r="L15" t="n">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4107</v>
+        <v>0.5934</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7679</v>
+        <v>0.7324000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="n">
         <v>0.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>90</v>
+        <v>1191</v>
       </c>
       <c r="K16" t="n">
-        <v>39</v>
+        <v>717</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>591</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4333</v>
+        <v>0.602</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5556</v>
+        <v>0.4962</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
         <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -4980,147 +5068,147 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1229</v>
+        <v>1898</v>
       </c>
       <c r="K17" t="n">
-        <v>717</v>
+        <v>1271</v>
       </c>
       <c r="L17" t="n">
-        <v>690</v>
+        <v>1216</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5834</v>
+        <v>0.6697</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5614</v>
+        <v>0.6407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1187</v>
+        <v>1231</v>
       </c>
       <c r="K18" t="n">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="L18" t="n">
-        <v>586</v>
+        <v>693</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6024</v>
+        <v>0.5841</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4937</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="K19" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="L19" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4706</v>
+        <v>0.4407</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4216</v>
+        <v>0.7458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -5129,56 +5217,56 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="K20" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L20" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6087</v>
+        <v>0.4762</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5188,39 +5276,39 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8</v>
+        <v>0.4239</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4</v>
+        <v>0.5760999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -5240,143 +5328,139 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K22" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L22" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4909</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6182</v>
+        <v>0.3453</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>138</v>
+        <v>881</v>
       </c>
       <c r="K23" t="n">
-        <v>90</v>
+        <v>490</v>
       </c>
       <c r="L23" t="n">
-        <v>47</v>
+        <v>537</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6522</v>
+        <v>0.5562</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3406</v>
+        <v>0.6095</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>978</v>
+        <v>46</v>
       </c>
       <c r="K24" t="n">
-        <v>555</v>
+        <v>28</v>
       </c>
       <c r="L24" t="n">
-        <v>619</v>
+        <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5675</v>
+        <v>0.6087</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6329</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5392,39 +5476,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5333</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5440,39 +5524,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.7167</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4286</v>
+        <v>0.5333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -5488,39 +5572,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1452</v>
+        <v>10</v>
       </c>
       <c r="K27" t="n">
-        <v>851</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>761</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5861</v>
+        <v>0.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5241</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5536,39 +5620,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7167</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5167</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-12</t>
+          <t>04-13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5584,28 +5668,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-13 07:00:00</t>
+          <t>2020-04-14 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.5333</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.9333</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H2" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I2" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H3" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I3" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H4" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I4" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H5" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I5" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H6" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I6" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H7" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I7" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H8" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I8" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H9" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I9" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H10" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I10" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H11" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I11" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H12" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I12" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H13" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I13" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H14" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I14" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H15" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I15" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H16" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I16" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H17" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I17" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H18" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I18" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H19" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I19" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H20" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I20" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H21" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I21" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="22">
@@ -1171,19 +1171,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H22" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I22" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="23">
@@ -1208,19 +1208,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H23" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I23" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="24">
@@ -1245,19 +1245,19 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H24" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I24" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="25">
@@ -1282,19 +1282,19 @@
         <v>0.3304</v>
       </c>
       <c r="G25" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H25" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I25" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="26">
@@ -1319,19 +1319,19 @@
         <v>0.2037</v>
       </c>
       <c r="G26" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H26" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I26" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="27">
@@ -1356,19 +1356,19 @@
         <v>0.4091</v>
       </c>
       <c r="G27" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H27" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I27" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="28">
@@ -1393,19 +1393,19 @@
         <v>0.75</v>
       </c>
       <c r="G28" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H28" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I28" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="29">
@@ -1430,55 +1430,92 @@
         <v>0.2821</v>
       </c>
       <c r="G29" t="n">
-        <v>14559</v>
+        <v>14640</v>
       </c>
       <c r="H29" t="n">
-        <v>12194</v>
+        <v>12302</v>
       </c>
       <c r="I29" t="n">
-        <v>5248</v>
+        <v>5288</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8376</v>
+        <v>0.8403</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4304</v>
+        <v>0.4298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>04-14</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>86</v>
+      </c>
+      <c r="C30" t="n">
+        <v>37</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4302</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2973</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14640</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12302</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5288</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8403</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4298</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.02504874756262178</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.6238666666666667</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="B31" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.05128205128205128</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3381538461538461</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.05388160226869901</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1493,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,19 +1612,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H2" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I2" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="3">
@@ -1612,19 +1649,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H3" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I3" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="4">
@@ -1649,19 +1686,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H4" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I4" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="5">
@@ -1686,19 +1723,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H5" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I5" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="6">
@@ -1723,19 +1760,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H6" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I6" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="7">
@@ -1760,19 +1797,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H7" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I7" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="8">
@@ -1797,19 +1834,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H8" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I8" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="9">
@@ -1834,19 +1871,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H9" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I9" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="10">
@@ -1871,19 +1908,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H10" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I10" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="11">
@@ -1908,19 +1945,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H11" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I11" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="12">
@@ -1945,19 +1982,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H12" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I12" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="13">
@@ -1982,19 +2019,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H13" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I13" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="14">
@@ -2019,19 +2056,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H14" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I14" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="15">
@@ -2056,19 +2093,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H15" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I15" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="16">
@@ -2093,19 +2130,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H16" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I16" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="17">
@@ -2130,19 +2167,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H17" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I17" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="18">
@@ -2167,19 +2204,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H18" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I18" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="19">
@@ -2204,19 +2241,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H19" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I19" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="20">
@@ -2241,19 +2278,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H20" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I20" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="21">
@@ -2278,19 +2315,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H21" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I21" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="22">
@@ -2315,19 +2352,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H22" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I22" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="23">
@@ -2352,19 +2389,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H23" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I23" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="24">
@@ -2389,19 +2426,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H24" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I24" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="25">
@@ -2426,19 +2463,19 @@
         <v>0.315</v>
       </c>
       <c r="G25" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H25" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I25" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="26">
@@ -2463,19 +2500,19 @@
         <v>0.3152</v>
       </c>
       <c r="G26" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H26" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I26" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="27">
@@ -2500,19 +2537,19 @@
         <v>0.4078</v>
       </c>
       <c r="G27" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H27" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I27" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="28">
@@ -2537,19 +2574,19 @@
         <v>0.4828</v>
       </c>
       <c r="G28" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H28" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I28" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="29">
@@ -2574,55 +2611,92 @@
         <v>0.3458</v>
       </c>
       <c r="G29" t="n">
-        <v>75985</v>
+        <v>76818</v>
       </c>
       <c r="H29" t="n">
-        <v>52461</v>
+        <v>53086</v>
       </c>
       <c r="I29" t="n">
-        <v>40267</v>
+        <v>40827</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6904</v>
+        <v>0.6911</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5299</v>
+        <v>0.5315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>04-14</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>831</v>
+      </c>
+      <c r="C30" t="n">
+        <v>628</v>
+      </c>
+      <c r="D30" t="n">
+        <v>300</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7557</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="G30" t="n">
+        <v>76818</v>
+      </c>
+      <c r="H30" t="n">
+        <v>53086</v>
+      </c>
+      <c r="I30" t="n">
+        <v>40827</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6911</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5315</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2.291187739463601</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2.662983425414365</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.357142857142857</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.1129055515501082</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.2837613918806959</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="B31" t="n">
+        <v>-0.03259604190919674</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.05279034690799397</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.02086032650945841</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.04395604395604393</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2720,7 +2794,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2729,23 +2803,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7391</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1765</v>
+        <v>0.3333</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2754,399 +2828,401 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1175</v>
+        <v>1205</v>
       </c>
       <c r="K2" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="L2" t="n">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8843</v>
+        <v>0.8647</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4244</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.3333</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1304</v>
+        <v>679</v>
       </c>
       <c r="K3" t="n">
-        <v>883</v>
+        <v>679</v>
       </c>
       <c r="L3" t="n">
-        <v>744</v>
+        <v>499</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6771</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8426</v>
+        <v>0.7349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6667</v>
+        <v>0.3333</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>431</v>
+        <v>1312</v>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>887</v>
       </c>
       <c r="L4" t="n">
-        <v>248</v>
+        <v>746</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8329</v>
+        <v>0.6761</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6908</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.4444</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>64</v>
+        <v>2519</v>
       </c>
       <c r="K5" t="n">
-        <v>63</v>
+        <v>2513</v>
       </c>
       <c r="L5" t="n">
-        <v>29</v>
+        <v>415</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.9976</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4603</v>
+        <v>0.1651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75</v>
+        <v>0.5714</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>359</v>
+        <v>1568</v>
       </c>
       <c r="K6" t="n">
-        <v>358</v>
+        <v>1524</v>
       </c>
       <c r="L6" t="n">
-        <v>94</v>
+        <v>606</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9972</v>
+        <v>0.9719</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2626</v>
+        <v>0.3976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3333</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2509</v>
+        <v>436</v>
       </c>
       <c r="K7" t="n">
-        <v>2467</v>
+        <v>362</v>
       </c>
       <c r="L7" t="n">
-        <v>414</v>
+        <v>250</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9833</v>
+        <v>0.8303</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1678</v>
+        <v>0.6906</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>557</v>
+        <v>47</v>
       </c>
       <c r="K8" t="n">
-        <v>548</v>
+        <v>47</v>
       </c>
       <c r="L8" t="n">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9838</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4197</v>
+        <v>0.5532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1360</v>
+        <v>67</v>
       </c>
       <c r="K9" t="n">
-        <v>1318</v>
+        <v>66</v>
       </c>
       <c r="L9" t="n">
-        <v>380</v>
+        <v>36</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9691</v>
+        <v>0.9851</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2883</v>
+        <v>0.5455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3159,193 +3235,191 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>684</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7143</v>
+        <v>0.1328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>754</v>
+        <v>1362</v>
       </c>
       <c r="K11" t="n">
-        <v>245</v>
+        <v>1319</v>
       </c>
       <c r="L11" t="n">
-        <v>88</v>
+        <v>380</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3249</v>
+        <v>0.9684</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3592</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2020-04-15T08:00:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>59</v>
+      </c>
+      <c r="K12" t="n">
+        <v>59</v>
+      </c>
+      <c r="L12" t="n">
+        <v>17</v>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-04-14T08:00:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>成都</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>402</v>
-      </c>
-      <c r="K12" t="n">
-        <v>301</v>
-      </c>
-      <c r="L12" t="n">
-        <v>215</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7488</v>
-      </c>
       <c r="N12" t="n">
-        <v>0.7143</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2020-04-15T08:00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-04-14T08:00:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>74</v>
-      </c>
-      <c r="K13" t="n">
-        <v>63</v>
-      </c>
-      <c r="L13" t="n">
-        <v>38</v>
-      </c>
       <c r="M13" t="n">
-        <v>0.8514</v>
+        <v>0.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6032</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3355,49 +3429,49 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="K14" t="n">
-        <v>351</v>
+        <v>63</v>
       </c>
       <c r="L14" t="n">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9213</v>
+        <v>0.8514</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6895</v>
+        <v>0.6032</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3415,43 +3489,43 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>755</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="M15" t="n">
-        <v>0.75</v>
+        <v>0.3272</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6667</v>
+        <v>0.3603</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3459,149 +3533,139 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>684</v>
+        <v>403</v>
       </c>
       <c r="K16" t="n">
-        <v>504</v>
+        <v>302</v>
       </c>
       <c r="L16" t="n">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7368</v>
+        <v>0.7494</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1349</v>
+        <v>0.7151999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2020-04-15T08:00:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>无锡</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-04-14T08:00:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>558</v>
-      </c>
-      <c r="K17" t="n">
-        <v>198</v>
-      </c>
-      <c r="L17" t="n">
-        <v>149</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.3548</v>
-      </c>
       <c r="N17" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1562</v>
+        <v>390</v>
       </c>
       <c r="K18" t="n">
-        <v>1518</v>
+        <v>278</v>
       </c>
       <c r="L18" t="n">
-        <v>598</v>
+        <v>147</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9718</v>
+        <v>0.7128</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3939</v>
+        <v>0.5288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3617,39 +3681,39 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K19" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0.6316000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5909</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3665,34 +3729,34 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2759</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3713,7 +3777,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3740,12 +3804,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3761,39 +3825,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="K22" t="n">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="L22" t="n">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7128</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5288</v>
+        <v>0.2618</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3809,39 +3873,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>515</v>
+        <v>34</v>
       </c>
       <c r="K23" t="n">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="L23" t="n">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5553</v>
+        <v>0.9118000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7867</v>
+        <v>0.5806</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3857,39 +3921,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>396</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4737</v>
+        <v>0.9706</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4444</v>
+        <v>0.6338</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3905,39 +3969,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>33</v>
+        <v>558</v>
       </c>
       <c r="K25" t="n">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="L25" t="n">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4848</v>
+        <v>0.3548</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6875</v>
+        <v>0.7524999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3953,39 +4017,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4001,39 +4065,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="K27" t="n">
-        <v>394</v>
+        <v>549</v>
       </c>
       <c r="L27" t="n">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9657</v>
+        <v>0.9856</v>
       </c>
       <c r="N27" t="n">
-        <v>0.632</v>
+        <v>0.4208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4049,39 +4113,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K28" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L28" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9118000000000001</v>
+        <v>0.4848</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5806</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4097,39 +4161,39 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="K29" t="n">
-        <v>667</v>
+        <v>354</v>
       </c>
       <c r="L29" t="n">
-        <v>495</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
-        <v>0.997</v>
+        <v>0.9291</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7421</v>
+        <v>0.6864</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4145,28 +4209,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-14T08:00:00</t>
+          <t>2020-04-15T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>18</v>
+        <v>515</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3333</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>0.8333</v>
+        <v>0.7801</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +4327,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4272,23 +4336,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="D2" t="n">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8471</v>
+        <v>0.7984</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2783</v>
+        <v>0.3518</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4297,25 +4361,25 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25163</v>
+        <v>25415</v>
       </c>
       <c r="K2" t="n">
-        <v>18242</v>
+        <v>18441</v>
       </c>
       <c r="L2" t="n">
-        <v>11973</v>
+        <v>12139</v>
       </c>
       <c r="M2" t="n">
-        <v>0.725</v>
+        <v>0.7256</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4758</v>
+        <v>0.4776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4324,23 +4388,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D3" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7706</v>
+        <v>0.775</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5138</v>
+        <v>0.5833</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4349,649 +4413,649 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12267</v>
+        <v>12385</v>
       </c>
       <c r="K3" t="n">
-        <v>8728</v>
+        <v>8819</v>
       </c>
       <c r="L3" t="n">
-        <v>6942</v>
+        <v>7062</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7115</v>
+        <v>0.7121</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5659</v>
+        <v>0.5702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6923</v>
+        <v>0.7573</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4286</v>
+        <v>0.2621</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>3226</v>
       </c>
       <c r="K4" t="n">
-        <v>179</v>
+        <v>2032</v>
       </c>
       <c r="L4" t="n">
-        <v>151</v>
+        <v>1494</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5683</v>
+        <v>0.6299</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4794</v>
+        <v>0.4631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7241</v>
+        <v>0.7692</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4943</v>
+        <v>0.3462</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>8683</v>
+        <v>390</v>
       </c>
       <c r="K5" t="n">
-        <v>6024</v>
+        <v>236</v>
       </c>
       <c r="L5" t="n">
-        <v>4138</v>
+        <v>188</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6938</v>
+        <v>0.6051</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4766</v>
+        <v>0.4821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5455</v>
+        <v>0.7174</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2045</v>
+        <v>0.3261</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3126</v>
+        <v>8730</v>
       </c>
       <c r="K6" t="n">
-        <v>1954</v>
+        <v>6057</v>
       </c>
       <c r="L6" t="n">
-        <v>1456</v>
+        <v>4176</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6251</v>
+        <v>0.6938</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4658</v>
+        <v>0.4784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9535</v>
+        <v>0.85</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2558</v>
+        <v>0.175</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2533</v>
+        <v>1858</v>
       </c>
       <c r="K7" t="n">
-        <v>1673</v>
+        <v>1267</v>
       </c>
       <c r="L7" t="n">
-        <v>1398</v>
+        <v>983</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6605</v>
+        <v>0.6819</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5518999999999999</v>
+        <v>0.5291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.8205</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2368</v>
+        <v>0.2821</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>7806</v>
+        <v>2583</v>
       </c>
       <c r="K8" t="n">
-        <v>5327</v>
+        <v>1713</v>
       </c>
       <c r="L8" t="n">
-        <v>4970</v>
+        <v>1428</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6824</v>
+        <v>0.6632</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6367</v>
+        <v>0.5528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9667</v>
+        <v>0.6452</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2667</v>
+        <v>0.5161</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1817</v>
+        <v>7834</v>
       </c>
       <c r="K9" t="n">
-        <v>1233</v>
+        <v>5345</v>
       </c>
       <c r="L9" t="n">
-        <v>966</v>
+        <v>5000</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6786</v>
+        <v>0.6823</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5316</v>
+        <v>0.6382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2083</v>
+        <v>0.0833</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>134</v>
+        <v>1013</v>
       </c>
       <c r="K10" t="n">
-        <v>75</v>
+        <v>567</v>
       </c>
       <c r="L10" t="n">
-        <v>75</v>
+        <v>639</v>
       </c>
       <c r="M10" t="n">
         <v>0.5597</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5597</v>
+        <v>0.6308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5556</v>
+        <v>0.7619</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2778</v>
+        <v>0.1429</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>2028</v>
+        <v>155</v>
       </c>
       <c r="K11" t="n">
-        <v>1389</v>
+        <v>91</v>
       </c>
       <c r="L11" t="n">
-        <v>1342</v>
+        <v>80</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6849</v>
+        <v>0.5871</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6617</v>
+        <v>0.5161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8889</v>
+        <v>0.8947000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6667</v>
+        <v>0.3684</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3198</v>
+        <v>2047</v>
       </c>
       <c r="K12" t="n">
-        <v>2276</v>
+        <v>1406</v>
       </c>
       <c r="L12" t="n">
-        <v>1634</v>
+        <v>1353</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7117</v>
+        <v>0.6869</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5109</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
         <v>9</v>
       </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2222</v>
+        <v>0.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3333</v>
+        <v>0.5333</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>987</v>
+        <v>1246</v>
       </c>
       <c r="K13" t="n">
-        <v>557</v>
+        <v>728</v>
       </c>
       <c r="L13" t="n">
-        <v>625</v>
+        <v>704</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5643</v>
+        <v>0.5843</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6332</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
         <v>0.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1457</v>
+        <v>3210</v>
       </c>
       <c r="K14" t="n">
-        <v>855</v>
+        <v>2281</v>
       </c>
       <c r="L14" t="n">
-        <v>767</v>
+        <v>1646</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5868</v>
+        <v>0.7106</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5264</v>
+        <v>0.5128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>669</v>
+        <v>1908</v>
       </c>
       <c r="K15" t="n">
-        <v>397</v>
+        <v>1277</v>
       </c>
       <c r="L15" t="n">
-        <v>490</v>
+        <v>1222</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5934</v>
+        <v>0.6693</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7324000000000001</v>
+        <v>0.6405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5003,20 +5067,20 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5025,141 +5089,141 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="K16" t="n">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="L16" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M16" t="n">
         <v>0.602</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4962</v>
+        <v>0.4975</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G17" t="n">
         <v>0.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1898</v>
+        <v>1461</v>
       </c>
       <c r="K17" t="n">
-        <v>1271</v>
+        <v>858</v>
       </c>
       <c r="L17" t="n">
-        <v>1216</v>
+        <v>775</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6697</v>
+        <v>0.5873</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6407</v>
+        <v>0.5305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.6667</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1231</v>
+        <v>96</v>
       </c>
       <c r="K18" t="n">
-        <v>719</v>
+        <v>41</v>
       </c>
       <c r="L18" t="n">
-        <v>693</v>
+        <v>55</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5841</v>
+        <v>0.4271</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5729</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -5168,47 +5232,47 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>59</v>
+        <v>883</v>
       </c>
       <c r="K19" t="n">
-        <v>26</v>
+        <v>492</v>
       </c>
       <c r="L19" t="n">
-        <v>44</v>
+        <v>538</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4407</v>
+        <v>0.5572</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7458</v>
+        <v>0.6093</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -5217,98 +5281,98 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K20" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4762</v>
+        <v>0.45</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4286</v>
+        <v>0.7667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K21" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L21" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4239</v>
+        <v>0.4762</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5760999999999999</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -5318,101 +5382,97 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>139</v>
+        <v>670</v>
       </c>
       <c r="K22" t="n">
-        <v>91</v>
+        <v>398</v>
       </c>
       <c r="L22" t="n">
-        <v>48</v>
+        <v>492</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6546999999999999</v>
+        <v>0.594</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3453</v>
+        <v>0.7343</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>881</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>490</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5562</v>
+        <v>0.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6095</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -5428,39 +5488,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6087</v>
+        <v>0.5333</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.9333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5476,39 +5536,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.7167</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.5333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5524,39 +5584,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7167</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -5572,39 +5632,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8</v>
+        <v>0.6087</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5620,39 +5680,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.6546999999999999</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4286</v>
+        <v>0.3453</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-13</t>
+          <t>04-14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5668,28 +5728,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-14 08:00:00</t>
+          <t>2020-04-15 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5333</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9333</v>
+        <v>0.4286</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H2" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I2" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H3" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I3" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H4" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I4" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H5" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I5" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H6" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I6" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H7" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I7" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H8" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I8" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H9" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I9" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H10" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I10" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H11" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I11" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H12" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I12" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H13" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I13" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H14" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I14" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H15" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I15" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H16" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I16" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H17" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I17" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H18" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I18" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H19" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I19" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H20" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I20" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H21" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I21" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="22">
@@ -1171,19 +1171,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H22" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I22" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="23">
@@ -1208,19 +1208,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H23" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I23" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="24">
@@ -1245,19 +1245,19 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H24" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I24" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="25">
@@ -1282,19 +1282,19 @@
         <v>0.3304</v>
       </c>
       <c r="G25" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H25" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I25" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="26">
@@ -1319,19 +1319,19 @@
         <v>0.2037</v>
       </c>
       <c r="G26" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H26" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I26" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="27">
@@ -1356,19 +1356,19 @@
         <v>0.4091</v>
       </c>
       <c r="G27" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H27" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I27" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="28">
@@ -1393,19 +1393,19 @@
         <v>0.75</v>
       </c>
       <c r="G28" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H28" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I28" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="29">
@@ -1430,19 +1430,19 @@
         <v>0.2821</v>
       </c>
       <c r="G29" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H29" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I29" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="30">
@@ -1467,55 +1467,92 @@
         <v>0.2973</v>
       </c>
       <c r="G30" t="n">
-        <v>14640</v>
+        <v>14679</v>
       </c>
       <c r="H30" t="n">
-        <v>12302</v>
+        <v>12346</v>
       </c>
       <c r="I30" t="n">
-        <v>5288</v>
+        <v>5320</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8403</v>
+        <v>0.8411</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4298</v>
+        <v>0.4309</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
+          <t>04-15</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>39</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14679</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12346</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5320</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8411</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4309</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.05128205128205128</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.3381538461538461</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.05388160226869901</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="B32" t="n">
+        <v>-0.5465116279069767</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.4324324324324325</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.1818181818181818</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2517433751743374</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4416414396232761</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,7 +1567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1612,19 +1649,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H2" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I2" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="3">
@@ -1649,19 +1686,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H3" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I3" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="4">
@@ -1686,19 +1723,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H4" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I4" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="5">
@@ -1723,19 +1760,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H5" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I5" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="6">
@@ -1760,19 +1797,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H6" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I6" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="7">
@@ -1797,19 +1834,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H7" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I7" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="8">
@@ -1834,19 +1871,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H8" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I8" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="9">
@@ -1871,19 +1908,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H9" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I9" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="10">
@@ -1908,19 +1945,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H10" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I10" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="11">
@@ -1945,19 +1982,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H11" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I11" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="12">
@@ -1982,19 +2019,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H12" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I12" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="13">
@@ -2019,19 +2056,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H13" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I13" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="14">
@@ -2056,19 +2093,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H14" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I14" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="15">
@@ -2093,19 +2130,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H15" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I15" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="16">
@@ -2130,19 +2167,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H16" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I16" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="17">
@@ -2167,19 +2204,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H17" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I17" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="18">
@@ -2204,19 +2241,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H18" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I18" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="19">
@@ -2241,19 +2278,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H19" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I19" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="20">
@@ -2278,19 +2315,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H20" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I20" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="21">
@@ -2315,19 +2352,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H21" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I21" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="22">
@@ -2352,19 +2389,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H22" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I22" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="23">
@@ -2389,19 +2426,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H23" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I23" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="24">
@@ -2426,19 +2463,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H24" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I24" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="25">
@@ -2463,19 +2500,19 @@
         <v>0.315</v>
       </c>
       <c r="G25" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H25" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I25" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="26">
@@ -2500,19 +2537,19 @@
         <v>0.3152</v>
       </c>
       <c r="G26" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H26" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I26" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="27">
@@ -2537,19 +2574,19 @@
         <v>0.4078</v>
       </c>
       <c r="G27" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H27" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I27" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="28">
@@ -2574,19 +2611,19 @@
         <v>0.4828</v>
       </c>
       <c r="G28" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H28" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I28" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="29">
@@ -2611,19 +2648,19 @@
         <v>0.3458</v>
       </c>
       <c r="G29" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H29" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I29" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="30">
@@ -2648,55 +2685,92 @@
         <v>0.361</v>
       </c>
       <c r="G30" t="n">
-        <v>76818</v>
+        <v>77398</v>
       </c>
       <c r="H30" t="n">
-        <v>53086</v>
+        <v>53524</v>
       </c>
       <c r="I30" t="n">
-        <v>40827</v>
+        <v>41217</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6911</v>
+        <v>0.6915</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5315</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
+          <t>04-15</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>591</v>
+      </c>
+      <c r="C31" t="n">
+        <v>440</v>
+      </c>
+      <c r="D31" t="n">
+        <v>182</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G31" t="n">
+        <v>77398</v>
+      </c>
+      <c r="H31" t="n">
+        <v>53524</v>
+      </c>
+      <c r="I31" t="n">
+        <v>41217</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.6915</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5325</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>-0.03259604190919674</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.05279034690799397</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.02086032650945841</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.04395604395604393</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="B32" t="n">
+        <v>-0.2888086642599278</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.2993630573248408</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.3933333333333333</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.01482069604340345</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1468144044321329</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2794,7 +2868,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2803,23 +2877,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.1667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2828,297 +2902,297 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1205</v>
+        <v>1217</v>
       </c>
       <c r="K2" t="n">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="L2" t="n">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8647</v>
+        <v>0.8661</v>
       </c>
       <c r="N2" t="n">
-        <v>0.429</v>
+        <v>0.4307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.5714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>679</v>
+        <v>2525</v>
       </c>
       <c r="K3" t="n">
-        <v>679</v>
+        <v>2517</v>
       </c>
       <c r="L3" t="n">
-        <v>499</v>
+        <v>415</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.9968</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7349</v>
+        <v>0.1649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1312</v>
+        <v>1364</v>
       </c>
       <c r="K4" t="n">
-        <v>887</v>
+        <v>1321</v>
       </c>
       <c r="L4" t="n">
-        <v>746</v>
+        <v>381</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6761</v>
+        <v>0.9685</v>
       </c>
       <c r="N4" t="n">
-        <v>0.841</v>
+        <v>0.2884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4444</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2519</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
-        <v>2513</v>
+        <v>69</v>
       </c>
       <c r="L5" t="n">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9976</v>
+        <v>0.9857</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1651</v>
+        <v>0.5797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5714</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1568</v>
+        <v>1314</v>
       </c>
       <c r="K6" t="n">
-        <v>1524</v>
+        <v>890</v>
       </c>
       <c r="L6" t="n">
-        <v>606</v>
+        <v>749</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9719</v>
+        <v>0.6773</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3976</v>
+        <v>0.8416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>436</v>
+        <v>361</v>
       </c>
       <c r="K7" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L7" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8303</v>
+        <v>0.9972</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6906</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3131,195 +3205,191 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>47</v>
+        <v>685</v>
       </c>
       <c r="K8" t="n">
-        <v>47</v>
+        <v>513</v>
       </c>
       <c r="L8" t="n">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.7489</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5532</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9851</v>
+        <v>0.875</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5455</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>684</v>
+        <v>757</v>
       </c>
       <c r="K10" t="n">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="L10" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7485000000000001</v>
+        <v>0.3303</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1328</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1362</v>
+        <v>437</v>
       </c>
       <c r="K11" t="n">
-        <v>1319</v>
+        <v>365</v>
       </c>
       <c r="L11" t="n">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9684</v>
+        <v>0.8352000000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2881</v>
+        <v>0.6877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3337,89 +3407,91 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2881</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3439,281 +3511,299 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="K14" t="n">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8514</v>
+        <v>0.7494</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6032</v>
+        <v>0.7151999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>755</v>
+        <v>35</v>
       </c>
       <c r="K15" t="n">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3272</v>
+        <v>0.9143</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3603</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>302</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7494</v>
+        <v>0.65</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7151999999999999</v>
+        <v>0.4615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>558</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>550</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0.9857</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7143</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="K18" t="n">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="L18" t="n">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7128</v>
+        <v>0.5756</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5288</v>
+        <v>0.7778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K19" t="n">
+        <v>17</v>
+      </c>
+      <c r="L19" t="n">
         <v>12</v>
       </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
       <c r="M19" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4167</v>
+        <v>0.7059</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3729,39 +3819,39 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M20" t="n">
-        <v>0.75</v>
+        <v>0.8514</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6667</v>
+        <v>0.6032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3777,39 +3867,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>182</v>
+        <v>381</v>
       </c>
       <c r="K21" t="n">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="L21" t="n">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="M21" t="n">
-        <v>0.978</v>
+        <v>0.9291</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3708</v>
+        <v>0.6893</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3825,39 +3915,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="K22" t="n">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="L22" t="n">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2618</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3873,39 +3963,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9118000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5806</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3921,34 +4011,34 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>408</v>
+        <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9706</v>
+        <v>0.3333</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6338</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3969,7 +4059,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3996,12 +4086,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4017,39 +4107,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>18</v>
+        <v>408</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3333</v>
+        <v>0.9706</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8333</v>
+        <v>0.6338</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4065,39 +4155,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>557</v>
+        <v>1568</v>
       </c>
       <c r="K27" t="n">
-        <v>549</v>
+        <v>1524</v>
       </c>
       <c r="L27" t="n">
-        <v>231</v>
+        <v>607</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9856</v>
+        <v>0.9719</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4208</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4113,39 +4203,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="K28" t="n">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="L28" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4848</v>
+        <v>0.978</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6875</v>
+        <v>0.3708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4161,39 +4251,39 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>381</v>
+        <v>679</v>
       </c>
       <c r="K29" t="n">
-        <v>354</v>
+        <v>679</v>
       </c>
       <c r="L29" t="n">
-        <v>243</v>
+        <v>499</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9291</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.6864</v>
+        <v>0.7349</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4209,28 +4299,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-15T08:00:00</t>
+          <t>2020-04-16T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>515</v>
+        <v>390</v>
       </c>
       <c r="K30" t="n">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="L30" t="n">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.7128</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7801</v>
+        <v>0.5288</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4336,23 +4426,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="D2" t="n">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="E2" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7984</v>
+        <v>0.7901</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3518</v>
+        <v>0.3481</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4361,25 +4451,25 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25415</v>
+        <v>25596</v>
       </c>
       <c r="K2" t="n">
-        <v>18441</v>
+        <v>18586</v>
       </c>
       <c r="L2" t="n">
-        <v>12139</v>
+        <v>12275</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7256</v>
+        <v>0.7261</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4776</v>
+        <v>0.4796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4388,23 +4478,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>0.775</v>
+        <v>0.7778</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5833</v>
+        <v>0.3667</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4413,285 +4503,285 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12385</v>
+        <v>12478</v>
       </c>
       <c r="K3" t="n">
-        <v>8819</v>
+        <v>8892</v>
       </c>
       <c r="L3" t="n">
-        <v>7062</v>
+        <v>7129</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7121</v>
+        <v>0.7126</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5702</v>
+        <v>0.5713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7573</v>
+        <v>0.7667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2621</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3226</v>
+        <v>8790</v>
       </c>
       <c r="K4" t="n">
-        <v>2032</v>
+        <v>6104</v>
       </c>
       <c r="L4" t="n">
-        <v>1494</v>
+        <v>4229</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6299</v>
+        <v>0.6944</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4631</v>
+        <v>0.4811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7692</v>
+        <v>0.7413999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3462</v>
+        <v>0.1897</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>390</v>
+        <v>2631</v>
       </c>
       <c r="K5" t="n">
-        <v>236</v>
+        <v>1748</v>
       </c>
       <c r="L5" t="n">
-        <v>188</v>
+        <v>1444</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6051</v>
+        <v>0.6644</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4821</v>
+        <v>0.5488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7174</v>
+        <v>0.4902</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3261</v>
+        <v>0.0784</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>8730</v>
+        <v>146</v>
       </c>
       <c r="K6" t="n">
-        <v>6057</v>
+        <v>65</v>
       </c>
       <c r="L6" t="n">
-        <v>4176</v>
+        <v>68</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6938</v>
+        <v>0.4452</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4784</v>
+        <v>0.4658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.85</v>
+        <v>0.8571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.175</v>
+        <v>0.3214</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1858</v>
+        <v>3256</v>
       </c>
       <c r="K7" t="n">
-        <v>1267</v>
+        <v>2058</v>
       </c>
       <c r="L7" t="n">
-        <v>983</v>
+        <v>1514</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6819</v>
+        <v>0.6321</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5291</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8205</v>
+        <v>0.96</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2821</v>
+        <v>0.24</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2583</v>
+        <v>182</v>
       </c>
       <c r="K8" t="n">
-        <v>1713</v>
+        <v>117</v>
       </c>
       <c r="L8" t="n">
-        <v>1428</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6632</v>
+        <v>0.6429</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5528</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4700,23 +4790,23 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6452</v>
+        <v>0.7619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5161</v>
+        <v>0.2857</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -4725,248 +4815,248 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>7834</v>
+        <v>7854</v>
       </c>
       <c r="K9" t="n">
-        <v>5345</v>
+        <v>5361</v>
       </c>
       <c r="L9" t="n">
-        <v>5000</v>
+        <v>5014</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6823</v>
+        <v>0.6826</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6382</v>
+        <v>0.6384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.375</v>
+        <v>0.7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0833</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1013</v>
+        <v>1876</v>
       </c>
       <c r="K10" t="n">
-        <v>567</v>
+        <v>1280</v>
       </c>
       <c r="L10" t="n">
-        <v>639</v>
+        <v>996</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5597</v>
+        <v>0.6823</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6308</v>
+        <v>0.5309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7619</v>
+        <v>0.8235</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1429</v>
+        <v>0.2941</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>155</v>
+        <v>407</v>
       </c>
       <c r="K11" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="L11" t="n">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5871</v>
+        <v>0.6143</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5161</v>
+        <v>0.4865</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.3333</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3684</v>
+        <v>0.3333</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2047</v>
+        <v>1023</v>
       </c>
       <c r="K12" t="n">
-        <v>1406</v>
+        <v>570</v>
       </c>
       <c r="L12" t="n">
-        <v>1353</v>
+        <v>645</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6869</v>
+        <v>0.5572</v>
       </c>
       <c r="N12" t="n">
-        <v>0.661</v>
+        <v>0.6304999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6</v>
+        <v>0.8571</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5333</v>
+        <v>0.4286</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1246</v>
+        <v>2053</v>
       </c>
       <c r="K13" t="n">
-        <v>728</v>
+        <v>1411</v>
       </c>
       <c r="L13" t="n">
-        <v>704</v>
+        <v>1359</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5843</v>
+        <v>0.6873</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0.5</v>
@@ -4976,351 +5066,351 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>3210</v>
+        <v>1252</v>
       </c>
       <c r="K14" t="n">
-        <v>2281</v>
+        <v>731</v>
       </c>
       <c r="L14" t="n">
-        <v>1646</v>
+        <v>712</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7106</v>
+        <v>0.5839</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5128</v>
+        <v>0.5687</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2020-04-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>6</v>
       </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-04-15 08:00:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>1908</v>
-      </c>
       <c r="K15" t="n">
-        <v>1277</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1222</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6693</v>
+        <v>0.8333</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6405</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.75</v>
+        <v>0.6667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1196</v>
+        <v>3213</v>
       </c>
       <c r="K16" t="n">
-        <v>720</v>
+        <v>2283</v>
       </c>
       <c r="L16" t="n">
-        <v>595</v>
+        <v>1649</v>
       </c>
       <c r="M16" t="n">
-        <v>0.602</v>
+        <v>0.7106</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4975</v>
+        <v>0.5132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1461</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
-        <v>858</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>775</v>
+        <v>15</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5873</v>
+        <v>0.5625</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5305</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>96</v>
+        <v>1196</v>
       </c>
       <c r="K18" t="n">
-        <v>41</v>
+        <v>720</v>
       </c>
       <c r="L18" t="n">
-        <v>55</v>
+        <v>598</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4271</v>
+        <v>0.602</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5729</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>883</v>
+        <v>106</v>
       </c>
       <c r="K19" t="n">
-        <v>492</v>
+        <v>50</v>
       </c>
       <c r="L19" t="n">
-        <v>538</v>
+        <v>50</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5572</v>
+        <v>0.4717</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6093</v>
+        <v>0.4717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M20" t="n">
-        <v>0.45</v>
+        <v>0.5957</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7667</v>
+        <v>0.5319</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -5330,149 +5420,153 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="L21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4762</v>
+        <v>0.6571</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4667</v>
+        <v>0.3429</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>670</v>
+        <v>1462</v>
       </c>
       <c r="K22" t="n">
-        <v>398</v>
+        <v>858</v>
       </c>
       <c r="L22" t="n">
-        <v>492</v>
+        <v>776</v>
       </c>
       <c r="M22" t="n">
-        <v>0.594</v>
+        <v>0.5869</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7343</v>
+        <v>0.5308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>671</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>398</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>494</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8</v>
+        <v>0.5931</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4</v>
+        <v>0.7362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -5488,39 +5582,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L24" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M24" t="n">
+        <v>0.7167</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.5333</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.9333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5536,39 +5630,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>1908</v>
       </c>
       <c r="K25" t="n">
-        <v>43</v>
+        <v>1277</v>
       </c>
       <c r="L25" t="n">
-        <v>32</v>
+        <v>1229</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7167</v>
+        <v>0.6693</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5333</v>
+        <v>0.6441</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5584,39 +5678,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0.7667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -5632,39 +5726,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="K27" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6087</v>
+        <v>0.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5217000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5680,34 +5774,34 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>139</v>
+        <v>883</v>
       </c>
       <c r="K28" t="n">
-        <v>91</v>
+        <v>492</v>
       </c>
       <c r="L28" t="n">
-        <v>48</v>
+        <v>539</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6546999999999999</v>
+        <v>0.5572</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3453</v>
+        <v>0.6104000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-14</t>
+          <t>04-15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5728,7 +5822,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-15 08:00:00</t>
+          <t>2020-04-16 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H2" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I2" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H3" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I3" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H4" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I4" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H5" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I5" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H6" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I6" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H7" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I7" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H8" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I8" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H9" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I9" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H10" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I10" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H11" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I11" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H12" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I12" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H13" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I13" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H14" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I14" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H15" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I15" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H16" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I16" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H17" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I17" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H18" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I18" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H19" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I19" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H20" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I20" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H21" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I21" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="22">
@@ -1171,19 +1171,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H22" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I22" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="23">
@@ -1208,19 +1208,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H23" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I23" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="24">
@@ -1245,19 +1245,19 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H24" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I24" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="25">
@@ -1282,19 +1282,19 @@
         <v>0.3304</v>
       </c>
       <c r="G25" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H25" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I25" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="26">
@@ -1319,19 +1319,19 @@
         <v>0.2037</v>
       </c>
       <c r="G26" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H26" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I26" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="27">
@@ -1356,19 +1356,19 @@
         <v>0.4091</v>
       </c>
       <c r="G27" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H27" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I27" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="28">
@@ -1393,19 +1393,19 @@
         <v>0.75</v>
       </c>
       <c r="G28" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H28" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I28" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="29">
@@ -1430,19 +1430,19 @@
         <v>0.2821</v>
       </c>
       <c r="G29" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H29" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I29" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="30">
@@ -1467,19 +1467,19 @@
         <v>0.2973</v>
       </c>
       <c r="G30" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H30" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I30" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="31">
@@ -1504,55 +1504,92 @@
         <v>0.4286</v>
       </c>
       <c r="G31" t="n">
-        <v>14679</v>
+        <v>14718</v>
       </c>
       <c r="H31" t="n">
-        <v>12346</v>
+        <v>12383</v>
       </c>
       <c r="I31" t="n">
-        <v>5320</v>
+        <v>5356</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8411</v>
+        <v>0.8414</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4309</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
+          <t>04-16</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>39</v>
+      </c>
+      <c r="C32" t="n">
+        <v>22</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5641</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14718</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12383</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5356</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8414</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.4325</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>-0.5465116279069767</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.4324324324324325</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-0.1818181818181818</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.2517433751743374</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.4416414396232761</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0475394614670382</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.04549696686887532</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1567,7 +1604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1649,19 +1686,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H2" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I2" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="3">
@@ -1686,19 +1723,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H3" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I3" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="4">
@@ -1723,19 +1760,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H4" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I4" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="5">
@@ -1760,19 +1797,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H5" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I5" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="6">
@@ -1797,19 +1834,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H6" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I6" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="7">
@@ -1834,19 +1871,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H7" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I7" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="8">
@@ -1871,19 +1908,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H8" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I8" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="9">
@@ -1908,19 +1945,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H9" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I9" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="10">
@@ -1945,19 +1982,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H10" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I10" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="11">
@@ -1982,19 +2019,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H11" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I11" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="12">
@@ -2019,19 +2056,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H12" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I12" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="13">
@@ -2056,19 +2093,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H13" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I13" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="14">
@@ -2093,19 +2130,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H14" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I14" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="15">
@@ -2130,19 +2167,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H15" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I15" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="16">
@@ -2167,19 +2204,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H16" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I16" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="17">
@@ -2204,19 +2241,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H17" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I17" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="18">
@@ -2241,19 +2278,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H18" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I18" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="19">
@@ -2278,19 +2315,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H19" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I19" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="20">
@@ -2315,19 +2352,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H20" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I20" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="21">
@@ -2352,19 +2389,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H21" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I21" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="22">
@@ -2389,19 +2426,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H22" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I22" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="23">
@@ -2426,19 +2463,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H23" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I23" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="24">
@@ -2463,19 +2500,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H24" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I24" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="25">
@@ -2500,19 +2537,19 @@
         <v>0.315</v>
       </c>
       <c r="G25" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H25" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I25" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="26">
@@ -2537,19 +2574,19 @@
         <v>0.3152</v>
       </c>
       <c r="G26" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H26" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I26" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="27">
@@ -2574,19 +2611,19 @@
         <v>0.4078</v>
       </c>
       <c r="G27" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H27" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I27" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="28">
@@ -2611,19 +2648,19 @@
         <v>0.4828</v>
       </c>
       <c r="G28" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H28" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I28" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="29">
@@ -2648,19 +2685,19 @@
         <v>0.3458</v>
       </c>
       <c r="G29" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H29" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I29" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="30">
@@ -2685,19 +2722,19 @@
         <v>0.361</v>
       </c>
       <c r="G30" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H30" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I30" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="31">
@@ -2722,55 +2759,92 @@
         <v>0.308</v>
       </c>
       <c r="G31" t="n">
-        <v>77398</v>
+        <v>78133</v>
       </c>
       <c r="H31" t="n">
-        <v>53524</v>
+        <v>54088</v>
       </c>
       <c r="I31" t="n">
-        <v>41217</v>
+        <v>41652</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6915</v>
+        <v>0.6923</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5325</v>
+        <v>0.5331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
+          <t>04-16</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>734</v>
+      </c>
+      <c r="C32" t="n">
+        <v>564</v>
+      </c>
+      <c r="D32" t="n">
+        <v>235</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7684</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3202</v>
+      </c>
+      <c r="G32" t="n">
+        <v>78133</v>
+      </c>
+      <c r="H32" t="n">
+        <v>54088</v>
+      </c>
+      <c r="I32" t="n">
+        <v>41652</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6923</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5331</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>-0.2888086642599278</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.2993630573248408</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-0.3933333333333333</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.01482069604340345</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.1468144044321329</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="B33" t="n">
+        <v>0.2419627749576988</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2818181818181818</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2912087912087912</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.03210208193418391</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.03961038961038958</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2868,7 +2942,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2880,20 +2954,20 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1667</v>
+        <v>0.4167</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2902,25 +2976,25 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1217</v>
+        <v>1230</v>
       </c>
       <c r="K2" t="n">
-        <v>1054</v>
+        <v>1063</v>
       </c>
       <c r="L2" t="n">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8661</v>
+        <v>0.8642</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4307</v>
+        <v>0.4327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2929,23 +3003,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5714</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2954,82 +3028,82 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2525</v>
+        <v>2529</v>
       </c>
       <c r="K3" t="n">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="L3" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9968</v>
+        <v>0.996</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1649</v>
+        <v>0.1655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1364</v>
+        <v>561</v>
       </c>
       <c r="K4" t="n">
-        <v>1321</v>
+        <v>552</v>
       </c>
       <c r="L4" t="n">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9685</v>
+        <v>0.984</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2884</v>
+        <v>0.4185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3049,147 +3123,145 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9857</v>
+        <v>0.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5797</v>
+        <v>0.7778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1314</v>
+        <v>71</v>
       </c>
       <c r="K6" t="n">
-        <v>890</v>
+        <v>70</v>
       </c>
       <c r="L6" t="n">
-        <v>749</v>
+        <v>43</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6773</v>
+        <v>0.9859</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8416</v>
+        <v>0.6143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>361</v>
+        <v>1570</v>
       </c>
       <c r="K7" t="n">
-        <v>360</v>
+        <v>1524</v>
       </c>
       <c r="L7" t="n">
-        <v>95</v>
+        <v>611</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9972</v>
+        <v>0.9707</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2639</v>
+        <v>0.4009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -3198,96 +3270,98 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>685</v>
+        <v>1316</v>
       </c>
       <c r="K8" t="n">
-        <v>513</v>
+        <v>894</v>
       </c>
       <c r="L8" t="n">
-        <v>68</v>
+        <v>756</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7489</v>
+        <v>0.6793</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1326</v>
+        <v>0.8456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>560</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="M9" t="n">
-        <v>0.875</v>
+        <v>0.3554</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7143</v>
+        <v>0.7487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3305,39 +3379,39 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>757</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3303</v>
+        <v>0.4857</v>
       </c>
       <c r="N10" t="n">
-        <v>0.368</v>
+        <v>0.7059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3347,49 +3421,49 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2020-04-17T08:00:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60</v>
+      </c>
+      <c r="L11" t="n">
+        <v>19</v>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-04-16T08:00:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>苏州</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>437</v>
-      </c>
-      <c r="K11" t="n">
-        <v>365</v>
-      </c>
-      <c r="L11" t="n">
-        <v>251</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8352000000000001</v>
-      </c>
       <c r="N11" t="n">
-        <v>0.6877</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3407,39 +3481,39 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>757</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6</v>
+        <v>0.3303</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6667</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3449,101 +3523,99 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="K13" t="n">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="L13" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.9781</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5625</v>
+        <v>0.3743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="K14" t="n">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="L14" t="n">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7494</v>
+        <v>0.9945000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7151999999999999</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3563,39 +3635,39 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>35</v>
+        <v>687</v>
       </c>
       <c r="K15" t="n">
-        <v>32</v>
+        <v>515</v>
       </c>
       <c r="L15" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9143</v>
+        <v>0.7496</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5625</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3605,49 +3677,49 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>1365</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>1323</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="M16" t="n">
-        <v>0.65</v>
+        <v>0.9692</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4615</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3667,39 +3739,39 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>558</v>
+        <v>75</v>
       </c>
       <c r="K17" t="n">
-        <v>550</v>
+        <v>64</v>
       </c>
       <c r="L17" t="n">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9857</v>
+        <v>0.8532999999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>0.42</v>
+        <v>0.5938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3709,49 +3781,49 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>516</v>
+        <v>409</v>
       </c>
       <c r="K18" t="n">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="L18" t="n">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5756</v>
+        <v>0.9707</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7778</v>
+        <v>0.6322</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3761,49 +3833,49 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>34</v>
+        <v>517</v>
       </c>
       <c r="K19" t="n">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="L19" t="n">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5</v>
+        <v>0.5861</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7059</v>
+        <v>0.7822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3819,39 +3891,39 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="K20" t="n">
-        <v>63</v>
+        <v>354</v>
       </c>
       <c r="L20" t="n">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8514</v>
+        <v>0.9291</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6032</v>
+        <v>0.6893</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3867,39 +3939,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="K21" t="n">
-        <v>354</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9291</v>
+        <v>0.3333</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6893</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3915,39 +3987,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.322</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3963,39 +4035,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6667</v>
+        <v>0.5833</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4011,39 +4083,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J24" t="n">
+        <v>35</v>
+      </c>
+      <c r="K24" t="n">
+        <v>32</v>
+      </c>
+      <c r="L24" t="n">
         <v>18</v>
       </c>
-      <c r="K24" t="n">
-        <v>6</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5</v>
-      </c>
       <c r="M24" t="n">
-        <v>0.3333</v>
+        <v>0.9143</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8333</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4059,39 +4131,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>558</v>
+        <v>679</v>
       </c>
       <c r="K25" t="n">
-        <v>198</v>
+        <v>679</v>
       </c>
       <c r="L25" t="n">
-        <v>149</v>
+        <v>501</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3548</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.7378</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4107,39 +4179,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>408</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9706</v>
+        <v>0.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6338</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4155,39 +4227,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1568</v>
+        <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>1524</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
-        <v>607</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9719</v>
+        <v>0.65</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3983</v>
+        <v>0.4615</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4203,39 +4275,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>182</v>
+        <v>437</v>
       </c>
       <c r="K28" t="n">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="L28" t="n">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
-        <v>0.978</v>
+        <v>0.8375</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3708</v>
+        <v>0.6885</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4251,39 +4323,39 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>679</v>
+        <v>390</v>
       </c>
       <c r="K29" t="n">
-        <v>679</v>
+        <v>278</v>
       </c>
       <c r="L29" t="n">
-        <v>499</v>
+        <v>147</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.7128</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7349</v>
+        <v>0.5288</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4299,28 +4371,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-16T08:00:00</t>
+          <t>2020-04-17T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="K30" t="n">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="L30" t="n">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7128</v>
+        <v>0.7494</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5288</v>
+        <v>0.7151999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4417,432 +4489,432 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="D2" t="n">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E2" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7901</v>
+        <v>0.7619</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3481</v>
+        <v>0.3048</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25596</v>
+        <v>9005</v>
       </c>
       <c r="K2" t="n">
-        <v>18586</v>
+        <v>6269</v>
       </c>
       <c r="L2" t="n">
-        <v>12275</v>
+        <v>4330</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7261</v>
+        <v>0.6962</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4796</v>
+        <v>0.4808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7778</v>
+        <v>0.9098000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3667</v>
+        <v>0.4135</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12478</v>
+        <v>25725</v>
       </c>
       <c r="K3" t="n">
-        <v>8892</v>
+        <v>18702</v>
       </c>
       <c r="L3" t="n">
-        <v>7129</v>
+        <v>12383</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7126</v>
+        <v>0.727</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5713</v>
+        <v>0.4814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7667</v>
+        <v>0.5966</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.3193</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8790</v>
+        <v>12595</v>
       </c>
       <c r="K4" t="n">
-        <v>6104</v>
+        <v>8961</v>
       </c>
       <c r="L4" t="n">
-        <v>4229</v>
+        <v>7203</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6944</v>
+        <v>0.7115</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4811</v>
+        <v>0.5719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7413999999999999</v>
+        <v>0.9365</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1897</v>
+        <v>0.1905</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2631</v>
+        <v>203</v>
       </c>
       <c r="K5" t="n">
-        <v>1748</v>
+        <v>151</v>
       </c>
       <c r="L5" t="n">
-        <v>1444</v>
+        <v>62</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6644</v>
+        <v>0.7438</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5488</v>
+        <v>0.3054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4902</v>
+        <v>0.6452</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0784</v>
+        <v>0.2258</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>146</v>
+        <v>3286</v>
       </c>
       <c r="K6" t="n">
-        <v>65</v>
+        <v>2077</v>
       </c>
       <c r="L6" t="n">
-        <v>68</v>
+        <v>1529</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4452</v>
+        <v>0.6321</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4658</v>
+        <v>0.4653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8571</v>
+        <v>0.6333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3214</v>
+        <v>0.1667</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3256</v>
+        <v>3245</v>
       </c>
       <c r="K7" t="n">
-        <v>2058</v>
+        <v>2304</v>
       </c>
       <c r="L7" t="n">
-        <v>1514</v>
+        <v>1659</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6321</v>
+        <v>0.71</v>
       </c>
       <c r="N7" t="n">
-        <v>0.465</v>
+        <v>0.5112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.96</v>
+        <v>0.7407</v>
       </c>
       <c r="G8" t="n">
-        <v>0.24</v>
+        <v>0.3333</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>182</v>
+        <v>2658</v>
       </c>
       <c r="K8" t="n">
-        <v>117</v>
+        <v>1769</v>
       </c>
       <c r="L8" t="n">
-        <v>87</v>
+        <v>1464</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6429</v>
+        <v>0.6655</v>
       </c>
       <c r="N8" t="n">
-        <v>0.478</v>
+        <v>0.5508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
-        <v>16</v>
-      </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7619</v>
+        <v>0.913</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2857</v>
+        <v>0.3043</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>7854</v>
+        <v>1900</v>
       </c>
       <c r="K9" t="n">
-        <v>5361</v>
+        <v>1302</v>
       </c>
       <c r="L9" t="n">
-        <v>5014</v>
+        <v>1008</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6826</v>
+        <v>0.6853</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6384</v>
+        <v>0.5305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
@@ -4851,50 +4923,50 @@
         <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7</v>
+        <v>0.8235</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.3529</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1876</v>
+        <v>7871</v>
       </c>
       <c r="K10" t="n">
-        <v>1280</v>
+        <v>5375</v>
       </c>
       <c r="L10" t="n">
-        <v>996</v>
+        <v>5032</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6823</v>
+        <v>0.6829</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5309</v>
+        <v>0.6393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>14</v>
@@ -4903,93 +4975,93 @@
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8235</v>
+        <v>0.9333</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2941</v>
+        <v>0.3333</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>407</v>
+        <v>195</v>
       </c>
       <c r="K11" t="n">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="L11" t="n">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6143</v>
+        <v>0.6615</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4865</v>
+        <v>0.4718</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3333</v>
+        <v>0.8667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3333</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1023</v>
+        <v>1924</v>
       </c>
       <c r="K12" t="n">
-        <v>570</v>
+        <v>1291</v>
       </c>
       <c r="L12" t="n">
-        <v>645</v>
+        <v>1243</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5572</v>
+        <v>0.671</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4998,23 +5070,23 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
         <v>6</v>
       </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.8571</v>
+        <v>0.625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4286</v>
+        <v>0.75</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5023,294 +5095,294 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2053</v>
+        <v>2061</v>
       </c>
       <c r="K13" t="n">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="L13" t="n">
-        <v>1359</v>
+        <v>1370</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6873</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>0.662</v>
+        <v>0.6647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1252</v>
+        <v>1031</v>
       </c>
       <c r="K14" t="n">
-        <v>731</v>
+        <v>571</v>
       </c>
       <c r="L14" t="n">
-        <v>712</v>
+        <v>650</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5839</v>
+        <v>0.5538</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5687</v>
+        <v>0.6304999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
         <v>5</v>
       </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8</v>
+        <v>0.8333</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>412</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8333</v>
+        <v>0.6165</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3333</v>
+        <v>0.4976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6667</v>
+        <v>0.8333</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3213</v>
+        <v>1258</v>
       </c>
       <c r="K16" t="n">
-        <v>2283</v>
+        <v>736</v>
       </c>
       <c r="L16" t="n">
-        <v>1649</v>
+        <v>717</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7106</v>
+        <v>0.5851</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5132</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5625</v>
+        <v>0.9167</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9375</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1196</v>
+        <v>675</v>
       </c>
       <c r="K18" t="n">
-        <v>720</v>
+        <v>402</v>
       </c>
       <c r="L18" t="n">
-        <v>598</v>
+        <v>497</v>
       </c>
       <c r="M18" t="n">
-        <v>0.602</v>
+        <v>0.5956</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5</v>
+        <v>0.7363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -5322,102 +5394,102 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>106</v>
+        <v>1466</v>
       </c>
       <c r="K19" t="n">
-        <v>50</v>
+        <v>858</v>
       </c>
       <c r="L19" t="n">
-        <v>50</v>
+        <v>777</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4717</v>
+        <v>0.5853</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4717</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>47</v>
+        <v>1201</v>
       </c>
       <c r="K20" t="n">
-        <v>28</v>
+        <v>725</v>
       </c>
       <c r="L20" t="n">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5957</v>
+        <v>0.6037</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5319</v>
+        <v>0.4996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -5430,39 +5502,39 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6571</v>
+        <v>0.875</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3429</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -5472,96 +5544,96 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1462</v>
+        <v>884</v>
       </c>
       <c r="K22" t="n">
-        <v>858</v>
+        <v>492</v>
       </c>
       <c r="L22" t="n">
-        <v>776</v>
+        <v>545</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5869</v>
+        <v>0.5566</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5308</v>
+        <v>0.6165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>671</v>
+        <v>107</v>
       </c>
       <c r="K23" t="n">
-        <v>398</v>
+        <v>51</v>
       </c>
       <c r="L23" t="n">
-        <v>494</v>
+        <v>53</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5931</v>
+        <v>0.4766</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7362</v>
+        <v>0.4953</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5570,7 +5642,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5578,11 +5650,15 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5591,7 +5667,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K24" t="n">
         <v>43</v>
@@ -5600,21 +5676,21 @@
         <v>32</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7167</v>
+        <v>0.7049</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5333</v>
+        <v>0.5246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5630,39 +5706,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1908</v>
+        <v>47</v>
       </c>
       <c r="K25" t="n">
-        <v>1277</v>
+        <v>28</v>
       </c>
       <c r="L25" t="n">
-        <v>1229</v>
+        <v>25</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6693</v>
+        <v>0.5957</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6441</v>
+        <v>0.5319</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5678,34 +5754,34 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K26" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M26" t="n">
-        <v>0.45</v>
+        <v>0.5625</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7667</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5726,7 +5802,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5753,12 +5829,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5774,39 +5850,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>883</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>492</v>
+        <v>27</v>
       </c>
       <c r="L28" t="n">
-        <v>539</v>
+        <v>46</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5572</v>
+        <v>0.45</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.7667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-15</t>
+          <t>04-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5822,28 +5898,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-16 08:00:00</t>
+          <t>2020-04-17 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.4422</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4286</v>
+        <v>0.4626</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H2" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I2" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H3" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I3" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H4" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I4" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H5" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I5" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H6" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I6" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H7" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I7" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H8" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I8" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H9" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I9" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H10" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I10" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H11" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I11" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H12" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I12" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H13" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I13" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H14" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I14" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H15" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I15" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H16" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I16" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H17" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I17" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H18" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I18" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H19" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I19" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H20" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I20" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H21" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I21" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="22">
@@ -1171,19 +1171,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H22" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I22" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="23">
@@ -1208,19 +1208,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H23" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I23" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="24">
@@ -1245,19 +1245,19 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H24" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I24" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="25">
@@ -1282,19 +1282,19 @@
         <v>0.3304</v>
       </c>
       <c r="G25" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H25" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I25" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="26">
@@ -1319,19 +1319,19 @@
         <v>0.2037</v>
       </c>
       <c r="G26" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H26" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I26" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="27">
@@ -1356,19 +1356,19 @@
         <v>0.4091</v>
       </c>
       <c r="G27" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H27" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I27" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="28">
@@ -1393,19 +1393,19 @@
         <v>0.75</v>
       </c>
       <c r="G28" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H28" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I28" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="29">
@@ -1430,19 +1430,19 @@
         <v>0.2821</v>
       </c>
       <c r="G29" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H29" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I29" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="30">
@@ -1467,19 +1467,19 @@
         <v>0.2973</v>
       </c>
       <c r="G30" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H30" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I30" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="31">
@@ -1504,19 +1504,19 @@
         <v>0.4286</v>
       </c>
       <c r="G31" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H31" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I31" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="32">
@@ -1541,55 +1541,92 @@
         <v>0.4091</v>
       </c>
       <c r="G32" t="n">
-        <v>14718</v>
+        <v>14775</v>
       </c>
       <c r="H32" t="n">
-        <v>12383</v>
+        <v>12720</v>
       </c>
       <c r="I32" t="n">
-        <v>5356</v>
+        <v>5386</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8414</v>
+        <v>0.8609</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4325</v>
+        <v>0.4234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>04-17</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>56</v>
+      </c>
+      <c r="C33" t="n">
+        <v>21</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14775</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12720</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5386</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8609</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.4234</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0475394614670382</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.04549696686887532</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="B34" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.04545454545454546</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.3352242510193228</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1640185773649474</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,19 +1723,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H2" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I2" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="3">
@@ -1723,19 +1760,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H3" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I3" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="4">
@@ -1760,19 +1797,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H4" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I4" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="5">
@@ -1797,19 +1834,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H5" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I5" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="6">
@@ -1834,19 +1871,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H6" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I6" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="7">
@@ -1871,19 +1908,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H7" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I7" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="8">
@@ -1908,19 +1945,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H8" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I8" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="9">
@@ -1945,19 +1982,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H9" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I9" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="10">
@@ -1982,19 +2019,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H10" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I10" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="11">
@@ -2019,19 +2056,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H11" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I11" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="12">
@@ -2056,19 +2093,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H12" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I12" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="13">
@@ -2093,19 +2130,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H13" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I13" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="14">
@@ -2130,19 +2167,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H14" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I14" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="15">
@@ -2167,19 +2204,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H15" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I15" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="16">
@@ -2204,19 +2241,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H16" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I16" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="17">
@@ -2241,19 +2278,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H17" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I17" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="18">
@@ -2278,19 +2315,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H18" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I18" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="19">
@@ -2315,19 +2352,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H19" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I19" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="20">
@@ -2352,19 +2389,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H20" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I20" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="21">
@@ -2389,19 +2426,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H21" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I21" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="22">
@@ -2426,19 +2463,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H22" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I22" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="23">
@@ -2463,19 +2500,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H23" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I23" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="24">
@@ -2500,19 +2537,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H24" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I24" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="25">
@@ -2537,19 +2574,19 @@
         <v>0.315</v>
       </c>
       <c r="G25" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H25" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I25" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="26">
@@ -2574,19 +2611,19 @@
         <v>0.3152</v>
       </c>
       <c r="G26" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H26" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I26" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="27">
@@ -2611,19 +2648,19 @@
         <v>0.4078</v>
       </c>
       <c r="G27" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H27" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I27" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="28">
@@ -2648,19 +2685,19 @@
         <v>0.4828</v>
       </c>
       <c r="G28" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H28" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I28" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="29">
@@ -2685,19 +2722,19 @@
         <v>0.3458</v>
       </c>
       <c r="G29" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H29" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I29" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="30">
@@ -2722,19 +2759,19 @@
         <v>0.361</v>
       </c>
       <c r="G30" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H30" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I30" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2796,19 @@
         <v>0.308</v>
       </c>
       <c r="G31" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H31" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I31" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="32">
@@ -2796,55 +2833,92 @@
         <v>0.3202</v>
       </c>
       <c r="G32" t="n">
-        <v>78133</v>
+        <v>79077</v>
       </c>
       <c r="H32" t="n">
-        <v>54088</v>
+        <v>54813</v>
       </c>
       <c r="I32" t="n">
-        <v>41652</v>
+        <v>42106</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6923</v>
+        <v>0.6932</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5331</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
+          <t>04-17</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>940</v>
+      </c>
+      <c r="C33" t="n">
+        <v>724</v>
+      </c>
+      <c r="D33" t="n">
+        <v>249</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7702</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2649</v>
+      </c>
+      <c r="G33" t="n">
+        <v>79077</v>
+      </c>
+      <c r="H33" t="n">
+        <v>54813</v>
+      </c>
+      <c r="I33" t="n">
+        <v>42106</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.6932</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5325</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0.2419627749576988</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.2818181818181818</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.2912087912087912</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.03210208193418391</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.03961038961038958</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="B34" t="n">
+        <v>0.2806539509536785</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2836879432624114</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.05957446808510639</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.002342529932326944</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.1727045596502185</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,7 +3016,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2951,23 +3025,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4167</v>
+        <v>0.0769</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2976,25 +3050,25 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1230</v>
+        <v>1243</v>
       </c>
       <c r="K2" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="L2" t="n">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8642</v>
+        <v>0.8568</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4327</v>
+        <v>0.4385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3003,7 +3077,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -3012,14 +3086,14 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.2857</v>
       </c>
       <c r="G3" t="n">
         <v>0.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3028,390 +3102,392 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2529</v>
+        <v>2536</v>
       </c>
       <c r="K3" t="n">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="L3" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M3" t="n">
-        <v>0.996</v>
+        <v>0.9941</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1655</v>
+        <v>0.1658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6667</v>
+        <v>0.1667</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>561</v>
+        <v>396</v>
       </c>
       <c r="K4" t="n">
-        <v>552</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="M4" t="n">
-        <v>0.984</v>
+        <v>0.7045</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4185</v>
+        <v>0.5305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9</v>
+        <v>0.9481000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7778</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>71</v>
+        <v>566</v>
       </c>
       <c r="K6" t="n">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="L6" t="n">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9859</v>
+        <v>0.9841</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6143</v>
+        <v>0.4201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1570</v>
+        <v>1320</v>
       </c>
       <c r="K7" t="n">
-        <v>1524</v>
+        <v>897</v>
       </c>
       <c r="L7" t="n">
-        <v>611</v>
+        <v>759</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9707</v>
+        <v>0.6795</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4009</v>
+        <v>0.8462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1316</v>
+        <v>77</v>
       </c>
       <c r="K8" t="n">
-        <v>894</v>
+        <v>66</v>
       </c>
       <c r="L8" t="n">
-        <v>756</v>
+        <v>39</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6793</v>
+        <v>0.8571</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8456</v>
+        <v>0.5909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>560</v>
+        <v>759</v>
       </c>
       <c r="K9" t="n">
-        <v>199</v>
+        <v>557</v>
       </c>
       <c r="L9" t="n">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3554</v>
+        <v>0.7339</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7487</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>681</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>680</v>
       </c>
       <c r="L10" t="n">
-        <v>12</v>
+        <v>501</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4857</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7059</v>
+        <v>0.7368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3431,84 +3507,86 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>1571</v>
       </c>
       <c r="K11" t="n">
-        <v>60</v>
+        <v>1525</v>
       </c>
       <c r="L11" t="n">
-        <v>19</v>
+        <v>614</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.9707</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3167</v>
+        <v>0.4026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="K12" t="n">
-        <v>250</v>
+        <v>518</v>
       </c>
       <c r="L12" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3303</v>
+        <v>0.754</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.1332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3520,20 +3598,18 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3542,7 +3618,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K13" t="n">
         <v>179</v>
@@ -3551,7 +3627,7 @@
         <v>67</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9781</v>
+        <v>0.9728</v>
       </c>
       <c r="N13" t="n">
         <v>0.3743</v>
@@ -3560,12 +3636,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3583,91 +3659,89 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>362</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9945000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2667</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>687</v>
+        <v>36</v>
       </c>
       <c r="K15" t="n">
-        <v>515</v>
+        <v>19</v>
       </c>
       <c r="L15" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7496</v>
+        <v>0.5278</v>
       </c>
       <c r="N15" t="n">
-        <v>0.132</v>
+        <v>0.6842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3677,153 +3751,149 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1365</v>
+        <v>438</v>
       </c>
       <c r="K16" t="n">
-        <v>1323</v>
+        <v>367</v>
       </c>
       <c r="L16" t="n">
-        <v>381</v>
+        <v>254</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9692</v>
+        <v>0.8379</v>
       </c>
       <c r="N16" t="n">
-        <v>0.288</v>
+        <v>0.6921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="K17" t="n">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="L17" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8532999999999999</v>
+        <v>0.989</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5938</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>409</v>
+        <v>36</v>
       </c>
       <c r="K18" t="n">
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9707</v>
+        <v>0.8889</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6322</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3843,39 +3913,39 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>517</v>
+        <v>49</v>
       </c>
       <c r="K19" t="n">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="L19" t="n">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5861</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7822</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3891,39 +3961,39 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9291</v>
+        <v>0.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6893</v>
+        <v>0.7778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3939,39 +4009,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3333</v>
+        <v>0.7494</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8333</v>
+        <v>0.7151999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3987,39 +4057,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>560</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8</v>
+        <v>0.3571</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4035,39 +4105,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K23" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5833</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4083,39 +4153,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9143</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5625</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4131,39 +4201,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>679</v>
+        <v>381</v>
       </c>
       <c r="K25" t="n">
-        <v>679</v>
+        <v>354</v>
       </c>
       <c r="L25" t="n">
-        <v>501</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.9291</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7378</v>
+        <v>0.6893</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4179,39 +4249,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4227,39 +4297,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="M27" t="n">
-        <v>0.65</v>
+        <v>0.9707</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4615</v>
+        <v>0.6348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4275,39 +4345,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>437</v>
+        <v>20</v>
       </c>
       <c r="K28" t="n">
-        <v>366</v>
+        <v>13</v>
       </c>
       <c r="L28" t="n">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8375</v>
+        <v>0.65</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6885</v>
+        <v>0.4615</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4323,39 +4393,39 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>390</v>
+        <v>518</v>
       </c>
       <c r="K29" t="n">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="L29" t="n">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7128</v>
+        <v>0.5888</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5288</v>
+        <v>0.7836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4371,28 +4441,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-17T08:00:00</t>
+          <t>2020-04-18T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>403</v>
+        <v>1365</v>
       </c>
       <c r="K30" t="n">
-        <v>302</v>
+        <v>1323</v>
       </c>
       <c r="L30" t="n">
-        <v>216</v>
+        <v>381</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7494</v>
+        <v>0.9692</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7151999999999999</v>
+        <v>0.288</v>
       </c>
     </row>
   </sheetData>
@@ -4489,1104 +4559,1104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E2" t="n">
         <v>64</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7619</v>
+        <v>0.7991</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3048</v>
+        <v>0.2857</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>9005</v>
+        <v>25951</v>
       </c>
       <c r="K2" t="n">
-        <v>6269</v>
+        <v>18884</v>
       </c>
       <c r="L2" t="n">
-        <v>4330</v>
+        <v>12494</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6962</v>
+        <v>0.7277</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4808</v>
+        <v>0.4814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D3" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9098000000000001</v>
+        <v>0.8397</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4135</v>
+        <v>0.2244</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25725</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>18702</v>
+        <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>12383</v>
+        <v>110</v>
       </c>
       <c r="M3" t="n">
-        <v>0.727</v>
+        <v>0.6526</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4814</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5966</v>
+        <v>0.6923</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3193</v>
+        <v>0.2308</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12595</v>
+        <v>9159</v>
       </c>
       <c r="K4" t="n">
-        <v>8961</v>
+        <v>6373</v>
       </c>
       <c r="L4" t="n">
-        <v>7203</v>
+        <v>4408</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7115</v>
+        <v>0.6958</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5719</v>
+        <v>0.4813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9365</v>
+        <v>0.9776</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1905</v>
+        <v>0.0522</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>203</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="L5" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7438</v>
+        <v>0.7909</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3054</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6452</v>
+        <v>0.5596</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2258</v>
+        <v>0.422</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3286</v>
+        <v>12706</v>
       </c>
       <c r="K6" t="n">
-        <v>2077</v>
+        <v>9023</v>
       </c>
       <c r="L6" t="n">
-        <v>1529</v>
+        <v>7288</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6321</v>
+        <v>0.7101</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4653</v>
+        <v>0.5736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6333</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1667</v>
+        <v>0.3846</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3245</v>
+        <v>7898</v>
       </c>
       <c r="K7" t="n">
-        <v>2304</v>
+        <v>5389</v>
       </c>
       <c r="L7" t="n">
-        <v>1659</v>
+        <v>5050</v>
       </c>
       <c r="M7" t="n">
-        <v>0.71</v>
+        <v>0.6823</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5112</v>
+        <v>0.6394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7407</v>
+        <v>0.7272999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2658</v>
+        <v>1921</v>
       </c>
       <c r="K8" t="n">
-        <v>1769</v>
+        <v>1317</v>
       </c>
       <c r="L8" t="n">
-        <v>1464</v>
+        <v>1023</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6655</v>
+        <v>0.6856</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5508</v>
+        <v>0.5325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.913</v>
+        <v>0.7778</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3043</v>
+        <v>0.3333</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1900</v>
+        <v>2675</v>
       </c>
       <c r="K9" t="n">
-        <v>1302</v>
+        <v>1782</v>
       </c>
       <c r="L9" t="n">
-        <v>1008</v>
+        <v>1480</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6853</v>
+        <v>0.6662</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5305</v>
+        <v>0.5533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8235</v>
+        <v>0.9333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3529</v>
+        <v>0.5333</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>7871</v>
+        <v>1938</v>
       </c>
       <c r="K10" t="n">
-        <v>5375</v>
+        <v>1304</v>
       </c>
       <c r="L10" t="n">
-        <v>5032</v>
+        <v>1257</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6829</v>
+        <v>0.6729000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6393</v>
+        <v>0.6486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9333</v>
+        <v>0.6429</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3333</v>
+        <v>0.3571</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>195</v>
+        <v>898</v>
       </c>
       <c r="K11" t="n">
-        <v>129</v>
+        <v>501</v>
       </c>
       <c r="L11" t="n">
-        <v>92</v>
+        <v>554</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6615</v>
+        <v>0.5579</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4718</v>
+        <v>0.6169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8667</v>
+        <v>0.8889</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>0.2222</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1924</v>
+        <v>3293</v>
       </c>
       <c r="K12" t="n">
-        <v>1291</v>
+        <v>2083</v>
       </c>
       <c r="L12" t="n">
-        <v>1243</v>
+        <v>1537</v>
       </c>
       <c r="M12" t="n">
-        <v>0.671</v>
+        <v>0.6326000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>0.646</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.625</v>
+        <v>0.6667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2061</v>
+        <v>1475</v>
       </c>
       <c r="K13" t="n">
-        <v>1416</v>
+        <v>864</v>
       </c>
       <c r="L13" t="n">
-        <v>1370</v>
+        <v>777</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.5858</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6647</v>
+        <v>0.5268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.125</v>
+        <v>0.6667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1031</v>
+        <v>3252</v>
       </c>
       <c r="K14" t="n">
-        <v>571</v>
+        <v>2308</v>
       </c>
       <c r="L14" t="n">
-        <v>650</v>
+        <v>1665</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5538</v>
+        <v>0.7097</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8333</v>
+        <v>0.8889</v>
       </c>
       <c r="G15" t="n">
         <v>0.3333</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>412</v>
+        <v>684</v>
       </c>
       <c r="K15" t="n">
-        <v>254</v>
+        <v>410</v>
       </c>
       <c r="L15" t="n">
-        <v>205</v>
+        <v>503</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6165</v>
+        <v>0.5994</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4976</v>
+        <v>0.7354000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.8333</v>
-      </c>
       <c r="G16" t="n">
-        <v>0.1667</v>
+        <v>0.3333</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1258</v>
+        <v>2067</v>
       </c>
       <c r="K16" t="n">
-        <v>736</v>
+        <v>1422</v>
       </c>
       <c r="L16" t="n">
-        <v>717</v>
+        <v>1377</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5851</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0.57</v>
+        <v>0.6662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
       <c r="F17" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>0.6667</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>418</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9167</v>
+        <v>0.6148</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3333</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G18" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>675</v>
+        <v>1205</v>
       </c>
       <c r="K18" t="n">
-        <v>402</v>
+        <v>727</v>
       </c>
       <c r="L18" t="n">
-        <v>497</v>
+        <v>604</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5956</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7363</v>
+        <v>0.5012</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="G19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1466</v>
+        <v>1036</v>
       </c>
       <c r="K19" t="n">
-        <v>858</v>
+        <v>573</v>
       </c>
       <c r="L19" t="n">
-        <v>777</v>
+        <v>656</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5853</v>
+        <v>0.5531</v>
       </c>
       <c r="N19" t="n">
-        <v>0.53</v>
+        <v>0.6332</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1201</v>
+        <v>206</v>
       </c>
       <c r="K20" t="n">
-        <v>725</v>
+        <v>153</v>
       </c>
       <c r="L20" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6037</v>
+        <v>0.7427</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4996</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>1261</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>738</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>722</v>
       </c>
       <c r="M21" t="n">
-        <v>0.875</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>0.25</v>
+        <v>0.5726</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>884</v>
+        <v>110</v>
       </c>
       <c r="K22" t="n">
-        <v>492</v>
+        <v>54</v>
       </c>
       <c r="L22" t="n">
-        <v>545</v>
+        <v>55</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5566</v>
+        <v>0.4909</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6165</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -5606,39 +5676,39 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4766</v>
+        <v>0.9231</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4953</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -5648,44 +5718,44 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="K24" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7049</v>
+        <v>0.5294</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5246</v>
+        <v>0.9412</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5706,7 +5776,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5733,12 +5803,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5754,39 +5824,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5625</v>
+        <v>0.875</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -5802,39 +5872,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8</v>
+        <v>0.7049</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4</v>
+        <v>0.5246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5850,39 +5920,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7667</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-16</t>
+          <t>04-17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5898,28 +5968,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-17 08:00:00</t>
+          <t>2020-04-18 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="K29" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="L29" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4422</v>
+        <v>0.45</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4626</v>
+        <v>0.7667</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,19 +441,19 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H2" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I2" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="3">
@@ -476,19 +476,19 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H3" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I3" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H4" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I4" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +546,19 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H5" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I5" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="6">
@@ -581,19 +581,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H6" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I6" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="7">
@@ -616,19 +616,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H7" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I7" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="8">
@@ -653,19 +653,19 @@
         <v>0.439</v>
       </c>
       <c r="G8" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H8" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I8" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="9">
@@ -690,19 +690,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H9" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I9" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="10">
@@ -727,19 +727,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H10" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I10" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="11">
@@ -764,19 +764,19 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H11" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I11" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="12">
@@ -801,19 +801,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H12" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I12" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="13">
@@ -838,19 +838,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H13" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I13" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="14">
@@ -875,19 +875,19 @@
         <v>0.549</v>
       </c>
       <c r="G14" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H14" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I14" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="15">
@@ -912,19 +912,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H15" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I15" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="16">
@@ -949,19 +949,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H16" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I16" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="17">
@@ -986,19 +986,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H17" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I17" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="18">
@@ -1023,19 +1023,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H18" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I18" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="19">
@@ -1060,19 +1060,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H19" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I19" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="20">
@@ -1097,19 +1097,19 @@
         <v>0.55</v>
       </c>
       <c r="G20" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H20" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I20" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="21">
@@ -1134,19 +1134,19 @@
         <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H21" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I21" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="22">
@@ -1171,19 +1171,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H22" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I22" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="23">
@@ -1208,19 +1208,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H23" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I23" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="24">
@@ -1245,19 +1245,19 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H24" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I24" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="25">
@@ -1282,19 +1282,19 @@
         <v>0.3304</v>
       </c>
       <c r="G25" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H25" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I25" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="26">
@@ -1319,19 +1319,19 @@
         <v>0.2037</v>
       </c>
       <c r="G26" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H26" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I26" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="27">
@@ -1356,19 +1356,19 @@
         <v>0.4091</v>
       </c>
       <c r="G27" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H27" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I27" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="28">
@@ -1393,19 +1393,19 @@
         <v>0.75</v>
       </c>
       <c r="G28" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H28" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I28" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="29">
@@ -1430,19 +1430,19 @@
         <v>0.2821</v>
       </c>
       <c r="G29" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H29" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I29" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="30">
@@ -1467,19 +1467,19 @@
         <v>0.2973</v>
       </c>
       <c r="G30" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H30" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I30" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="31">
@@ -1504,19 +1504,19 @@
         <v>0.4286</v>
       </c>
       <c r="G31" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H31" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I31" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="32">
@@ -1541,19 +1541,19 @@
         <v>0.4091</v>
       </c>
       <c r="G32" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H32" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I32" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="33">
@@ -1578,55 +1578,92 @@
         <v>0.4762</v>
       </c>
       <c r="G33" t="n">
-        <v>14775</v>
+        <v>14804</v>
       </c>
       <c r="H33" t="n">
-        <v>12720</v>
+        <v>12739</v>
       </c>
       <c r="I33" t="n">
-        <v>5386</v>
+        <v>5400</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8609</v>
+        <v>0.8605</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
+          <t>04-18</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>31</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="G34" t="n">
+        <v>14804</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12739</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5400</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8605</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.4239</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.04545454545454546</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.3352242510193228</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.1640185773649474</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="B35" t="n">
+        <v>-0.4464285714285715</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.3809523809523809</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1184</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6152876942461151</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1641,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1723,19 +1760,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H2" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I2" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1760,19 +1797,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H3" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I3" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1797,19 +1834,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H4" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I4" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1834,19 +1871,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H5" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I5" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1871,19 +1908,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H6" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I6" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1908,19 +1945,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H7" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I7" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1945,19 +1982,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H8" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I8" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1982,19 +2019,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H9" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I9" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2019,19 +2056,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H10" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I10" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -2056,19 +2093,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H11" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I11" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2093,19 +2130,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H12" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I12" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2130,19 +2167,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H13" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I13" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2167,19 +2204,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H14" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I14" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2204,19 +2241,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H15" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I15" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2241,19 +2278,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H16" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I16" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -2278,19 +2315,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H17" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I17" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2315,19 +2352,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H18" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I18" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2352,19 +2389,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H19" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I19" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2389,19 +2426,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H20" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I20" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -2426,19 +2463,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H21" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I21" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2463,19 +2500,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H22" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I22" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -2500,19 +2537,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H23" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I23" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -2537,19 +2574,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H24" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I24" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2574,19 +2611,19 @@
         <v>0.315</v>
       </c>
       <c r="G25" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H25" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I25" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -2611,19 +2648,19 @@
         <v>0.3152</v>
       </c>
       <c r="G26" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H26" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I26" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -2648,19 +2685,19 @@
         <v>0.4078</v>
       </c>
       <c r="G27" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H27" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I27" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -2685,19 +2722,19 @@
         <v>0.4828</v>
       </c>
       <c r="G28" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H28" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I28" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2722,19 +2759,19 @@
         <v>0.3458</v>
       </c>
       <c r="G29" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H29" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I29" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -2759,19 +2796,19 @@
         <v>0.361</v>
       </c>
       <c r="G30" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H30" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I30" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -2796,19 +2833,19 @@
         <v>0.308</v>
       </c>
       <c r="G31" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H31" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I31" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -2833,19 +2870,19 @@
         <v>0.3202</v>
       </c>
       <c r="G32" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H32" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I32" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -2870,55 +2907,92 @@
         <v>0.2649</v>
       </c>
       <c r="G33" t="n">
-        <v>79077</v>
+        <v>79421</v>
       </c>
       <c r="H33" t="n">
-        <v>54813</v>
+        <v>55076</v>
       </c>
       <c r="I33" t="n">
-        <v>42106</v>
+        <v>42478</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6932</v>
+        <v>0.6935</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5325</v>
+        <v>0.5348000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
+          <t>04-18</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>362</v>
+      </c>
+      <c r="C34" t="n">
+        <v>279</v>
+      </c>
+      <c r="D34" t="n">
+        <v>131</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7707000000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3619</v>
+      </c>
+      <c r="G34" t="n">
+        <v>79421</v>
+      </c>
+      <c r="H34" t="n">
+        <v>55076</v>
+      </c>
+      <c r="I34" t="n">
+        <v>42478</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.6935</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5348000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
           <t>日环比</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.2806539509536785</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.2836879432624114</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.05957446808510639</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.002342529932326944</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-0.1727045596502185</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="B35" t="n">
+        <v>-0.6148936170212767</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.6146408839779005</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.4738955823293173</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0006491820306414645</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3661759154397884</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3016,7 +3090,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3025,23 +3099,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0769</v>
+        <v>0.1667</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3050,439 +3124,437 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="K2" t="n">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="L2" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8568</v>
+        <v>0.8502</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4385</v>
+        <v>0.4396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2857</v>
+        <v>0.3333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2536</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>2521</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>418</v>
+        <v>240</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9941</v>
+        <v>0.5885</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1658</v>
+        <v>0.7843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1667</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="L4" t="n">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7045</v>
+        <v>0.9873</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5305</v>
+        <v>0.5769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="K5" t="n">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="L5" t="n">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9481000000000001</v>
+        <v>0.7035</v>
       </c>
       <c r="N5" t="n">
-        <v>0.589</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>566</v>
+        <v>365</v>
       </c>
       <c r="K6" t="n">
-        <v>557</v>
+        <v>360</v>
       </c>
       <c r="L6" t="n">
-        <v>234</v>
+        <v>96</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9841</v>
+        <v>0.9863</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4201</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1320</v>
+        <v>410</v>
       </c>
       <c r="K7" t="n">
-        <v>897</v>
+        <v>398</v>
       </c>
       <c r="L7" t="n">
-        <v>759</v>
+        <v>253</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6795</v>
+        <v>0.9707</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8462</v>
+        <v>0.6357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K8" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8571</v>
+        <v>0.8182</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5909</v>
+        <v>0.7778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>759</v>
+        <v>439</v>
       </c>
       <c r="K9" t="n">
-        <v>557</v>
+        <v>368</v>
       </c>
       <c r="L9" t="n">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7339</v>
+        <v>0.8383</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1706</v>
+        <v>0.6957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>681</v>
+        <v>185</v>
       </c>
       <c r="K10" t="n">
-        <v>680</v>
+        <v>180</v>
       </c>
       <c r="L10" t="n">
-        <v>501</v>
+        <v>68</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.973</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7368</v>
+        <v>0.3778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3494,20 +3566,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3516,7 +3586,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="K11" t="n">
         <v>1525</v>
@@ -3525,7 +3595,7 @@
         <v>614</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9707</v>
+        <v>0.9701</v>
       </c>
       <c r="N11" t="n">
         <v>0.4026</v>
@@ -3534,12 +3604,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3559,39 +3629,39 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>687</v>
+        <v>561</v>
       </c>
       <c r="K12" t="n">
-        <v>518</v>
+        <v>201</v>
       </c>
       <c r="L12" t="n">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
-        <v>0.754</v>
+        <v>0.3583</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1332</v>
+        <v>0.7463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3609,139 +3679,143 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>184</v>
+        <v>2537</v>
       </c>
       <c r="K13" t="n">
-        <v>179</v>
+        <v>2521</v>
       </c>
       <c r="L13" t="n">
-        <v>67</v>
+        <v>418</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9728</v>
+        <v>0.9937</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3743</v>
+        <v>0.1658</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>682</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>682</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6667</v>
+        <v>0.7346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>36</v>
+        <v>404</v>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="L15" t="n">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5278</v>
+        <v>0.75</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6842</v>
+        <v>0.7161999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3751,53 +3825,53 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>438</v>
+        <v>567</v>
       </c>
       <c r="K16" t="n">
-        <v>367</v>
+        <v>558</v>
       </c>
       <c r="L16" t="n">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8379</v>
+        <v>0.9841</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6921</v>
+        <v>0.4211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3805,49 +3879,47 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>364</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0.989</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2667</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3855,97 +3927,91 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>36</v>
+        <v>759</v>
       </c>
       <c r="K18" t="n">
-        <v>32</v>
+        <v>557</v>
       </c>
       <c r="L18" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8889</v>
+        <v>0.7339</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5625</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K19" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L19" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5714</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3961,39 +4027,39 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7778</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4009,39 +4075,39 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="K21" t="n">
-        <v>302</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7494</v>
+        <v>0.65</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7151999999999999</v>
+        <v>0.4615</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4057,39 +4123,39 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>560</v>
+        <v>49</v>
       </c>
       <c r="K22" t="n">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="L22" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3571</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.75</v>
+        <v>0.5918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4105,39 +4171,39 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3333</v>
+        <v>0.8571</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8333</v>
+        <v>0.5909</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4153,39 +4219,39 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="K24" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0.8889</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3167</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4201,39 +4267,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>381</v>
+        <v>1320</v>
       </c>
       <c r="K25" t="n">
-        <v>354</v>
+        <v>897</v>
       </c>
       <c r="L25" t="n">
-        <v>244</v>
+        <v>759</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9291</v>
+        <v>0.6795</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6893</v>
+        <v>0.8462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4249,39 +4315,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J26" t="n">
+        <v>18</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" t="n">
         <v>5</v>
       </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2</v>
-      </c>
       <c r="M26" t="n">
-        <v>0.8</v>
+        <v>0.3333</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5</v>
+        <v>0.8333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4297,39 +4363,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>409</v>
+        <v>687</v>
       </c>
       <c r="K27" t="n">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="L27" t="n">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9707</v>
+        <v>0.754</v>
       </c>
       <c r="N27" t="n">
-        <v>0.6348</v>
+        <v>0.1332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4345,39 +4411,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="J28" t="n">
+        <v>36</v>
+      </c>
+      <c r="K28" t="n">
         <v>20</v>
       </c>
-      <c r="K28" t="n">
-        <v>13</v>
-      </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M28" t="n">
-        <v>0.65</v>
+        <v>0.5556</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4615</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4393,34 +4459,34 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>518</v>
+        <v>381</v>
       </c>
       <c r="K29" t="n">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="L29" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5888</v>
+        <v>0.9291</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7836</v>
+        <v>0.6893</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4441,7 +4507,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-18T08:00:00</t>
+          <t>2020-04-19T08:00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -4559,1208 +4625,1200 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7991</v>
+        <v>0.7692</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2857</v>
+        <v>0.5077</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>总部</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25951</v>
+        <v>12767</v>
       </c>
       <c r="K2" t="n">
-        <v>18884</v>
+        <v>9071</v>
       </c>
       <c r="L2" t="n">
-        <v>12494</v>
+        <v>7361</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7277</v>
+        <v>0.7105</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4814</v>
+        <v>0.5766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8397</v>
+        <v>0.6984</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2244</v>
+        <v>0.3333</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>9218</v>
       </c>
       <c r="K3" t="n">
-        <v>201</v>
+        <v>6415</v>
       </c>
       <c r="L3" t="n">
-        <v>110</v>
+        <v>4457</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6526</v>
+        <v>0.6959</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3571</v>
+        <v>0.4835</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6923</v>
+        <v>0.8772</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2308</v>
+        <v>0.4035</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>总部</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>9159</v>
+        <v>26006</v>
       </c>
       <c r="K4" t="n">
-        <v>6373</v>
+        <v>18930</v>
       </c>
       <c r="L4" t="n">
-        <v>4408</v>
+        <v>12570</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6958</v>
+        <v>0.7279</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4813</v>
+        <v>0.4833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9776</v>
+        <v>0.7708</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0522</v>
+        <v>0.2083</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="K5" t="n">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7909</v>
+        <v>0.6667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.303</v>
+        <v>0.3704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5596</v>
+        <v>0.9286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.422</v>
+        <v>0.1667</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>12706</v>
+        <v>371</v>
       </c>
       <c r="K6" t="n">
-        <v>9023</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>7288</v>
+        <v>111</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7101</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5736</v>
+        <v>0.2992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5333</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2020-04-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>23</v>
+      </c>
+      <c r="L7" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
-        <v>13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3846</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-04-18 08:00:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>7898</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5389</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5050</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.6823</v>
+        <v>0.7188</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6394</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.6923</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.3077</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1921</v>
+        <v>1047</v>
       </c>
       <c r="K8" t="n">
-        <v>1317</v>
+        <v>581</v>
       </c>
       <c r="L8" t="n">
-        <v>1023</v>
+        <v>663</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6856</v>
+        <v>0.5548999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5325</v>
+        <v>0.6332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7778</v>
+        <v>0.6667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3333</v>
+        <v>0.6667</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2675</v>
+        <v>908</v>
       </c>
       <c r="K9" t="n">
-        <v>1782</v>
+        <v>507</v>
       </c>
       <c r="L9" t="n">
-        <v>1480</v>
+        <v>563</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6662</v>
+        <v>0.5584</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5533</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9333</v>
+        <v>0.5714</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5333</v>
+        <v>0.4286</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1938</v>
+        <v>2683</v>
       </c>
       <c r="K10" t="n">
-        <v>1304</v>
+        <v>1786</v>
       </c>
       <c r="L10" t="n">
-        <v>1257</v>
+        <v>1515</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6729000000000001</v>
+        <v>0.6657</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6486</v>
+        <v>0.5647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6429</v>
+        <v>0.7143</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3571</v>
+        <v>0.4286</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>898</v>
+        <v>3300</v>
       </c>
       <c r="K11" t="n">
-        <v>501</v>
+        <v>2088</v>
       </c>
       <c r="L11" t="n">
-        <v>554</v>
+        <v>1546</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5579</v>
+        <v>0.6327</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6169</v>
+        <v>0.4685</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8889</v>
+        <v>0.8333</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2222</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3293</v>
+        <v>3258</v>
       </c>
       <c r="K12" t="n">
-        <v>2083</v>
+        <v>2313</v>
       </c>
       <c r="L12" t="n">
-        <v>1537</v>
+        <v>1677</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6326000000000001</v>
+        <v>0.7099</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4667</v>
+        <v>0.5147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6667</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1475</v>
+        <v>7903</v>
       </c>
       <c r="K13" t="n">
-        <v>864</v>
+        <v>5391</v>
       </c>
       <c r="L13" t="n">
-        <v>777</v>
+        <v>5060</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5858</v>
+        <v>0.6821</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5268</v>
+        <v>0.6403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6667</v>
+        <v>0.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1111</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>3252</v>
+        <v>689</v>
       </c>
       <c r="K14" t="n">
-        <v>2308</v>
+        <v>412</v>
       </c>
       <c r="L14" t="n">
-        <v>1665</v>
+        <v>506</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7097</v>
+        <v>0.598</v>
       </c>
       <c r="N14" t="n">
-        <v>0.512</v>
+        <v>0.7344000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8889</v>
+        <v>0.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3333</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>684</v>
+        <v>1926</v>
       </c>
       <c r="K15" t="n">
-        <v>410</v>
+        <v>1319</v>
       </c>
       <c r="L15" t="n">
-        <v>503</v>
+        <v>1034</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5994</v>
+        <v>0.6848</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7354000000000001</v>
+        <v>0.5369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2067</v>
+        <v>421</v>
       </c>
       <c r="K16" t="n">
-        <v>1422</v>
+        <v>259</v>
       </c>
       <c r="L16" t="n">
-        <v>1377</v>
+        <v>218</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6152</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6662</v>
+        <v>0.5178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>418</v>
+        <v>208</v>
       </c>
       <c r="K17" t="n">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="L17" t="n">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6148</v>
+        <v>0.7452</v>
       </c>
       <c r="N17" t="n">
-        <v>0.512</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1205</v>
+        <v>1940</v>
       </c>
       <c r="K18" t="n">
-        <v>727</v>
+        <v>1306</v>
       </c>
       <c r="L18" t="n">
-        <v>604</v>
+        <v>1264</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6732</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5012</v>
+        <v>0.6515</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1036</v>
+        <v>1263</v>
       </c>
       <c r="K19" t="n">
-        <v>573</v>
+        <v>738</v>
       </c>
       <c r="L19" t="n">
-        <v>656</v>
+        <v>729</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5531</v>
+        <v>0.5843</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6332</v>
+        <v>0.5772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="L20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7427</v>
+        <v>0.4909</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3155</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6667</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1261</v>
+        <v>1206</v>
       </c>
       <c r="K21" t="n">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="L21" t="n">
-        <v>722</v>
+        <v>608</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5852000000000001</v>
+        <v>0.6028</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5726</v>
+        <v>0.5041</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>2068</v>
       </c>
       <c r="K22" t="n">
-        <v>54</v>
+        <v>1422</v>
       </c>
       <c r="L22" t="n">
-        <v>55</v>
+        <v>1385</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4909</v>
+        <v>0.6876</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5</v>
+        <v>0.6697</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9231</v>
+        <v>0.5957</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3846</v>
+        <v>0.5319</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>17</v>
+        <v>1475</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>864</v>
       </c>
       <c r="L24" t="n">
-        <v>16</v>
+        <v>779</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5294</v>
+        <v>0.5858</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9412</v>
+        <v>0.5281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -5776,39 +5834,39 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="K25" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5957</v>
+        <v>0.875</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5319</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -5824,39 +5882,39 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="M26" t="n">
-        <v>0.875</v>
+        <v>0.7049</v>
       </c>
       <c r="N26" t="n">
-        <v>0.25</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -5872,39 +5930,39 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="K27" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7049</v>
+        <v>0.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5246</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -5920,39 +5978,39 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.7667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-17</t>
+          <t>04-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -5968,28 +6026,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-18 08:00:00</t>
+          <t>2020-04-19 08:00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="K29" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L29" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>0.45</v>
+        <v>0.9231</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7667</v>
+        <v>0.4615</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="100">
   <si>
     <t>当日_已申请</t>
   </si>
@@ -151,6 +151,36 @@
     <t>04-19</t>
   </si>
   <si>
+    <t>04-20</t>
+  </si>
+  <si>
+    <t>04-21</t>
+  </si>
+  <si>
+    <t>04-22</t>
+  </si>
+  <si>
+    <t>04-23</t>
+  </si>
+  <si>
+    <t>04-24</t>
+  </si>
+  <si>
+    <t>04-25</t>
+  </si>
+  <si>
+    <t>04-26</t>
+  </si>
+  <si>
+    <t>04-27</t>
+  </si>
+  <si>
+    <t>04-28</t>
+  </si>
+  <si>
+    <t>04-29</t>
+  </si>
+  <si>
     <t>日环比</t>
   </si>
   <si>
@@ -199,94 +229,94 @@
     <t>总部</t>
   </si>
   <si>
+    <t>杭州</t>
+  </si>
+  <si>
     <t>北京</t>
   </si>
   <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
     <t>苏州</t>
   </si>
   <si>
+    <t>大连</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>石家庄</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>太原</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
     <t>沈阳</t>
   </si>
   <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>南昌</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>大连</t>
-  </si>
-  <si>
-    <t>无锡</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>太原</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>福州</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>厦门</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>武汉</t>
-  </si>
-  <si>
-    <t>济南</t>
-  </si>
-  <si>
-    <t>东莞</t>
-  </si>
-  <si>
-    <t>青岛</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>石家庄</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>合肥</t>
-  </si>
-  <si>
-    <t>2020-04-20T17:00:00</t>
-  </si>
-  <si>
-    <t>2020-04-20 17:00:00</t>
+    <t>2020-04-30T14:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-30 14:00:00</t>
   </si>
 </sst>
 </file>
@@ -644,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H2">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I2">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J2">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K2">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -731,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H3">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I3">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J3">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K3">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -763,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H4">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I4">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J4">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K4">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -795,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H5">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I5">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J5">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K5">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -827,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H6">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I6">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J6">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K6">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -859,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H7">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I7">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J7">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K7">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -894,19 +924,19 @@
         <v>0.439</v>
       </c>
       <c r="G8">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H8">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I8">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J8">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K8">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -929,19 +959,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H9">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I9">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J9">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K9">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -964,19 +994,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H10">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I10">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J10">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K10">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -999,19 +1029,19 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H11">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I11">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J11">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K11">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1034,19 +1064,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H12">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I12">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J12">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K12">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1069,19 +1099,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H13">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I13">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J13">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K13">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1104,19 +1134,19 @@
         <v>0.549</v>
       </c>
       <c r="G14">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H14">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I14">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J14">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K14">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1139,19 +1169,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H15">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I15">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J15">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K15">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1174,19 +1204,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H16">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I16">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J16">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K16">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1209,19 +1239,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H17">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I17">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J17">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K17">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1244,19 +1274,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H18">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I18">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J18">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K18">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1279,19 +1309,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H19">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I19">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J19">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K19">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1314,19 +1344,19 @@
         <v>0.55</v>
       </c>
       <c r="G20">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H20">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I20">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J20">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K20">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1349,19 +1379,19 @@
         <v>0.36</v>
       </c>
       <c r="G21">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H21">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I21">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J21">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K21">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1384,19 +1414,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H22">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I22">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J22">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K22">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1419,19 +1449,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H23">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I23">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J23">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K23">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1454,19 +1484,19 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="G24">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H24">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I24">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J24">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K24">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1489,19 +1519,19 @@
         <v>0.3304</v>
       </c>
       <c r="G25">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H25">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I25">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J25">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K25">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1524,19 +1554,19 @@
         <v>0.2037</v>
       </c>
       <c r="G26">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H26">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I26">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J26">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K26">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1559,19 +1589,19 @@
         <v>0.4091</v>
       </c>
       <c r="G27">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H27">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I27">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J27">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K27">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1594,19 +1624,19 @@
         <v>0.75</v>
       </c>
       <c r="G28">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H28">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I28">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J28">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K28">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1629,19 +1659,19 @@
         <v>0.2821</v>
       </c>
       <c r="G29">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H29">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I29">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J29">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K29">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1664,19 +1694,19 @@
         <v>0.2973</v>
       </c>
       <c r="G30">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H30">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I30">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J30">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K30">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1699,19 +1729,19 @@
         <v>0.4286</v>
       </c>
       <c r="G31">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H31">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I31">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J31">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K31">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1734,19 +1764,19 @@
         <v>0.4091</v>
       </c>
       <c r="G32">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H32">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I32">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J32">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K32">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1769,19 +1799,19 @@
         <v>0.4762</v>
       </c>
       <c r="G33">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H33">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I33">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J33">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K33">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1804,19 +1834,19 @@
         <v>0.7692</v>
       </c>
       <c r="G34">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H34">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I34">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J34">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K34">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1839,19 +1869,19 @@
         <v>0.5714</v>
       </c>
       <c r="G35">
-        <v>14852</v>
+        <v>15251</v>
       </c>
       <c r="H35">
-        <v>12783</v>
+        <v>13303</v>
       </c>
       <c r="I35">
-        <v>5421</v>
+        <v>5763</v>
       </c>
       <c r="J35">
-        <v>0.8607</v>
+        <v>0.8723</v>
       </c>
       <c r="K35">
-        <v>0.4241</v>
+        <v>0.4332</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1859,33 +1889,383 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.1935483870967742</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <v>-0.4615384615384616</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>-0.6</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>-0.3323795898903195</v>
+        <v>0.4762</v>
       </c>
       <c r="F36">
-        <v>-0.2571502860114404</v>
+        <v>0.55</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>15251</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>13303</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>5763</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>0.8723</v>
       </c>
       <c r="K36">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>0.625</v>
+      </c>
+      <c r="F37">
+        <v>0.6</v>
+      </c>
+      <c r="G37">
+        <v>15251</v>
+      </c>
+      <c r="H37">
+        <v>13303</v>
+      </c>
+      <c r="I37">
+        <v>5763</v>
+      </c>
+      <c r="J37">
+        <v>0.8723</v>
+      </c>
+      <c r="K37">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>0.4667</v>
+      </c>
+      <c r="F38">
+        <v>0.619</v>
+      </c>
+      <c r="G38">
+        <v>15251</v>
+      </c>
+      <c r="H38">
+        <v>13303</v>
+      </c>
+      <c r="I38">
+        <v>5763</v>
+      </c>
+      <c r="J38">
+        <v>0.8723</v>
+      </c>
+      <c r="K38">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>0.5435</v>
+      </c>
+      <c r="F39">
+        <v>0.52</v>
+      </c>
+      <c r="G39">
+        <v>15251</v>
+      </c>
+      <c r="H39">
+        <v>13303</v>
+      </c>
+      <c r="I39">
+        <v>5763</v>
+      </c>
+      <c r="J39">
+        <v>0.8723</v>
+      </c>
+      <c r="K39">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0.5313</v>
+      </c>
+      <c r="F40">
+        <v>0.6471</v>
+      </c>
+      <c r="G40">
+        <v>15251</v>
+      </c>
+      <c r="H40">
+        <v>13303</v>
+      </c>
+      <c r="I40">
+        <v>5763</v>
+      </c>
+      <c r="J40">
+        <v>0.8723</v>
+      </c>
+      <c r="K40">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>0.4286</v>
+      </c>
+      <c r="F41">
+        <v>0.3333</v>
+      </c>
+      <c r="G41">
+        <v>15251</v>
+      </c>
+      <c r="H41">
+        <v>13303</v>
+      </c>
+      <c r="I41">
+        <v>5763</v>
+      </c>
+      <c r="J41">
+        <v>0.8723</v>
+      </c>
+      <c r="K41">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.375</v>
+      </c>
+      <c r="G42">
+        <v>15251</v>
+      </c>
+      <c r="H42">
+        <v>13303</v>
+      </c>
+      <c r="I42">
+        <v>5763</v>
+      </c>
+      <c r="J42">
+        <v>0.8723</v>
+      </c>
+      <c r="K42">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>0.5313</v>
+      </c>
+      <c r="F43">
+        <v>0.7059</v>
+      </c>
+      <c r="G43">
+        <v>15251</v>
+      </c>
+      <c r="H43">
+        <v>13303</v>
+      </c>
+      <c r="I43">
+        <v>5763</v>
+      </c>
+      <c r="J43">
+        <v>0.8723</v>
+      </c>
+      <c r="K43">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>0.5238</v>
+      </c>
+      <c r="F44">
+        <v>0.5909</v>
+      </c>
+      <c r="G44">
+        <v>15251</v>
+      </c>
+      <c r="H44">
+        <v>13303</v>
+      </c>
+      <c r="I44">
+        <v>5763</v>
+      </c>
+      <c r="J44">
+        <v>0.8723</v>
+      </c>
+      <c r="K44">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>66</v>
+      </c>
+      <c r="C45">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>0.5606</v>
+      </c>
+      <c r="F45">
+        <v>0.4595</v>
+      </c>
+      <c r="G45">
+        <v>15251</v>
+      </c>
+      <c r="H45">
+        <v>13303</v>
+      </c>
+      <c r="I45">
+        <v>5763</v>
+      </c>
+      <c r="J45">
+        <v>0.8723</v>
+      </c>
+      <c r="K45">
+        <v>0.4332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C46">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="D46">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="E46">
+        <v>0.07025582283314231</v>
+      </c>
+      <c r="F46">
+        <v>-0.222372651886952</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>0</v>
       </c>
     </row>
@@ -1896,7 +2276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1904,34 +2284,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1954,19 +2334,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H2">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I2">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J2">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K2">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1989,19 +2369,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H3">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I3">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J3">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K3">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2024,19 +2404,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H4">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I4">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J4">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K4">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2059,19 +2439,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H5">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I5">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J5">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K5">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2094,19 +2474,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H6">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I6">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J6">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K6">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2129,19 +2509,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H7">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I7">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J7">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K7">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2164,19 +2544,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H8">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I8">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J8">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K8">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2199,19 +2579,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H9">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I9">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J9">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K9">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2234,19 +2614,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H10">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I10">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J10">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K10">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2269,19 +2649,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H11">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I11">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J11">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K11">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2304,19 +2684,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H12">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I12">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J12">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K12">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2339,19 +2719,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H13">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I13">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J13">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K13">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2374,19 +2754,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H14">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I14">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J14">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K14">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2409,19 +2789,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H15">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I15">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J15">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K15">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2444,19 +2824,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H16">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I16">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J16">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K16">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2479,19 +2859,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H17">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I17">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J17">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K17">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2514,19 +2894,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H18">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I18">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J18">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K18">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2549,19 +2929,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H19">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I19">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J19">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K19">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2584,19 +2964,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H20">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I20">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J20">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K20">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2619,19 +2999,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H21">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I21">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J21">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K21">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2654,19 +3034,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H22">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I22">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J22">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K22">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2689,19 +3069,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H23">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I23">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J23">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K23">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2724,19 +3104,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H24">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I24">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J24">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K24">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2759,19 +3139,19 @@
         <v>0.315</v>
       </c>
       <c r="G25">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H25">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I25">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J25">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K25">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2794,19 +3174,19 @@
         <v>0.3152</v>
       </c>
       <c r="G26">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H26">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I26">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J26">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K26">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2829,19 +3209,19 @@
         <v>0.4078</v>
       </c>
       <c r="G27">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H27">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I27">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J27">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K27">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2864,19 +3244,19 @@
         <v>0.4828</v>
       </c>
       <c r="G28">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H28">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I28">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J28">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K28">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2899,19 +3279,19 @@
         <v>0.3458</v>
       </c>
       <c r="G29">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H29">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I29">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J29">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K29">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2934,19 +3314,19 @@
         <v>0.361</v>
       </c>
       <c r="G30">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H30">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I30">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J30">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K30">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2969,19 +3349,19 @@
         <v>0.308</v>
       </c>
       <c r="G31">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H31">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I31">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J31">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K31">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3004,19 +3384,19 @@
         <v>0.3202</v>
       </c>
       <c r="G32">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H32">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I32">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J32">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K32">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3039,19 +3419,19 @@
         <v>0.2649</v>
       </c>
       <c r="G33">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H33">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I33">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J33">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K33">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3074,19 +3454,19 @@
         <v>0.3619</v>
       </c>
       <c r="G34">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H34">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I34">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J34">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K34">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3109,19 +3489,19 @@
         <v>0.3631</v>
       </c>
       <c r="G35">
-        <v>80233</v>
+        <v>88943</v>
       </c>
       <c r="H35">
-        <v>55697</v>
+        <v>62514</v>
       </c>
       <c r="I35">
-        <v>43030</v>
+        <v>47868</v>
       </c>
       <c r="J35">
-        <v>0.6942</v>
+        <v>0.7029</v>
       </c>
       <c r="K35">
-        <v>0.5363</v>
+        <v>0.5382</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3129,33 +3509,383 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.1022099447513812</v>
+        <v>876</v>
       </c>
       <c r="C36">
-        <v>-0.1003584229390681</v>
+        <v>680</v>
       </c>
       <c r="D36">
-        <v>-0.09923664122137404</v>
+        <v>344</v>
       </c>
       <c r="E36">
-        <v>0.002076034773582373</v>
+        <v>0.7763</v>
       </c>
       <c r="F36">
-        <v>0.003315833103067087</v>
+        <v>0.3927</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>88943</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>62514</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>47868</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>0.7029</v>
       </c>
       <c r="K36">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>755</v>
+      </c>
+      <c r="C37">
+        <v>584</v>
+      </c>
+      <c r="D37">
+        <v>281</v>
+      </c>
+      <c r="E37">
+        <v>0.7735</v>
+      </c>
+      <c r="F37">
+        <v>0.3722</v>
+      </c>
+      <c r="G37">
+        <v>88943</v>
+      </c>
+      <c r="H37">
+        <v>62514</v>
+      </c>
+      <c r="I37">
+        <v>47868</v>
+      </c>
+      <c r="J37">
+        <v>0.7029</v>
+      </c>
+      <c r="K37">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>771</v>
+      </c>
+      <c r="C38">
+        <v>594</v>
+      </c>
+      <c r="D38">
+        <v>261</v>
+      </c>
+      <c r="E38">
+        <v>0.7704</v>
+      </c>
+      <c r="F38">
+        <v>0.3385</v>
+      </c>
+      <c r="G38">
+        <v>88943</v>
+      </c>
+      <c r="H38">
+        <v>62514</v>
+      </c>
+      <c r="I38">
+        <v>47868</v>
+      </c>
+      <c r="J38">
+        <v>0.7029</v>
+      </c>
+      <c r="K38">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>643</v>
+      </c>
+      <c r="C39">
+        <v>501</v>
+      </c>
+      <c r="D39">
+        <v>204</v>
+      </c>
+      <c r="E39">
+        <v>0.7792</v>
+      </c>
+      <c r="F39">
+        <v>0.3173</v>
+      </c>
+      <c r="G39">
+        <v>88943</v>
+      </c>
+      <c r="H39">
+        <v>62514</v>
+      </c>
+      <c r="I39">
+        <v>47868</v>
+      </c>
+      <c r="J39">
+        <v>0.7029</v>
+      </c>
+      <c r="K39">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>840</v>
+      </c>
+      <c r="C40">
+        <v>651</v>
+      </c>
+      <c r="D40">
+        <v>254</v>
+      </c>
+      <c r="E40">
+        <v>0.775</v>
+      </c>
+      <c r="F40">
+        <v>0.3024</v>
+      </c>
+      <c r="G40">
+        <v>88943</v>
+      </c>
+      <c r="H40">
+        <v>62514</v>
+      </c>
+      <c r="I40">
+        <v>47868</v>
+      </c>
+      <c r="J40">
+        <v>0.7029</v>
+      </c>
+      <c r="K40">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>271</v>
+      </c>
+      <c r="C41">
+        <v>210</v>
+      </c>
+      <c r="D41">
+        <v>104</v>
+      </c>
+      <c r="E41">
+        <v>0.7749</v>
+      </c>
+      <c r="F41">
+        <v>0.3838</v>
+      </c>
+      <c r="G41">
+        <v>88943</v>
+      </c>
+      <c r="H41">
+        <v>62514</v>
+      </c>
+      <c r="I41">
+        <v>47868</v>
+      </c>
+      <c r="J41">
+        <v>0.7029</v>
+      </c>
+      <c r="K41">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>675</v>
+      </c>
+      <c r="C42">
+        <v>517</v>
+      </c>
+      <c r="D42">
+        <v>214</v>
+      </c>
+      <c r="E42">
+        <v>0.7659</v>
+      </c>
+      <c r="F42">
+        <v>0.317</v>
+      </c>
+      <c r="G42">
+        <v>88943</v>
+      </c>
+      <c r="H42">
+        <v>62514</v>
+      </c>
+      <c r="I42">
+        <v>47868</v>
+      </c>
+      <c r="J42">
+        <v>0.7029</v>
+      </c>
+      <c r="K42">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>853</v>
+      </c>
+      <c r="C43">
+        <v>687</v>
+      </c>
+      <c r="D43">
+        <v>313</v>
+      </c>
+      <c r="E43">
+        <v>0.8054</v>
+      </c>
+      <c r="F43">
+        <v>0.3669</v>
+      </c>
+      <c r="G43">
+        <v>88943</v>
+      </c>
+      <c r="H43">
+        <v>62514</v>
+      </c>
+      <c r="I43">
+        <v>47868</v>
+      </c>
+      <c r="J43">
+        <v>0.7029</v>
+      </c>
+      <c r="K43">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>978</v>
+      </c>
+      <c r="C44">
+        <v>813</v>
+      </c>
+      <c r="D44">
+        <v>316</v>
+      </c>
+      <c r="E44">
+        <v>0.8313</v>
+      </c>
+      <c r="F44">
+        <v>0.3231</v>
+      </c>
+      <c r="G44">
+        <v>88943</v>
+      </c>
+      <c r="H44">
+        <v>62514</v>
+      </c>
+      <c r="I44">
+        <v>47868</v>
+      </c>
+      <c r="J44">
+        <v>0.7029</v>
+      </c>
+      <c r="K44">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>1537</v>
+      </c>
+      <c r="C45">
+        <v>1163</v>
+      </c>
+      <c r="D45">
+        <v>401</v>
+      </c>
+      <c r="E45">
+        <v>0.7567</v>
+      </c>
+      <c r="F45">
+        <v>0.2609</v>
+      </c>
+      <c r="G45">
+        <v>88943</v>
+      </c>
+      <c r="H45">
+        <v>62514</v>
+      </c>
+      <c r="I45">
+        <v>47868</v>
+      </c>
+      <c r="J45">
+        <v>0.7029</v>
+      </c>
+      <c r="K45">
+        <v>0.5382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.5715746421267893</v>
+      </c>
+      <c r="C46">
+        <v>0.4305043050430504</v>
+      </c>
+      <c r="D46">
+        <v>0.2689873417721519</v>
+      </c>
+      <c r="E46">
+        <v>-0.08973896306989053</v>
+      </c>
+      <c r="F46">
+        <v>-0.1925100588053233</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>0</v>
       </c>
     </row>
@@ -3174,10 +3904,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3195,10 +3925,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -3218,265 +3948,277 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1538</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J2">
-        <v>1276</v>
+        <v>1115</v>
       </c>
       <c r="K2">
-        <v>1080</v>
+        <v>1029</v>
       </c>
       <c r="L2">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="M2">
-        <v>0.8464</v>
+        <v>0.9229000000000001</v>
       </c>
       <c r="N2">
-        <v>0.4389</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.7272999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.375</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J3">
-        <v>2545</v>
+        <v>1618</v>
       </c>
       <c r="K3">
-        <v>2522</v>
+        <v>1554</v>
       </c>
       <c r="L3">
-        <v>419</v>
+        <v>650</v>
       </c>
       <c r="M3">
-        <v>0.991</v>
+        <v>0.9604</v>
       </c>
       <c r="N3">
-        <v>0.1661</v>
+        <v>0.4183</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.6667</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J4">
-        <v>443</v>
+        <v>2611</v>
       </c>
       <c r="K4">
-        <v>371</v>
+        <v>2546</v>
       </c>
       <c r="L4">
-        <v>258</v>
+        <v>434</v>
       </c>
       <c r="M4">
-        <v>0.8375</v>
+        <v>0.9751</v>
       </c>
       <c r="N4">
-        <v>0.6954</v>
+        <v>0.1705</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J5">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="K5">
-        <v>69</v>
+        <v>300</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="M5">
-        <v>0.8625</v>
+        <v>0.7143</v>
       </c>
       <c r="N5">
-        <v>0.6087</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.6667</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J6">
-        <v>1367</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>1324</v>
+        <v>56</v>
       </c>
       <c r="L6">
-        <v>381</v>
+        <v>36</v>
       </c>
       <c r="M6">
-        <v>0.9685</v>
+        <v>0.9655</v>
       </c>
       <c r="N6">
-        <v>0.2878</v>
+        <v>0.6429</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.6667</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>603</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="M7">
-        <v>0.3158</v>
+        <v>0.995</v>
       </c>
       <c r="N7">
-        <v>0.8333</v>
+        <v>0.4183</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3485,86 +4227,86 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J8">
-        <v>37</v>
+        <v>1366</v>
       </c>
       <c r="K8">
-        <v>34</v>
+        <v>925</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>778</v>
       </c>
       <c r="M8">
-        <v>0.9189000000000001</v>
+        <v>0.6772</v>
       </c>
       <c r="N8">
-        <v>0.5294</v>
+        <v>0.8411</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J9">
-        <v>1573</v>
+        <v>782</v>
       </c>
       <c r="K9">
-        <v>1527</v>
+        <v>566</v>
       </c>
       <c r="L9">
-        <v>617</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>0.9708</v>
+        <v>0.7238</v>
       </c>
       <c r="N9">
-        <v>0.4041</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3573,118 +4315,130 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J10">
-        <v>383</v>
+        <v>1394</v>
       </c>
       <c r="K10">
-        <v>355</v>
+        <v>1380</v>
       </c>
       <c r="L10">
-        <v>245</v>
+        <v>428</v>
       </c>
       <c r="M10">
-        <v>0.9268999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="N10">
-        <v>0.6901</v>
+        <v>0.3101</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.8182</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0.7778</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J12">
-        <v>759</v>
+        <v>461</v>
       </c>
       <c r="K12">
-        <v>557</v>
+        <v>385</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="M12">
-        <v>0.7339</v>
+        <v>0.8351</v>
       </c>
       <c r="N12">
-        <v>0.1706</v>
+        <v>0.6961000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3692,113 +4446,128 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.9237</v>
       </c>
       <c r="N13">
-        <v>0.5625</v>
+        <v>0.7107</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>0.6667</v>
+        <v>0.8125</v>
       </c>
       <c r="N14">
-        <v>0.5</v>
+        <v>0.5897</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J15">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>0.973</v>
+        <v>0.9714</v>
       </c>
       <c r="N15">
-        <v>0.3778</v>
+        <v>0.3676</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3806,75 +4575,84 @@
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J16">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="K16">
-        <v>49</v>
+        <v>374</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.9639</v>
       </c>
       <c r="N16">
-        <v>0.5918</v>
+        <v>0.2834</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J17">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>0.9973</v>
+        <v>0.8913</v>
       </c>
       <c r="N17">
-        <v>0.2623</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3882,110 +4660,125 @@
       <c r="E18">
         <v>0</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J18">
-        <v>561</v>
+        <v>430</v>
       </c>
       <c r="K18">
-        <v>201</v>
+        <v>430</v>
       </c>
       <c r="L18">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="M18">
-        <v>0.3583</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0.7463</v>
+        <v>0.5907</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J19">
-        <v>404</v>
+        <v>703</v>
       </c>
       <c r="K19">
-        <v>303</v>
+        <v>697</v>
       </c>
       <c r="L19">
-        <v>217</v>
+        <v>513</v>
       </c>
       <c r="M19">
-        <v>0.75</v>
+        <v>0.9915</v>
       </c>
       <c r="N19">
-        <v>0.7161999999999999</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20">
-        <v>687</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>520</v>
+        <v>27</v>
       </c>
       <c r="L20">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>0.7569</v>
+        <v>0.7297</v>
       </c>
       <c r="N20">
-        <v>0.1327</v>
+        <v>0.4074</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3997,33 +4790,33 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="s">
         <v>88</v>
       </c>
-      <c r="I21" t="s">
-        <v>78</v>
-      </c>
       <c r="J21">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="K21">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="N21">
-        <v>0.3167</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4035,33 +4828,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>528</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0.7575</v>
       </c>
       <c r="N22">
-        <v>0.4</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4073,33 +4866,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J23">
-        <v>410</v>
+        <v>549</v>
       </c>
       <c r="K23">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="L23">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M23">
-        <v>0.9707</v>
+        <v>0.5974</v>
       </c>
       <c r="N23">
-        <v>0.6357</v>
+        <v>0.7622</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4111,33 +4904,33 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J24">
-        <v>1322</v>
+        <v>431</v>
       </c>
       <c r="K24">
-        <v>899</v>
+        <v>415</v>
       </c>
       <c r="L24">
-        <v>762</v>
+        <v>253</v>
       </c>
       <c r="M24">
-        <v>0.68</v>
+        <v>0.9629</v>
       </c>
       <c r="N24">
-        <v>0.8476</v>
+        <v>0.6096</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4149,33 +4942,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J25">
-        <v>682</v>
+        <v>575</v>
       </c>
       <c r="K25">
-        <v>682</v>
+        <v>241</v>
       </c>
       <c r="L25">
-        <v>502</v>
+        <v>179</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0.4191</v>
       </c>
       <c r="N25">
-        <v>0.7361</v>
+        <v>0.7427</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4187,33 +4980,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J26">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="K26">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="M26">
-        <v>0.65</v>
+        <v>0.975</v>
       </c>
       <c r="N26">
-        <v>0.4615</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4225,33 +5018,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J27">
-        <v>398</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>0.7035</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0.5321</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4263,33 +5056,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J28">
-        <v>567</v>
+        <v>104</v>
       </c>
       <c r="K28">
-        <v>558</v>
+        <v>102</v>
       </c>
       <c r="L28">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>0.9841</v>
+        <v>0.9808</v>
       </c>
       <c r="N28">
-        <v>0.4211</v>
+        <v>0.5881999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4301,33 +5094,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J29">
-        <v>520</v>
+        <v>18</v>
       </c>
       <c r="K29">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="L29">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>0.5981</v>
+        <v>0.7778</v>
       </c>
       <c r="N29">
-        <v>0.7781</v>
+        <v>0.6429</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4339,25 +5132,25 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J30">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>0.5556</v>
+        <v>0.8085</v>
       </c>
       <c r="N30">
-        <v>0.7</v>
+        <v>0.5789</v>
       </c>
     </row>
   </sheetData>
@@ -4375,890 +5168,890 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>0.7353</v>
+        <v>0.7527</v>
       </c>
       <c r="G2">
-        <v>0.2529</v>
+        <v>0.2939</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>9523</v>
+        <v>10526</v>
       </c>
       <c r="K2">
-        <v>6635</v>
+        <v>7380</v>
       </c>
       <c r="L2">
-        <v>4579</v>
+        <v>5191</v>
       </c>
       <c r="M2">
-        <v>0.6967</v>
+        <v>0.7010999999999999</v>
       </c>
       <c r="N2">
-        <v>0.4808</v>
+        <v>0.4932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>0.7857</v>
+        <v>0.908</v>
       </c>
       <c r="G3">
-        <v>0.4821</v>
+        <v>0.296</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>26264</v>
+        <v>3729</v>
       </c>
       <c r="K3">
-        <v>19124</v>
+        <v>2657</v>
       </c>
       <c r="L3">
-        <v>12746</v>
+        <v>1976</v>
       </c>
       <c r="M3">
-        <v>0.7281</v>
+        <v>0.7125</v>
       </c>
       <c r="N3">
-        <v>0.4853</v>
+        <v>0.5299</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.7611</v>
       </c>
       <c r="G4">
-        <v>0.6471</v>
+        <v>0.1944</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J4">
-        <v>12814</v>
+        <v>2355</v>
       </c>
       <c r="K4">
-        <v>9113</v>
+        <v>1662</v>
       </c>
       <c r="L4">
-        <v>7422</v>
+        <v>1250</v>
       </c>
       <c r="M4">
-        <v>0.7112000000000001</v>
+        <v>0.7057</v>
       </c>
       <c r="N4">
-        <v>0.5792</v>
+        <v>0.5308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>0.9375</v>
+        <v>0.5829</v>
       </c>
       <c r="G5">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J5">
-        <v>372</v>
+        <v>8511</v>
       </c>
       <c r="K5">
-        <v>254</v>
+        <v>5800</v>
       </c>
       <c r="L5">
-        <v>147</v>
+        <v>5375</v>
       </c>
       <c r="M5">
-        <v>0.6828</v>
+        <v>0.6815</v>
       </c>
       <c r="N5">
-        <v>0.3952</v>
+        <v>0.6315</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F6">
-        <v>0.8462</v>
+        <v>0.8333</v>
       </c>
       <c r="G6">
-        <v>0.4615</v>
+        <v>0.2989</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J6">
-        <v>7926</v>
+        <v>28103</v>
       </c>
       <c r="K6">
-        <v>5408</v>
+        <v>20667</v>
       </c>
       <c r="L6">
-        <v>5089</v>
+        <v>13865</v>
       </c>
       <c r="M6">
-        <v>0.6823</v>
+        <v>0.7354000000000001</v>
       </c>
       <c r="N6">
-        <v>0.6421</v>
+        <v>0.4934</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>97</v>
+      </c>
+      <c r="E7">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
       <c r="F7">
-        <v>0.8</v>
+        <v>0.7578</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0.3359</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J7">
-        <v>3312</v>
+        <v>14083</v>
       </c>
       <c r="K7">
-        <v>2098</v>
+        <v>10194</v>
       </c>
       <c r="L7">
-        <v>1560</v>
+        <v>8373</v>
       </c>
       <c r="M7">
-        <v>0.6335</v>
+        <v>0.7239</v>
       </c>
       <c r="N7">
-        <v>0.471</v>
+        <v>0.5945</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>0.625</v>
+        <v>0.5648</v>
       </c>
       <c r="G8">
-        <v>0.375</v>
+        <v>0.2315</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J8">
-        <v>2718</v>
+        <v>923</v>
       </c>
       <c r="K8">
-        <v>1815</v>
+        <v>646</v>
       </c>
       <c r="L8">
-        <v>1536</v>
+        <v>315</v>
       </c>
       <c r="M8">
-        <v>0.6677999999999999</v>
+        <v>0.6999</v>
       </c>
       <c r="N8">
-        <v>0.5651</v>
+        <v>0.3413</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>0.8333</v>
+        <v>0.8182</v>
       </c>
       <c r="G9">
-        <v>0.6667</v>
+        <v>0.3485</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J9">
-        <v>917</v>
+        <v>2425</v>
       </c>
       <c r="K9">
-        <v>515</v>
+        <v>1716</v>
       </c>
       <c r="L9">
-        <v>573</v>
+        <v>1485</v>
       </c>
       <c r="M9">
-        <v>0.5616</v>
+        <v>0.7076</v>
       </c>
       <c r="N9">
-        <v>0.6249</v>
+        <v>0.6124000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6667</v>
+        <v>0.8333</v>
       </c>
       <c r="G10">
-        <v>0.3333</v>
+        <v>0.0476</v>
       </c>
       <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
         <v>89</v>
       </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
       <c r="J10">
-        <v>3269</v>
+        <v>762</v>
       </c>
       <c r="K10">
-        <v>2319</v>
+        <v>468</v>
       </c>
       <c r="L10">
-        <v>1681</v>
+        <v>544</v>
       </c>
       <c r="M10">
-        <v>0.7094</v>
+        <v>0.6142</v>
       </c>
       <c r="N10">
-        <v>0.5142</v>
+        <v>0.7139</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.3333</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J11">
-        <v>1946</v>
+        <v>1000</v>
       </c>
       <c r="K11">
-        <v>1312</v>
+        <v>563</v>
       </c>
       <c r="L11">
-        <v>1274</v>
+        <v>621</v>
       </c>
       <c r="M11">
-        <v>0.6742</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="N11">
-        <v>0.6546999999999999</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
-        <v>0.3333</v>
+        <v>0.5185</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J12">
-        <v>2089</v>
+        <v>3715</v>
       </c>
       <c r="K12">
-        <v>1439</v>
+        <v>2668</v>
       </c>
       <c r="L12">
-        <v>1407</v>
+        <v>1869</v>
       </c>
       <c r="M12">
-        <v>0.6888</v>
+        <v>0.7181999999999999</v>
       </c>
       <c r="N12">
-        <v>0.6735</v>
+        <v>0.5031</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3636</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J13">
-        <v>1053</v>
+        <v>3444</v>
       </c>
       <c r="K13">
-        <v>586</v>
+        <v>2167</v>
       </c>
       <c r="L13">
-        <v>668</v>
+        <v>1675</v>
       </c>
       <c r="M13">
-        <v>0.5565</v>
+        <v>0.6292</v>
       </c>
       <c r="N13">
-        <v>0.6344</v>
+        <v>0.4864</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.9333</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.2667</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="J14">
-        <v>373</v>
+        <v>116</v>
       </c>
       <c r="K14">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="L14">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="M14">
-        <v>0.8043</v>
+        <v>0.6897</v>
       </c>
       <c r="N14">
-        <v>0.319</v>
+        <v>0.7328</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.7272999999999999</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.1818</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J15">
-        <v>1958</v>
+        <v>2237</v>
       </c>
       <c r="K15">
-        <v>1347</v>
+        <v>1559</v>
       </c>
       <c r="L15">
-        <v>1064</v>
+        <v>1484</v>
       </c>
       <c r="M15">
-        <v>0.6879</v>
+        <v>0.6969</v>
       </c>
       <c r="N15">
-        <v>0.5434</v>
+        <v>0.6634</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.5714</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>0.4286</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="J16">
-        <v>423</v>
+        <v>1615</v>
       </c>
       <c r="K16">
-        <v>260</v>
+        <v>942</v>
       </c>
       <c r="L16">
-        <v>221</v>
+        <v>871</v>
       </c>
       <c r="M16">
-        <v>0.6147</v>
+        <v>0.5833</v>
       </c>
       <c r="N16">
-        <v>0.5225</v>
+        <v>0.5393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J17">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="K17">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>0.5044</v>
+        <v>0.727</v>
       </c>
       <c r="N17">
-        <v>0.4956</v>
+        <v>0.3619</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6667</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J18">
-        <v>1267</v>
+        <v>510</v>
       </c>
       <c r="K18">
-        <v>741</v>
+        <v>406</v>
       </c>
       <c r="L18">
-        <v>735</v>
+        <v>177</v>
       </c>
       <c r="M18">
-        <v>0.5848</v>
+        <v>0.7961</v>
       </c>
       <c r="N18">
-        <v>0.5800999999999999</v>
+        <v>0.3471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J19">
-        <v>1480</v>
+        <v>85</v>
       </c>
       <c r="K19">
-        <v>867</v>
+        <v>63</v>
       </c>
       <c r="L19">
-        <v>786</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>0.5858</v>
+        <v>0.7412</v>
       </c>
       <c r="N19">
-        <v>0.5311</v>
+        <v>0.4706</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J20">
-        <v>1207</v>
+        <v>1314</v>
       </c>
       <c r="K20">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="L20">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="M20">
-        <v>0.6031</v>
+        <v>0.5989</v>
       </c>
       <c r="N20">
-        <v>0.5054</v>
+        <v>0.5198</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5276,36 +6069,36 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J21">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="K21">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="M21">
-        <v>0.7368</v>
+        <v>0.5124</v>
       </c>
       <c r="N21">
-        <v>0.6842</v>
+        <v>0.5124</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5313,34 +6106,40 @@
       <c r="E22">
         <v>0</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J22">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>0.5957</v>
+        <v>0.5818</v>
       </c>
       <c r="N22">
-        <v>0.5319</v>
+        <v>0.4727</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5352,33 +6151,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23">
-        <v>689</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>412</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>0.598</v>
+        <v>0.8</v>
       </c>
       <c r="N23">
-        <v>0.7402</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5390,33 +6189,33 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J24">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="K24">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="L24">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>0.7476</v>
+        <v>0.8889</v>
       </c>
       <c r="N24">
-        <v>0.3095</v>
+        <v>0.4444</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -5428,33 +6227,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>443</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>240</v>
       </c>
       <c r="M25">
-        <v>0.875</v>
+        <v>0.6117</v>
       </c>
       <c r="N25">
-        <v>0.25</v>
+        <v>0.5417999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5466,33 +6265,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J26">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="K26">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>0.7049</v>
+        <v>0.7778</v>
       </c>
       <c r="N26">
-        <v>0.541</v>
+        <v>0.3889</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5504,33 +6303,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J27">
-        <v>10</v>
+        <v>1273</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>745</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>748</v>
       </c>
       <c r="M27">
-        <v>0.8</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="N27">
-        <v>0.4</v>
+        <v>0.5876</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5542,63 +6341,63 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="J28">
-        <v>60</v>
+        <v>1098</v>
       </c>
       <c r="K28">
-        <v>27</v>
+        <v>610</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>702</v>
       </c>
       <c r="M28">
-        <v>0.45</v>
+        <v>0.5556</v>
       </c>
       <c r="N28">
-        <v>0.7667</v>
+        <v>0.6393</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29">
+        <v>61</v>
+      </c>
+      <c r="K29">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29">
-        <v>13</v>
-      </c>
-      <c r="K29">
-        <v>12</v>
-      </c>
       <c r="L29">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>0.9231</v>
+        <v>0.7049</v>
       </c>
       <c r="N29">
-        <v>0.4615</v>
+        <v>0.5574</v>
       </c>
     </row>
   </sheetData>

--- a/data/日报汇总数据.xlsx
+++ b/data/日报汇总数据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="24520" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总体漏斗数据" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="分社漏斗数据" sheetId="3" r:id="rId3"/>
     <sheet name="分社学习数据" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>当日_已申请</t>
   </si>
@@ -181,6 +181,24 @@
     <t>04-29</t>
   </si>
   <si>
+    <t>04-30</t>
+  </si>
+  <si>
+    <t>05-01</t>
+  </si>
+  <si>
+    <t>05-02</t>
+  </si>
+  <si>
+    <t>05-03</t>
+  </si>
+  <si>
+    <t>05-04</t>
+  </si>
+  <si>
+    <t>05-05</t>
+  </si>
+  <si>
     <t>日环比</t>
   </si>
   <si>
@@ -226,129 +244,472 @@
     <t>累计_分社</t>
   </si>
   <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>2020-05-06T16:00:00</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>东莞</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>太原</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>福州</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>长沙</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>合肥</t>
+  </si>
+  <si>
+    <t>大连</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>石家庄</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>沈阳</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
     <t>总部</t>
   </si>
   <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>长沙</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>东莞</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>大连</t>
-  </si>
-  <si>
-    <t>合肥</t>
-  </si>
-  <si>
-    <t>济南</t>
-  </si>
-  <si>
-    <t>厦门</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>石家庄</t>
-  </si>
-  <si>
-    <t>南昌</t>
-  </si>
-  <si>
-    <t>武汉</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t>青岛</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>福州</t>
-  </si>
-  <si>
-    <t>宁波</t>
-  </si>
-  <si>
-    <t>太原</t>
-  </si>
-  <si>
-    <t>无锡</t>
-  </si>
-  <si>
-    <t>沈阳</t>
-  </si>
-  <si>
-    <t>2020-04-30T14:00:00</t>
-  </si>
-  <si>
-    <t>2020-04-30 14:00:00</t>
+    <t>2020-05-06 17:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -371,9 +732,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -381,11 +984,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -668,19 +1323,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
+  <cols>
+    <col min="7" max="11" width="16.3660714285714" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H2">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I2">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J2">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K2">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -761,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H3">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I3">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J3">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K3">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -793,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H4">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I4">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J4">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K4">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -825,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H5">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I5">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J5">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K5">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -857,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H6">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I6">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J6">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K6">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -889,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H7">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I7">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J7">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K7">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -924,19 +1584,19 @@
         <v>0.439</v>
       </c>
       <c r="G8">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H8">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I8">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J8">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K8">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -959,19 +1619,19 @@
         <v>0.3333</v>
       </c>
       <c r="G9">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H9">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I9">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J9">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K9">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -994,19 +1654,19 @@
         <v>0.4487</v>
       </c>
       <c r="G10">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H10">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I10">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J10">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K10">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1029,19 +1689,19 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H11">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I11">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J11">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K11">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1064,19 +1724,19 @@
         <v>0.4494</v>
       </c>
       <c r="G12">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H12">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I12">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J12">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K12">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1099,19 +1759,19 @@
         <v>0.3462</v>
       </c>
       <c r="G13">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H13">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I13">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J13">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K13">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1134,19 +1794,19 @@
         <v>0.549</v>
       </c>
       <c r="G14">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H14">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I14">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J14">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K14">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1169,19 +1829,19 @@
         <v>0.5417</v>
       </c>
       <c r="G15">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H15">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I15">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J15">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K15">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1204,19 +1864,19 @@
         <v>0.6364</v>
       </c>
       <c r="G16">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H16">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I16">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J16">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K16">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1239,19 +1899,19 @@
         <v>0.5667</v>
       </c>
       <c r="G17">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H17">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I17">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J17">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K17">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1274,19 +1934,19 @@
         <v>0.2308</v>
       </c>
       <c r="G18">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H18">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I18">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J18">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K18">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1309,19 +1969,19 @@
         <v>0.4444</v>
       </c>
       <c r="G19">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H19">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I19">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J19">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K19">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1344,19 +2004,19 @@
         <v>0.55</v>
       </c>
       <c r="G20">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H20">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I20">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J20">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K20">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1379,19 +2039,19 @@
         <v>0.36</v>
       </c>
       <c r="G21">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H21">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I21">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J21">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K21">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1414,19 +2074,19 @@
         <v>0.5185</v>
       </c>
       <c r="G22">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H22">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I22">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J22">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K22">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1449,19 +2109,19 @@
         <v>0.3265</v>
       </c>
       <c r="G23">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H23">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I23">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J23">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K23">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1481,22 +2141,22 @@
         <v>0.5577</v>
       </c>
       <c r="F24">
-        <v>0.5862000000000001</v>
+        <v>0.5862</v>
       </c>
       <c r="G24">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H24">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I24">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J24">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K24">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1519,19 +2179,19 @@
         <v>0.3304</v>
       </c>
       <c r="G25">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H25">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I25">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J25">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K25">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1554,19 +2214,19 @@
         <v>0.2037</v>
       </c>
       <c r="G26">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H26">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I26">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J26">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K26">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1589,19 +2249,19 @@
         <v>0.4091</v>
       </c>
       <c r="G27">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H27">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I27">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J27">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K27">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1624,19 +2284,19 @@
         <v>0.75</v>
       </c>
       <c r="G28">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H28">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I28">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J28">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K28">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1659,19 +2319,19 @@
         <v>0.2821</v>
       </c>
       <c r="G29">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H29">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I29">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J29">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K29">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1694,19 +2354,19 @@
         <v>0.2973</v>
       </c>
       <c r="G30">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H30">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I30">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J30">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K30">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1729,19 +2389,19 @@
         <v>0.4286</v>
       </c>
       <c r="G31">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H31">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I31">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J31">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K31">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1764,19 +2424,19 @@
         <v>0.4091</v>
       </c>
       <c r="G32">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H32">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I32">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J32">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K32">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1799,19 +2459,19 @@
         <v>0.4762</v>
       </c>
       <c r="G33">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H33">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I33">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J33">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K33">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1834,19 +2494,19 @@
         <v>0.7692</v>
       </c>
       <c r="G34">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H34">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I34">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J34">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K34">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1869,19 +2529,19 @@
         <v>0.5714</v>
       </c>
       <c r="G35">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H35">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I35">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J35">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K35">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1904,19 +2564,19 @@
         <v>0.55</v>
       </c>
       <c r="G36">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H36">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I36">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J36">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K36">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1939,19 +2599,19 @@
         <v>0.6</v>
       </c>
       <c r="G37">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H37">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I37">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J37">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K37">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1974,19 +2634,19 @@
         <v>0.619</v>
       </c>
       <c r="G38">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H38">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I38">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J38">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K38">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2009,19 +2669,19 @@
         <v>0.52</v>
       </c>
       <c r="G39">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H39">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I39">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J39">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K39">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2044,19 +2704,19 @@
         <v>0.6471</v>
       </c>
       <c r="G40">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H40">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I40">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J40">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K40">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2079,19 +2739,19 @@
         <v>0.3333</v>
       </c>
       <c r="G41">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H41">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I41">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J41">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K41">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2114,19 +2774,19 @@
         <v>0.375</v>
       </c>
       <c r="G42">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H42">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I42">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J42">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K42">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2149,19 +2809,19 @@
         <v>0.7059</v>
       </c>
       <c r="G43">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H43">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I43">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J43">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K43">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2184,19 +2844,19 @@
         <v>0.5909</v>
       </c>
       <c r="G44">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H44">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I44">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J44">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K44">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2219,19 +2879,19 @@
         <v>0.4595</v>
       </c>
       <c r="G45">
-        <v>15251</v>
+        <v>15288</v>
       </c>
       <c r="H45">
-        <v>13303</v>
+        <v>13345</v>
       </c>
       <c r="I45">
-        <v>5763</v>
+        <v>5834</v>
       </c>
       <c r="J45">
-        <v>0.8723</v>
+        <v>0.8729</v>
       </c>
       <c r="K45">
-        <v>0.4332</v>
+        <v>0.4372</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2239,79 +2899,248 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.5714285714285714</v>
+        <v>55</v>
       </c>
       <c r="C46">
-        <v>0.6818181818181818</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>0.3076923076923077</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>0.07025582283314231</v>
+        <v>0.5091</v>
       </c>
       <c r="F46">
-        <v>-0.222372651886952</v>
+        <v>0.5</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>15288</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>13345</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>5834</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>0.8729</v>
       </c>
       <c r="K46">
+        <v>0.4372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>15288</v>
+      </c>
+      <c r="H47">
+        <v>13345</v>
+      </c>
+      <c r="I47">
+        <v>5834</v>
+      </c>
+      <c r="J47">
+        <v>0.8729</v>
+      </c>
+      <c r="K47">
+        <v>0.4372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>15288</v>
+      </c>
+      <c r="H48">
+        <v>13345</v>
+      </c>
+      <c r="I48">
+        <v>5834</v>
+      </c>
+      <c r="J48">
+        <v>0.8729</v>
+      </c>
+      <c r="K48">
+        <v>0.4372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>15288</v>
+      </c>
+      <c r="H49">
+        <v>13345</v>
+      </c>
+      <c r="I49">
+        <v>5834</v>
+      </c>
+      <c r="J49">
+        <v>0.8729</v>
+      </c>
+      <c r="K49">
+        <v>0.4372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>15288</v>
+      </c>
+      <c r="H50">
+        <v>13345</v>
+      </c>
+      <c r="I50">
+        <v>5834</v>
+      </c>
+      <c r="J50">
+        <v>0.8729</v>
+      </c>
+      <c r="K50">
+        <v>0.4372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>15288</v>
+      </c>
+      <c r="H51">
+        <v>13345</v>
+      </c>
+      <c r="I51">
+        <v>5834</v>
+      </c>
+      <c r="J51">
+        <v>0.8729</v>
+      </c>
+      <c r="K51">
+        <v>0.4372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2334,19 +3163,19 @@
         <v>0.2855</v>
       </c>
       <c r="G2">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H2">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I2">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J2">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K2">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2369,19 +3198,19 @@
         <v>0.3236</v>
       </c>
       <c r="G3">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H3">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I3">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J3">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K3">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2404,19 +3233,19 @@
         <v>0.3027</v>
       </c>
       <c r="G4">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H4">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I4">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J4">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K4">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2439,19 +3268,19 @@
         <v>0.3265</v>
       </c>
       <c r="G5">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H5">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I5">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J5">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K5">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2474,19 +3303,19 @@
         <v>0.3754</v>
       </c>
       <c r="G6">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H6">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I6">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J6">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K6">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2509,19 +3338,19 @@
         <v>0.4484</v>
       </c>
       <c r="G7">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H7">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I7">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J7">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K7">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2544,19 +3373,19 @@
         <v>0.4212</v>
       </c>
       <c r="G8">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H8">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I8">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J8">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K8">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2579,19 +3408,19 @@
         <v>0.4571</v>
       </c>
       <c r="G9">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H9">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I9">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J9">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K9">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2614,19 +3443,19 @@
         <v>0.3421</v>
       </c>
       <c r="G10">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H10">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I10">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J10">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K10">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2649,19 +3478,19 @@
         <v>0.3396</v>
       </c>
       <c r="G11">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H11">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I11">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J11">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K11">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2684,19 +3513,19 @@
         <v>0.3013</v>
       </c>
       <c r="G12">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H12">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I12">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J12">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K12">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2719,19 +3548,19 @@
         <v>0.4102</v>
       </c>
       <c r="G13">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H13">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I13">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J13">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K13">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2754,19 +3583,19 @@
         <v>0.4485</v>
       </c>
       <c r="G14">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H14">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I14">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J14">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K14">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2789,19 +3618,19 @@
         <v>0.3501</v>
       </c>
       <c r="G15">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H15">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I15">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J15">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K15">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2824,19 +3653,19 @@
         <v>0.3485</v>
       </c>
       <c r="G16">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H16">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I16">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J16">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K16">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2859,19 +3688,19 @@
         <v>0.2903</v>
       </c>
       <c r="G17">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H17">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I17">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J17">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K17">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2894,19 +3723,19 @@
         <v>0.3688</v>
       </c>
       <c r="G18">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H18">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I18">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J18">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K18">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2929,19 +3758,19 @@
         <v>0.3105</v>
       </c>
       <c r="G19">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H19">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I19">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J19">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K19">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2964,19 +3793,19 @@
         <v>0.4586</v>
       </c>
       <c r="G20">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H20">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I20">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J20">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K20">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2999,19 +3828,19 @@
         <v>0.5594</v>
       </c>
       <c r="G21">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H21">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I21">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J21">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K21">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3034,19 +3863,19 @@
         <v>0.4264</v>
       </c>
       <c r="G22">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H22">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I22">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J22">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K22">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3069,19 +3898,19 @@
         <v>0.3982</v>
       </c>
       <c r="G23">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H23">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I23">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J23">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K23">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3104,19 +3933,19 @@
         <v>0.3348</v>
       </c>
       <c r="G24">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H24">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I24">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J24">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K24">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3139,19 +3968,19 @@
         <v>0.315</v>
       </c>
       <c r="G25">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H25">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I25">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J25">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K25">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3168,25 +3997,25 @@
         <v>395</v>
       </c>
       <c r="E26">
-        <v>0.6951000000000001</v>
+        <v>0.6951</v>
       </c>
       <c r="F26">
         <v>0.3152</v>
       </c>
       <c r="G26">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H26">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I26">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J26">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K26">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3203,25 +4032,25 @@
         <v>157</v>
       </c>
       <c r="E27">
-        <v>0.7635999999999999</v>
+        <v>0.7636</v>
       </c>
       <c r="F27">
         <v>0.4078</v>
       </c>
       <c r="G27">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H27">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I27">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J27">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K27">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3244,19 +4073,19 @@
         <v>0.4828</v>
       </c>
       <c r="G28">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H28">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I28">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J28">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K28">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3279,19 +4108,19 @@
         <v>0.3458</v>
       </c>
       <c r="G29">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H29">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I29">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J29">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K29">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3314,19 +4143,19 @@
         <v>0.361</v>
       </c>
       <c r="G30">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H30">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I30">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J30">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K30">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3343,25 +4172,25 @@
         <v>182</v>
       </c>
       <c r="E31">
-        <v>0.7445000000000001</v>
+        <v>0.7445</v>
       </c>
       <c r="F31">
         <v>0.308</v>
       </c>
       <c r="G31">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H31">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I31">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J31">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K31">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3384,19 +4213,19 @@
         <v>0.3202</v>
       </c>
       <c r="G32">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H32">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I32">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J32">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K32">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3419,19 +4248,19 @@
         <v>0.2649</v>
       </c>
       <c r="G33">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H33">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I33">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J33">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K33">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3448,25 +4277,25 @@
         <v>131</v>
       </c>
       <c r="E34">
-        <v>0.7707000000000001</v>
+        <v>0.7707</v>
       </c>
       <c r="F34">
         <v>0.3619</v>
       </c>
       <c r="G34">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H34">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I34">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J34">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K34">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3489,19 +4318,19 @@
         <v>0.3631</v>
       </c>
       <c r="G35">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H35">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I35">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J35">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K35">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3524,19 +4353,19 @@
         <v>0.3927</v>
       </c>
       <c r="G36">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H36">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I36">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J36">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K36">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3559,19 +4388,19 @@
         <v>0.3722</v>
       </c>
       <c r="G37">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H37">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I37">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J37">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K37">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3594,19 +4423,19 @@
         <v>0.3385</v>
       </c>
       <c r="G38">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H38">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I38">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J38">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K38">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3629,19 +4458,19 @@
         <v>0.3173</v>
       </c>
       <c r="G39">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H39">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I39">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J39">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K39">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3664,19 +4493,19 @@
         <v>0.3024</v>
       </c>
       <c r="G40">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H40">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I40">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J40">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K40">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3699,19 +4528,19 @@
         <v>0.3838</v>
       </c>
       <c r="G41">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H41">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I41">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J41">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K41">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3734,19 +4563,19 @@
         <v>0.317</v>
       </c>
       <c r="G42">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H42">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I42">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J42">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K42">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3769,19 +4598,19 @@
         <v>0.3669</v>
       </c>
       <c r="G43">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H43">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I43">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J43">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K43">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3804,19 +4633,19 @@
         <v>0.3231</v>
       </c>
       <c r="G44">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H44">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I44">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J44">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K44">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3839,75 +4668,254 @@
         <v>0.2609</v>
       </c>
       <c r="G45">
-        <v>88943</v>
+        <v>91117</v>
       </c>
       <c r="H45">
-        <v>62514</v>
+        <v>64158</v>
       </c>
       <c r="I45">
-        <v>47868</v>
+        <v>49885</v>
       </c>
       <c r="J45">
-        <v>0.7029</v>
+        <v>0.7041</v>
       </c>
       <c r="K45">
-        <v>0.5382</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.5715746421267893</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>0.4305043050430504</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>0.2689873417721519</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>-0.08973896306989053</v>
+        <v>0.697</v>
       </c>
       <c r="F46">
-        <v>-0.1925100588053233</v>
+        <v>0.2424</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>91117</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>64158</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>49885</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>0.7041</v>
       </c>
       <c r="K46">
+        <v>0.5475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>91117</v>
+      </c>
+      <c r="H47">
+        <v>64158</v>
+      </c>
+      <c r="I47">
+        <v>49885</v>
+      </c>
+      <c r="J47">
+        <v>0.7041</v>
+      </c>
+      <c r="K47">
+        <v>0.5475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>0.8571</v>
+      </c>
+      <c r="F48">
+        <v>0.5714</v>
+      </c>
+      <c r="G48">
+        <v>91117</v>
+      </c>
+      <c r="H48">
+        <v>64158</v>
+      </c>
+      <c r="I48">
+        <v>49885</v>
+      </c>
+      <c r="J48">
+        <v>0.7041</v>
+      </c>
+      <c r="K48">
+        <v>0.5475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0.6667</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>91117</v>
+      </c>
+      <c r="H49">
+        <v>64158</v>
+      </c>
+      <c r="I49">
+        <v>49885</v>
+      </c>
+      <c r="J49">
+        <v>0.7041</v>
+      </c>
+      <c r="K49">
+        <v>0.5475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0.75</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>91117</v>
+      </c>
+      <c r="H50">
+        <v>64158</v>
+      </c>
+      <c r="I50">
+        <v>49885</v>
+      </c>
+      <c r="J50">
+        <v>0.7041</v>
+      </c>
+      <c r="K50">
+        <v>0.5475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C51">
+        <v>0.5</v>
+      </c>
+      <c r="D51">
+        <v>-0.333333333333333</v>
+      </c>
+      <c r="E51">
+        <v>0.124943752812359</v>
+      </c>
+      <c r="F51">
+        <v>-0.5</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3925,10 +4933,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -3948,497 +4956,431 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.1538</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>1115</v>
+        <v>2613</v>
       </c>
       <c r="K2">
-        <v>1029</v>
+        <v>2554</v>
       </c>
       <c r="L2">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="M2">
-        <v>0.9229000000000001</v>
+        <v>0.9774</v>
       </c>
       <c r="N2">
-        <v>0.483</v>
+        <v>0.1723</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>0.7272999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J3">
-        <v>1618</v>
+        <v>697</v>
       </c>
       <c r="K3">
-        <v>1554</v>
+        <v>528</v>
       </c>
       <c r="L3">
-        <v>650</v>
+        <v>73</v>
       </c>
       <c r="M3">
-        <v>0.9604</v>
+        <v>0.7575</v>
       </c>
       <c r="N3">
-        <v>0.4183</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.375</v>
-      </c>
-      <c r="G4">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J4">
-        <v>2611</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>2546</v>
+        <v>14</v>
       </c>
       <c r="L4">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="M4">
-        <v>0.9751</v>
+        <v>0.7368</v>
       </c>
       <c r="N4">
-        <v>0.1705</v>
+        <v>0.6429</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5">
-        <v>420</v>
-      </c>
-      <c r="K5">
-        <v>300</v>
-      </c>
-      <c r="L5">
-        <v>156</v>
-      </c>
-      <c r="M5">
-        <v>0.7143</v>
-      </c>
       <c r="N5">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.6667</v>
-      </c>
-      <c r="G6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J6">
-        <v>58</v>
+        <v>461</v>
       </c>
       <c r="K6">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="M6">
-        <v>0.9655</v>
+        <v>0.8438</v>
       </c>
       <c r="N6">
-        <v>0.6429</v>
+        <v>0.7095</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.6667</v>
-      </c>
-      <c r="G7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J7">
-        <v>603</v>
+        <v>104</v>
       </c>
       <c r="K7">
-        <v>600</v>
+        <v>102</v>
       </c>
       <c r="L7">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="M7">
-        <v>0.995</v>
+        <v>0.9808</v>
       </c>
       <c r="N7">
-        <v>0.4183</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.3333</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8">
-        <v>1366</v>
-      </c>
-      <c r="K8">
-        <v>925</v>
-      </c>
-      <c r="L8">
-        <v>778</v>
-      </c>
-      <c r="M8">
-        <v>0.6772</v>
-      </c>
       <c r="N8">
-        <v>0.8411</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>76</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.6667</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>98</v>
-      </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J9">
-        <v>782</v>
+        <v>202</v>
       </c>
       <c r="K9">
-        <v>566</v>
+        <v>199</v>
       </c>
       <c r="L9">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="M9">
-        <v>0.7238</v>
+        <v>0.9851</v>
       </c>
       <c r="N9">
-        <v>0.1802</v>
+        <v>0.3769</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J10">
-        <v>1394</v>
+        <v>1620</v>
       </c>
       <c r="K10">
-        <v>1380</v>
+        <v>1557</v>
       </c>
       <c r="L10">
-        <v>428</v>
+        <v>663</v>
       </c>
       <c r="M10">
-        <v>0.99</v>
+        <v>0.9611</v>
       </c>
       <c r="N10">
-        <v>0.3101</v>
+        <v>0.4258</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.7163</v>
       </c>
       <c r="N11">
-        <v>0.25</v>
+        <v>0.5182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J12">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="K12">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="L12">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c r="M12">
-        <v>0.8351</v>
+        <v>0.9665</v>
       </c>
       <c r="N12">
-        <v>0.6961000000000001</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4446,128 +5388,113 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J13">
-        <v>393</v>
+        <v>575</v>
       </c>
       <c r="K13">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="L13">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="M13">
-        <v>0.9237</v>
+        <v>0.4261</v>
       </c>
       <c r="N13">
-        <v>0.7107</v>
+        <v>0.7429</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J14">
-        <v>48</v>
+        <v>431</v>
       </c>
       <c r="K14">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="M14">
-        <v>0.8125</v>
+        <v>0.9629</v>
       </c>
       <c r="N14">
-        <v>0.5897</v>
+        <v>0.6096</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J15">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>0.9714</v>
+        <v>0.9655</v>
       </c>
       <c r="N15">
-        <v>0.3676</v>
+        <v>0.6607</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4575,84 +5502,75 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J16">
-        <v>388</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>0.9639</v>
+        <v>0.8</v>
       </c>
       <c r="N16">
-        <v>0.2834</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J17">
-        <v>46</v>
+        <v>393</v>
       </c>
       <c r="K17">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="M17">
-        <v>0.8913</v>
+        <v>0.9237</v>
       </c>
       <c r="N17">
-        <v>0.5610000000000001</v>
+        <v>0.7107</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4660,125 +5578,110 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J18">
-        <v>430</v>
+        <v>1400</v>
       </c>
       <c r="K18">
-        <v>430</v>
+        <v>1382</v>
       </c>
       <c r="L18">
-        <v>254</v>
+        <v>440</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.9871</v>
       </c>
       <c r="N18">
-        <v>0.5907</v>
+        <v>0.3184</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J19">
-        <v>703</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>697</v>
+        <v>69</v>
       </c>
       <c r="L19">
-        <v>513</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>0.9915</v>
+        <v>0.9718</v>
       </c>
       <c r="N19">
-        <v>0.736</v>
+        <v>0.3623</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J20">
-        <v>37</v>
+        <v>789</v>
       </c>
       <c r="K20">
-        <v>27</v>
+        <v>572</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="M20">
-        <v>0.7297</v>
+        <v>0.725</v>
       </c>
       <c r="N20">
-        <v>0.4074</v>
+        <v>0.1853</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4790,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J21">
         <v>24</v>
@@ -4813,10 +5716,10 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4828,33 +5731,33 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J22">
-        <v>697</v>
+        <v>1367</v>
       </c>
       <c r="K22">
-        <v>528</v>
+        <v>926</v>
       </c>
       <c r="L22">
-        <v>73</v>
+        <v>779</v>
       </c>
       <c r="M22">
-        <v>0.7575</v>
+        <v>0.6774</v>
       </c>
       <c r="N22">
-        <v>0.1383</v>
+        <v>0.8413</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4866,33 +5769,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J23">
-        <v>549</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="L23">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>0.5974</v>
+        <v>0.8913</v>
       </c>
       <c r="N23">
-        <v>0.7622</v>
+        <v>0.561</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4904,33 +5807,33 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s">
         <v>98</v>
       </c>
-      <c r="I24" t="s">
-        <v>91</v>
-      </c>
       <c r="J24">
-        <v>431</v>
+        <v>703</v>
       </c>
       <c r="K24">
-        <v>415</v>
+        <v>697</v>
       </c>
       <c r="L24">
-        <v>253</v>
+        <v>513</v>
       </c>
       <c r="M24">
-        <v>0.9629</v>
+        <v>0.9915</v>
       </c>
       <c r="N24">
-        <v>0.6096</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4942,33 +5845,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J25">
-        <v>575</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="L25">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="M25">
-        <v>0.4191</v>
+        <v>0.7297</v>
       </c>
       <c r="N25">
-        <v>0.7427</v>
+        <v>0.4444</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4980,33 +5883,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J26">
-        <v>200</v>
+        <v>604</v>
       </c>
       <c r="K26">
-        <v>195</v>
+        <v>602</v>
       </c>
       <c r="L26">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="M26">
-        <v>0.975</v>
+        <v>0.9967</v>
       </c>
       <c r="N26">
-        <v>0.359</v>
+        <v>0.4169</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5018,33 +5921,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>549</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>328</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0.5974</v>
       </c>
       <c r="N27">
-        <v>0.625</v>
+        <v>0.7622</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5056,33 +5959,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J28">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="K28">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>0.9808</v>
+        <v>0.8085</v>
       </c>
       <c r="N28">
-        <v>0.5881999999999999</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5094,33 +5997,33 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J29">
-        <v>18</v>
+        <v>431</v>
       </c>
       <c r="K29">
-        <v>14</v>
+        <v>431</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="M29">
-        <v>0.7778</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0.6429</v>
+        <v>0.6195</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5132,973 +6035,863 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J30">
-        <v>94</v>
+        <v>1123</v>
       </c>
       <c r="K30">
-        <v>76</v>
+        <v>1030</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="M30">
-        <v>0.8085</v>
+        <v>0.9172</v>
       </c>
       <c r="N30">
-        <v>0.5789</v>
+        <v>0.4825</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:N$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2">
-        <v>279</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.7527</v>
+        <v>0.75</v>
       </c>
       <c r="G2">
-        <v>0.2939</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
         <v>75</v>
       </c>
       <c r="J2">
-        <v>10526</v>
+        <v>14385</v>
       </c>
       <c r="K2">
-        <v>7380</v>
+        <v>10393</v>
       </c>
       <c r="L2">
-        <v>5191</v>
+        <v>8713</v>
       </c>
       <c r="M2">
-        <v>0.7010999999999999</v>
+        <v>0.7225</v>
       </c>
       <c r="N2">
-        <v>0.4932</v>
+        <v>0.6057</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>74</v>
-      </c>
-      <c r="F3">
-        <v>0.908</v>
-      </c>
-      <c r="G3">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" t="s">
         <v>99</v>
       </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
       <c r="J3">
-        <v>3729</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>2657</v>
+        <v>33</v>
       </c>
       <c r="L3">
-        <v>1976</v>
+        <v>27</v>
       </c>
       <c r="M3">
-        <v>0.7125</v>
+        <v>0.5893</v>
       </c>
       <c r="N3">
-        <v>0.5299</v>
+        <v>0.4821</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>0.7611</v>
-      </c>
-      <c r="G4">
-        <v>0.1944</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="J4">
-        <v>2355</v>
+        <v>3745</v>
       </c>
       <c r="K4">
-        <v>1662</v>
+        <v>2696</v>
       </c>
       <c r="L4">
-        <v>1250</v>
+        <v>1908</v>
       </c>
       <c r="M4">
-        <v>0.7057</v>
+        <v>0.7199</v>
       </c>
       <c r="N4">
-        <v>0.5308</v>
+        <v>0.5095</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>0.5829</v>
-      </c>
-      <c r="G5">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J5">
-        <v>8511</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>5800</v>
+        <v>23</v>
       </c>
       <c r="L5">
-        <v>5375</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>0.6815</v>
+        <v>0.92</v>
       </c>
       <c r="N5">
-        <v>0.6315</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>52</v>
-      </c>
-      <c r="F6">
-        <v>0.8333</v>
-      </c>
-      <c r="G6">
-        <v>0.2989</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J6">
-        <v>28103</v>
+        <v>2405</v>
       </c>
       <c r="K6">
-        <v>20667</v>
+        <v>1690</v>
       </c>
       <c r="L6">
-        <v>13865</v>
+        <v>1340</v>
       </c>
       <c r="M6">
-        <v>0.7354000000000001</v>
+        <v>0.7027</v>
       </c>
       <c r="N6">
-        <v>0.4934</v>
+        <v>0.5572</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>43</v>
-      </c>
-      <c r="F7">
-        <v>0.7578</v>
-      </c>
-      <c r="G7">
-        <v>0.3359</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J7">
-        <v>14083</v>
+        <v>1625</v>
       </c>
       <c r="K7">
-        <v>10194</v>
+        <v>948</v>
       </c>
       <c r="L7">
-        <v>8373</v>
+        <v>892</v>
       </c>
       <c r="M7">
-        <v>0.7239</v>
+        <v>0.5834</v>
       </c>
       <c r="N7">
-        <v>0.5945</v>
+        <v>0.5489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>0.5648</v>
-      </c>
-      <c r="G8">
-        <v>0.2315</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J8">
-        <v>923</v>
+        <v>8917</v>
       </c>
       <c r="K8">
-        <v>646</v>
+        <v>6132</v>
       </c>
       <c r="L8">
-        <v>315</v>
+        <v>5624</v>
       </c>
       <c r="M8">
-        <v>0.6999</v>
+        <v>0.6877</v>
       </c>
       <c r="N8">
-        <v>0.3413</v>
+        <v>0.6307</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>0.8182</v>
-      </c>
-      <c r="G9">
-        <v>0.3485</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="J9">
-        <v>2425</v>
+        <v>1095</v>
       </c>
       <c r="K9">
-        <v>1716</v>
+        <v>779</v>
       </c>
       <c r="L9">
-        <v>1485</v>
+        <v>396</v>
       </c>
       <c r="M9">
-        <v>0.7076</v>
+        <v>0.7114</v>
       </c>
       <c r="N9">
-        <v>0.6124000000000001</v>
+        <v>0.3616</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.8333</v>
-      </c>
-      <c r="G10">
-        <v>0.0476</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="J10">
-        <v>762</v>
+        <v>1098</v>
       </c>
       <c r="K10">
-        <v>468</v>
+        <v>610</v>
       </c>
       <c r="L10">
-        <v>544</v>
+        <v>706</v>
       </c>
       <c r="M10">
-        <v>0.6142</v>
+        <v>0.5556</v>
       </c>
       <c r="N10">
-        <v>0.7139</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>0.7</v>
-      </c>
-      <c r="G11">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="J11">
-        <v>1000</v>
+        <v>121</v>
       </c>
       <c r="K11">
-        <v>563</v>
+        <v>62</v>
       </c>
       <c r="L11">
-        <v>621</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>0.5629999999999999</v>
+        <v>0.5124</v>
       </c>
       <c r="N11">
-        <v>0.621</v>
+        <v>0.5289</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.5185</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J12">
-        <v>3715</v>
+        <v>2441</v>
       </c>
       <c r="K12">
-        <v>2668</v>
+        <v>1732</v>
       </c>
       <c r="L12">
-        <v>1869</v>
+        <v>1543</v>
       </c>
       <c r="M12">
-        <v>0.7181999999999999</v>
+        <v>0.7095</v>
       </c>
       <c r="N12">
-        <v>0.5031</v>
+        <v>0.6321</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.3636</v>
-      </c>
-      <c r="G13">
-        <v>0.09089999999999999</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J13">
-        <v>3444</v>
+        <v>1011</v>
       </c>
       <c r="K13">
-        <v>2167</v>
+        <v>569</v>
       </c>
       <c r="L13">
-        <v>1675</v>
+        <v>632</v>
       </c>
       <c r="M13">
-        <v>0.6292</v>
+        <v>0.5628</v>
       </c>
       <c r="N13">
-        <v>0.4864</v>
+        <v>0.6251</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>0.9333</v>
-      </c>
-      <c r="G14">
-        <v>0.2667</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J14">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>0.6897</v>
+        <v>0.75</v>
       </c>
       <c r="N14">
-        <v>0.7328</v>
+        <v>0.4167</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.7272999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J15">
-        <v>2237</v>
+        <v>3462</v>
       </c>
       <c r="K15">
-        <v>1559</v>
+        <v>2179</v>
       </c>
       <c r="L15">
-        <v>1484</v>
+        <v>1707</v>
       </c>
       <c r="M15">
-        <v>0.6969</v>
+        <v>0.6294</v>
       </c>
       <c r="N15">
-        <v>0.6634</v>
+        <v>0.4931</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>0.5714</v>
-      </c>
-      <c r="G16">
-        <v>0.4286</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J16">
-        <v>1615</v>
+        <v>356</v>
       </c>
       <c r="K16">
-        <v>942</v>
+        <v>265</v>
       </c>
       <c r="L16">
-        <v>871</v>
+        <v>130</v>
       </c>
       <c r="M16">
-        <v>0.5833</v>
+        <v>0.7444</v>
       </c>
       <c r="N16">
-        <v>0.5393</v>
+        <v>0.3652</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J17">
-        <v>315</v>
+        <v>1273</v>
       </c>
       <c r="K17">
-        <v>229</v>
+        <v>745</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>755</v>
       </c>
       <c r="M17">
-        <v>0.727</v>
+        <v>0.5852</v>
       </c>
       <c r="N17">
-        <v>0.3619</v>
+        <v>0.5931</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>0.6667</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J18">
-        <v>510</v>
+        <v>10776</v>
       </c>
       <c r="K18">
-        <v>406</v>
+        <v>7551</v>
       </c>
       <c r="L18">
-        <v>177</v>
+        <v>5402</v>
       </c>
       <c r="M18">
-        <v>0.7961</v>
+        <v>0.7007</v>
       </c>
       <c r="N18">
-        <v>0.3471</v>
+        <v>0.5013</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="J19">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>0.7412</v>
+        <v>0.7049</v>
       </c>
       <c r="N19">
-        <v>0.4706</v>
+        <v>0.5738</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J20">
-        <v>1314</v>
+        <v>2249</v>
       </c>
       <c r="K20">
-        <v>787</v>
+        <v>1569</v>
       </c>
       <c r="L20">
-        <v>683</v>
+        <v>1513</v>
       </c>
       <c r="M20">
-        <v>0.5989</v>
+        <v>0.6976</v>
       </c>
       <c r="N20">
-        <v>0.5198</v>
+        <v>0.6727</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J21">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K21">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="L21">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>0.5124</v>
+        <v>0.7429</v>
       </c>
       <c r="N21">
-        <v>0.5124</v>
+        <v>0.5429</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -6106,40 +6899,34 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="J22">
-        <v>55</v>
+        <v>1409</v>
       </c>
       <c r="K22">
-        <v>32</v>
+        <v>824</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>762</v>
       </c>
       <c r="M22">
-        <v>0.5818</v>
+        <v>0.5848</v>
       </c>
       <c r="N22">
-        <v>0.4727</v>
+        <v>0.5408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6151,33 +6938,33 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>763</v>
       </c>
       <c r="K23">
-        <v>8</v>
+        <v>468</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="M23">
-        <v>0.8</v>
+        <v>0.6134</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0.7221</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6189,33 +6976,33 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J24">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="K24">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="M24">
-        <v>0.8889</v>
+        <v>0.712</v>
       </c>
       <c r="N24">
-        <v>0.4444</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6227,33 +7014,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J25">
-        <v>443</v>
+        <v>521</v>
       </c>
       <c r="K25">
-        <v>271</v>
+        <v>407</v>
       </c>
       <c r="L25">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="M25">
-        <v>0.6117</v>
+        <v>0.7812</v>
       </c>
       <c r="N25">
-        <v>0.5417999999999999</v>
+        <v>0.3685</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6265,33 +7052,33 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J26">
-        <v>18</v>
+        <v>4084</v>
       </c>
       <c r="K26">
-        <v>14</v>
+        <v>2978</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>2304</v>
       </c>
       <c r="M26">
-        <v>0.7778</v>
+        <v>0.7292</v>
       </c>
       <c r="N26">
-        <v>0.3889</v>
+        <v>0.5642</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6303,33 +7090,33 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="J27">
-        <v>1273</v>
+        <v>28447</v>
       </c>
       <c r="K27">
-        <v>745</v>
+        <v>20934</v>
       </c>
       <c r="L27">
-        <v>748</v>
+        <v>14221</v>
       </c>
       <c r="M27">
-        <v>0.5852000000000001</v>
+        <v>0.7359</v>
       </c>
       <c r="N27">
-        <v>0.5876</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6341,33 +7128,33 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J28">
-        <v>1098</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>610</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>702</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>0.5556</v>
+        <v>0.8</v>
       </c>
       <c r="N28">
-        <v>0.6393</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -6379,28 +7166,29 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J29">
-        <v>61</v>
+        <v>450</v>
       </c>
       <c r="K29">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="M29">
-        <v>0.7049</v>
+        <v>0.6133</v>
       </c>
       <c r="N29">
-        <v>0.5574</v>
+        <v>0.5556</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>